--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>['17', '46', '65', '73']</t>
+  </si>
+  <si>
+    <t>['2', '25', '72', '84']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -1176,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1641,7 +1644,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1847,7 +1850,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2053,7 +2056,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2259,7 +2262,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2465,7 +2468,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2671,7 +2674,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2752,7 +2755,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2877,7 +2880,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3083,7 +3086,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3289,7 +3292,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3701,7 +3704,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3779,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -4319,7 +4322,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5143,7 +5146,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6173,7 +6176,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6379,7 +6382,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6585,7 +6588,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6997,7 +7000,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7409,7 +7412,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7899,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
         <v>1.43</v>
@@ -8027,7 +8030,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8233,7 +8236,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8520,7 +8523,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ36">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8851,7 +8854,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9057,7 +9060,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9469,7 +9472,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9959,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
         <v>0.43</v>
@@ -10087,7 +10090,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10293,7 +10296,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10499,7 +10502,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10705,7 +10708,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10911,7 +10914,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11323,7 +11326,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11529,7 +11532,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11735,7 +11738,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12434,7 +12437,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.7</v>
@@ -12559,7 +12562,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12971,7 +12974,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13177,7 +13180,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13589,7 +13592,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13795,7 +13798,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14001,7 +14004,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14619,7 +14622,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15031,7 +15034,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15237,7 +15240,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15443,7 +15446,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15649,7 +15652,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15855,7 +15858,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15936,7 +15939,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ72">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16061,7 +16064,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16267,7 +16270,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16473,7 +16476,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16963,7 +16966,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ77">
         <v>1.43</v>
@@ -17091,7 +17094,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17297,7 +17300,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17709,7 +17712,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18121,7 +18124,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18327,7 +18330,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18945,7 +18948,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19151,7 +19154,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19563,7 +19566,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19975,7 +19978,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20053,7 +20056,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ92">
         <v>1.43</v>
@@ -20262,7 +20265,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.74</v>
@@ -20387,7 +20390,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20593,7 +20596,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20799,7 +20802,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21005,7 +21008,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21417,7 +21420,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21829,7 +21832,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22035,7 +22038,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22447,7 +22450,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22859,7 +22862,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23477,7 +23480,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23683,7 +23686,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23889,7 +23892,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24095,7 +24098,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24507,7 +24510,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24713,7 +24716,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24919,7 +24922,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25125,7 +25128,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25331,7 +25334,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25537,7 +25540,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25743,7 +25746,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25949,7 +25952,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26155,7 +26158,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26361,7 +26364,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26442,7 +26445,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ123">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.47</v>
@@ -26567,7 +26570,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26773,7 +26776,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27185,7 +27188,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27391,7 +27394,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27469,7 +27472,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ128">
         <v>1.57</v>
@@ -27803,7 +27806,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28009,7 +28012,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28421,7 +28424,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29039,7 +29042,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -30226,6 +30229,212 @@
       </c>
       <c r="BP141">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7465545</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45610.875</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>80</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>4</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>186</v>
+      </c>
+      <c r="P142" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q142">
+        <v>2</v>
+      </c>
+      <c r="R142">
+        <v>2.35</v>
+      </c>
+      <c r="S142">
+        <v>5.25</v>
+      </c>
+      <c r="T142">
+        <v>1.3</v>
+      </c>
+      <c r="U142">
+        <v>3.2</v>
+      </c>
+      <c r="V142">
+        <v>2.35</v>
+      </c>
+      <c r="W142">
+        <v>1.53</v>
+      </c>
+      <c r="X142">
+        <v>5.2</v>
+      </c>
+      <c r="Y142">
+        <v>1.14</v>
+      </c>
+      <c r="Z142">
+        <v>1.53</v>
+      </c>
+      <c r="AA142">
+        <v>4.2</v>
+      </c>
+      <c r="AB142">
+        <v>5.5</v>
+      </c>
+      <c r="AC142">
+        <v>1.04</v>
+      </c>
+      <c r="AD142">
+        <v>10</v>
+      </c>
+      <c r="AE142">
+        <v>1.2</v>
+      </c>
+      <c r="AF142">
+        <v>4.33</v>
+      </c>
+      <c r="AG142">
+        <v>1.62</v>
+      </c>
+      <c r="AH142">
+        <v>2.25</v>
+      </c>
+      <c r="AI142">
+        <v>1.62</v>
+      </c>
+      <c r="AJ142">
+        <v>2.1</v>
+      </c>
+      <c r="AK142">
+        <v>1.14</v>
+      </c>
+      <c r="AL142">
+        <v>1.18</v>
+      </c>
+      <c r="AM142">
+        <v>2.4</v>
+      </c>
+      <c r="AN142">
+        <v>1.17</v>
+      </c>
+      <c r="AO142">
+        <v>1.17</v>
+      </c>
+      <c r="AP142">
+        <v>1.43</v>
+      </c>
+      <c r="AQ142">
+        <v>1</v>
+      </c>
+      <c r="AR142">
+        <v>1.74</v>
+      </c>
+      <c r="AS142">
+        <v>1.36</v>
+      </c>
+      <c r="AT142">
+        <v>3.1</v>
+      </c>
+      <c r="AU142">
+        <v>8</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>5</v>
+      </c>
+      <c r="AX142">
+        <v>3</v>
+      </c>
+      <c r="AY142">
+        <v>16</v>
+      </c>
+      <c r="AZ142">
+        <v>11</v>
+      </c>
+      <c r="BA142">
+        <v>5</v>
+      </c>
+      <c r="BB142">
+        <v>4</v>
+      </c>
+      <c r="BC142">
+        <v>9</v>
+      </c>
+      <c r="BD142">
+        <v>1.29</v>
+      </c>
+      <c r="BE142">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF142">
+        <v>4.15</v>
+      </c>
+      <c r="BG142">
+        <v>1.16</v>
+      </c>
+      <c r="BH142">
+        <v>4.3</v>
+      </c>
+      <c r="BI142">
+        <v>1.27</v>
+      </c>
+      <c r="BJ142">
+        <v>3.04</v>
+      </c>
+      <c r="BK142">
+        <v>1.56</v>
+      </c>
+      <c r="BL142">
+        <v>2.36</v>
+      </c>
+      <c r="BM142">
+        <v>1.94</v>
+      </c>
+      <c r="BN142">
+        <v>1.86</v>
+      </c>
+      <c r="BO142">
+        <v>2.43</v>
+      </c>
+      <c r="BP142">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>['2', '25', '72', '84']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -1179,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ2">
         <v>1.43</v>
@@ -1644,7 +1647,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1850,7 +1853,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2056,7 +2059,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2262,7 +2265,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2468,7 +2471,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2674,7 +2677,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2880,7 +2883,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3086,7 +3089,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3292,7 +3295,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3704,7 +3707,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4322,7 +4325,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5146,7 +5149,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5433,7 +5436,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ21">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6051,7 +6054,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ24">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>2.49</v>
@@ -6176,7 +6179,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6382,7 +6385,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6588,7 +6591,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6666,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ27">
         <v>1.29</v>
@@ -7000,7 +7003,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7412,7 +7415,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8030,7 +8033,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8236,7 +8239,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8854,7 +8857,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9060,7 +9063,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9472,7 +9475,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9965,7 +9968,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.9</v>
@@ -10090,7 +10093,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10296,7 +10299,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10502,7 +10505,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10708,7 +10711,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10914,7 +10917,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11198,7 +11201,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ49">
         <v>1.43</v>
@@ -11326,7 +11329,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11532,7 +11535,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11738,7 +11741,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12562,7 +12565,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12974,7 +12977,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13180,7 +13183,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13592,7 +13595,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13798,7 +13801,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14004,7 +14007,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14622,7 +14625,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14909,7 +14912,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ67">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR67">
         <v>1.6</v>
@@ -15034,7 +15037,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15240,7 +15243,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15446,7 +15449,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15652,7 +15655,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15858,7 +15861,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16064,7 +16067,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16270,7 +16273,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16476,7 +16479,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16760,7 +16763,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ76">
         <v>0.88</v>
@@ -17094,7 +17097,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17300,7 +17303,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17712,7 +17715,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18124,7 +18127,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18330,7 +18333,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18948,7 +18951,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19154,7 +19157,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19235,7 +19238,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ88">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR88">
         <v>1.89</v>
@@ -19566,7 +19569,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19978,7 +19981,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20390,7 +20393,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20596,7 +20599,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20802,7 +20805,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21008,7 +21011,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21420,7 +21423,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21498,7 +21501,7 @@
         <v>2.25</v>
       </c>
       <c r="AP99">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ99">
         <v>2.5</v>
@@ -21832,7 +21835,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21913,7 +21916,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ101">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.83</v>
@@ -22038,7 +22041,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22450,7 +22453,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22862,7 +22865,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23480,7 +23483,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23686,7 +23689,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23892,7 +23895,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24098,7 +24101,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24510,7 +24513,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24716,7 +24719,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24922,7 +24925,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25128,7 +25131,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25334,7 +25337,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25540,7 +25543,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25746,7 +25749,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25952,7 +25955,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26158,7 +26161,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26364,7 +26367,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26570,7 +26573,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26776,7 +26779,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -26854,7 +26857,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ125">
         <v>1.5</v>
@@ -27188,7 +27191,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27394,7 +27397,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27806,7 +27809,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27887,7 +27890,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ130">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR130">
         <v>1.33</v>
@@ -28012,7 +28015,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28424,7 +28427,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29042,7 +29045,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -30383,7 +30386,7 @@
         <v>3</v>
       </c>
       <c r="AY142">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ142">
         <v>11</v>
@@ -30435,6 +30438,212 @@
       </c>
       <c r="BP142">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7465546</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45613.4375</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>70</v>
+      </c>
+      <c r="H143" t="s">
+        <v>73</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>187</v>
+      </c>
+      <c r="P143" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q143">
+        <v>2.8</v>
+      </c>
+      <c r="R143">
+        <v>2.3</v>
+      </c>
+      <c r="S143">
+        <v>3.5</v>
+      </c>
+      <c r="T143">
+        <v>1.28</v>
+      </c>
+      <c r="U143">
+        <v>3.4</v>
+      </c>
+      <c r="V143">
+        <v>2.34</v>
+      </c>
+      <c r="W143">
+        <v>1.54</v>
+      </c>
+      <c r="X143">
+        <v>5.4</v>
+      </c>
+      <c r="Y143">
+        <v>1.12</v>
+      </c>
+      <c r="Z143">
+        <v>2.2</v>
+      </c>
+      <c r="AA143">
+        <v>3.6</v>
+      </c>
+      <c r="AB143">
+        <v>3.1</v>
+      </c>
+      <c r="AC143">
+        <v>1.02</v>
+      </c>
+      <c r="AD143">
+        <v>17</v>
+      </c>
+      <c r="AE143">
+        <v>1.18</v>
+      </c>
+      <c r="AF143">
+        <v>4.75</v>
+      </c>
+      <c r="AG143">
+        <v>1.6</v>
+      </c>
+      <c r="AH143">
+        <v>2.3</v>
+      </c>
+      <c r="AI143">
+        <v>1.52</v>
+      </c>
+      <c r="AJ143">
+        <v>2.5</v>
+      </c>
+      <c r="AK143">
+        <v>1.38</v>
+      </c>
+      <c r="AL143">
+        <v>1.22</v>
+      </c>
+      <c r="AM143">
+        <v>1.68</v>
+      </c>
+      <c r="AN143">
+        <v>0.83</v>
+      </c>
+      <c r="AO143">
+        <v>0.43</v>
+      </c>
+      <c r="AP143">
+        <v>0.86</v>
+      </c>
+      <c r="AQ143">
+        <v>0.5</v>
+      </c>
+      <c r="AR143">
+        <v>1.29</v>
+      </c>
+      <c r="AS143">
+        <v>1.21</v>
+      </c>
+      <c r="AT143">
+        <v>2.5</v>
+      </c>
+      <c r="AU143">
+        <v>4</v>
+      </c>
+      <c r="AV143">
+        <v>3</v>
+      </c>
+      <c r="AW143">
+        <v>4</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>12</v>
+      </c>
+      <c r="AZ143">
+        <v>9</v>
+      </c>
+      <c r="BA143">
+        <v>4</v>
+      </c>
+      <c r="BB143">
+        <v>4</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>1.78</v>
+      </c>
+      <c r="BE143">
+        <v>6</v>
+      </c>
+      <c r="BF143">
+        <v>2.52</v>
+      </c>
+      <c r="BG143">
+        <v>1.16</v>
+      </c>
+      <c r="BH143">
+        <v>4.5</v>
+      </c>
+      <c r="BI143">
+        <v>1.35</v>
+      </c>
+      <c r="BJ143">
+        <v>2.9</v>
+      </c>
+      <c r="BK143">
+        <v>1.62</v>
+      </c>
+      <c r="BL143">
+        <v>2.12</v>
+      </c>
+      <c r="BM143">
+        <v>2.08</v>
+      </c>
+      <c r="BN143">
+        <v>1.65</v>
+      </c>
+      <c r="BO143">
+        <v>2.78</v>
+      </c>
+      <c r="BP143">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -30454,7 +30454,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45613.4375</v>
+        <v>45612.875</v>
       </c>
       <c r="F143">
         <v>15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -577,7 +577,7 @@
     <t>['2', '25', '72', '84']</t>
   </si>
   <si>
-    <t>['88']</t>
+    <t>['89']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -30248,7 +30248,7 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45610.875</v>
+        <v>45611.66666666666</v>
       </c>
       <c r="F142">
         <v>15</v>
@@ -30374,22 +30374,22 @@
         <v>3.1</v>
       </c>
       <c r="AU142">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV142">
         <v>3</v>
       </c>
       <c r="AW142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX142">
         <v>3</v>
       </c>
       <c r="AY142">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AZ142">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA142">
         <v>5</v>
@@ -30454,7 +30454,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45612.875</v>
+        <v>45613.4375</v>
       </c>
       <c r="F143">
         <v>15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,24 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['54', '73']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['20', '64', '90+2']</t>
+  </si>
+  <si>
+    <t>['47', '54', '77']</t>
+  </si>
+  <si>
+    <t>['37', '39', '42', '45']</t>
+  </si>
+  <si>
+    <t>['47', '59', '90+5']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -599,9 +617,6 @@
   </si>
   <si>
     <t>['36', '52', '60']</t>
-  </si>
-  <si>
-    <t>['32']</t>
   </si>
   <si>
     <t>['85', '90+5']</t>
@@ -821,6 +836,30 @@
   </si>
   <si>
     <t>['12', '19']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['4', '20', '27', '42']</t>
+  </si>
+  <si>
+    <t>['20', '64']</t>
+  </si>
+  <si>
+    <t>['14', '15', '37', '42', '82', '90+3']</t>
+  </si>
+  <si>
+    <t>['63', '86', '89']</t>
+  </si>
+  <si>
+    <t>['5', '24', '49', '88']</t>
+  </si>
+  <si>
+    <t>['34', '42', '68']</t>
+  </si>
+  <si>
+    <t>['28', '34', '41']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1647,7 +1686,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1728,7 +1767,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ3">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1853,7 +1892,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1931,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>0.57</v>
@@ -2059,7 +2098,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2137,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2265,7 +2304,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2346,7 +2385,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2471,7 +2510,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2549,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2677,7 +2716,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2883,7 +2922,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2961,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3089,7 +3128,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3170,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3295,7 +3334,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3373,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ11">
         <v>1.29</v>
@@ -3579,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ12">
         <v>1.14</v>
@@ -3707,7 +3746,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3788,7 +3827,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3994,7 +4033,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4325,7 +4364,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4403,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4609,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ17">
         <v>1.43</v>
@@ -4818,7 +4857,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5149,7 +5188,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5230,7 +5269,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ20">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5433,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5642,7 +5681,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ22">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -6051,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -6179,7 +6218,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6257,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ25">
         <v>0.57</v>
@@ -6385,7 +6424,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6466,7 +6505,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -6591,7 +6630,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6875,10 +6914,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -7003,7 +7042,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7081,10 +7120,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7290,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -7415,7 +7454,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7493,10 +7532,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -7699,10 +7738,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -8033,7 +8072,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8111,7 +8150,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8239,7 +8278,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8317,10 +8356,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ35">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR35">
         <v>0.8</v>
@@ -8523,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8732,7 +8771,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ37">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -8857,7 +8896,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8938,7 +8977,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>1.6</v>
@@ -9063,7 +9102,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9141,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39">
         <v>1.43</v>
@@ -9350,7 +9389,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9475,7 +9514,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9759,10 +9798,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10093,7 +10132,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10299,7 +10338,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10377,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ45">
         <v>0.57</v>
@@ -10505,7 +10544,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10711,7 +10750,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10917,7 +10956,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10995,10 +11034,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.9</v>
@@ -11204,7 +11243,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ49">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11329,7 +11368,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11407,7 +11446,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ50">
         <v>2.29</v>
@@ -11535,7 +11574,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11616,7 +11655,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11741,7 +11780,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11822,7 +11861,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ52">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12025,10 +12064,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR53">
         <v>2.41</v>
@@ -12234,7 +12273,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.99</v>
@@ -12565,7 +12604,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12849,10 +12888,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR57">
         <v>1.47</v>
@@ -12977,7 +13016,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13055,7 +13094,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ58">
         <v>1.43</v>
@@ -13183,7 +13222,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13261,10 +13300,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
         <v>1.91</v>
@@ -13470,7 +13509,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ60">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>1.64</v>
@@ -13595,7 +13634,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13673,7 +13712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61">
         <v>1.43</v>
@@ -13801,7 +13840,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13879,7 +13918,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -14007,7 +14046,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14085,10 +14124,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14291,10 +14330,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR64">
         <v>2.12</v>
@@ -14500,7 +14539,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14625,7 +14664,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14706,7 +14745,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -15037,7 +15076,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15115,7 +15154,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ68">
         <v>1.29</v>
@@ -15243,7 +15282,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15324,7 +15363,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15449,7 +15488,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15655,7 +15694,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15733,10 +15772,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ71">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR71">
         <v>1.34</v>
@@ -15861,7 +15900,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16067,7 +16106,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16145,10 +16184,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16273,7 +16312,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16479,7 +16518,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16766,7 +16805,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ76">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -17097,7 +17136,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17175,7 +17214,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ78">
         <v>1.14</v>
@@ -17303,7 +17342,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17384,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17587,10 +17626,10 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ80">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.68</v>
@@ -17715,7 +17754,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17793,7 +17832,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ81">
         <v>2.29</v>
@@ -17999,10 +18038,10 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ82">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR82">
         <v>1.76</v>
@@ -18127,7 +18166,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18205,10 +18244,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ83">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18333,7 +18372,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18414,7 +18453,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -18620,7 +18659,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ85">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR85">
         <v>1.66</v>
@@ -18823,10 +18862,10 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -18951,7 +18990,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19032,7 +19071,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR87">
         <v>1.95</v>
@@ -19157,7 +19196,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19569,7 +19608,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19647,7 +19686,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ90">
         <v>1.43</v>
@@ -19853,7 +19892,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>1.29</v>
@@ -19981,7 +20020,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20265,7 +20304,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20393,7 +20432,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20599,7 +20638,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20677,10 +20716,10 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR95">
         <v>1.66</v>
@@ -20805,7 +20844,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20886,7 +20925,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -21011,7 +21050,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21092,7 +21131,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR97">
         <v>1.77</v>
@@ -21295,7 +21334,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ98">
         <v>0.57</v>
@@ -21423,7 +21462,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21504,7 +21543,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ99">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -21707,7 +21746,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ100">
         <v>1.14</v>
@@ -21835,7 +21874,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22041,7 +22080,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22119,7 +22158,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22328,7 +22367,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22453,7 +22492,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22531,10 +22570,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ104">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -22737,10 +22776,10 @@
         <v>1.25</v>
       </c>
       <c r="AP105">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -22865,7 +22904,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22943,10 +22982,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23152,7 +23191,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR107">
         <v>1.77</v>
@@ -23358,7 +23397,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR108">
         <v>1.82</v>
@@ -23483,7 +23522,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23561,7 +23600,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ109">
         <v>1.43</v>
@@ -23689,7 +23728,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23895,7 +23934,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24101,7 +24140,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24513,7 +24552,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24594,7 +24633,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24719,7 +24758,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24925,7 +24964,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25131,7 +25170,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25209,7 +25248,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25337,7 +25376,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25415,7 +25454,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ118">
         <v>1.43</v>
@@ -25543,7 +25582,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25624,7 +25663,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ119">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR119">
         <v>1.83</v>
@@ -25749,7 +25788,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25830,7 +25869,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR120">
         <v>1.79</v>
@@ -25955,7 +25994,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26033,7 +26072,7 @@
         <v>2.6</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
         <v>2.29</v>
@@ -26161,7 +26200,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26242,7 +26281,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR122">
         <v>1.92</v>
@@ -26367,7 +26406,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26445,7 +26484,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26573,7 +26612,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26651,10 +26690,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ124">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -26779,7 +26818,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -26860,7 +26899,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ125">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR125">
         <v>1.31</v>
@@ -27063,10 +27102,10 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ126">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR126">
         <v>1.62</v>
@@ -27191,7 +27230,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27269,10 +27308,10 @@
         <v>0.86</v>
       </c>
       <c r="AP127">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR127">
         <v>1.8</v>
@@ -27397,7 +27436,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27478,7 +27517,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ128">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -27681,10 +27720,10 @@
         <v>1.33</v>
       </c>
       <c r="AP129">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR129">
         <v>1.74</v>
@@ -27809,7 +27848,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27887,7 +27926,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ130">
         <v>0.5</v>
@@ -28015,7 +28054,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28093,10 +28132,10 @@
         <v>2.4</v>
       </c>
       <c r="AP131">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ131">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -28299,7 +28338,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>1.43</v>
@@ -28427,7 +28466,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28505,7 +28544,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ133">
         <v>1.43</v>
@@ -29045,7 +29084,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29332,7 +29371,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -29950,7 +29989,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
         <v>1.77</v>
@@ -30487,7 +30526,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30644,6 +30683,2066 @@
       </c>
       <c r="BP143">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7465556</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>73</v>
+      </c>
+      <c r="H144" t="s">
+        <v>86</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>188</v>
+      </c>
+      <c r="P144" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q144">
+        <v>3.75</v>
+      </c>
+      <c r="R144">
+        <v>2.38</v>
+      </c>
+      <c r="S144">
+        <v>2.5</v>
+      </c>
+      <c r="T144">
+        <v>1.29</v>
+      </c>
+      <c r="U144">
+        <v>3.5</v>
+      </c>
+      <c r="V144">
+        <v>2.38</v>
+      </c>
+      <c r="W144">
+        <v>1.53</v>
+      </c>
+      <c r="X144">
+        <v>5.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.14</v>
+      </c>
+      <c r="Z144">
+        <v>3.3</v>
+      </c>
+      <c r="AA144">
+        <v>3.75</v>
+      </c>
+      <c r="AB144">
+        <v>1.95</v>
+      </c>
+      <c r="AC144">
+        <v>1.04</v>
+      </c>
+      <c r="AD144">
+        <v>10</v>
+      </c>
+      <c r="AE144">
+        <v>1.18</v>
+      </c>
+      <c r="AF144">
+        <v>4.75</v>
+      </c>
+      <c r="AG144">
+        <v>1.57</v>
+      </c>
+      <c r="AH144">
+        <v>2.35</v>
+      </c>
+      <c r="AI144">
+        <v>1.53</v>
+      </c>
+      <c r="AJ144">
+        <v>2.38</v>
+      </c>
+      <c r="AK144">
+        <v>1.8</v>
+      </c>
+      <c r="AL144">
+        <v>1.22</v>
+      </c>
+      <c r="AM144">
+        <v>1.3</v>
+      </c>
+      <c r="AN144">
+        <v>1.29</v>
+      </c>
+      <c r="AO144">
+        <v>1.43</v>
+      </c>
+      <c r="AP144">
+        <v>1.5</v>
+      </c>
+      <c r="AQ144">
+        <v>1.25</v>
+      </c>
+      <c r="AR144">
+        <v>1.68</v>
+      </c>
+      <c r="AS144">
+        <v>1.38</v>
+      </c>
+      <c r="AT144">
+        <v>3.06</v>
+      </c>
+      <c r="AU144">
+        <v>6</v>
+      </c>
+      <c r="AV144">
+        <v>6</v>
+      </c>
+      <c r="AW144">
+        <v>6</v>
+      </c>
+      <c r="AX144">
+        <v>6</v>
+      </c>
+      <c r="AY144">
+        <v>17</v>
+      </c>
+      <c r="AZ144">
+        <v>14</v>
+      </c>
+      <c r="BA144">
+        <v>6</v>
+      </c>
+      <c r="BB144">
+        <v>3</v>
+      </c>
+      <c r="BC144">
+        <v>9</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>0</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>0</v>
+      </c>
+      <c r="BJ144">
+        <v>0</v>
+      </c>
+      <c r="BK144">
+        <v>0</v>
+      </c>
+      <c r="BL144">
+        <v>0</v>
+      </c>
+      <c r="BM144">
+        <v>0</v>
+      </c>
+      <c r="BN144">
+        <v>0</v>
+      </c>
+      <c r="BO144">
+        <v>0</v>
+      </c>
+      <c r="BP144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7465554</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>79</v>
+      </c>
+      <c r="H145" t="s">
+        <v>88</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>4</v>
+      </c>
+      <c r="K145">
+        <v>4</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>4</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>143</v>
+      </c>
+      <c r="P145" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145">
+        <v>2.5</v>
+      </c>
+      <c r="S145">
+        <v>2.3</v>
+      </c>
+      <c r="T145">
+        <v>1.25</v>
+      </c>
+      <c r="U145">
+        <v>3.75</v>
+      </c>
+      <c r="V145">
+        <v>2.1</v>
+      </c>
+      <c r="W145">
+        <v>1.67</v>
+      </c>
+      <c r="X145">
+        <v>4.5</v>
+      </c>
+      <c r="Y145">
+        <v>1.18</v>
+      </c>
+      <c r="Z145">
+        <v>3.5</v>
+      </c>
+      <c r="AA145">
+        <v>4.33</v>
+      </c>
+      <c r="AB145">
+        <v>1.75</v>
+      </c>
+      <c r="AC145">
+        <v>1.01</v>
+      </c>
+      <c r="AD145">
+        <v>17</v>
+      </c>
+      <c r="AE145">
+        <v>1.12</v>
+      </c>
+      <c r="AF145">
+        <v>5.75</v>
+      </c>
+      <c r="AG145">
+        <v>1.44</v>
+      </c>
+      <c r="AH145">
+        <v>2.7</v>
+      </c>
+      <c r="AI145">
+        <v>1.44</v>
+      </c>
+      <c r="AJ145">
+        <v>2.63</v>
+      </c>
+      <c r="AK145">
+        <v>1.95</v>
+      </c>
+      <c r="AL145">
+        <v>1.18</v>
+      </c>
+      <c r="AM145">
+        <v>1.25</v>
+      </c>
+      <c r="AN145">
+        <v>0.33</v>
+      </c>
+      <c r="AO145">
+        <v>1.57</v>
+      </c>
+      <c r="AP145">
+        <v>0.29</v>
+      </c>
+      <c r="AQ145">
+        <v>1.75</v>
+      </c>
+      <c r="AR145">
+        <v>1.6</v>
+      </c>
+      <c r="AS145">
+        <v>1.64</v>
+      </c>
+      <c r="AT145">
+        <v>3.24</v>
+      </c>
+      <c r="AU145">
+        <v>5</v>
+      </c>
+      <c r="AV145">
+        <v>9</v>
+      </c>
+      <c r="AW145">
+        <v>9</v>
+      </c>
+      <c r="AX145">
+        <v>10</v>
+      </c>
+      <c r="AY145">
+        <v>16</v>
+      </c>
+      <c r="AZ145">
+        <v>26</v>
+      </c>
+      <c r="BA145">
+        <v>4</v>
+      </c>
+      <c r="BB145">
+        <v>6</v>
+      </c>
+      <c r="BC145">
+        <v>10</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>0</v>
+      </c>
+      <c r="BG145">
+        <v>0</v>
+      </c>
+      <c r="BH145">
+        <v>0</v>
+      </c>
+      <c r="BI145">
+        <v>0</v>
+      </c>
+      <c r="BJ145">
+        <v>0</v>
+      </c>
+      <c r="BK145">
+        <v>0</v>
+      </c>
+      <c r="BL145">
+        <v>0</v>
+      </c>
+      <c r="BM145">
+        <v>0</v>
+      </c>
+      <c r="BN145">
+        <v>0</v>
+      </c>
+      <c r="BO145">
+        <v>0</v>
+      </c>
+      <c r="BP145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7465558</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F146">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>80</v>
+      </c>
+      <c r="H146" t="s">
+        <v>71</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>93</v>
+      </c>
+      <c r="P146" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q146">
+        <v>4</v>
+      </c>
+      <c r="R146">
+        <v>2.38</v>
+      </c>
+      <c r="S146">
+        <v>2.5</v>
+      </c>
+      <c r="T146">
+        <v>1.3</v>
+      </c>
+      <c r="U146">
+        <v>3.4</v>
+      </c>
+      <c r="V146">
+        <v>2.5</v>
+      </c>
+      <c r="W146">
+        <v>1.5</v>
+      </c>
+      <c r="X146">
+        <v>6</v>
+      </c>
+      <c r="Y146">
+        <v>1.13</v>
+      </c>
+      <c r="Z146">
+        <v>3.5</v>
+      </c>
+      <c r="AA146">
+        <v>3.6</v>
+      </c>
+      <c r="AB146">
+        <v>1.91</v>
+      </c>
+      <c r="AC146">
+        <v>1.04</v>
+      </c>
+      <c r="AD146">
+        <v>10</v>
+      </c>
+      <c r="AE146">
+        <v>1.2</v>
+      </c>
+      <c r="AF146">
+        <v>4.33</v>
+      </c>
+      <c r="AG146">
+        <v>1.62</v>
+      </c>
+      <c r="AH146">
+        <v>2.25</v>
+      </c>
+      <c r="AI146">
+        <v>1.57</v>
+      </c>
+      <c r="AJ146">
+        <v>2.25</v>
+      </c>
+      <c r="AK146">
+        <v>1.8</v>
+      </c>
+      <c r="AL146">
+        <v>1.22</v>
+      </c>
+      <c r="AM146">
+        <v>1.28</v>
+      </c>
+      <c r="AN146">
+        <v>0.5</v>
+      </c>
+      <c r="AO146">
+        <v>2.5</v>
+      </c>
+      <c r="AP146">
+        <v>0.44</v>
+      </c>
+      <c r="AQ146">
+        <v>2.57</v>
+      </c>
+      <c r="AR146">
+        <v>1.65</v>
+      </c>
+      <c r="AS146">
+        <v>1.83</v>
+      </c>
+      <c r="AT146">
+        <v>3.48</v>
+      </c>
+      <c r="AU146">
+        <v>8</v>
+      </c>
+      <c r="AV146">
+        <v>7</v>
+      </c>
+      <c r="AW146">
+        <v>8</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>23</v>
+      </c>
+      <c r="AZ146">
+        <v>11</v>
+      </c>
+      <c r="BA146">
+        <v>3</v>
+      </c>
+      <c r="BB146">
+        <v>3</v>
+      </c>
+      <c r="BC146">
+        <v>6</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>0</v>
+      </c>
+      <c r="BG146">
+        <v>0</v>
+      </c>
+      <c r="BH146">
+        <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>0</v>
+      </c>
+      <c r="BJ146">
+        <v>0</v>
+      </c>
+      <c r="BK146">
+        <v>0</v>
+      </c>
+      <c r="BL146">
+        <v>0</v>
+      </c>
+      <c r="BM146">
+        <v>0</v>
+      </c>
+      <c r="BN146">
+        <v>0</v>
+      </c>
+      <c r="BO146">
+        <v>0</v>
+      </c>
+      <c r="BP146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7465557</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s">
+        <v>87</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>4</v>
+      </c>
+      <c r="K147">
+        <v>4</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>6</v>
+      </c>
+      <c r="N147">
+        <v>6</v>
+      </c>
+      <c r="O147" t="s">
+        <v>93</v>
+      </c>
+      <c r="P147" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q147">
+        <v>3.6</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
+        <v>3</v>
+      </c>
+      <c r="T147">
+        <v>1.4</v>
+      </c>
+      <c r="U147">
+        <v>2.75</v>
+      </c>
+      <c r="V147">
+        <v>3</v>
+      </c>
+      <c r="W147">
+        <v>1.36</v>
+      </c>
+      <c r="X147">
+        <v>8</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>2.7</v>
+      </c>
+      <c r="AA147">
+        <v>3.8</v>
+      </c>
+      <c r="AB147">
+        <v>2.2</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
+        <v>9.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.28</v>
+      </c>
+      <c r="AF147">
+        <v>3.5</v>
+      </c>
+      <c r="AG147">
+        <v>1.95</v>
+      </c>
+      <c r="AH147">
+        <v>1.85</v>
+      </c>
+      <c r="AI147">
+        <v>1.83</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
+        <v>1.55</v>
+      </c>
+      <c r="AL147">
+        <v>1.22</v>
+      </c>
+      <c r="AM147">
+        <v>1.48</v>
+      </c>
+      <c r="AN147">
+        <v>0.57</v>
+      </c>
+      <c r="AO147">
+        <v>2.14</v>
+      </c>
+      <c r="AP147">
+        <v>0.5</v>
+      </c>
+      <c r="AQ147">
+        <v>2.25</v>
+      </c>
+      <c r="AR147">
+        <v>1.58</v>
+      </c>
+      <c r="AS147">
+        <v>1.94</v>
+      </c>
+      <c r="AT147">
+        <v>3.52</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>12</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>5</v>
+      </c>
+      <c r="AY147">
+        <v>11</v>
+      </c>
+      <c r="AZ147">
+        <v>18</v>
+      </c>
+      <c r="BA147">
+        <v>3</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>3</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>0</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>0</v>
+      </c>
+      <c r="BJ147">
+        <v>0</v>
+      </c>
+      <c r="BK147">
+        <v>0</v>
+      </c>
+      <c r="BL147">
+        <v>0</v>
+      </c>
+      <c r="BM147">
+        <v>0</v>
+      </c>
+      <c r="BN147">
+        <v>0</v>
+      </c>
+      <c r="BO147">
+        <v>0</v>
+      </c>
+      <c r="BP147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7465553</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>84</v>
+      </c>
+      <c r="H148" t="s">
+        <v>82</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148" t="s">
+        <v>189</v>
+      </c>
+      <c r="P148" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q148">
+        <v>3.75</v>
+      </c>
+      <c r="R148">
+        <v>2.25</v>
+      </c>
+      <c r="S148">
+        <v>2.75</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3.25</v>
+      </c>
+      <c r="V148">
+        <v>2.63</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>6.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>3.1</v>
+      </c>
+      <c r="AA148">
+        <v>3.6</v>
+      </c>
+      <c r="AB148">
+        <v>2.05</v>
+      </c>
+      <c r="AC148">
+        <v>1.04</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.22</v>
+      </c>
+      <c r="AF148">
+        <v>4.2</v>
+      </c>
+      <c r="AG148">
+        <v>1.7</v>
+      </c>
+      <c r="AH148">
+        <v>2.1</v>
+      </c>
+      <c r="AI148">
+        <v>1.62</v>
+      </c>
+      <c r="AJ148">
+        <v>2.2</v>
+      </c>
+      <c r="AK148">
+        <v>1.7</v>
+      </c>
+      <c r="AL148">
+        <v>1.22</v>
+      </c>
+      <c r="AM148">
+        <v>1.33</v>
+      </c>
+      <c r="AN148">
+        <v>0.57</v>
+      </c>
+      <c r="AO148">
+        <v>0.88</v>
+      </c>
+      <c r="AP148">
+        <v>0.5</v>
+      </c>
+      <c r="AQ148">
+        <v>1.11</v>
+      </c>
+      <c r="AR148">
+        <v>1.46</v>
+      </c>
+      <c r="AS148">
+        <v>1.66</v>
+      </c>
+      <c r="AT148">
+        <v>3.12</v>
+      </c>
+      <c r="AU148">
+        <v>8</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>1</v>
+      </c>
+      <c r="AX148">
+        <v>6</v>
+      </c>
+      <c r="AY148">
+        <v>10</v>
+      </c>
+      <c r="AZ148">
+        <v>20</v>
+      </c>
+      <c r="BA148">
+        <v>5</v>
+      </c>
+      <c r="BB148">
+        <v>8</v>
+      </c>
+      <c r="BC148">
+        <v>13</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>0</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>0</v>
+      </c>
+      <c r="BI148">
+        <v>0</v>
+      </c>
+      <c r="BJ148">
+        <v>0</v>
+      </c>
+      <c r="BK148">
+        <v>0</v>
+      </c>
+      <c r="BL148">
+        <v>0</v>
+      </c>
+      <c r="BM148">
+        <v>0</v>
+      </c>
+      <c r="BN148">
+        <v>0</v>
+      </c>
+      <c r="BO148">
+        <v>0</v>
+      </c>
+      <c r="BP148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7465551</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H149" t="s">
+        <v>81</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>190</v>
+      </c>
+      <c r="P149" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q149">
+        <v>3.75</v>
+      </c>
+      <c r="R149">
+        <v>2.25</v>
+      </c>
+      <c r="S149">
+        <v>2.63</v>
+      </c>
+      <c r="T149">
+        <v>1.36</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149">
+        <v>2.63</v>
+      </c>
+      <c r="W149">
+        <v>1.44</v>
+      </c>
+      <c r="X149">
+        <v>7</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>3.25</v>
+      </c>
+      <c r="AA149">
+        <v>3.6</v>
+      </c>
+      <c r="AB149">
+        <v>2</v>
+      </c>
+      <c r="AC149">
+        <v>1.05</v>
+      </c>
+      <c r="AD149">
+        <v>9.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.3</v>
+      </c>
+      <c r="AF149">
+        <v>3.45</v>
+      </c>
+      <c r="AG149">
+        <v>1.75</v>
+      </c>
+      <c r="AH149">
+        <v>2.05</v>
+      </c>
+      <c r="AI149">
+        <v>1.67</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.7</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.3</v>
+      </c>
+      <c r="AN149">
+        <v>0.43</v>
+      </c>
+      <c r="AO149">
+        <v>1.5</v>
+      </c>
+      <c r="AP149">
+        <v>0.75</v>
+      </c>
+      <c r="AQ149">
+        <v>1.33</v>
+      </c>
+      <c r="AR149">
+        <v>1.58</v>
+      </c>
+      <c r="AS149">
+        <v>1.64</v>
+      </c>
+      <c r="AT149">
+        <v>3.22</v>
+      </c>
+      <c r="AU149">
+        <v>7</v>
+      </c>
+      <c r="AV149">
+        <v>6</v>
+      </c>
+      <c r="AW149">
+        <v>4</v>
+      </c>
+      <c r="AX149">
+        <v>7</v>
+      </c>
+      <c r="AY149">
+        <v>14</v>
+      </c>
+      <c r="AZ149">
+        <v>16</v>
+      </c>
+      <c r="BA149">
+        <v>3</v>
+      </c>
+      <c r="BB149">
+        <v>5</v>
+      </c>
+      <c r="BC149">
+        <v>8</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
+        <v>0</v>
+      </c>
+      <c r="BH149">
+        <v>0</v>
+      </c>
+      <c r="BI149">
+        <v>0</v>
+      </c>
+      <c r="BJ149">
+        <v>0</v>
+      </c>
+      <c r="BK149">
+        <v>0</v>
+      </c>
+      <c r="BL149">
+        <v>0</v>
+      </c>
+      <c r="BM149">
+        <v>0</v>
+      </c>
+      <c r="BN149">
+        <v>0</v>
+      </c>
+      <c r="BO149">
+        <v>0</v>
+      </c>
+      <c r="BP149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7465550</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F150">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150" t="s">
+        <v>70</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>7</v>
+      </c>
+      <c r="O150" t="s">
+        <v>191</v>
+      </c>
+      <c r="P150" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q150">
+        <v>1.91</v>
+      </c>
+      <c r="R150">
+        <v>2.5</v>
+      </c>
+      <c r="S150">
+        <v>6.5</v>
+      </c>
+      <c r="T150">
+        <v>1.3</v>
+      </c>
+      <c r="U150">
+        <v>3.4</v>
+      </c>
+      <c r="V150">
+        <v>2.5</v>
+      </c>
+      <c r="W150">
+        <v>1.5</v>
+      </c>
+      <c r="X150">
+        <v>6</v>
+      </c>
+      <c r="Y150">
+        <v>1.13</v>
+      </c>
+      <c r="Z150">
+        <v>1.42</v>
+      </c>
+      <c r="AA150">
+        <v>5.25</v>
+      </c>
+      <c r="AB150">
+        <v>5.25</v>
+      </c>
+      <c r="AC150">
+        <v>1.03</v>
+      </c>
+      <c r="AD150">
+        <v>11</v>
+      </c>
+      <c r="AE150">
+        <v>1.2</v>
+      </c>
+      <c r="AF150">
+        <v>4.33</v>
+      </c>
+      <c r="AG150">
+        <v>1.62</v>
+      </c>
+      <c r="AH150">
+        <v>2.25</v>
+      </c>
+      <c r="AI150">
+        <v>1.83</v>
+      </c>
+      <c r="AJ150">
+        <v>1.83</v>
+      </c>
+      <c r="AK150">
+        <v>1.11</v>
+      </c>
+      <c r="AL150">
+        <v>1.14</v>
+      </c>
+      <c r="AM150">
+        <v>2.7</v>
+      </c>
+      <c r="AN150">
+        <v>1.57</v>
+      </c>
+      <c r="AO150">
+        <v>1.25</v>
+      </c>
+      <c r="AP150">
+        <v>1.38</v>
+      </c>
+      <c r="AQ150">
+        <v>1.44</v>
+      </c>
+      <c r="AR150">
+        <v>1.63</v>
+      </c>
+      <c r="AS150">
+        <v>1.13</v>
+      </c>
+      <c r="AT150">
+        <v>2.76</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>2</v>
+      </c>
+      <c r="AX150">
+        <v>6</v>
+      </c>
+      <c r="AY150">
+        <v>9</v>
+      </c>
+      <c r="AZ150">
+        <v>13</v>
+      </c>
+      <c r="BA150">
+        <v>5</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>9</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7465548</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F151">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>85</v>
+      </c>
+      <c r="H151" t="s">
+        <v>83</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>93</v>
+      </c>
+      <c r="P151" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q151">
+        <v>3.4</v>
+      </c>
+      <c r="R151">
+        <v>2.38</v>
+      </c>
+      <c r="S151">
+        <v>2.75</v>
+      </c>
+      <c r="T151">
+        <v>1.29</v>
+      </c>
+      <c r="U151">
+        <v>3.5</v>
+      </c>
+      <c r="V151">
+        <v>2.25</v>
+      </c>
+      <c r="W151">
+        <v>1.57</v>
+      </c>
+      <c r="X151">
+        <v>5.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.14</v>
+      </c>
+      <c r="Z151">
+        <v>3</v>
+      </c>
+      <c r="AA151">
+        <v>3.5</v>
+      </c>
+      <c r="AB151">
+        <v>2.15</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>13</v>
+      </c>
+      <c r="AE151">
+        <v>1.18</v>
+      </c>
+      <c r="AF151">
+        <v>4.75</v>
+      </c>
+      <c r="AG151">
+        <v>1.57</v>
+      </c>
+      <c r="AH151">
+        <v>2.35</v>
+      </c>
+      <c r="AI151">
+        <v>1.5</v>
+      </c>
+      <c r="AJ151">
+        <v>2.5</v>
+      </c>
+      <c r="AK151">
+        <v>1.55</v>
+      </c>
+      <c r="AL151">
+        <v>1.22</v>
+      </c>
+      <c r="AM151">
+        <v>1.44</v>
+      </c>
+      <c r="AN151">
+        <v>2.14</v>
+      </c>
+      <c r="AO151">
+        <v>1.57</v>
+      </c>
+      <c r="AP151">
+        <v>1.88</v>
+      </c>
+      <c r="AQ151">
+        <v>1.75</v>
+      </c>
+      <c r="AR151">
+        <v>1.8</v>
+      </c>
+      <c r="AS151">
+        <v>1.84</v>
+      </c>
+      <c r="AT151">
+        <v>3.64</v>
+      </c>
+      <c r="AU151">
+        <v>3</v>
+      </c>
+      <c r="AV151">
+        <v>8</v>
+      </c>
+      <c r="AW151">
+        <v>6</v>
+      </c>
+      <c r="AX151">
+        <v>2</v>
+      </c>
+      <c r="AY151">
+        <v>11</v>
+      </c>
+      <c r="AZ151">
+        <v>13</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>0</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>0</v>
+      </c>
+      <c r="BJ151">
+        <v>0</v>
+      </c>
+      <c r="BK151">
+        <v>0</v>
+      </c>
+      <c r="BL151">
+        <v>0</v>
+      </c>
+      <c r="BM151">
+        <v>0</v>
+      </c>
+      <c r="BN151">
+        <v>0</v>
+      </c>
+      <c r="BO151">
+        <v>0</v>
+      </c>
+      <c r="BP151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7465547</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>77</v>
+      </c>
+      <c r="H152" t="s">
+        <v>74</v>
+      </c>
+      <c r="I152">
+        <v>4</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>4</v>
+      </c>
+      <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>192</v>
+      </c>
+      <c r="P152" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q152">
+        <v>1.73</v>
+      </c>
+      <c r="R152">
+        <v>2.75</v>
+      </c>
+      <c r="S152">
+        <v>7</v>
+      </c>
+      <c r="T152">
+        <v>1.22</v>
+      </c>
+      <c r="U152">
+        <v>4</v>
+      </c>
+      <c r="V152">
+        <v>2.1</v>
+      </c>
+      <c r="W152">
+        <v>1.67</v>
+      </c>
+      <c r="X152">
+        <v>4.5</v>
+      </c>
+      <c r="Y152">
+        <v>1.18</v>
+      </c>
+      <c r="Z152">
+        <v>1.3</v>
+      </c>
+      <c r="AA152">
+        <v>5.5</v>
+      </c>
+      <c r="AB152">
+        <v>7.5</v>
+      </c>
+      <c r="AC152">
+        <v>0</v>
+      </c>
+      <c r="AD152">
+        <v>0</v>
+      </c>
+      <c r="AE152">
+        <v>1.14</v>
+      </c>
+      <c r="AF152">
+        <v>5.5</v>
+      </c>
+      <c r="AG152">
+        <v>1.44</v>
+      </c>
+      <c r="AH152">
+        <v>2.7</v>
+      </c>
+      <c r="AI152">
+        <v>1.73</v>
+      </c>
+      <c r="AJ152">
+        <v>2</v>
+      </c>
+      <c r="AK152">
+        <v>1.05</v>
+      </c>
+      <c r="AL152">
+        <v>1.14</v>
+      </c>
+      <c r="AM152">
+        <v>3.4</v>
+      </c>
+      <c r="AN152">
+        <v>2.29</v>
+      </c>
+      <c r="AO152">
+        <v>0.5</v>
+      </c>
+      <c r="AP152">
+        <v>2.38</v>
+      </c>
+      <c r="AQ152">
+        <v>0.43</v>
+      </c>
+      <c r="AR152">
+        <v>1.79</v>
+      </c>
+      <c r="AS152">
+        <v>1.03</v>
+      </c>
+      <c r="AT152">
+        <v>2.82</v>
+      </c>
+      <c r="AU152">
+        <v>13</v>
+      </c>
+      <c r="AV152">
+        <v>0</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>4</v>
+      </c>
+      <c r="AY152">
+        <v>28</v>
+      </c>
+      <c r="AZ152">
+        <v>6</v>
+      </c>
+      <c r="BA152">
+        <v>9</v>
+      </c>
+      <c r="BB152">
+        <v>5</v>
+      </c>
+      <c r="BC152">
+        <v>14</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>0</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>0</v>
+      </c>
+      <c r="BJ152">
+        <v>0</v>
+      </c>
+      <c r="BK152">
+        <v>0</v>
+      </c>
+      <c r="BL152">
+        <v>0</v>
+      </c>
+      <c r="BM152">
+        <v>0</v>
+      </c>
+      <c r="BN152">
+        <v>0</v>
+      </c>
+      <c r="BO152">
+        <v>0</v>
+      </c>
+      <c r="BP152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7465552</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153" t="s">
+        <v>76</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>3</v>
+      </c>
+      <c r="K153">
+        <v>3</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>6</v>
+      </c>
+      <c r="O153" t="s">
+        <v>193</v>
+      </c>
+      <c r="P153" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q153">
+        <v>4</v>
+      </c>
+      <c r="R153">
+        <v>2.4</v>
+      </c>
+      <c r="S153">
+        <v>2.5</v>
+      </c>
+      <c r="T153">
+        <v>1.29</v>
+      </c>
+      <c r="U153">
+        <v>3.5</v>
+      </c>
+      <c r="V153">
+        <v>2.38</v>
+      </c>
+      <c r="W153">
+        <v>1.53</v>
+      </c>
+      <c r="X153">
+        <v>5.5</v>
+      </c>
+      <c r="Y153">
+        <v>1.14</v>
+      </c>
+      <c r="Z153">
+        <v>3.5</v>
+      </c>
+      <c r="AA153">
+        <v>3.75</v>
+      </c>
+      <c r="AB153">
+        <v>1.9</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>10</v>
+      </c>
+      <c r="AE153">
+        <v>1.18</v>
+      </c>
+      <c r="AF153">
+        <v>4.75</v>
+      </c>
+      <c r="AG153">
+        <v>1.57</v>
+      </c>
+      <c r="AH153">
+        <v>2.35</v>
+      </c>
+      <c r="AI153">
+        <v>1.53</v>
+      </c>
+      <c r="AJ153">
+        <v>2.38</v>
+      </c>
+      <c r="AK153">
+        <v>1.85</v>
+      </c>
+      <c r="AL153">
+        <v>1.22</v>
+      </c>
+      <c r="AM153">
+        <v>1.28</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
+        <v>1.5</v>
+      </c>
+      <c r="AP153">
+        <v>1</v>
+      </c>
+      <c r="AQ153">
+        <v>1.43</v>
+      </c>
+      <c r="AR153">
+        <v>1.87</v>
+      </c>
+      <c r="AS153">
+        <v>1.58</v>
+      </c>
+      <c r="AT153">
+        <v>3.45</v>
+      </c>
+      <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>10</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>8</v>
+      </c>
+      <c r="AY153">
+        <v>15</v>
+      </c>
+      <c r="AZ153">
+        <v>20</v>
+      </c>
+      <c r="BA153">
+        <v>2</v>
+      </c>
+      <c r="BB153">
+        <v>1</v>
+      </c>
+      <c r="BC153">
+        <v>3</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>0</v>
+      </c>
+      <c r="BG153">
+        <v>0</v>
+      </c>
+      <c r="BH153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>0</v>
+      </c>
+      <c r="BJ153">
+        <v>0</v>
+      </c>
+      <c r="BK153">
+        <v>0</v>
+      </c>
+      <c r="BL153">
+        <v>0</v>
+      </c>
+      <c r="BM153">
+        <v>0</v>
+      </c>
+      <c r="BN153">
+        <v>0</v>
+      </c>
+      <c r="BO153">
+        <v>0</v>
+      </c>
+      <c r="BP153">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -30699,7 +30699,7 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F144">
         <v>16</v>
@@ -30905,7 +30905,7 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -31111,7 +31111,7 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F146">
         <v>16</v>
@@ -31317,7 +31317,7 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -31523,7 +31523,7 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -31729,7 +31729,7 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -31935,7 +31935,7 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F150">
         <v>16</v>
@@ -32141,7 +32141,7 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F151">
         <v>16</v>
@@ -32347,7 +32347,7 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F152">
         <v>16</v>
@@ -32553,7 +32553,7 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F153">
         <v>16</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,18 @@
     <t>['47', '59', '90+5']</t>
   </si>
   <si>
+    <t>['4', '82']</t>
+  </si>
+  <si>
+    <t>['45+2', '64']</t>
+  </si>
+  <si>
+    <t>['5', '9', '47']</t>
+  </si>
+  <si>
+    <t>['17', '42', '90+8']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -860,6 +872,9 @@
   </si>
   <si>
     <t>['28', '34', '41']</t>
+  </si>
+  <si>
+    <t>['72', '76']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1686,7 +1701,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1764,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>1.25</v>
@@ -1892,7 +1907,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2098,7 +2113,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2304,7 +2319,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2510,7 +2525,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2716,7 +2731,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2922,7 +2937,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3334,7 +3349,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3412,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ11">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3746,7 +3761,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4033,7 +4048,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4239,7 +4254,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4364,7 +4379,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4651,7 +4666,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4854,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -5188,7 +5203,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5266,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ20">
         <v>2.57</v>
@@ -5884,7 +5899,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>2.29</v>
@@ -6218,7 +6233,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6424,7 +6439,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6630,7 +6645,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6711,7 +6726,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7042,7 +7057,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7454,7 +7469,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7532,7 +7547,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7947,7 +7962,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
         <v>1.26</v>
@@ -8072,7 +8087,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8278,7 +8293,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8768,7 +8783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>2.25</v>
@@ -8896,7 +8911,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9102,7 +9117,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9386,10 +9401,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9514,7 +9529,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9595,7 +9610,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ41">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -10132,7 +10147,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10213,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR44">
         <v>2.05</v>
@@ -10338,7 +10353,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10544,7 +10559,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10750,7 +10765,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10956,7 +10971,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11368,7 +11383,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11574,7 +11589,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11780,7 +11795,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11858,7 +11873,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
         <v>1.11</v>
@@ -12604,7 +12619,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12682,7 +12697,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
         <v>1.14</v>
@@ -12891,7 +12906,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ57">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.47</v>
@@ -13016,7 +13031,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13222,7 +13237,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13300,7 +13315,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ59">
         <v>1.43</v>
@@ -13506,7 +13521,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13634,7 +13649,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13715,7 +13730,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.96</v>
@@ -13840,7 +13855,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14046,7 +14061,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14664,7 +14679,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14742,7 +14757,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.75</v>
@@ -15076,7 +15091,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15157,7 +15172,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ68">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15282,7 +15297,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15488,7 +15503,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15569,7 +15584,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -15694,7 +15709,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15900,7 +15915,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15978,7 +15993,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16106,7 +16121,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16187,7 +16202,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16312,7 +16327,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16393,7 +16408,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ74">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>1.75</v>
@@ -16518,7 +16533,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -17136,7 +17151,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17342,7 +17357,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17754,7 +17769,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17832,7 +17847,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ81">
         <v>2.29</v>
@@ -18166,7 +18181,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18372,7 +18387,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18990,7 +19005,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19196,7 +19211,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19274,7 +19289,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
         <v>0.5</v>
@@ -19480,7 +19495,7 @@
         <v>2.25</v>
       </c>
       <c r="AP89">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>1.5</v>
@@ -19608,7 +19623,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19689,7 +19704,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ90">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>1.95</v>
@@ -19895,7 +19910,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR91">
         <v>1.69</v>
@@ -20020,7 +20035,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20101,7 +20116,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ92">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
         <v>1.75</v>
@@ -20432,7 +20447,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20638,7 +20653,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20844,7 +20859,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21050,7 +21065,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21462,7 +21477,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21874,7 +21889,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22080,7 +22095,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22492,7 +22507,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22570,7 +22585,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ104">
         <v>1.75</v>
@@ -22904,7 +22919,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23394,10 +23409,10 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR108">
         <v>1.82</v>
@@ -23522,7 +23537,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23603,7 +23618,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ109">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
         <v>1.34</v>
@@ -23728,7 +23743,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23806,7 +23821,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
         <v>1.14</v>
@@ -23934,7 +23949,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24012,7 +24027,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ111">
         <v>1.43</v>
@@ -24140,7 +24155,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24221,7 +24236,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -24424,7 +24439,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
         <v>0.57</v>
@@ -24552,7 +24567,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24630,7 +24645,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ114">
         <v>1.44</v>
@@ -24758,7 +24773,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24839,7 +24854,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ115">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -24964,7 +24979,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25045,7 +25060,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ116">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
         <v>1.22</v>
@@ -25170,7 +25185,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25376,7 +25391,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25582,7 +25597,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25788,7 +25803,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25866,7 +25881,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
         <v>1.33</v>
@@ -25994,7 +26009,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26200,7 +26215,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26406,7 +26421,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26612,7 +26627,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26818,7 +26833,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27105,7 +27120,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ126">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR126">
         <v>1.62</v>
@@ -27230,7 +27245,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27436,7 +27451,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27848,7 +27863,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28054,7 +28069,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28132,7 +28147,7 @@
         <v>2.4</v>
       </c>
       <c r="AP131">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ131">
         <v>2.57</v>
@@ -28341,7 +28356,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR132">
         <v>1.8</v>
@@ -28466,7 +28481,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28547,7 +28562,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ133">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR133">
         <v>1.73</v>
@@ -29084,7 +29099,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29162,10 +29177,10 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
+        <v>1.33</v>
+      </c>
+      <c r="AQ136">
         <v>1.13</v>
-      </c>
-      <c r="AQ136">
-        <v>1.29</v>
       </c>
       <c r="AR136">
         <v>1.7</v>
@@ -29780,7 +29795,7 @@
         <v>0.67</v>
       </c>
       <c r="AP139">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ139">
         <v>0.57</v>
@@ -30192,7 +30207,7 @@
         <v>2.67</v>
       </c>
       <c r="AP141">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
         <v>2.29</v>
@@ -30526,7 +30541,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30732,7 +30747,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30938,7 +30953,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31016,7 +31031,7 @@
         <v>1.57</v>
       </c>
       <c r="AP145">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ145">
         <v>1.75</v>
@@ -31144,7 +31159,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31350,7 +31365,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31556,7 +31571,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31968,7 +31983,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32174,7 +32189,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32461,7 +32476,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ152">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR152">
         <v>1.79</v>
@@ -32586,7 +32601,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32743,6 +32758,830 @@
       </c>
       <c r="BP153">
         <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7465564</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45621.66666666666</v>
+      </c>
+      <c r="F154">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>79</v>
+      </c>
+      <c r="H154" t="s">
+        <v>78</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>194</v>
+      </c>
+      <c r="P154" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q154">
+        <v>2.75</v>
+      </c>
+      <c r="R154">
+        <v>2.6</v>
+      </c>
+      <c r="S154">
+        <v>3.1</v>
+      </c>
+      <c r="T154">
+        <v>1.2</v>
+      </c>
+      <c r="U154">
+        <v>4.33</v>
+      </c>
+      <c r="V154">
+        <v>2</v>
+      </c>
+      <c r="W154">
+        <v>1.73</v>
+      </c>
+      <c r="X154">
+        <v>4.33</v>
+      </c>
+      <c r="Y154">
+        <v>1.2</v>
+      </c>
+      <c r="Z154">
+        <v>2.25</v>
+      </c>
+      <c r="AA154">
+        <v>4.07</v>
+      </c>
+      <c r="AB154">
+        <v>2.74</v>
+      </c>
+      <c r="AC154">
+        <v>0</v>
+      </c>
+      <c r="AD154">
+        <v>0</v>
+      </c>
+      <c r="AE154">
+        <v>1.09</v>
+      </c>
+      <c r="AF154">
+        <v>7.5</v>
+      </c>
+      <c r="AG154">
+        <v>1.36</v>
+      </c>
+      <c r="AH154">
+        <v>3.1</v>
+      </c>
+      <c r="AI154">
+        <v>1.33</v>
+      </c>
+      <c r="AJ154">
+        <v>3.25</v>
+      </c>
+      <c r="AK154">
+        <v>1.52</v>
+      </c>
+      <c r="AL154">
+        <v>1.18</v>
+      </c>
+      <c r="AM154">
+        <v>1.6</v>
+      </c>
+      <c r="AN154">
+        <v>0.29</v>
+      </c>
+      <c r="AO154">
+        <v>1.43</v>
+      </c>
+      <c r="AP154">
+        <v>0.63</v>
+      </c>
+      <c r="AQ154">
+        <v>1.25</v>
+      </c>
+      <c r="AR154">
+        <v>1.66</v>
+      </c>
+      <c r="AS154">
+        <v>1.28</v>
+      </c>
+      <c r="AT154">
+        <v>2.94</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>5</v>
+      </c>
+      <c r="AW154">
+        <v>4</v>
+      </c>
+      <c r="AX154">
+        <v>4</v>
+      </c>
+      <c r="AY154">
+        <v>9</v>
+      </c>
+      <c r="AZ154">
+        <v>14</v>
+      </c>
+      <c r="BA154">
+        <v>6</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>9</v>
+      </c>
+      <c r="BD154">
+        <v>2.25</v>
+      </c>
+      <c r="BE154">
+        <v>6</v>
+      </c>
+      <c r="BF154">
+        <v>1.92</v>
+      </c>
+      <c r="BG154">
+        <v>0</v>
+      </c>
+      <c r="BH154">
+        <v>0</v>
+      </c>
+      <c r="BI154">
+        <v>1.28</v>
+      </c>
+      <c r="BJ154">
+        <v>3.3</v>
+      </c>
+      <c r="BK154">
+        <v>1.52</v>
+      </c>
+      <c r="BL154">
+        <v>2.32</v>
+      </c>
+      <c r="BM154">
+        <v>1.92</v>
+      </c>
+      <c r="BN154">
+        <v>1.78</v>
+      </c>
+      <c r="BO154">
+        <v>2.55</v>
+      </c>
+      <c r="BP154">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7465559</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45621.66666666666</v>
+      </c>
+      <c r="F155">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
+        <v>86</v>
+      </c>
+      <c r="H155" t="s">
+        <v>74</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>4</v>
+      </c>
+      <c r="O155" t="s">
+        <v>195</v>
+      </c>
+      <c r="P155" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q155">
+        <v>1.91</v>
+      </c>
+      <c r="R155">
+        <v>2.75</v>
+      </c>
+      <c r="S155">
+        <v>5.5</v>
+      </c>
+      <c r="T155">
+        <v>1.22</v>
+      </c>
+      <c r="U155">
+        <v>4</v>
+      </c>
+      <c r="V155">
+        <v>2</v>
+      </c>
+      <c r="W155">
+        <v>1.73</v>
+      </c>
+      <c r="X155">
+        <v>4.33</v>
+      </c>
+      <c r="Y155">
+        <v>1.2</v>
+      </c>
+      <c r="Z155">
+        <v>1.43</v>
+      </c>
+      <c r="AA155">
+        <v>5.06</v>
+      </c>
+      <c r="AB155">
+        <v>6.04</v>
+      </c>
+      <c r="AC155">
+        <v>0</v>
+      </c>
+      <c r="AD155">
+        <v>0</v>
+      </c>
+      <c r="AE155">
+        <v>1.12</v>
+      </c>
+      <c r="AF155">
+        <v>6</v>
+      </c>
+      <c r="AG155">
+        <v>1.4</v>
+      </c>
+      <c r="AH155">
+        <v>2.88</v>
+      </c>
+      <c r="AI155">
+        <v>1.57</v>
+      </c>
+      <c r="AJ155">
+        <v>2.25</v>
+      </c>
+      <c r="AK155">
+        <v>1.11</v>
+      </c>
+      <c r="AL155">
+        <v>1.12</v>
+      </c>
+      <c r="AM155">
+        <v>2.8</v>
+      </c>
+      <c r="AN155">
+        <v>2.14</v>
+      </c>
+      <c r="AO155">
+        <v>0.43</v>
+      </c>
+      <c r="AP155">
+        <v>2</v>
+      </c>
+      <c r="AQ155">
+        <v>0.5</v>
+      </c>
+      <c r="AR155">
+        <v>2.01</v>
+      </c>
+      <c r="AS155">
+        <v>0.96</v>
+      </c>
+      <c r="AT155">
+        <v>2.97</v>
+      </c>
+      <c r="AU155">
+        <v>7</v>
+      </c>
+      <c r="AV155">
+        <v>5</v>
+      </c>
+      <c r="AW155">
+        <v>8</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>23</v>
+      </c>
+      <c r="AZ155">
+        <v>8</v>
+      </c>
+      <c r="BA155">
+        <v>3</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>8</v>
+      </c>
+      <c r="BD155">
+        <v>1.22</v>
+      </c>
+      <c r="BE155">
+        <v>8</v>
+      </c>
+      <c r="BF155">
+        <v>5.45</v>
+      </c>
+      <c r="BG155">
+        <v>1.16</v>
+      </c>
+      <c r="BH155">
+        <v>4.4</v>
+      </c>
+      <c r="BI155">
+        <v>1.28</v>
+      </c>
+      <c r="BJ155">
+        <v>3.3</v>
+      </c>
+      <c r="BK155">
+        <v>1.5</v>
+      </c>
+      <c r="BL155">
+        <v>2.38</v>
+      </c>
+      <c r="BM155">
+        <v>1.88</v>
+      </c>
+      <c r="BN155">
+        <v>1.8</v>
+      </c>
+      <c r="BO155">
+        <v>2.45</v>
+      </c>
+      <c r="BP155">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7465560</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45621.66666666666</v>
+      </c>
+      <c r="F156">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>71</v>
+      </c>
+      <c r="H156" t="s">
+        <v>77</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>196</v>
+      </c>
+      <c r="P156" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q156">
+        <v>2.63</v>
+      </c>
+      <c r="R156">
+        <v>2.5</v>
+      </c>
+      <c r="S156">
+        <v>3.25</v>
+      </c>
+      <c r="T156">
+        <v>1.25</v>
+      </c>
+      <c r="U156">
+        <v>3.75</v>
+      </c>
+      <c r="V156">
+        <v>2.2</v>
+      </c>
+      <c r="W156">
+        <v>1.62</v>
+      </c>
+      <c r="X156">
+        <v>5</v>
+      </c>
+      <c r="Y156">
+        <v>1.17</v>
+      </c>
+      <c r="Z156">
+        <v>2.18</v>
+      </c>
+      <c r="AA156">
+        <v>3.88</v>
+      </c>
+      <c r="AB156">
+        <v>2.94</v>
+      </c>
+      <c r="AC156">
+        <v>1.01</v>
+      </c>
+      <c r="AD156">
+        <v>15</v>
+      </c>
+      <c r="AE156">
+        <v>1.16</v>
+      </c>
+      <c r="AF156">
+        <v>5</v>
+      </c>
+      <c r="AG156">
+        <v>1.48</v>
+      </c>
+      <c r="AH156">
+        <v>2.6</v>
+      </c>
+      <c r="AI156">
+        <v>1.4</v>
+      </c>
+      <c r="AJ156">
+        <v>2.75</v>
+      </c>
+      <c r="AK156">
+        <v>1.45</v>
+      </c>
+      <c r="AL156">
+        <v>1.2</v>
+      </c>
+      <c r="AM156">
+        <v>1.63</v>
+      </c>
+      <c r="AN156">
+        <v>1.13</v>
+      </c>
+      <c r="AO156">
+        <v>1.43</v>
+      </c>
+      <c r="AP156">
+        <v>1.33</v>
+      </c>
+      <c r="AQ156">
+        <v>1.25</v>
+      </c>
+      <c r="AR156">
+        <v>1.76</v>
+      </c>
+      <c r="AS156">
+        <v>1.95</v>
+      </c>
+      <c r="AT156">
+        <v>3.71</v>
+      </c>
+      <c r="AU156">
+        <v>8</v>
+      </c>
+      <c r="AV156">
+        <v>3</v>
+      </c>
+      <c r="AW156">
+        <v>2</v>
+      </c>
+      <c r="AX156">
+        <v>5</v>
+      </c>
+      <c r="AY156">
+        <v>14</v>
+      </c>
+      <c r="AZ156">
+        <v>10</v>
+      </c>
+      <c r="BA156">
+        <v>3</v>
+      </c>
+      <c r="BB156">
+        <v>5</v>
+      </c>
+      <c r="BC156">
+        <v>8</v>
+      </c>
+      <c r="BD156">
+        <v>2</v>
+      </c>
+      <c r="BE156">
+        <v>6</v>
+      </c>
+      <c r="BF156">
+        <v>2.15</v>
+      </c>
+      <c r="BG156">
+        <v>0</v>
+      </c>
+      <c r="BH156">
+        <v>0</v>
+      </c>
+      <c r="BI156">
+        <v>1.28</v>
+      </c>
+      <c r="BJ156">
+        <v>3.3</v>
+      </c>
+      <c r="BK156">
+        <v>1.5</v>
+      </c>
+      <c r="BL156">
+        <v>2.35</v>
+      </c>
+      <c r="BM156">
+        <v>1.88</v>
+      </c>
+      <c r="BN156">
+        <v>1.8</v>
+      </c>
+      <c r="BO156">
+        <v>2.48</v>
+      </c>
+      <c r="BP156">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7465561</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45621.66666666666</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>88</v>
+      </c>
+      <c r="H157" t="s">
+        <v>89</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>197</v>
+      </c>
+      <c r="P157" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q157">
+        <v>1.83</v>
+      </c>
+      <c r="R157">
+        <v>2.88</v>
+      </c>
+      <c r="S157">
+        <v>5.5</v>
+      </c>
+      <c r="T157">
+        <v>1.18</v>
+      </c>
+      <c r="U157">
+        <v>4.5</v>
+      </c>
+      <c r="V157">
+        <v>1.83</v>
+      </c>
+      <c r="W157">
+        <v>1.83</v>
+      </c>
+      <c r="X157">
+        <v>3.75</v>
+      </c>
+      <c r="Y157">
+        <v>1.25</v>
+      </c>
+      <c r="Z157">
+        <v>1.4</v>
+      </c>
+      <c r="AA157">
+        <v>5.3</v>
+      </c>
+      <c r="AB157">
+        <v>6.14</v>
+      </c>
+      <c r="AC157">
+        <v>0</v>
+      </c>
+      <c r="AD157">
+        <v>0</v>
+      </c>
+      <c r="AE157">
+        <v>1.08</v>
+      </c>
+      <c r="AF157">
+        <v>7.5</v>
+      </c>
+      <c r="AG157">
+        <v>1.29</v>
+      </c>
+      <c r="AH157">
+        <v>3.6</v>
+      </c>
+      <c r="AI157">
+        <v>1.44</v>
+      </c>
+      <c r="AJ157">
+        <v>2.63</v>
+      </c>
+      <c r="AK157">
+        <v>1.12</v>
+      </c>
+      <c r="AL157">
+        <v>1.12</v>
+      </c>
+      <c r="AM157">
+        <v>2.8</v>
+      </c>
+      <c r="AN157">
+        <v>2.14</v>
+      </c>
+      <c r="AO157">
+        <v>1.29</v>
+      </c>
+      <c r="AP157">
+        <v>2.25</v>
+      </c>
+      <c r="AQ157">
+        <v>1.13</v>
+      </c>
+      <c r="AR157">
+        <v>2.01</v>
+      </c>
+      <c r="AS157">
+        <v>1.47</v>
+      </c>
+      <c r="AT157">
+        <v>3.48</v>
+      </c>
+      <c r="AU157">
+        <v>9</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>10</v>
+      </c>
+      <c r="AX157">
+        <v>5</v>
+      </c>
+      <c r="AY157">
+        <v>25</v>
+      </c>
+      <c r="AZ157">
+        <v>13</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>5</v>
+      </c>
+      <c r="BC157">
+        <v>10</v>
+      </c>
+      <c r="BD157">
+        <v>1.25</v>
+      </c>
+      <c r="BE157">
+        <v>7.8</v>
+      </c>
+      <c r="BF157">
+        <v>5.05</v>
+      </c>
+      <c r="BG157">
+        <v>1.15</v>
+      </c>
+      <c r="BH157">
+        <v>4.5</v>
+      </c>
+      <c r="BI157">
+        <v>1.24</v>
+      </c>
+      <c r="BJ157">
+        <v>3.55</v>
+      </c>
+      <c r="BK157">
+        <v>1.48</v>
+      </c>
+      <c r="BL157">
+        <v>2.45</v>
+      </c>
+      <c r="BM157">
+        <v>1.82</v>
+      </c>
+      <c r="BN157">
+        <v>1.85</v>
+      </c>
+      <c r="BO157">
+        <v>2.38</v>
+      </c>
+      <c r="BP157">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,24 +580,6 @@
     <t>['89']</t>
   </si>
   <si>
-    <t>['54', '73']</t>
-  </si>
-  <si>
-    <t>['32']</t>
-  </si>
-  <si>
-    <t>['20', '64', '90+2']</t>
-  </si>
-  <si>
-    <t>['47', '54', '77']</t>
-  </si>
-  <si>
-    <t>['37', '39', '42', '45']</t>
-  </si>
-  <si>
-    <t>['47', '59', '90+5']</t>
-  </si>
-  <si>
     <t>['4', '82']</t>
   </si>
   <si>
@@ -629,6 +611,9 @@
   </si>
   <si>
     <t>['36', '52', '60']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
   <si>
     <t>['85', '90+5']</t>
@@ -848,30 +833,6 @@
   </si>
   <si>
     <t>['12', '19']</t>
-  </si>
-  <si>
-    <t>['6']</t>
-  </si>
-  <si>
-    <t>['4', '20', '27', '42']</t>
-  </si>
-  <si>
-    <t>['20', '64']</t>
-  </si>
-  <si>
-    <t>['14', '15', '37', '42', '82', '90+3']</t>
-  </si>
-  <si>
-    <t>['63', '86', '89']</t>
-  </si>
-  <si>
-    <t>['5', '24', '49', '88']</t>
-  </si>
-  <si>
-    <t>['34', '42', '68']</t>
-  </si>
-  <si>
-    <t>['28', '34', '41']</t>
   </si>
   <si>
     <t>['72', '76']</t>
@@ -1236,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1701,7 +1662,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1782,7 +1743,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1907,7 +1868,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1985,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4">
         <v>0.57</v>
@@ -2113,7 +2074,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2191,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2319,7 +2280,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2400,7 +2361,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2525,7 +2486,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2603,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2731,7 +2692,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2937,7 +2898,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3015,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3143,7 +3104,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3224,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3349,7 +3310,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3427,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AQ11">
         <v>1.13</v>
@@ -3633,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>1.14</v>
@@ -3761,7 +3722,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3842,7 +3803,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4048,7 +4009,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4379,7 +4340,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4457,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4663,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4872,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5203,7 +5164,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5284,7 +5245,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ20">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5487,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5696,7 +5657,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ22">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -6105,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -6233,7 +6194,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6311,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ25">
         <v>0.57</v>
@@ -6439,7 +6400,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6520,7 +6481,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -6645,7 +6606,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6929,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -7057,7 +7018,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7135,10 +7096,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7344,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -7469,7 +7430,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7547,10 +7508,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -7753,10 +7714,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ32">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -8087,7 +8048,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8165,7 +8126,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8293,7 +8254,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8371,10 +8332,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ35">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AR35">
         <v>0.8</v>
@@ -8577,7 +8538,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8786,7 +8747,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -8911,7 +8872,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8992,7 +8953,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR38">
         <v>1.6</v>
@@ -9117,7 +9078,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9195,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AQ39">
         <v>1.43</v>
@@ -9404,7 +9365,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9529,7 +9490,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9813,10 +9774,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10147,7 +10108,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10353,7 +10314,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10431,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ45">
         <v>0.57</v>
@@ -10559,7 +10520,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10765,7 +10726,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10971,7 +10932,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11049,10 +11010,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
         <v>1.9</v>
@@ -11258,7 +11219,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11383,7 +11344,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11461,7 +11422,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ50">
         <v>2.29</v>
@@ -11589,7 +11550,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11670,7 +11631,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11795,7 +11756,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11876,7 +11837,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12079,10 +12040,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AQ53">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>2.41</v>
@@ -12288,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AR54">
         <v>1.99</v>
@@ -12619,7 +12580,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12903,10 +12864,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR57">
         <v>1.47</v>
@@ -13031,7 +12992,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13109,7 +13070,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ58">
         <v>1.43</v>
@@ -13237,7 +13198,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13315,10 +13276,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.91</v>
@@ -13524,7 +13485,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR60">
         <v>1.64</v>
@@ -13649,7 +13610,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13727,7 +13688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -13855,7 +13816,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13933,7 +13894,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -14061,7 +14022,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14139,10 +14100,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14345,10 +14306,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AQ64">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AR64">
         <v>2.12</v>
@@ -14554,7 +14515,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14679,7 +14640,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14760,7 +14721,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -15091,7 +15052,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15169,7 +15130,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ68">
         <v>1.13</v>
@@ -15297,7 +15258,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15378,7 +15339,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15503,7 +15464,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15709,7 +15670,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15787,10 +15748,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ71">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AR71">
         <v>1.34</v>
@@ -15915,7 +15876,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16121,7 +16082,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16199,10 +16160,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16327,7 +16288,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16533,7 +16494,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16820,7 +16781,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ76">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -17151,7 +17112,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17229,7 +17190,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ78">
         <v>1.14</v>
@@ -17357,7 +17318,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17438,7 +17399,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17641,10 +17602,10 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR80">
         <v>1.68</v>
@@ -17769,7 +17730,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17847,7 +17808,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AQ81">
         <v>2.29</v>
@@ -18053,10 +18014,10 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ82">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AR82">
         <v>1.76</v>
@@ -18181,7 +18142,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18259,10 +18220,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18387,7 +18348,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18468,7 +18429,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -18674,7 +18635,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ85">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR85">
         <v>1.66</v>
@@ -18877,10 +18838,10 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -19005,7 +18966,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19086,7 +19047,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR87">
         <v>1.95</v>
@@ -19211,7 +19172,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19623,7 +19584,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19701,7 +19662,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AQ90">
         <v>1.25</v>
@@ -19907,7 +19868,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ91">
         <v>1.13</v>
@@ -20035,7 +19996,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20319,7 +20280,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20447,7 +20408,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20653,7 +20614,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20731,10 +20692,10 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
         <v>1.66</v>
@@ -20859,7 +20820,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20940,7 +20901,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -21065,7 +21026,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21146,7 +21107,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR97">
         <v>1.77</v>
@@ -21349,7 +21310,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AQ98">
         <v>0.57</v>
@@ -21477,7 +21438,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21558,7 +21519,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ99">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -21761,7 +21722,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AQ100">
         <v>1.14</v>
@@ -21889,7 +21850,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22095,7 +22056,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22173,7 +22134,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22382,7 +22343,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22507,7 +22468,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22585,10 +22546,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AQ104">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -22791,10 +22752,10 @@
         <v>1.25</v>
       </c>
       <c r="AP105">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AQ105">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -22919,7 +22880,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22997,10 +22958,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ106">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23206,7 +23167,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR107">
         <v>1.77</v>
@@ -23412,7 +23373,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR108">
         <v>1.82</v>
@@ -23537,7 +23498,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23615,7 +23576,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ109">
         <v>1.25</v>
@@ -23743,7 +23704,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23949,7 +23910,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24155,7 +24116,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24567,7 +24528,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24648,7 +24609,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ114">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24773,7 +24734,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24979,7 +24940,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25185,7 +25146,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25263,7 +25224,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25391,7 +25352,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25469,7 +25430,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ118">
         <v>1.43</v>
@@ -25597,7 +25558,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25678,7 +25639,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ119">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AR119">
         <v>1.83</v>
@@ -25803,7 +25764,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25884,7 +25845,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
         <v>1.79</v>
@@ -26009,7 +25970,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26087,7 +26048,7 @@
         <v>2.6</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
         <v>2.29</v>
@@ -26215,7 +26176,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26296,7 +26257,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AR122">
         <v>1.92</v>
@@ -26421,7 +26382,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26499,7 +26460,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26627,7 +26588,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26705,10 +26666,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ124">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -26833,7 +26794,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -26914,7 +26875,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ125">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR125">
         <v>1.31</v>
@@ -27117,10 +27078,10 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ126">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR126">
         <v>1.62</v>
@@ -27245,7 +27206,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27323,10 +27284,10 @@
         <v>0.86</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AQ127">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AR127">
         <v>1.8</v>
@@ -27451,7 +27412,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27532,7 +27493,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ128">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -27735,10 +27696,10 @@
         <v>1.33</v>
       </c>
       <c r="AP129">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ129">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR129">
         <v>1.74</v>
@@ -27863,7 +27824,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27941,7 +27902,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ130">
         <v>0.5</v>
@@ -28069,7 +28030,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28147,10 +28108,10 @@
         <v>2.4</v>
       </c>
       <c r="AP131">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AQ131">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -28353,7 +28314,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
         <v>1.25</v>
@@ -28481,7 +28442,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28559,7 +28520,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ133">
         <v>1.25</v>
@@ -29099,7 +29060,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29386,7 +29347,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ137">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -30004,7 +29965,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR140">
         <v>1.77</v>
@@ -30541,7 +30502,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30705,7 +30666,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7465556</v>
+        <v>7465564</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30714,25 +30675,25 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45617.875</v>
+        <v>45621.66666666666</v>
       </c>
       <c r="F144">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H144" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144">
         <v>1</v>
       </c>
       <c r="K144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L144">
         <v>2</v>
@@ -30747,112 +30708,112 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="Q144">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R144">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="S144">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="T144">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U144">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V144">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="X144">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y144">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="Z144">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="AA144">
-        <v>3.75</v>
+        <v>4.07</v>
       </c>
       <c r="AB144">
-        <v>1.95</v>
+        <v>2.74</v>
       </c>
       <c r="AC144">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AD144">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE144">
+        <v>1.09</v>
+      </c>
+      <c r="AF144">
+        <v>7.5</v>
+      </c>
+      <c r="AG144">
+        <v>1.36</v>
+      </c>
+      <c r="AH144">
+        <v>3.1</v>
+      </c>
+      <c r="AI144">
+        <v>1.33</v>
+      </c>
+      <c r="AJ144">
+        <v>3.25</v>
+      </c>
+      <c r="AK144">
+        <v>1.52</v>
+      </c>
+      <c r="AL144">
         <v>1.18</v>
       </c>
-      <c r="AF144">
-        <v>4.75</v>
-      </c>
-      <c r="AG144">
-        <v>1.57</v>
-      </c>
-      <c r="AH144">
-        <v>2.35</v>
-      </c>
-      <c r="AI144">
-        <v>1.53</v>
-      </c>
-      <c r="AJ144">
-        <v>2.38</v>
-      </c>
-      <c r="AK144">
-        <v>1.8</v>
-      </c>
-      <c r="AL144">
-        <v>1.22</v>
-      </c>
       <c r="AM144">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AN144">
-        <v>1.29</v>
+        <v>0.33</v>
       </c>
       <c r="AO144">
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AQ144">
         <v>1.25</v>
       </c>
       <c r="AR144">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AS144">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AT144">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AU144">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW144">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX144">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY144">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ144">
         <v>14</v>
@@ -30867,13 +30828,13 @@
         <v>9</v>
       </c>
       <c r="BD144">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BE144">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BF144">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BG144">
         <v>0</v>
@@ -30882,28 +30843,28 @@
         <v>0</v>
       </c>
       <c r="BI144">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BJ144">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BK144">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BL144">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="BM144">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BN144">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="BO144">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="BP144">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30911,7 +30872,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7465554</v>
+        <v>7465559</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30920,196 +30881,196 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45617.875</v>
+        <v>45621.66666666666</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H145" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
         <v>4</v>
       </c>
-      <c r="K145">
+      <c r="O145" t="s">
+        <v>189</v>
+      </c>
+      <c r="P145" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q145">
+        <v>1.91</v>
+      </c>
+      <c r="R145">
+        <v>2.75</v>
+      </c>
+      <c r="S145">
+        <v>5.5</v>
+      </c>
+      <c r="T145">
+        <v>1.22</v>
+      </c>
+      <c r="U145">
         <v>4</v>
       </c>
-      <c r="L145">
-        <v>1</v>
-      </c>
-      <c r="M145">
-        <v>4</v>
-      </c>
-      <c r="N145">
-        <v>5</v>
-      </c>
-      <c r="O145" t="s">
-        <v>143</v>
-      </c>
-      <c r="P145" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q145">
-        <v>4</v>
-      </c>
-      <c r="R145">
-        <v>2.5</v>
-      </c>
-      <c r="S145">
-        <v>2.3</v>
-      </c>
-      <c r="T145">
-        <v>1.25</v>
-      </c>
-      <c r="U145">
-        <v>3.75</v>
-      </c>
       <c r="V145">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X145">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y145">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Z145">
-        <v>3.5</v>
+        <v>1.43</v>
       </c>
       <c r="AA145">
-        <v>4.33</v>
+        <v>5.06</v>
       </c>
       <c r="AB145">
-        <v>1.75</v>
+        <v>6.04</v>
       </c>
       <c r="AC145">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD145">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE145">
         <v>1.12</v>
       </c>
       <c r="AF145">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AG145">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AH145">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="AI145">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AJ145">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AK145">
-        <v>1.95</v>
+        <v>1.11</v>
       </c>
       <c r="AL145">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AM145">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="AN145">
-        <v>0.33</v>
+        <v>2.14</v>
       </c>
       <c r="AO145">
-        <v>1.57</v>
+        <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>0.63</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
-        <v>1.75</v>
+        <v>0.57</v>
       </c>
       <c r="AR145">
-        <v>1.6</v>
+        <v>2.01</v>
       </c>
       <c r="AS145">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="AT145">
-        <v>3.24</v>
+        <v>3.04</v>
       </c>
       <c r="AU145">
+        <v>7</v>
+      </c>
+      <c r="AV145">
         <v>5</v>
       </c>
-      <c r="AV145">
-        <v>9</v>
-      </c>
       <c r="AW145">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX145">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AY145">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ145">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="BA145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB145">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD145">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BE145">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF145">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="BG145">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BH145">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BI145">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BJ145">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BK145">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BL145">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BM145">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BN145">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BO145">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BP145">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -31117,7 +31078,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7465558</v>
+        <v>7465560</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31126,166 +31087,166 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45617.875</v>
+        <v>45621.66666666666</v>
       </c>
       <c r="F146">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G146" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H146" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O146" t="s">
+        <v>190</v>
+      </c>
+      <c r="P146" t="s">
         <v>93</v>
       </c>
-      <c r="P146" t="s">
-        <v>280</v>
-      </c>
       <c r="Q146">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="R146">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S146">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T146">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U146">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V146">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W146">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y146">
+        <v>1.17</v>
+      </c>
+      <c r="Z146">
+        <v>2.18</v>
+      </c>
+      <c r="AA146">
+        <v>3.88</v>
+      </c>
+      <c r="AB146">
+        <v>2.94</v>
+      </c>
+      <c r="AC146">
+        <v>1.01</v>
+      </c>
+      <c r="AD146">
+        <v>15</v>
+      </c>
+      <c r="AE146">
+        <v>1.16</v>
+      </c>
+      <c r="AF146">
+        <v>5</v>
+      </c>
+      <c r="AG146">
+        <v>1.48</v>
+      </c>
+      <c r="AH146">
+        <v>2.6</v>
+      </c>
+      <c r="AI146">
+        <v>1.4</v>
+      </c>
+      <c r="AJ146">
+        <v>2.75</v>
+      </c>
+      <c r="AK146">
+        <v>1.45</v>
+      </c>
+      <c r="AL146">
+        <v>1.2</v>
+      </c>
+      <c r="AM146">
+        <v>1.63</v>
+      </c>
+      <c r="AN146">
         <v>1.13</v>
       </c>
-      <c r="Z146">
-        <v>3.5</v>
-      </c>
-      <c r="AA146">
-        <v>3.6</v>
-      </c>
-      <c r="AB146">
-        <v>1.91</v>
-      </c>
-      <c r="AC146">
-        <v>1.04</v>
-      </c>
-      <c r="AD146">
-        <v>10</v>
-      </c>
-      <c r="AE146">
-        <v>1.2</v>
-      </c>
-      <c r="AF146">
-        <v>4.33</v>
-      </c>
-      <c r="AG146">
-        <v>1.62</v>
-      </c>
-      <c r="AH146">
-        <v>2.25</v>
-      </c>
-      <c r="AI146">
-        <v>1.57</v>
-      </c>
-      <c r="AJ146">
-        <v>2.25</v>
-      </c>
-      <c r="AK146">
-        <v>1.8</v>
-      </c>
-      <c r="AL146">
-        <v>1.22</v>
-      </c>
-      <c r="AM146">
-        <v>1.28</v>
-      </c>
-      <c r="AN146">
-        <v>0.5</v>
-      </c>
       <c r="AO146">
-        <v>2.5</v>
+        <v>1.43</v>
       </c>
       <c r="AP146">
-        <v>0.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ146">
-        <v>2.57</v>
+        <v>1.25</v>
       </c>
       <c r="AR146">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="AS146">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AT146">
-        <v>3.48</v>
+        <v>3.71</v>
       </c>
       <c r="AU146">
         <v>8</v>
       </c>
       <c r="AV146">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW146">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AX146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY146">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AZ146">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA146">
         <v>3</v>
       </c>
       <c r="BB146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>2</v>
+      </c>
+      <c r="BE146">
         <v>6</v>
       </c>
-      <c r="BD146">
-        <v>0</v>
-      </c>
-      <c r="BE146">
-        <v>0</v>
-      </c>
       <c r="BF146">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BG146">
         <v>0</v>
@@ -31294,28 +31255,28 @@
         <v>0</v>
       </c>
       <c r="BI146">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BJ146">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BK146">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BL146">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="BM146">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BN146">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BO146">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BP146">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31323,7 +31284,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7465557</v>
+        <v>7465561</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31332,2255 +31293,195 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45617.875</v>
+        <v>45621.66666666666</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H147" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M147">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N147">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O147" t="s">
+        <v>191</v>
+      </c>
+      <c r="P147" t="s">
         <v>93</v>
       </c>
-      <c r="P147" t="s">
-        <v>281</v>
-      </c>
       <c r="Q147">
+        <v>1.83</v>
+      </c>
+      <c r="R147">
+        <v>2.88</v>
+      </c>
+      <c r="S147">
+        <v>5.5</v>
+      </c>
+      <c r="T147">
+        <v>1.18</v>
+      </c>
+      <c r="U147">
+        <v>4.5</v>
+      </c>
+      <c r="V147">
+        <v>1.83</v>
+      </c>
+      <c r="W147">
+        <v>1.83</v>
+      </c>
+      <c r="X147">
+        <v>3.75</v>
+      </c>
+      <c r="Y147">
+        <v>1.25</v>
+      </c>
+      <c r="Z147">
+        <v>1.4</v>
+      </c>
+      <c r="AA147">
+        <v>5.3</v>
+      </c>
+      <c r="AB147">
+        <v>6.14</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>1.08</v>
+      </c>
+      <c r="AF147">
+        <v>7.5</v>
+      </c>
+      <c r="AG147">
+        <v>1.29</v>
+      </c>
+      <c r="AH147">
         <v>3.6</v>
       </c>
-      <c r="R147">
-        <v>2.1</v>
-      </c>
-      <c r="S147">
+      <c r="AI147">
+        <v>1.44</v>
+      </c>
+      <c r="AJ147">
+        <v>2.63</v>
+      </c>
+      <c r="AK147">
+        <v>1.12</v>
+      </c>
+      <c r="AL147">
+        <v>1.12</v>
+      </c>
+      <c r="AM147">
+        <v>2.8</v>
+      </c>
+      <c r="AN147">
+        <v>2.14</v>
+      </c>
+      <c r="AO147">
+        <v>1.29</v>
+      </c>
+      <c r="AP147">
+        <v>2.25</v>
+      </c>
+      <c r="AQ147">
+        <v>1.13</v>
+      </c>
+      <c r="AR147">
+        <v>2.01</v>
+      </c>
+      <c r="AS147">
+        <v>1.47</v>
+      </c>
+      <c r="AT147">
+        <v>3.48</v>
+      </c>
+      <c r="AU147">
+        <v>9</v>
+      </c>
+      <c r="AV147">
         <v>3</v>
       </c>
-      <c r="T147">
-        <v>1.4</v>
-      </c>
-      <c r="U147">
-        <v>2.75</v>
-      </c>
-      <c r="V147">
-        <v>3</v>
-      </c>
-      <c r="W147">
-        <v>1.36</v>
-      </c>
-      <c r="X147">
-        <v>8</v>
-      </c>
-      <c r="Y147">
-        <v>1.08</v>
-      </c>
-      <c r="Z147">
-        <v>2.7</v>
-      </c>
-      <c r="AA147">
-        <v>3.8</v>
-      </c>
-      <c r="AB147">
-        <v>2.2</v>
-      </c>
-      <c r="AC147">
-        <v>1.05</v>
-      </c>
-      <c r="AD147">
-        <v>9.5</v>
-      </c>
-      <c r="AE147">
-        <v>1.28</v>
-      </c>
-      <c r="AF147">
-        <v>3.5</v>
-      </c>
-      <c r="AG147">
-        <v>1.95</v>
-      </c>
-      <c r="AH147">
-        <v>1.85</v>
-      </c>
-      <c r="AI147">
-        <v>1.83</v>
-      </c>
-      <c r="AJ147">
-        <v>1.83</v>
-      </c>
-      <c r="AK147">
-        <v>1.55</v>
-      </c>
-      <c r="AL147">
-        <v>1.22</v>
-      </c>
-      <c r="AM147">
-        <v>1.48</v>
-      </c>
-      <c r="AN147">
-        <v>0.57</v>
-      </c>
-      <c r="AO147">
-        <v>2.14</v>
-      </c>
-      <c r="AP147">
-        <v>0.5</v>
-      </c>
-      <c r="AQ147">
-        <v>2.25</v>
-      </c>
-      <c r="AR147">
-        <v>1.58</v>
-      </c>
-      <c r="AS147">
-        <v>1.94</v>
-      </c>
-      <c r="AT147">
-        <v>3.52</v>
-      </c>
-      <c r="AU147">
-        <v>4</v>
-      </c>
-      <c r="AV147">
-        <v>12</v>
-      </c>
       <c r="AW147">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX147">
         <v>5</v>
       </c>
       <c r="AY147">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AZ147">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB147">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC147">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BD147">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BE147">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BF147">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="BG147">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH147">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BI147">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BJ147">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BK147">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BL147">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BM147">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BN147">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BO147">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BP147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:68">
-      <c r="A148" s="1">
-        <v>147</v>
-      </c>
-      <c r="B148">
-        <v>7465553</v>
-      </c>
-      <c r="C148" t="s">
-        <v>68</v>
-      </c>
-      <c r="D148" t="s">
-        <v>69</v>
-      </c>
-      <c r="E148" s="2">
-        <v>45617.875</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148" t="s">
-        <v>84</v>
-      </c>
-      <c r="H148" t="s">
-        <v>82</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>1</v>
-      </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148">
-        <v>3</v>
-      </c>
-      <c r="N148">
-        <v>4</v>
-      </c>
-      <c r="O148" t="s">
-        <v>189</v>
-      </c>
-      <c r="P148" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q148">
-        <v>3.75</v>
-      </c>
-      <c r="R148">
-        <v>2.25</v>
-      </c>
-      <c r="S148">
-        <v>2.75</v>
-      </c>
-      <c r="T148">
-        <v>1.33</v>
-      </c>
-      <c r="U148">
-        <v>3.25</v>
-      </c>
-      <c r="V148">
-        <v>2.63</v>
-      </c>
-      <c r="W148">
-        <v>1.44</v>
-      </c>
-      <c r="X148">
-        <v>6.5</v>
-      </c>
-      <c r="Y148">
-        <v>1.11</v>
-      </c>
-      <c r="Z148">
-        <v>3.1</v>
-      </c>
-      <c r="AA148">
-        <v>3.6</v>
-      </c>
-      <c r="AB148">
-        <v>2.05</v>
-      </c>
-      <c r="AC148">
-        <v>1.04</v>
-      </c>
-      <c r="AD148">
-        <v>10</v>
-      </c>
-      <c r="AE148">
-        <v>1.22</v>
-      </c>
-      <c r="AF148">
-        <v>4.2</v>
-      </c>
-      <c r="AG148">
-        <v>1.7</v>
-      </c>
-      <c r="AH148">
-        <v>2.1</v>
-      </c>
-      <c r="AI148">
-        <v>1.62</v>
-      </c>
-      <c r="AJ148">
-        <v>2.2</v>
-      </c>
-      <c r="AK148">
-        <v>1.7</v>
-      </c>
-      <c r="AL148">
-        <v>1.22</v>
-      </c>
-      <c r="AM148">
-        <v>1.33</v>
-      </c>
-      <c r="AN148">
-        <v>0.57</v>
-      </c>
-      <c r="AO148">
-        <v>0.88</v>
-      </c>
-      <c r="AP148">
-        <v>0.5</v>
-      </c>
-      <c r="AQ148">
-        <v>1.11</v>
-      </c>
-      <c r="AR148">
-        <v>1.46</v>
-      </c>
-      <c r="AS148">
-        <v>1.66</v>
-      </c>
-      <c r="AT148">
-        <v>3.12</v>
-      </c>
-      <c r="AU148">
-        <v>8</v>
-      </c>
-      <c r="AV148">
-        <v>6</v>
-      </c>
-      <c r="AW148">
-        <v>1</v>
-      </c>
-      <c r="AX148">
-        <v>6</v>
-      </c>
-      <c r="AY148">
-        <v>10</v>
-      </c>
-      <c r="AZ148">
-        <v>20</v>
-      </c>
-      <c r="BA148">
-        <v>5</v>
-      </c>
-      <c r="BB148">
-        <v>8</v>
-      </c>
-      <c r="BC148">
-        <v>13</v>
-      </c>
-      <c r="BD148">
-        <v>0</v>
-      </c>
-      <c r="BE148">
-        <v>0</v>
-      </c>
-      <c r="BF148">
-        <v>0</v>
-      </c>
-      <c r="BG148">
-        <v>0</v>
-      </c>
-      <c r="BH148">
-        <v>0</v>
-      </c>
-      <c r="BI148">
-        <v>0</v>
-      </c>
-      <c r="BJ148">
-        <v>0</v>
-      </c>
-      <c r="BK148">
-        <v>0</v>
-      </c>
-      <c r="BL148">
-        <v>0</v>
-      </c>
-      <c r="BM148">
-        <v>0</v>
-      </c>
-      <c r="BN148">
-        <v>0</v>
-      </c>
-      <c r="BO148">
-        <v>0</v>
-      </c>
-      <c r="BP148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:68">
-      <c r="A149" s="1">
-        <v>148</v>
-      </c>
-      <c r="B149">
-        <v>7465551</v>
-      </c>
-      <c r="C149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D149" t="s">
-        <v>69</v>
-      </c>
-      <c r="E149" s="2">
-        <v>45617.875</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149" t="s">
-        <v>89</v>
-      </c>
-      <c r="H149" t="s">
-        <v>81</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>1</v>
-      </c>
-      <c r="L149">
-        <v>3</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
-      </c>
-      <c r="N149">
-        <v>3</v>
-      </c>
-      <c r="O149" t="s">
-        <v>190</v>
-      </c>
-      <c r="P149" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q149">
-        <v>3.75</v>
-      </c>
-      <c r="R149">
-        <v>2.25</v>
-      </c>
-      <c r="S149">
-        <v>2.63</v>
-      </c>
-      <c r="T149">
-        <v>1.36</v>
-      </c>
-      <c r="U149">
-        <v>3</v>
-      </c>
-      <c r="V149">
-        <v>2.63</v>
-      </c>
-      <c r="W149">
-        <v>1.44</v>
-      </c>
-      <c r="X149">
-        <v>7</v>
-      </c>
-      <c r="Y149">
-        <v>1.1</v>
-      </c>
-      <c r="Z149">
-        <v>3.25</v>
-      </c>
-      <c r="AA149">
-        <v>3.6</v>
-      </c>
-      <c r="AB149">
-        <v>2</v>
-      </c>
-      <c r="AC149">
-        <v>1.05</v>
-      </c>
-      <c r="AD149">
-        <v>9.5</v>
-      </c>
-      <c r="AE149">
-        <v>1.3</v>
-      </c>
-      <c r="AF149">
-        <v>3.45</v>
-      </c>
-      <c r="AG149">
-        <v>1.75</v>
-      </c>
-      <c r="AH149">
-        <v>2.05</v>
-      </c>
-      <c r="AI149">
-        <v>1.67</v>
-      </c>
-      <c r="AJ149">
-        <v>2.1</v>
-      </c>
-      <c r="AK149">
-        <v>1.7</v>
-      </c>
-      <c r="AL149">
-        <v>1.25</v>
-      </c>
-      <c r="AM149">
-        <v>1.3</v>
-      </c>
-      <c r="AN149">
-        <v>0.43</v>
-      </c>
-      <c r="AO149">
-        <v>1.5</v>
-      </c>
-      <c r="AP149">
-        <v>0.75</v>
-      </c>
-      <c r="AQ149">
-        <v>1.33</v>
-      </c>
-      <c r="AR149">
-        <v>1.58</v>
-      </c>
-      <c r="AS149">
-        <v>1.64</v>
-      </c>
-      <c r="AT149">
-        <v>3.22</v>
-      </c>
-      <c r="AU149">
-        <v>7</v>
-      </c>
-      <c r="AV149">
-        <v>6</v>
-      </c>
-      <c r="AW149">
-        <v>4</v>
-      </c>
-      <c r="AX149">
-        <v>7</v>
-      </c>
-      <c r="AY149">
-        <v>14</v>
-      </c>
-      <c r="AZ149">
-        <v>16</v>
-      </c>
-      <c r="BA149">
-        <v>3</v>
-      </c>
-      <c r="BB149">
-        <v>5</v>
-      </c>
-      <c r="BC149">
-        <v>8</v>
-      </c>
-      <c r="BD149">
-        <v>0</v>
-      </c>
-      <c r="BE149">
-        <v>0</v>
-      </c>
-      <c r="BF149">
-        <v>0</v>
-      </c>
-      <c r="BG149">
-        <v>0</v>
-      </c>
-      <c r="BH149">
-        <v>0</v>
-      </c>
-      <c r="BI149">
-        <v>0</v>
-      </c>
-      <c r="BJ149">
-        <v>0</v>
-      </c>
-      <c r="BK149">
-        <v>0</v>
-      </c>
-      <c r="BL149">
-        <v>0</v>
-      </c>
-      <c r="BM149">
-        <v>0</v>
-      </c>
-      <c r="BN149">
-        <v>0</v>
-      </c>
-      <c r="BO149">
-        <v>0</v>
-      </c>
-      <c r="BP149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:68">
-      <c r="A150" s="1">
-        <v>149</v>
-      </c>
-      <c r="B150">
-        <v>7465550</v>
-      </c>
-      <c r="C150" t="s">
-        <v>68</v>
-      </c>
-      <c r="D150" t="s">
-        <v>69</v>
-      </c>
-      <c r="E150" s="2">
-        <v>45617.875</v>
-      </c>
-      <c r="F150">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s">
-        <v>72</v>
-      </c>
-      <c r="H150" t="s">
-        <v>70</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>2</v>
-      </c>
-      <c r="K150">
-        <v>2</v>
-      </c>
-      <c r="L150">
-        <v>3</v>
-      </c>
-      <c r="M150">
-        <v>4</v>
-      </c>
-      <c r="N150">
-        <v>7</v>
-      </c>
-      <c r="O150" t="s">
-        <v>191</v>
-      </c>
-      <c r="P150" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q150">
-        <v>1.91</v>
-      </c>
-      <c r="R150">
-        <v>2.5</v>
-      </c>
-      <c r="S150">
-        <v>6.5</v>
-      </c>
-      <c r="T150">
-        <v>1.3</v>
-      </c>
-      <c r="U150">
-        <v>3.4</v>
-      </c>
-      <c r="V150">
-        <v>2.5</v>
-      </c>
-      <c r="W150">
-        <v>1.5</v>
-      </c>
-      <c r="X150">
-        <v>6</v>
-      </c>
-      <c r="Y150">
-        <v>1.13</v>
-      </c>
-      <c r="Z150">
-        <v>1.42</v>
-      </c>
-      <c r="AA150">
-        <v>5.25</v>
-      </c>
-      <c r="AB150">
-        <v>5.25</v>
-      </c>
-      <c r="AC150">
-        <v>1.03</v>
-      </c>
-      <c r="AD150">
-        <v>11</v>
-      </c>
-      <c r="AE150">
-        <v>1.2</v>
-      </c>
-      <c r="AF150">
-        <v>4.33</v>
-      </c>
-      <c r="AG150">
-        <v>1.62</v>
-      </c>
-      <c r="AH150">
-        <v>2.25</v>
-      </c>
-      <c r="AI150">
-        <v>1.83</v>
-      </c>
-      <c r="AJ150">
-        <v>1.83</v>
-      </c>
-      <c r="AK150">
-        <v>1.11</v>
-      </c>
-      <c r="AL150">
-        <v>1.14</v>
-      </c>
-      <c r="AM150">
-        <v>2.7</v>
-      </c>
-      <c r="AN150">
-        <v>1.57</v>
-      </c>
-      <c r="AO150">
-        <v>1.25</v>
-      </c>
-      <c r="AP150">
-        <v>1.38</v>
-      </c>
-      <c r="AQ150">
-        <v>1.44</v>
-      </c>
-      <c r="AR150">
-        <v>1.63</v>
-      </c>
-      <c r="AS150">
-        <v>1.13</v>
-      </c>
-      <c r="AT150">
-        <v>2.76</v>
-      </c>
-      <c r="AU150">
-        <v>4</v>
-      </c>
-      <c r="AV150">
-        <v>6</v>
-      </c>
-      <c r="AW150">
-        <v>2</v>
-      </c>
-      <c r="AX150">
-        <v>6</v>
-      </c>
-      <c r="AY150">
-        <v>9</v>
-      </c>
-      <c r="AZ150">
-        <v>13</v>
-      </c>
-      <c r="BA150">
-        <v>5</v>
-      </c>
-      <c r="BB150">
-        <v>4</v>
-      </c>
-      <c r="BC150">
-        <v>9</v>
-      </c>
-      <c r="BD150">
-        <v>0</v>
-      </c>
-      <c r="BE150">
-        <v>0</v>
-      </c>
-      <c r="BF150">
-        <v>0</v>
-      </c>
-      <c r="BG150">
-        <v>0</v>
-      </c>
-      <c r="BH150">
-        <v>0</v>
-      </c>
-      <c r="BI150">
-        <v>0</v>
-      </c>
-      <c r="BJ150">
-        <v>0</v>
-      </c>
-      <c r="BK150">
-        <v>0</v>
-      </c>
-      <c r="BL150">
-        <v>0</v>
-      </c>
-      <c r="BM150">
-        <v>0</v>
-      </c>
-      <c r="BN150">
-        <v>0</v>
-      </c>
-      <c r="BO150">
-        <v>0</v>
-      </c>
-      <c r="BP150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:68">
-      <c r="A151" s="1">
-        <v>150</v>
-      </c>
-      <c r="B151">
-        <v>7465548</v>
-      </c>
-      <c r="C151" t="s">
-        <v>68</v>
-      </c>
-      <c r="D151" t="s">
-        <v>69</v>
-      </c>
-      <c r="E151" s="2">
-        <v>45617.875</v>
-      </c>
-      <c r="F151">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s">
-        <v>85</v>
-      </c>
-      <c r="H151" t="s">
-        <v>83</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>2</v>
-      </c>
-      <c r="K151">
-        <v>2</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>3</v>
-      </c>
-      <c r="N151">
-        <v>3</v>
-      </c>
-      <c r="O151" t="s">
-        <v>93</v>
-      </c>
-      <c r="P151" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q151">
-        <v>3.4</v>
-      </c>
-      <c r="R151">
-        <v>2.38</v>
-      </c>
-      <c r="S151">
-        <v>2.75</v>
-      </c>
-      <c r="T151">
-        <v>1.29</v>
-      </c>
-      <c r="U151">
-        <v>3.5</v>
-      </c>
-      <c r="V151">
-        <v>2.25</v>
-      </c>
-      <c r="W151">
-        <v>1.57</v>
-      </c>
-      <c r="X151">
-        <v>5.5</v>
-      </c>
-      <c r="Y151">
-        <v>1.14</v>
-      </c>
-      <c r="Z151">
-        <v>3</v>
-      </c>
-      <c r="AA151">
-        <v>3.5</v>
-      </c>
-      <c r="AB151">
-        <v>2.15</v>
-      </c>
-      <c r="AC151">
-        <v>1.01</v>
-      </c>
-      <c r="AD151">
-        <v>13</v>
-      </c>
-      <c r="AE151">
-        <v>1.18</v>
-      </c>
-      <c r="AF151">
-        <v>4.75</v>
-      </c>
-      <c r="AG151">
-        <v>1.57</v>
-      </c>
-      <c r="AH151">
-        <v>2.35</v>
-      </c>
-      <c r="AI151">
-        <v>1.5</v>
-      </c>
-      <c r="AJ151">
-        <v>2.5</v>
-      </c>
-      <c r="AK151">
-        <v>1.55</v>
-      </c>
-      <c r="AL151">
-        <v>1.22</v>
-      </c>
-      <c r="AM151">
-        <v>1.44</v>
-      </c>
-      <c r="AN151">
-        <v>2.14</v>
-      </c>
-      <c r="AO151">
-        <v>1.57</v>
-      </c>
-      <c r="AP151">
-        <v>1.88</v>
-      </c>
-      <c r="AQ151">
-        <v>1.75</v>
-      </c>
-      <c r="AR151">
-        <v>1.8</v>
-      </c>
-      <c r="AS151">
-        <v>1.84</v>
-      </c>
-      <c r="AT151">
-        <v>3.64</v>
-      </c>
-      <c r="AU151">
-        <v>3</v>
-      </c>
-      <c r="AV151">
-        <v>8</v>
-      </c>
-      <c r="AW151">
-        <v>6</v>
-      </c>
-      <c r="AX151">
-        <v>2</v>
-      </c>
-      <c r="AY151">
-        <v>11</v>
-      </c>
-      <c r="AZ151">
-        <v>13</v>
-      </c>
-      <c r="BA151">
-        <v>5</v>
-      </c>
-      <c r="BB151">
-        <v>5</v>
-      </c>
-      <c r="BC151">
-        <v>10</v>
-      </c>
-      <c r="BD151">
-        <v>0</v>
-      </c>
-      <c r="BE151">
-        <v>0</v>
-      </c>
-      <c r="BF151">
-        <v>0</v>
-      </c>
-      <c r="BG151">
-        <v>0</v>
-      </c>
-      <c r="BH151">
-        <v>0</v>
-      </c>
-      <c r="BI151">
-        <v>0</v>
-      </c>
-      <c r="BJ151">
-        <v>0</v>
-      </c>
-      <c r="BK151">
-        <v>0</v>
-      </c>
-      <c r="BL151">
-        <v>0</v>
-      </c>
-      <c r="BM151">
-        <v>0</v>
-      </c>
-      <c r="BN151">
-        <v>0</v>
-      </c>
-      <c r="BO151">
-        <v>0</v>
-      </c>
-      <c r="BP151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:68">
-      <c r="A152" s="1">
-        <v>151</v>
-      </c>
-      <c r="B152">
-        <v>7465547</v>
-      </c>
-      <c r="C152" t="s">
-        <v>68</v>
-      </c>
-      <c r="D152" t="s">
-        <v>69</v>
-      </c>
-      <c r="E152" s="2">
-        <v>45617.875</v>
-      </c>
-      <c r="F152">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
-        <v>77</v>
-      </c>
-      <c r="H152" t="s">
-        <v>74</v>
-      </c>
-      <c r="I152">
-        <v>4</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>4</v>
-      </c>
-      <c r="L152">
-        <v>4</v>
-      </c>
-      <c r="M152">
-        <v>0</v>
-      </c>
-      <c r="N152">
-        <v>4</v>
-      </c>
-      <c r="O152" t="s">
-        <v>192</v>
-      </c>
-      <c r="P152" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q152">
-        <v>1.73</v>
-      </c>
-      <c r="R152">
-        <v>2.75</v>
-      </c>
-      <c r="S152">
-        <v>7</v>
-      </c>
-      <c r="T152">
-        <v>1.22</v>
-      </c>
-      <c r="U152">
-        <v>4</v>
-      </c>
-      <c r="V152">
-        <v>2.1</v>
-      </c>
-      <c r="W152">
-        <v>1.67</v>
-      </c>
-      <c r="X152">
-        <v>4.5</v>
-      </c>
-      <c r="Y152">
-        <v>1.18</v>
-      </c>
-      <c r="Z152">
-        <v>1.3</v>
-      </c>
-      <c r="AA152">
-        <v>5.5</v>
-      </c>
-      <c r="AB152">
-        <v>7.5</v>
-      </c>
-      <c r="AC152">
-        <v>0</v>
-      </c>
-      <c r="AD152">
-        <v>0</v>
-      </c>
-      <c r="AE152">
-        <v>1.14</v>
-      </c>
-      <c r="AF152">
-        <v>5.5</v>
-      </c>
-      <c r="AG152">
-        <v>1.44</v>
-      </c>
-      <c r="AH152">
-        <v>2.7</v>
-      </c>
-      <c r="AI152">
-        <v>1.73</v>
-      </c>
-      <c r="AJ152">
-        <v>2</v>
-      </c>
-      <c r="AK152">
-        <v>1.05</v>
-      </c>
-      <c r="AL152">
-        <v>1.14</v>
-      </c>
-      <c r="AM152">
-        <v>3.4</v>
-      </c>
-      <c r="AN152">
-        <v>2.29</v>
-      </c>
-      <c r="AO152">
-        <v>0.5</v>
-      </c>
-      <c r="AP152">
-        <v>2.38</v>
-      </c>
-      <c r="AQ152">
-        <v>0.5</v>
-      </c>
-      <c r="AR152">
-        <v>1.79</v>
-      </c>
-      <c r="AS152">
-        <v>1.03</v>
-      </c>
-      <c r="AT152">
-        <v>2.82</v>
-      </c>
-      <c r="AU152">
-        <v>13</v>
-      </c>
-      <c r="AV152">
-        <v>0</v>
-      </c>
-      <c r="AW152">
-        <v>7</v>
-      </c>
-      <c r="AX152">
-        <v>4</v>
-      </c>
-      <c r="AY152">
-        <v>28</v>
-      </c>
-      <c r="AZ152">
-        <v>6</v>
-      </c>
-      <c r="BA152">
-        <v>9</v>
-      </c>
-      <c r="BB152">
-        <v>5</v>
-      </c>
-      <c r="BC152">
-        <v>14</v>
-      </c>
-      <c r="BD152">
-        <v>0</v>
-      </c>
-      <c r="BE152">
-        <v>0</v>
-      </c>
-      <c r="BF152">
-        <v>0</v>
-      </c>
-      <c r="BG152">
-        <v>0</v>
-      </c>
-      <c r="BH152">
-        <v>0</v>
-      </c>
-      <c r="BI152">
-        <v>0</v>
-      </c>
-      <c r="BJ152">
-        <v>0</v>
-      </c>
-      <c r="BK152">
-        <v>0</v>
-      </c>
-      <c r="BL152">
-        <v>0</v>
-      </c>
-      <c r="BM152">
-        <v>0</v>
-      </c>
-      <c r="BN152">
-        <v>0</v>
-      </c>
-      <c r="BO152">
-        <v>0</v>
-      </c>
-      <c r="BP152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:68">
-      <c r="A153" s="1">
-        <v>152</v>
-      </c>
-      <c r="B153">
-        <v>7465552</v>
-      </c>
-      <c r="C153" t="s">
-        <v>68</v>
-      </c>
-      <c r="D153" t="s">
-        <v>69</v>
-      </c>
-      <c r="E153" s="2">
-        <v>45617.875</v>
-      </c>
-      <c r="F153">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>78</v>
-      </c>
-      <c r="H153" t="s">
-        <v>76</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>3</v>
-      </c>
-      <c r="K153">
-        <v>3</v>
-      </c>
-      <c r="L153">
-        <v>3</v>
-      </c>
-      <c r="M153">
-        <v>3</v>
-      </c>
-      <c r="N153">
-        <v>6</v>
-      </c>
-      <c r="O153" t="s">
-        <v>193</v>
-      </c>
-      <c r="P153" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q153">
-        <v>4</v>
-      </c>
-      <c r="R153">
-        <v>2.4</v>
-      </c>
-      <c r="S153">
-        <v>2.5</v>
-      </c>
-      <c r="T153">
-        <v>1.29</v>
-      </c>
-      <c r="U153">
-        <v>3.5</v>
-      </c>
-      <c r="V153">
-        <v>2.38</v>
-      </c>
-      <c r="W153">
-        <v>1.53</v>
-      </c>
-      <c r="X153">
-        <v>5.5</v>
-      </c>
-      <c r="Y153">
-        <v>1.14</v>
-      </c>
-      <c r="Z153">
-        <v>3.5</v>
-      </c>
-      <c r="AA153">
-        <v>3.75</v>
-      </c>
-      <c r="AB153">
-        <v>1.9</v>
-      </c>
-      <c r="AC153">
-        <v>1.04</v>
-      </c>
-      <c r="AD153">
-        <v>10</v>
-      </c>
-      <c r="AE153">
-        <v>1.18</v>
-      </c>
-      <c r="AF153">
-        <v>4.75</v>
-      </c>
-      <c r="AG153">
-        <v>1.57</v>
-      </c>
-      <c r="AH153">
-        <v>2.35</v>
-      </c>
-      <c r="AI153">
-        <v>1.53</v>
-      </c>
-      <c r="AJ153">
-        <v>2.38</v>
-      </c>
-      <c r="AK153">
-        <v>1.85</v>
-      </c>
-      <c r="AL153">
-        <v>1.22</v>
-      </c>
-      <c r="AM153">
-        <v>1.28</v>
-      </c>
-      <c r="AN153">
-        <v>1</v>
-      </c>
-      <c r="AO153">
-        <v>1.5</v>
-      </c>
-      <c r="AP153">
-        <v>1</v>
-      </c>
-      <c r="AQ153">
-        <v>1.43</v>
-      </c>
-      <c r="AR153">
-        <v>1.87</v>
-      </c>
-      <c r="AS153">
-        <v>1.58</v>
-      </c>
-      <c r="AT153">
-        <v>3.45</v>
-      </c>
-      <c r="AU153">
-        <v>7</v>
-      </c>
-      <c r="AV153">
-        <v>10</v>
-      </c>
-      <c r="AW153">
-        <v>4</v>
-      </c>
-      <c r="AX153">
-        <v>8</v>
-      </c>
-      <c r="AY153">
-        <v>15</v>
-      </c>
-      <c r="AZ153">
-        <v>20</v>
-      </c>
-      <c r="BA153">
-        <v>2</v>
-      </c>
-      <c r="BB153">
-        <v>1</v>
-      </c>
-      <c r="BC153">
-        <v>3</v>
-      </c>
-      <c r="BD153">
-        <v>0</v>
-      </c>
-      <c r="BE153">
-        <v>0</v>
-      </c>
-      <c r="BF153">
-        <v>0</v>
-      </c>
-      <c r="BG153">
-        <v>0</v>
-      </c>
-      <c r="BH153">
-        <v>0</v>
-      </c>
-      <c r="BI153">
-        <v>0</v>
-      </c>
-      <c r="BJ153">
-        <v>0</v>
-      </c>
-      <c r="BK153">
-        <v>0</v>
-      </c>
-      <c r="BL153">
-        <v>0</v>
-      </c>
-      <c r="BM153">
-        <v>0</v>
-      </c>
-      <c r="BN153">
-        <v>0</v>
-      </c>
-      <c r="BO153">
-        <v>0</v>
-      </c>
-      <c r="BP153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:68">
-      <c r="A154" s="1">
-        <v>153</v>
-      </c>
-      <c r="B154">
-        <v>7465564</v>
-      </c>
-      <c r="C154" t="s">
-        <v>68</v>
-      </c>
-      <c r="D154" t="s">
-        <v>69</v>
-      </c>
-      <c r="E154" s="2">
-        <v>45621.66666666666</v>
-      </c>
-      <c r="F154">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s">
-        <v>79</v>
-      </c>
-      <c r="H154" t="s">
-        <v>78</v>
-      </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-      <c r="J154">
-        <v>1</v>
-      </c>
-      <c r="K154">
-        <v>2</v>
-      </c>
-      <c r="L154">
-        <v>2</v>
-      </c>
-      <c r="M154">
-        <v>1</v>
-      </c>
-      <c r="N154">
-        <v>3</v>
-      </c>
-      <c r="O154" t="s">
-        <v>194</v>
-      </c>
-      <c r="P154" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q154">
-        <v>2.75</v>
-      </c>
-      <c r="R154">
-        <v>2.6</v>
-      </c>
-      <c r="S154">
-        <v>3.1</v>
-      </c>
-      <c r="T154">
-        <v>1.2</v>
-      </c>
-      <c r="U154">
-        <v>4.33</v>
-      </c>
-      <c r="V154">
-        <v>2</v>
-      </c>
-      <c r="W154">
-        <v>1.73</v>
-      </c>
-      <c r="X154">
-        <v>4.33</v>
-      </c>
-      <c r="Y154">
-        <v>1.2</v>
-      </c>
-      <c r="Z154">
-        <v>2.25</v>
-      </c>
-      <c r="AA154">
-        <v>4.07</v>
-      </c>
-      <c r="AB154">
-        <v>2.74</v>
-      </c>
-      <c r="AC154">
-        <v>0</v>
-      </c>
-      <c r="AD154">
-        <v>0</v>
-      </c>
-      <c r="AE154">
-        <v>1.09</v>
-      </c>
-      <c r="AF154">
-        <v>7.5</v>
-      </c>
-      <c r="AG154">
-        <v>1.36</v>
-      </c>
-      <c r="AH154">
-        <v>3.1</v>
-      </c>
-      <c r="AI154">
-        <v>1.33</v>
-      </c>
-      <c r="AJ154">
-        <v>3.25</v>
-      </c>
-      <c r="AK154">
-        <v>1.52</v>
-      </c>
-      <c r="AL154">
-        <v>1.18</v>
-      </c>
-      <c r="AM154">
-        <v>1.6</v>
-      </c>
-      <c r="AN154">
-        <v>0.29</v>
-      </c>
-      <c r="AO154">
-        <v>1.43</v>
-      </c>
-      <c r="AP154">
-        <v>0.63</v>
-      </c>
-      <c r="AQ154">
-        <v>1.25</v>
-      </c>
-      <c r="AR154">
-        <v>1.66</v>
-      </c>
-      <c r="AS154">
-        <v>1.28</v>
-      </c>
-      <c r="AT154">
-        <v>2.94</v>
-      </c>
-      <c r="AU154">
-        <v>4</v>
-      </c>
-      <c r="AV154">
-        <v>5</v>
-      </c>
-      <c r="AW154">
-        <v>4</v>
-      </c>
-      <c r="AX154">
-        <v>4</v>
-      </c>
-      <c r="AY154">
-        <v>9</v>
-      </c>
-      <c r="AZ154">
-        <v>14</v>
-      </c>
-      <c r="BA154">
-        <v>6</v>
-      </c>
-      <c r="BB154">
-        <v>3</v>
-      </c>
-      <c r="BC154">
-        <v>9</v>
-      </c>
-      <c r="BD154">
-        <v>2.25</v>
-      </c>
-      <c r="BE154">
-        <v>6</v>
-      </c>
-      <c r="BF154">
-        <v>1.92</v>
-      </c>
-      <c r="BG154">
-        <v>0</v>
-      </c>
-      <c r="BH154">
-        <v>0</v>
-      </c>
-      <c r="BI154">
-        <v>1.28</v>
-      </c>
-      <c r="BJ154">
-        <v>3.3</v>
-      </c>
-      <c r="BK154">
-        <v>1.52</v>
-      </c>
-      <c r="BL154">
-        <v>2.32</v>
-      </c>
-      <c r="BM154">
-        <v>1.92</v>
-      </c>
-      <c r="BN154">
-        <v>1.78</v>
-      </c>
-      <c r="BO154">
-        <v>2.55</v>
-      </c>
-      <c r="BP154">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:68">
-      <c r="A155" s="1">
-        <v>154</v>
-      </c>
-      <c r="B155">
-        <v>7465559</v>
-      </c>
-      <c r="C155" t="s">
-        <v>68</v>
-      </c>
-      <c r="D155" t="s">
-        <v>69</v>
-      </c>
-      <c r="E155" s="2">
-        <v>45621.66666666666</v>
-      </c>
-      <c r="F155">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
-        <v>86</v>
-      </c>
-      <c r="H155" t="s">
-        <v>74</v>
-      </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>1</v>
-      </c>
-      <c r="L155">
-        <v>2</v>
-      </c>
-      <c r="M155">
-        <v>2</v>
-      </c>
-      <c r="N155">
-        <v>4</v>
-      </c>
-      <c r="O155" t="s">
-        <v>195</v>
-      </c>
-      <c r="P155" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q155">
-        <v>1.91</v>
-      </c>
-      <c r="R155">
-        <v>2.75</v>
-      </c>
-      <c r="S155">
-        <v>5.5</v>
-      </c>
-      <c r="T155">
-        <v>1.22</v>
-      </c>
-      <c r="U155">
-        <v>4</v>
-      </c>
-      <c r="V155">
-        <v>2</v>
-      </c>
-      <c r="W155">
-        <v>1.73</v>
-      </c>
-      <c r="X155">
-        <v>4.33</v>
-      </c>
-      <c r="Y155">
-        <v>1.2</v>
-      </c>
-      <c r="Z155">
-        <v>1.43</v>
-      </c>
-      <c r="AA155">
-        <v>5.06</v>
-      </c>
-      <c r="AB155">
-        <v>6.04</v>
-      </c>
-      <c r="AC155">
-        <v>0</v>
-      </c>
-      <c r="AD155">
-        <v>0</v>
-      </c>
-      <c r="AE155">
-        <v>1.12</v>
-      </c>
-      <c r="AF155">
-        <v>6</v>
-      </c>
-      <c r="AG155">
-        <v>1.4</v>
-      </c>
-      <c r="AH155">
-        <v>2.88</v>
-      </c>
-      <c r="AI155">
-        <v>1.57</v>
-      </c>
-      <c r="AJ155">
-        <v>2.25</v>
-      </c>
-      <c r="AK155">
-        <v>1.11</v>
-      </c>
-      <c r="AL155">
-        <v>1.12</v>
-      </c>
-      <c r="AM155">
-        <v>2.8</v>
-      </c>
-      <c r="AN155">
-        <v>2.14</v>
-      </c>
-      <c r="AO155">
-        <v>0.43</v>
-      </c>
-      <c r="AP155">
-        <v>2</v>
-      </c>
-      <c r="AQ155">
-        <v>0.5</v>
-      </c>
-      <c r="AR155">
-        <v>2.01</v>
-      </c>
-      <c r="AS155">
-        <v>0.96</v>
-      </c>
-      <c r="AT155">
-        <v>2.97</v>
-      </c>
-      <c r="AU155">
-        <v>7</v>
-      </c>
-      <c r="AV155">
-        <v>5</v>
-      </c>
-      <c r="AW155">
-        <v>8</v>
-      </c>
-      <c r="AX155">
-        <v>0</v>
-      </c>
-      <c r="AY155">
-        <v>23</v>
-      </c>
-      <c r="AZ155">
-        <v>8</v>
-      </c>
-      <c r="BA155">
-        <v>3</v>
-      </c>
-      <c r="BB155">
-        <v>5</v>
-      </c>
-      <c r="BC155">
-        <v>8</v>
-      </c>
-      <c r="BD155">
-        <v>1.22</v>
-      </c>
-      <c r="BE155">
-        <v>8</v>
-      </c>
-      <c r="BF155">
-        <v>5.45</v>
-      </c>
-      <c r="BG155">
-        <v>1.16</v>
-      </c>
-      <c r="BH155">
-        <v>4.4</v>
-      </c>
-      <c r="BI155">
-        <v>1.28</v>
-      </c>
-      <c r="BJ155">
-        <v>3.3</v>
-      </c>
-      <c r="BK155">
-        <v>1.5</v>
-      </c>
-      <c r="BL155">
-        <v>2.38</v>
-      </c>
-      <c r="BM155">
-        <v>1.88</v>
-      </c>
-      <c r="BN155">
-        <v>1.8</v>
-      </c>
-      <c r="BO155">
-        <v>2.45</v>
-      </c>
-      <c r="BP155">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="156" spans="1:68">
-      <c r="A156" s="1">
-        <v>155</v>
-      </c>
-      <c r="B156">
-        <v>7465560</v>
-      </c>
-      <c r="C156" t="s">
-        <v>68</v>
-      </c>
-      <c r="D156" t="s">
-        <v>69</v>
-      </c>
-      <c r="E156" s="2">
-        <v>45621.66666666666</v>
-      </c>
-      <c r="F156">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s">
-        <v>71</v>
-      </c>
-      <c r="H156" t="s">
-        <v>77</v>
-      </c>
-      <c r="I156">
-        <v>2</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>2</v>
-      </c>
-      <c r="L156">
-        <v>3</v>
-      </c>
-      <c r="M156">
-        <v>0</v>
-      </c>
-      <c r="N156">
-        <v>3</v>
-      </c>
-      <c r="O156" t="s">
-        <v>196</v>
-      </c>
-      <c r="P156" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q156">
-        <v>2.63</v>
-      </c>
-      <c r="R156">
-        <v>2.5</v>
-      </c>
-      <c r="S156">
-        <v>3.25</v>
-      </c>
-      <c r="T156">
-        <v>1.25</v>
-      </c>
-      <c r="U156">
-        <v>3.75</v>
-      </c>
-      <c r="V156">
-        <v>2.2</v>
-      </c>
-      <c r="W156">
-        <v>1.62</v>
-      </c>
-      <c r="X156">
-        <v>5</v>
-      </c>
-      <c r="Y156">
-        <v>1.17</v>
-      </c>
-      <c r="Z156">
-        <v>2.18</v>
-      </c>
-      <c r="AA156">
-        <v>3.88</v>
-      </c>
-      <c r="AB156">
-        <v>2.94</v>
-      </c>
-      <c r="AC156">
-        <v>1.01</v>
-      </c>
-      <c r="AD156">
-        <v>15</v>
-      </c>
-      <c r="AE156">
-        <v>1.16</v>
-      </c>
-      <c r="AF156">
-        <v>5</v>
-      </c>
-      <c r="AG156">
-        <v>1.48</v>
-      </c>
-      <c r="AH156">
-        <v>2.6</v>
-      </c>
-      <c r="AI156">
-        <v>1.4</v>
-      </c>
-      <c r="AJ156">
-        <v>2.75</v>
-      </c>
-      <c r="AK156">
-        <v>1.45</v>
-      </c>
-      <c r="AL156">
-        <v>1.2</v>
-      </c>
-      <c r="AM156">
-        <v>1.63</v>
-      </c>
-      <c r="AN156">
-        <v>1.13</v>
-      </c>
-      <c r="AO156">
-        <v>1.43</v>
-      </c>
-      <c r="AP156">
-        <v>1.33</v>
-      </c>
-      <c r="AQ156">
-        <v>1.25</v>
-      </c>
-      <c r="AR156">
-        <v>1.76</v>
-      </c>
-      <c r="AS156">
-        <v>1.95</v>
-      </c>
-      <c r="AT156">
-        <v>3.71</v>
-      </c>
-      <c r="AU156">
-        <v>8</v>
-      </c>
-      <c r="AV156">
-        <v>3</v>
-      </c>
-      <c r="AW156">
-        <v>2</v>
-      </c>
-      <c r="AX156">
-        <v>5</v>
-      </c>
-      <c r="AY156">
-        <v>14</v>
-      </c>
-      <c r="AZ156">
-        <v>10</v>
-      </c>
-      <c r="BA156">
-        <v>3</v>
-      </c>
-      <c r="BB156">
-        <v>5</v>
-      </c>
-      <c r="BC156">
-        <v>8</v>
-      </c>
-      <c r="BD156">
-        <v>2</v>
-      </c>
-      <c r="BE156">
-        <v>6</v>
-      </c>
-      <c r="BF156">
-        <v>2.15</v>
-      </c>
-      <c r="BG156">
-        <v>0</v>
-      </c>
-      <c r="BH156">
-        <v>0</v>
-      </c>
-      <c r="BI156">
-        <v>1.28</v>
-      </c>
-      <c r="BJ156">
-        <v>3.3</v>
-      </c>
-      <c r="BK156">
-        <v>1.5</v>
-      </c>
-      <c r="BL156">
-        <v>2.35</v>
-      </c>
-      <c r="BM156">
-        <v>1.88</v>
-      </c>
-      <c r="BN156">
-        <v>1.8</v>
-      </c>
-      <c r="BO156">
-        <v>2.48</v>
-      </c>
-      <c r="BP156">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="157" spans="1:68">
-      <c r="A157" s="1">
-        <v>156</v>
-      </c>
-      <c r="B157">
-        <v>7465561</v>
-      </c>
-      <c r="C157" t="s">
-        <v>68</v>
-      </c>
-      <c r="D157" t="s">
-        <v>69</v>
-      </c>
-      <c r="E157" s="2">
-        <v>45621.66666666666</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157" t="s">
-        <v>88</v>
-      </c>
-      <c r="H157" t="s">
-        <v>89</v>
-      </c>
-      <c r="I157">
-        <v>2</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>2</v>
-      </c>
-      <c r="L157">
-        <v>3</v>
-      </c>
-      <c r="M157">
-        <v>0</v>
-      </c>
-      <c r="N157">
-        <v>3</v>
-      </c>
-      <c r="O157" t="s">
-        <v>197</v>
-      </c>
-      <c r="P157" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q157">
-        <v>1.83</v>
-      </c>
-      <c r="R157">
-        <v>2.88</v>
-      </c>
-      <c r="S157">
-        <v>5.5</v>
-      </c>
-      <c r="T157">
-        <v>1.18</v>
-      </c>
-      <c r="U157">
-        <v>4.5</v>
-      </c>
-      <c r="V157">
-        <v>1.83</v>
-      </c>
-      <c r="W157">
-        <v>1.83</v>
-      </c>
-      <c r="X157">
-        <v>3.75</v>
-      </c>
-      <c r="Y157">
-        <v>1.25</v>
-      </c>
-      <c r="Z157">
-        <v>1.4</v>
-      </c>
-      <c r="AA157">
-        <v>5.3</v>
-      </c>
-      <c r="AB157">
-        <v>6.14</v>
-      </c>
-      <c r="AC157">
-        <v>0</v>
-      </c>
-      <c r="AD157">
-        <v>0</v>
-      </c>
-      <c r="AE157">
-        <v>1.08</v>
-      </c>
-      <c r="AF157">
-        <v>7.5</v>
-      </c>
-      <c r="AG157">
-        <v>1.29</v>
-      </c>
-      <c r="AH157">
-        <v>3.6</v>
-      </c>
-      <c r="AI157">
-        <v>1.44</v>
-      </c>
-      <c r="AJ157">
-        <v>2.63</v>
-      </c>
-      <c r="AK157">
-        <v>1.12</v>
-      </c>
-      <c r="AL157">
-        <v>1.12</v>
-      </c>
-      <c r="AM157">
-        <v>2.8</v>
-      </c>
-      <c r="AN157">
-        <v>2.14</v>
-      </c>
-      <c r="AO157">
-        <v>1.29</v>
-      </c>
-      <c r="AP157">
-        <v>2.25</v>
-      </c>
-      <c r="AQ157">
-        <v>1.13</v>
-      </c>
-      <c r="AR157">
-        <v>2.01</v>
-      </c>
-      <c r="AS157">
-        <v>1.47</v>
-      </c>
-      <c r="AT157">
-        <v>3.48</v>
-      </c>
-      <c r="AU157">
-        <v>9</v>
-      </c>
-      <c r="AV157">
-        <v>3</v>
-      </c>
-      <c r="AW157">
-        <v>10</v>
-      </c>
-      <c r="AX157">
-        <v>5</v>
-      </c>
-      <c r="AY157">
-        <v>25</v>
-      </c>
-      <c r="AZ157">
-        <v>13</v>
-      </c>
-      <c r="BA157">
-        <v>5</v>
-      </c>
-      <c r="BB157">
-        <v>5</v>
-      </c>
-      <c r="BC157">
-        <v>10</v>
-      </c>
-      <c r="BD157">
-        <v>1.25</v>
-      </c>
-      <c r="BE157">
-        <v>7.8</v>
-      </c>
-      <c r="BF157">
-        <v>5.05</v>
-      </c>
-      <c r="BG157">
-        <v>1.15</v>
-      </c>
-      <c r="BH157">
-        <v>4.5</v>
-      </c>
-      <c r="BI157">
-        <v>1.24</v>
-      </c>
-      <c r="BJ157">
-        <v>3.55</v>
-      </c>
-      <c r="BK157">
-        <v>1.48</v>
-      </c>
-      <c r="BL157">
-        <v>2.45</v>
-      </c>
-      <c r="BM157">
-        <v>1.82</v>
-      </c>
-      <c r="BN157">
-        <v>1.85</v>
-      </c>
-      <c r="BO157">
-        <v>2.38</v>
-      </c>
-      <c r="BP157">
         <v>1.5</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,24 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['54', '73']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['20', '64', '90+2']</t>
+  </si>
+  <si>
+    <t>['47', '54', '77']</t>
+  </si>
+  <si>
+    <t>['37', '39', '42', '45']</t>
+  </si>
+  <si>
+    <t>['47', '59', '90+5']</t>
+  </si>
+  <si>
     <t>['4', '82']</t>
   </si>
   <si>
@@ -590,6 +608,12 @@
   </si>
   <si>
     <t>['17', '42', '90+8']</t>
+  </si>
+  <si>
+    <t>['69', '89']</t>
+  </si>
+  <si>
+    <t>['9', '65', '90+3']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -611,9 +635,6 @@
   </si>
   <si>
     <t>['36', '52', '60']</t>
-  </si>
-  <si>
-    <t>['32']</t>
   </si>
   <si>
     <t>['85', '90+5']</t>
@@ -835,7 +856,37 @@
     <t>['12', '19']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['4', '20', '27', '42']</t>
+  </si>
+  <si>
+    <t>['20', '64']</t>
+  </si>
+  <si>
+    <t>['14', '15', '37', '42', '82', '90+3']</t>
+  </si>
+  <si>
+    <t>['63', '86', '89']</t>
+  </si>
+  <si>
+    <t>['5', '24', '49', '88']</t>
+  </si>
+  <si>
+    <t>['34', '42', '68']</t>
+  </si>
+  <si>
+    <t>['28', '34', '41']</t>
+  </si>
+  <si>
     <t>['72', '76']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['7', '81']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1588,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ2">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1662,7 +1713,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1743,7 +1794,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1868,7 +1919,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1946,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>0.57</v>
@@ -2074,7 +2125,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2152,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2280,7 +2331,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2361,7 +2412,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2486,7 +2537,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2564,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2692,7 +2743,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2898,7 +2949,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2976,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3104,7 +3155,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3185,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3310,7 +3361,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3388,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ11">
         <v>1.13</v>
@@ -3594,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ12">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3722,7 +3773,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3803,7 +3854,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4006,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4340,7 +4391,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4418,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4624,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4833,7 +4884,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5036,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19">
         <v>2.29</v>
@@ -5164,7 +5215,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5245,7 +5296,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ20">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5448,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5657,7 +5708,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ22">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -6066,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -6194,7 +6245,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6272,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ25">
         <v>0.57</v>
@@ -6400,7 +6451,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6481,7 +6532,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -6606,7 +6657,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6890,10 +6941,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -7018,7 +7069,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7096,10 +7147,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7305,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -7430,7 +7481,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7508,10 +7559,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -7714,10 +7765,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -8048,7 +8099,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8126,7 +8177,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8254,7 +8305,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8332,10 +8383,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ35">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR35">
         <v>0.8</v>
@@ -8538,7 +8589,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8747,7 +8798,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -8872,7 +8923,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8953,7 +9004,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.6</v>
@@ -9078,7 +9129,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9156,10 +9207,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
         <v>2.22</v>
@@ -9365,7 +9416,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9490,7 +9541,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9568,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ41">
         <v>1.25</v>
@@ -9774,10 +9825,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10108,7 +10159,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10186,7 +10237,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ44">
         <v>1.13</v>
@@ -10314,7 +10365,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10392,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ45">
         <v>0.57</v>
@@ -10520,7 +10571,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10726,7 +10777,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10807,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -10932,7 +10983,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11010,10 +11061,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.9</v>
@@ -11219,7 +11270,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ49">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11344,7 +11395,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11422,7 +11473,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ50">
         <v>2.29</v>
@@ -11550,7 +11601,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11631,7 +11682,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11756,7 +11807,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11837,7 +11888,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12040,10 +12091,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>2.41</v>
@@ -12246,10 +12297,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.99</v>
@@ -12580,7 +12631,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12661,7 +12712,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.88</v>
@@ -12864,10 +12915,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.47</v>
@@ -12992,7 +13043,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13070,10 +13121,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ58">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR58">
         <v>1.06</v>
@@ -13198,7 +13249,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13276,10 +13327,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.91</v>
@@ -13485,7 +13536,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ60">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>1.64</v>
@@ -13610,7 +13661,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13688,7 +13739,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -13816,7 +13867,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13894,7 +13945,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -14022,7 +14073,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14100,10 +14151,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AQ63">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14306,10 +14357,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR64">
         <v>2.12</v>
@@ -14515,7 +14566,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14640,7 +14691,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14721,7 +14772,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -14924,7 +14975,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ67">
         <v>0.5</v>
@@ -15052,7 +15103,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15130,7 +15181,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ68">
         <v>1.13</v>
@@ -15258,7 +15309,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15339,7 +15390,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15464,7 +15515,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15670,7 +15721,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15748,10 +15799,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ71">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR71">
         <v>1.34</v>
@@ -15876,7 +15927,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16082,7 +16133,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16160,10 +16211,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16288,7 +16339,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16494,7 +16545,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16781,7 +16832,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ76">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -16987,7 +17038,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ77">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
         <v>1.86</v>
@@ -17112,7 +17163,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17190,10 +17241,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ78">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17318,7 +17369,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17396,10 +17447,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ79">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17602,10 +17653,10 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ80">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.68</v>
@@ -17730,7 +17781,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17808,7 +17859,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ81">
         <v>2.29</v>
@@ -18014,10 +18065,10 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ82">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR82">
         <v>1.76</v>
@@ -18142,7 +18193,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18220,10 +18271,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ83">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18348,7 +18399,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18429,7 +18480,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -18632,10 +18683,10 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ85">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR85">
         <v>1.66</v>
@@ -18838,10 +18889,10 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -18966,7 +19017,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19047,7 +19098,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR87">
         <v>1.95</v>
@@ -19172,7 +19223,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19584,7 +19635,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19662,7 +19713,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ90">
         <v>1.25</v>
@@ -19868,7 +19919,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91">
         <v>1.13</v>
@@ -19996,7 +20047,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20280,7 +20331,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20408,7 +20459,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20614,7 +20665,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20692,10 +20743,10 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR95">
         <v>1.66</v>
@@ -20820,7 +20871,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20901,7 +20952,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -21026,7 +21077,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21104,10 +21155,10 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ97">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR97">
         <v>1.77</v>
@@ -21310,7 +21361,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ98">
         <v>0.57</v>
@@ -21438,7 +21489,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21519,7 +21570,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ99">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -21722,10 +21773,10 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ100">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -21850,7 +21901,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22056,7 +22107,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22134,7 +22185,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22343,7 +22394,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22468,7 +22519,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22546,10 +22597,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ104">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -22752,10 +22803,10 @@
         <v>1.25</v>
       </c>
       <c r="AP105">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -22880,7 +22931,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22958,10 +23009,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23164,10 +23215,10 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ107">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR107">
         <v>1.77</v>
@@ -23373,7 +23424,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR108">
         <v>1.82</v>
@@ -23498,7 +23549,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23576,7 +23627,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ109">
         <v>1.25</v>
@@ -23704,7 +23755,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23785,7 +23836,7 @@
         <v>2</v>
       </c>
       <c r="AQ110">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>2.02</v>
@@ -23910,7 +23961,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23991,7 +24042,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ111">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR111">
         <v>1.8</v>
@@ -24116,7 +24167,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24528,7 +24579,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24609,7 +24660,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24734,7 +24785,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24812,7 +24863,7 @@
         <v>1.8</v>
       </c>
       <c r="AP115">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -24940,7 +24991,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25146,7 +25197,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25224,7 +25275,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25352,7 +25403,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25430,10 +25481,10 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ118">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR118">
         <v>1.66</v>
@@ -25558,7 +25609,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25639,7 +25690,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ119">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR119">
         <v>1.83</v>
@@ -25764,7 +25815,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25845,7 +25896,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR120">
         <v>1.79</v>
@@ -25970,7 +26021,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26048,7 +26099,7 @@
         <v>2.6</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
         <v>2.29</v>
@@ -26176,7 +26227,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26257,7 +26308,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR122">
         <v>1.92</v>
@@ -26382,7 +26433,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26460,7 +26511,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26588,7 +26639,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26666,10 +26717,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ124">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -26794,7 +26845,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -26875,7 +26926,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ125">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR125">
         <v>1.31</v>
@@ -27078,10 +27129,10 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ126">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR126">
         <v>1.62</v>
@@ -27206,7 +27257,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27284,10 +27335,10 @@
         <v>0.86</v>
       </c>
       <c r="AP127">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR127">
         <v>1.8</v>
@@ -27412,7 +27463,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27493,7 +27544,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ128">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -27696,10 +27747,10 @@
         <v>1.33</v>
       </c>
       <c r="AP129">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AQ129">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR129">
         <v>1.74</v>
@@ -27824,7 +27875,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27902,7 +27953,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ130">
         <v>0.5</v>
@@ -28030,7 +28081,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28108,10 +28159,10 @@
         <v>2.4</v>
       </c>
       <c r="AP131">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ131">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -28314,7 +28365,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>1.25</v>
@@ -28442,7 +28493,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28520,7 +28571,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ133">
         <v>1.25</v>
@@ -28729,7 +28780,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ134">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR134">
         <v>1.22</v>
@@ -28932,7 +28983,7 @@
         <v>1.71</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ135">
         <v>1.5</v>
@@ -29060,7 +29111,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29347,7 +29398,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -29553,7 +29604,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.74</v>
@@ -29962,10 +30013,10 @@
         <v>1.71</v>
       </c>
       <c r="AP140">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
         <v>1.77</v>
@@ -30502,7 +30553,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30666,7 +30717,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7465564</v>
+        <v>7465556</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30675,25 +30726,25 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45621.66666666666</v>
+        <v>45618.66666666666</v>
       </c>
       <c r="F144">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H144" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>1</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L144">
         <v>2</v>
@@ -30708,115 +30759,115 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="Q144">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R144">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="S144">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="T144">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="U144">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W144">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="X144">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Y144">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="Z144">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="AA144">
-        <v>4.07</v>
+        <v>3.75</v>
       </c>
       <c r="AB144">
-        <v>2.74</v>
+        <v>1.95</v>
       </c>
       <c r="AC144">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD144">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE144">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AF144">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="AG144">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AH144">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="AI144">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AJ144">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="AK144">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="AL144">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AM144">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AN144">
-        <v>0.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO144">
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144">
         <v>1.25</v>
       </c>
       <c r="AR144">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AS144">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AT144">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="AU144">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV144">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW144">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX144">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY144">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ144">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA144">
         <v>6</v>
@@ -30828,13 +30879,13 @@
         <v>9</v>
       </c>
       <c r="BD144">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BE144">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BF144">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BG144">
         <v>0</v>
@@ -30843,28 +30894,28 @@
         <v>0</v>
       </c>
       <c r="BI144">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BJ144">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="BK144">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BL144">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="BM144">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BN144">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="BO144">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BP144">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30872,7 +30923,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7465559</v>
+        <v>7465554</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30881,196 +30932,196 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45621.66666666666</v>
+        <v>45618.66666666666</v>
       </c>
       <c r="F145">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H145" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>143</v>
+      </c>
+      <c r="P145" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q145">
         <v>4</v>
       </c>
-      <c r="O145" t="s">
-        <v>189</v>
-      </c>
-      <c r="P145" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q145">
-        <v>1.91</v>
-      </c>
       <c r="R145">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S145">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="T145">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U145">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W145">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X145">
+        <v>4.5</v>
+      </c>
+      <c r="Y145">
+        <v>1.18</v>
+      </c>
+      <c r="Z145">
+        <v>3.5</v>
+      </c>
+      <c r="AA145">
         <v>4.33</v>
       </c>
-      <c r="Y145">
-        <v>1.2</v>
-      </c>
-      <c r="Z145">
-        <v>1.43</v>
-      </c>
-      <c r="AA145">
-        <v>5.06</v>
-      </c>
       <c r="AB145">
-        <v>6.04</v>
+        <v>1.75</v>
       </c>
       <c r="AC145">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD145">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE145">
         <v>1.12</v>
       </c>
       <c r="AF145">
+        <v>5.75</v>
+      </c>
+      <c r="AG145">
+        <v>1.44</v>
+      </c>
+      <c r="AH145">
+        <v>2.7</v>
+      </c>
+      <c r="AI145">
+        <v>1.44</v>
+      </c>
+      <c r="AJ145">
+        <v>2.63</v>
+      </c>
+      <c r="AK145">
+        <v>1.95</v>
+      </c>
+      <c r="AL145">
+        <v>1.18</v>
+      </c>
+      <c r="AM145">
+        <v>1.25</v>
+      </c>
+      <c r="AN145">
+        <v>0.33</v>
+      </c>
+      <c r="AO145">
+        <v>1.57</v>
+      </c>
+      <c r="AP145">
+        <v>0.63</v>
+      </c>
+      <c r="AQ145">
+        <v>1.75</v>
+      </c>
+      <c r="AR145">
+        <v>1.6</v>
+      </c>
+      <c r="AS145">
+        <v>1.64</v>
+      </c>
+      <c r="AT145">
+        <v>3.24</v>
+      </c>
+      <c r="AU145">
+        <v>-1</v>
+      </c>
+      <c r="AV145">
+        <v>-1</v>
+      </c>
+      <c r="AW145">
+        <v>-1</v>
+      </c>
+      <c r="AX145">
+        <v>-1</v>
+      </c>
+      <c r="AY145">
+        <v>-1</v>
+      </c>
+      <c r="AZ145">
+        <v>-1</v>
+      </c>
+      <c r="BA145">
+        <v>4</v>
+      </c>
+      <c r="BB145">
         <v>6</v>
       </c>
-      <c r="AG145">
-        <v>1.4</v>
-      </c>
-      <c r="AH145">
-        <v>2.88</v>
-      </c>
-      <c r="AI145">
-        <v>1.57</v>
-      </c>
-      <c r="AJ145">
-        <v>2.25</v>
-      </c>
-      <c r="AK145">
-        <v>1.11</v>
-      </c>
-      <c r="AL145">
-        <v>1.12</v>
-      </c>
-      <c r="AM145">
-        <v>2.8</v>
-      </c>
-      <c r="AN145">
-        <v>2.14</v>
-      </c>
-      <c r="AO145">
-        <v>0.5</v>
-      </c>
-      <c r="AP145">
-        <v>2</v>
-      </c>
-      <c r="AQ145">
-        <v>0.57</v>
-      </c>
-      <c r="AR145">
-        <v>2.01</v>
-      </c>
-      <c r="AS145">
-        <v>1.03</v>
-      </c>
-      <c r="AT145">
-        <v>3.04</v>
-      </c>
-      <c r="AU145">
-        <v>7</v>
-      </c>
-      <c r="AV145">
-        <v>5</v>
-      </c>
-      <c r="AW145">
-        <v>8</v>
-      </c>
-      <c r="AX145">
-        <v>0</v>
-      </c>
-      <c r="AY145">
-        <v>23</v>
-      </c>
-      <c r="AZ145">
-        <v>8</v>
-      </c>
-      <c r="BA145">
-        <v>3</v>
-      </c>
-      <c r="BB145">
-        <v>5</v>
-      </c>
       <c r="BC145">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD145">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BE145">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF145">
-        <v>5.45</v>
+        <v>0</v>
       </c>
       <c r="BG145">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="BH145">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BI145">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BJ145">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="BK145">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BL145">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BM145">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BN145">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BO145">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BP145">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -31078,7 +31129,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7465560</v>
+        <v>7465558</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31087,166 +31138,166 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45621.66666666666</v>
+        <v>45618.66666666666</v>
       </c>
       <c r="F146">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G146" t="s">
+        <v>80</v>
+      </c>
+      <c r="H146" t="s">
         <v>71</v>
       </c>
-      <c r="H146" t="s">
-        <v>77</v>
-      </c>
       <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
         <v>2</v>
       </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
+      <c r="N146">
         <v>2</v>
       </c>
-      <c r="L146">
-        <v>3</v>
-      </c>
-      <c r="M146">
-        <v>0</v>
-      </c>
-      <c r="N146">
-        <v>3</v>
-      </c>
       <c r="O146" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="Q146">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="R146">
+        <v>2.38</v>
+      </c>
+      <c r="S146">
         <v>2.5</v>
       </c>
-      <c r="S146">
-        <v>3.25</v>
-      </c>
       <c r="T146">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U146">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V146">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W146">
+        <v>1.5</v>
+      </c>
+      <c r="X146">
+        <v>6</v>
+      </c>
+      <c r="Y146">
+        <v>1.13</v>
+      </c>
+      <c r="Z146">
+        <v>3.5</v>
+      </c>
+      <c r="AA146">
+        <v>3.6</v>
+      </c>
+      <c r="AB146">
+        <v>1.91</v>
+      </c>
+      <c r="AC146">
+        <v>1.04</v>
+      </c>
+      <c r="AD146">
+        <v>10</v>
+      </c>
+      <c r="AE146">
+        <v>1.2</v>
+      </c>
+      <c r="AF146">
+        <v>4.33</v>
+      </c>
+      <c r="AG146">
         <v>1.62</v>
       </c>
-      <c r="X146">
-        <v>5</v>
-      </c>
-      <c r="Y146">
-        <v>1.17</v>
-      </c>
-      <c r="Z146">
-        <v>2.18</v>
-      </c>
-      <c r="AA146">
-        <v>3.88</v>
-      </c>
-      <c r="AB146">
-        <v>2.94</v>
-      </c>
-      <c r="AC146">
-        <v>1.01</v>
-      </c>
-      <c r="AD146">
-        <v>15</v>
-      </c>
-      <c r="AE146">
-        <v>1.16</v>
-      </c>
-      <c r="AF146">
-        <v>5</v>
-      </c>
-      <c r="AG146">
-        <v>1.48</v>
-      </c>
       <c r="AH146">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AI146">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AJ146">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AK146">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AL146">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM146">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="AN146">
-        <v>1.13</v>
+        <v>0.5</v>
       </c>
       <c r="AO146">
-        <v>1.43</v>
+        <v>2.5</v>
       </c>
       <c r="AP146">
-        <v>1.33</v>
+        <v>0.44</v>
       </c>
       <c r="AQ146">
-        <v>1.25</v>
+        <v>2.57</v>
       </c>
       <c r="AR146">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="AS146">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AT146">
-        <v>3.71</v>
+        <v>3.48</v>
       </c>
       <c r="AU146">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV146">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX146">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY146">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ146">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA146">
         <v>3</v>
       </c>
       <c r="BB146">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC146">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE146">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BF146">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BG146">
         <v>0</v>
@@ -31255,28 +31306,28 @@
         <v>0</v>
       </c>
       <c r="BI146">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BJ146">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="BK146">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BL146">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="BM146">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BN146">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BO146">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="BP146">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31284,7 +31335,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7465561</v>
+        <v>7465557</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31293,196 +31344,3080 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F147">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s">
+        <v>87</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>4</v>
+      </c>
+      <c r="K147">
+        <v>4</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>6</v>
+      </c>
+      <c r="N147">
+        <v>6</v>
+      </c>
+      <c r="O147" t="s">
+        <v>93</v>
+      </c>
+      <c r="P147" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q147">
+        <v>3.6</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
+        <v>3</v>
+      </c>
+      <c r="T147">
+        <v>1.4</v>
+      </c>
+      <c r="U147">
+        <v>2.75</v>
+      </c>
+      <c r="V147">
+        <v>3</v>
+      </c>
+      <c r="W147">
+        <v>1.36</v>
+      </c>
+      <c r="X147">
+        <v>8</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>2.7</v>
+      </c>
+      <c r="AA147">
+        <v>3.8</v>
+      </c>
+      <c r="AB147">
+        <v>2.2</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
+        <v>9.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.28</v>
+      </c>
+      <c r="AF147">
+        <v>3.5</v>
+      </c>
+      <c r="AG147">
+        <v>1.95</v>
+      </c>
+      <c r="AH147">
+        <v>1.85</v>
+      </c>
+      <c r="AI147">
+        <v>1.83</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
+        <v>1.55</v>
+      </c>
+      <c r="AL147">
+        <v>1.22</v>
+      </c>
+      <c r="AM147">
+        <v>1.48</v>
+      </c>
+      <c r="AN147">
+        <v>0.57</v>
+      </c>
+      <c r="AO147">
+        <v>2.14</v>
+      </c>
+      <c r="AP147">
+        <v>0.5</v>
+      </c>
+      <c r="AQ147">
+        <v>2.25</v>
+      </c>
+      <c r="AR147">
+        <v>1.58</v>
+      </c>
+      <c r="AS147">
+        <v>1.94</v>
+      </c>
+      <c r="AT147">
+        <v>3.52</v>
+      </c>
+      <c r="AU147">
+        <v>-1</v>
+      </c>
+      <c r="AV147">
+        <v>-1</v>
+      </c>
+      <c r="AW147">
+        <v>-1</v>
+      </c>
+      <c r="AX147">
+        <v>-1</v>
+      </c>
+      <c r="AY147">
+        <v>-1</v>
+      </c>
+      <c r="AZ147">
+        <v>-1</v>
+      </c>
+      <c r="BA147">
+        <v>3</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>3</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>0</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>0</v>
+      </c>
+      <c r="BJ147">
+        <v>0</v>
+      </c>
+      <c r="BK147">
+        <v>0</v>
+      </c>
+      <c r="BL147">
+        <v>0</v>
+      </c>
+      <c r="BM147">
+        <v>0</v>
+      </c>
+      <c r="BN147">
+        <v>0</v>
+      </c>
+      <c r="BO147">
+        <v>0</v>
+      </c>
+      <c r="BP147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7465553</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F148">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>84</v>
+      </c>
+      <c r="H148" t="s">
+        <v>82</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148" t="s">
+        <v>189</v>
+      </c>
+      <c r="P148" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q148">
+        <v>3.75</v>
+      </c>
+      <c r="R148">
+        <v>2.25</v>
+      </c>
+      <c r="S148">
+        <v>2.75</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3.25</v>
+      </c>
+      <c r="V148">
+        <v>2.63</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>6.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>3.1</v>
+      </c>
+      <c r="AA148">
+        <v>3.6</v>
+      </c>
+      <c r="AB148">
+        <v>2.05</v>
+      </c>
+      <c r="AC148">
+        <v>1.04</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.22</v>
+      </c>
+      <c r="AF148">
+        <v>4.2</v>
+      </c>
+      <c r="AG148">
+        <v>1.7</v>
+      </c>
+      <c r="AH148">
+        <v>2.1</v>
+      </c>
+      <c r="AI148">
+        <v>1.62</v>
+      </c>
+      <c r="AJ148">
+        <v>2.2</v>
+      </c>
+      <c r="AK148">
+        <v>1.7</v>
+      </c>
+      <c r="AL148">
+        <v>1.22</v>
+      </c>
+      <c r="AM148">
+        <v>1.33</v>
+      </c>
+      <c r="AN148">
+        <v>0.57</v>
+      </c>
+      <c r="AO148">
+        <v>0.88</v>
+      </c>
+      <c r="AP148">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ148">
+        <v>1.11</v>
+      </c>
+      <c r="AR148">
+        <v>1.46</v>
+      </c>
+      <c r="AS148">
+        <v>1.66</v>
+      </c>
+      <c r="AT148">
+        <v>3.12</v>
+      </c>
+      <c r="AU148">
+        <v>-1</v>
+      </c>
+      <c r="AV148">
+        <v>-1</v>
+      </c>
+      <c r="AW148">
+        <v>-1</v>
+      </c>
+      <c r="AX148">
+        <v>-1</v>
+      </c>
+      <c r="AY148">
+        <v>-1</v>
+      </c>
+      <c r="AZ148">
+        <v>-1</v>
+      </c>
+      <c r="BA148">
+        <v>5</v>
+      </c>
+      <c r="BB148">
+        <v>8</v>
+      </c>
+      <c r="BC148">
+        <v>13</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>0</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>0</v>
+      </c>
+      <c r="BI148">
+        <v>0</v>
+      </c>
+      <c r="BJ148">
+        <v>0</v>
+      </c>
+      <c r="BK148">
+        <v>0</v>
+      </c>
+      <c r="BL148">
+        <v>0</v>
+      </c>
+      <c r="BM148">
+        <v>0</v>
+      </c>
+      <c r="BN148">
+        <v>0</v>
+      </c>
+      <c r="BO148">
+        <v>0</v>
+      </c>
+      <c r="BP148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7465551</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F149">
+        <v>16</v>
+      </c>
+      <c r="G149" t="s">
+        <v>89</v>
+      </c>
+      <c r="H149" t="s">
+        <v>81</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>190</v>
+      </c>
+      <c r="P149" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q149">
+        <v>3.75</v>
+      </c>
+      <c r="R149">
+        <v>2.25</v>
+      </c>
+      <c r="S149">
+        <v>2.63</v>
+      </c>
+      <c r="T149">
+        <v>1.36</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149">
+        <v>2.63</v>
+      </c>
+      <c r="W149">
+        <v>1.44</v>
+      </c>
+      <c r="X149">
+        <v>7</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>3.25</v>
+      </c>
+      <c r="AA149">
+        <v>3.6</v>
+      </c>
+      <c r="AB149">
+        <v>2</v>
+      </c>
+      <c r="AC149">
+        <v>1.05</v>
+      </c>
+      <c r="AD149">
+        <v>9.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.3</v>
+      </c>
+      <c r="AF149">
+        <v>3.45</v>
+      </c>
+      <c r="AG149">
+        <v>1.75</v>
+      </c>
+      <c r="AH149">
+        <v>2.05</v>
+      </c>
+      <c r="AI149">
+        <v>1.67</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.7</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.3</v>
+      </c>
+      <c r="AN149">
+        <v>0.43</v>
+      </c>
+      <c r="AO149">
+        <v>1.5</v>
+      </c>
+      <c r="AP149">
+        <v>0.75</v>
+      </c>
+      <c r="AQ149">
+        <v>1.33</v>
+      </c>
+      <c r="AR149">
+        <v>1.58</v>
+      </c>
+      <c r="AS149">
+        <v>1.64</v>
+      </c>
+      <c r="AT149">
+        <v>3.22</v>
+      </c>
+      <c r="AU149">
+        <v>-1</v>
+      </c>
+      <c r="AV149">
+        <v>-1</v>
+      </c>
+      <c r="AW149">
+        <v>-1</v>
+      </c>
+      <c r="AX149">
+        <v>-1</v>
+      </c>
+      <c r="AY149">
+        <v>-1</v>
+      </c>
+      <c r="AZ149">
+        <v>-1</v>
+      </c>
+      <c r="BA149">
+        <v>3</v>
+      </c>
+      <c r="BB149">
+        <v>5</v>
+      </c>
+      <c r="BC149">
+        <v>8</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
+        <v>0</v>
+      </c>
+      <c r="BH149">
+        <v>0</v>
+      </c>
+      <c r="BI149">
+        <v>0</v>
+      </c>
+      <c r="BJ149">
+        <v>0</v>
+      </c>
+      <c r="BK149">
+        <v>0</v>
+      </c>
+      <c r="BL149">
+        <v>0</v>
+      </c>
+      <c r="BM149">
+        <v>0</v>
+      </c>
+      <c r="BN149">
+        <v>0</v>
+      </c>
+      <c r="BO149">
+        <v>0</v>
+      </c>
+      <c r="BP149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7465550</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F150">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150" t="s">
+        <v>70</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>7</v>
+      </c>
+      <c r="O150" t="s">
+        <v>191</v>
+      </c>
+      <c r="P150" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q150">
+        <v>1.91</v>
+      </c>
+      <c r="R150">
+        <v>2.5</v>
+      </c>
+      <c r="S150">
+        <v>6.5</v>
+      </c>
+      <c r="T150">
+        <v>1.3</v>
+      </c>
+      <c r="U150">
+        <v>3.4</v>
+      </c>
+      <c r="V150">
+        <v>2.5</v>
+      </c>
+      <c r="W150">
+        <v>1.5</v>
+      </c>
+      <c r="X150">
+        <v>6</v>
+      </c>
+      <c r="Y150">
+        <v>1.13</v>
+      </c>
+      <c r="Z150">
+        <v>1.42</v>
+      </c>
+      <c r="AA150">
+        <v>5.25</v>
+      </c>
+      <c r="AB150">
+        <v>5.25</v>
+      </c>
+      <c r="AC150">
+        <v>1.03</v>
+      </c>
+      <c r="AD150">
+        <v>11</v>
+      </c>
+      <c r="AE150">
+        <v>1.2</v>
+      </c>
+      <c r="AF150">
+        <v>4.33</v>
+      </c>
+      <c r="AG150">
+        <v>1.62</v>
+      </c>
+      <c r="AH150">
+        <v>2.25</v>
+      </c>
+      <c r="AI150">
+        <v>1.83</v>
+      </c>
+      <c r="AJ150">
+        <v>1.83</v>
+      </c>
+      <c r="AK150">
+        <v>1.11</v>
+      </c>
+      <c r="AL150">
+        <v>1.14</v>
+      </c>
+      <c r="AM150">
+        <v>2.7</v>
+      </c>
+      <c r="AN150">
+        <v>1.57</v>
+      </c>
+      <c r="AO150">
+        <v>1.25</v>
+      </c>
+      <c r="AP150">
+        <v>1.56</v>
+      </c>
+      <c r="AQ150">
+        <v>1.44</v>
+      </c>
+      <c r="AR150">
+        <v>1.63</v>
+      </c>
+      <c r="AS150">
+        <v>1.13</v>
+      </c>
+      <c r="AT150">
+        <v>2.76</v>
+      </c>
+      <c r="AU150">
+        <v>-1</v>
+      </c>
+      <c r="AV150">
+        <v>-1</v>
+      </c>
+      <c r="AW150">
+        <v>-1</v>
+      </c>
+      <c r="AX150">
+        <v>-1</v>
+      </c>
+      <c r="AY150">
+        <v>-1</v>
+      </c>
+      <c r="AZ150">
+        <v>-1</v>
+      </c>
+      <c r="BA150">
+        <v>5</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>9</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7465548</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F151">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>85</v>
+      </c>
+      <c r="H151" t="s">
+        <v>83</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>93</v>
+      </c>
+      <c r="P151" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q151">
+        <v>3.4</v>
+      </c>
+      <c r="R151">
+        <v>2.38</v>
+      </c>
+      <c r="S151">
+        <v>2.75</v>
+      </c>
+      <c r="T151">
+        <v>1.29</v>
+      </c>
+      <c r="U151">
+        <v>3.5</v>
+      </c>
+      <c r="V151">
+        <v>2.25</v>
+      </c>
+      <c r="W151">
+        <v>1.57</v>
+      </c>
+      <c r="X151">
+        <v>5.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.14</v>
+      </c>
+      <c r="Z151">
+        <v>3</v>
+      </c>
+      <c r="AA151">
+        <v>3.5</v>
+      </c>
+      <c r="AB151">
+        <v>2.15</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>13</v>
+      </c>
+      <c r="AE151">
+        <v>1.18</v>
+      </c>
+      <c r="AF151">
+        <v>4.75</v>
+      </c>
+      <c r="AG151">
+        <v>1.57</v>
+      </c>
+      <c r="AH151">
+        <v>2.35</v>
+      </c>
+      <c r="AI151">
+        <v>1.5</v>
+      </c>
+      <c r="AJ151">
+        <v>2.5</v>
+      </c>
+      <c r="AK151">
+        <v>1.55</v>
+      </c>
+      <c r="AL151">
+        <v>1.22</v>
+      </c>
+      <c r="AM151">
+        <v>1.44</v>
+      </c>
+      <c r="AN151">
+        <v>2.14</v>
+      </c>
+      <c r="AO151">
+        <v>1.57</v>
+      </c>
+      <c r="AP151">
+        <v>1.88</v>
+      </c>
+      <c r="AQ151">
+        <v>1.67</v>
+      </c>
+      <c r="AR151">
+        <v>1.8</v>
+      </c>
+      <c r="AS151">
+        <v>1.84</v>
+      </c>
+      <c r="AT151">
+        <v>3.64</v>
+      </c>
+      <c r="AU151">
+        <v>-1</v>
+      </c>
+      <c r="AV151">
+        <v>-1</v>
+      </c>
+      <c r="AW151">
+        <v>-1</v>
+      </c>
+      <c r="AX151">
+        <v>-1</v>
+      </c>
+      <c r="AY151">
+        <v>-1</v>
+      </c>
+      <c r="AZ151">
+        <v>-1</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>0</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>0</v>
+      </c>
+      <c r="BJ151">
+        <v>0</v>
+      </c>
+      <c r="BK151">
+        <v>0</v>
+      </c>
+      <c r="BL151">
+        <v>0</v>
+      </c>
+      <c r="BM151">
+        <v>0</v>
+      </c>
+      <c r="BN151">
+        <v>0</v>
+      </c>
+      <c r="BO151">
+        <v>0</v>
+      </c>
+      <c r="BP151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7465547</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>77</v>
+      </c>
+      <c r="H152" t="s">
+        <v>74</v>
+      </c>
+      <c r="I152">
+        <v>4</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>4</v>
+      </c>
+      <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>192</v>
+      </c>
+      <c r="P152" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q152">
+        <v>1.73</v>
+      </c>
+      <c r="R152">
+        <v>2.75</v>
+      </c>
+      <c r="S152">
+        <v>7</v>
+      </c>
+      <c r="T152">
+        <v>1.22</v>
+      </c>
+      <c r="U152">
+        <v>4</v>
+      </c>
+      <c r="V152">
+        <v>2.1</v>
+      </c>
+      <c r="W152">
+        <v>1.67</v>
+      </c>
+      <c r="X152">
+        <v>4.5</v>
+      </c>
+      <c r="Y152">
+        <v>1.18</v>
+      </c>
+      <c r="Z152">
+        <v>1.3</v>
+      </c>
+      <c r="AA152">
+        <v>5.5</v>
+      </c>
+      <c r="AB152">
+        <v>7.5</v>
+      </c>
+      <c r="AC152">
+        <v>0</v>
+      </c>
+      <c r="AD152">
+        <v>0</v>
+      </c>
+      <c r="AE152">
+        <v>1.14</v>
+      </c>
+      <c r="AF152">
+        <v>5.5</v>
+      </c>
+      <c r="AG152">
+        <v>1.44</v>
+      </c>
+      <c r="AH152">
+        <v>2.7</v>
+      </c>
+      <c r="AI152">
+        <v>1.73</v>
+      </c>
+      <c r="AJ152">
+        <v>2</v>
+      </c>
+      <c r="AK152">
+        <v>1.05</v>
+      </c>
+      <c r="AL152">
+        <v>1.14</v>
+      </c>
+      <c r="AM152">
+        <v>3.4</v>
+      </c>
+      <c r="AN152">
+        <v>2.29</v>
+      </c>
+      <c r="AO152">
+        <v>0.5</v>
+      </c>
+      <c r="AP152">
+        <v>2.38</v>
+      </c>
+      <c r="AQ152">
+        <v>0.5</v>
+      </c>
+      <c r="AR152">
+        <v>1.79</v>
+      </c>
+      <c r="AS152">
+        <v>1.03</v>
+      </c>
+      <c r="AT152">
+        <v>2.82</v>
+      </c>
+      <c r="AU152">
+        <v>-1</v>
+      </c>
+      <c r="AV152">
+        <v>-1</v>
+      </c>
+      <c r="AW152">
+        <v>-1</v>
+      </c>
+      <c r="AX152">
+        <v>-1</v>
+      </c>
+      <c r="AY152">
+        <v>-1</v>
+      </c>
+      <c r="AZ152">
+        <v>-1</v>
+      </c>
+      <c r="BA152">
+        <v>9</v>
+      </c>
+      <c r="BB152">
+        <v>5</v>
+      </c>
+      <c r="BC152">
+        <v>14</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>0</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>0</v>
+      </c>
+      <c r="BJ152">
+        <v>0</v>
+      </c>
+      <c r="BK152">
+        <v>0</v>
+      </c>
+      <c r="BL152">
+        <v>0</v>
+      </c>
+      <c r="BM152">
+        <v>0</v>
+      </c>
+      <c r="BN152">
+        <v>0</v>
+      </c>
+      <c r="BO152">
+        <v>0</v>
+      </c>
+      <c r="BP152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7465552</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153" t="s">
+        <v>76</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>3</v>
+      </c>
+      <c r="K153">
+        <v>3</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>6</v>
+      </c>
+      <c r="O153" t="s">
+        <v>193</v>
+      </c>
+      <c r="P153" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q153">
+        <v>4</v>
+      </c>
+      <c r="R153">
+        <v>2.4</v>
+      </c>
+      <c r="S153">
+        <v>2.5</v>
+      </c>
+      <c r="T153">
+        <v>1.29</v>
+      </c>
+      <c r="U153">
+        <v>3.5</v>
+      </c>
+      <c r="V153">
+        <v>2.38</v>
+      </c>
+      <c r="W153">
+        <v>1.53</v>
+      </c>
+      <c r="X153">
+        <v>5.5</v>
+      </c>
+      <c r="Y153">
+        <v>1.14</v>
+      </c>
+      <c r="Z153">
+        <v>3.5</v>
+      </c>
+      <c r="AA153">
+        <v>3.75</v>
+      </c>
+      <c r="AB153">
+        <v>1.9</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>10</v>
+      </c>
+      <c r="AE153">
+        <v>1.18</v>
+      </c>
+      <c r="AF153">
+        <v>4.75</v>
+      </c>
+      <c r="AG153">
+        <v>1.57</v>
+      </c>
+      <c r="AH153">
+        <v>2.35</v>
+      </c>
+      <c r="AI153">
+        <v>1.53</v>
+      </c>
+      <c r="AJ153">
+        <v>2.38</v>
+      </c>
+      <c r="AK153">
+        <v>1.85</v>
+      </c>
+      <c r="AL153">
+        <v>1.22</v>
+      </c>
+      <c r="AM153">
+        <v>1.28</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
+        <v>1.5</v>
+      </c>
+      <c r="AP153">
+        <v>1</v>
+      </c>
+      <c r="AQ153">
+        <v>1.25</v>
+      </c>
+      <c r="AR153">
+        <v>1.87</v>
+      </c>
+      <c r="AS153">
+        <v>1.58</v>
+      </c>
+      <c r="AT153">
+        <v>3.45</v>
+      </c>
+      <c r="AU153">
+        <v>-1</v>
+      </c>
+      <c r="AV153">
+        <v>-1</v>
+      </c>
+      <c r="AW153">
+        <v>-1</v>
+      </c>
+      <c r="AX153">
+        <v>-1</v>
+      </c>
+      <c r="AY153">
+        <v>-1</v>
+      </c>
+      <c r="AZ153">
+        <v>-1</v>
+      </c>
+      <c r="BA153">
+        <v>2</v>
+      </c>
+      <c r="BB153">
+        <v>1</v>
+      </c>
+      <c r="BC153">
+        <v>3</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>0</v>
+      </c>
+      <c r="BG153">
+        <v>0</v>
+      </c>
+      <c r="BH153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>0</v>
+      </c>
+      <c r="BJ153">
+        <v>0</v>
+      </c>
+      <c r="BK153">
+        <v>0</v>
+      </c>
+      <c r="BL153">
+        <v>0</v>
+      </c>
+      <c r="BM153">
+        <v>0</v>
+      </c>
+      <c r="BN153">
+        <v>0</v>
+      </c>
+      <c r="BO153">
+        <v>0</v>
+      </c>
+      <c r="BP153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7465564</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
         <v>45621.66666666666</v>
       </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="F154">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>79</v>
+      </c>
+      <c r="H154" t="s">
+        <v>78</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>194</v>
+      </c>
+      <c r="P154" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q154">
+        <v>2.75</v>
+      </c>
+      <c r="R154">
+        <v>2.6</v>
+      </c>
+      <c r="S154">
+        <v>3.1</v>
+      </c>
+      <c r="T154">
+        <v>1.2</v>
+      </c>
+      <c r="U154">
+        <v>4.33</v>
+      </c>
+      <c r="V154">
+        <v>2</v>
+      </c>
+      <c r="W154">
+        <v>1.73</v>
+      </c>
+      <c r="X154">
+        <v>4.33</v>
+      </c>
+      <c r="Y154">
+        <v>1.2</v>
+      </c>
+      <c r="Z154">
+        <v>2.25</v>
+      </c>
+      <c r="AA154">
+        <v>4.07</v>
+      </c>
+      <c r="AB154">
+        <v>2.74</v>
+      </c>
+      <c r="AC154">
+        <v>0</v>
+      </c>
+      <c r="AD154">
+        <v>0</v>
+      </c>
+      <c r="AE154">
+        <v>1.09</v>
+      </c>
+      <c r="AF154">
+        <v>7.5</v>
+      </c>
+      <c r="AG154">
+        <v>1.36</v>
+      </c>
+      <c r="AH154">
+        <v>3.1</v>
+      </c>
+      <c r="AI154">
+        <v>1.33</v>
+      </c>
+      <c r="AJ154">
+        <v>3.25</v>
+      </c>
+      <c r="AK154">
+        <v>1.52</v>
+      </c>
+      <c r="AL154">
+        <v>1.18</v>
+      </c>
+      <c r="AM154">
+        <v>1.6</v>
+      </c>
+      <c r="AN154">
+        <v>0.29</v>
+      </c>
+      <c r="AO154">
+        <v>1.43</v>
+      </c>
+      <c r="AP154">
+        <v>0.63</v>
+      </c>
+      <c r="AQ154">
+        <v>1.25</v>
+      </c>
+      <c r="AR154">
+        <v>1.6</v>
+      </c>
+      <c r="AS154">
+        <v>1.28</v>
+      </c>
+      <c r="AT154">
+        <v>2.88</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>5</v>
+      </c>
+      <c r="AW154">
+        <v>4</v>
+      </c>
+      <c r="AX154">
+        <v>4</v>
+      </c>
+      <c r="AY154">
+        <v>10</v>
+      </c>
+      <c r="AZ154">
+        <v>14</v>
+      </c>
+      <c r="BA154">
+        <v>6</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>9</v>
+      </c>
+      <c r="BD154">
+        <v>2.25</v>
+      </c>
+      <c r="BE154">
+        <v>6</v>
+      </c>
+      <c r="BF154">
+        <v>1.92</v>
+      </c>
+      <c r="BG154">
+        <v>0</v>
+      </c>
+      <c r="BH154">
+        <v>0</v>
+      </c>
+      <c r="BI154">
+        <v>1.28</v>
+      </c>
+      <c r="BJ154">
+        <v>3.3</v>
+      </c>
+      <c r="BK154">
+        <v>1.52</v>
+      </c>
+      <c r="BL154">
+        <v>2.32</v>
+      </c>
+      <c r="BM154">
+        <v>1.92</v>
+      </c>
+      <c r="BN154">
+        <v>1.78</v>
+      </c>
+      <c r="BO154">
+        <v>2.55</v>
+      </c>
+      <c r="BP154">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7465559</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45621.66666666666</v>
+      </c>
+      <c r="F155">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
+        <v>86</v>
+      </c>
+      <c r="H155" t="s">
+        <v>74</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>4</v>
+      </c>
+      <c r="O155" t="s">
+        <v>195</v>
+      </c>
+      <c r="P155" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q155">
+        <v>1.91</v>
+      </c>
+      <c r="R155">
+        <v>2.75</v>
+      </c>
+      <c r="S155">
+        <v>5.5</v>
+      </c>
+      <c r="T155">
+        <v>1.22</v>
+      </c>
+      <c r="U155">
+        <v>4</v>
+      </c>
+      <c r="V155">
+        <v>2</v>
+      </c>
+      <c r="W155">
+        <v>1.73</v>
+      </c>
+      <c r="X155">
+        <v>4.33</v>
+      </c>
+      <c r="Y155">
+        <v>1.2</v>
+      </c>
+      <c r="Z155">
+        <v>1.43</v>
+      </c>
+      <c r="AA155">
+        <v>5.06</v>
+      </c>
+      <c r="AB155">
+        <v>6.04</v>
+      </c>
+      <c r="AC155">
+        <v>0</v>
+      </c>
+      <c r="AD155">
+        <v>0</v>
+      </c>
+      <c r="AE155">
+        <v>1.12</v>
+      </c>
+      <c r="AF155">
+        <v>6</v>
+      </c>
+      <c r="AG155">
+        <v>1.4</v>
+      </c>
+      <c r="AH155">
+        <v>2.88</v>
+      </c>
+      <c r="AI155">
+        <v>1.57</v>
+      </c>
+      <c r="AJ155">
+        <v>2.25</v>
+      </c>
+      <c r="AK155">
+        <v>1.11</v>
+      </c>
+      <c r="AL155">
+        <v>1.12</v>
+      </c>
+      <c r="AM155">
+        <v>2.8</v>
+      </c>
+      <c r="AN155">
+        <v>2.14</v>
+      </c>
+      <c r="AO155">
+        <v>0.43</v>
+      </c>
+      <c r="AP155">
+        <v>2</v>
+      </c>
+      <c r="AQ155">
+        <v>0.5</v>
+      </c>
+      <c r="AR155">
+        <v>2.01</v>
+      </c>
+      <c r="AS155">
+        <v>1.03</v>
+      </c>
+      <c r="AT155">
+        <v>3.04</v>
+      </c>
+      <c r="AU155">
+        <v>7</v>
+      </c>
+      <c r="AV155">
+        <v>5</v>
+      </c>
+      <c r="AW155">
+        <v>8</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>23</v>
+      </c>
+      <c r="AZ155">
+        <v>8</v>
+      </c>
+      <c r="BA155">
+        <v>3</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>8</v>
+      </c>
+      <c r="BD155">
+        <v>1.22</v>
+      </c>
+      <c r="BE155">
+        <v>8</v>
+      </c>
+      <c r="BF155">
+        <v>5.45</v>
+      </c>
+      <c r="BG155">
+        <v>1.16</v>
+      </c>
+      <c r="BH155">
+        <v>4.4</v>
+      </c>
+      <c r="BI155">
+        <v>1.28</v>
+      </c>
+      <c r="BJ155">
+        <v>3.3</v>
+      </c>
+      <c r="BK155">
+        <v>1.5</v>
+      </c>
+      <c r="BL155">
+        <v>2.38</v>
+      </c>
+      <c r="BM155">
+        <v>1.88</v>
+      </c>
+      <c r="BN155">
+        <v>1.8</v>
+      </c>
+      <c r="BO155">
+        <v>2.45</v>
+      </c>
+      <c r="BP155">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7465560</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45621.66666666666</v>
+      </c>
+      <c r="F156">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>71</v>
+      </c>
+      <c r="H156" t="s">
+        <v>77</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>196</v>
+      </c>
+      <c r="P156" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q156">
+        <v>2.63</v>
+      </c>
+      <c r="R156">
+        <v>2.5</v>
+      </c>
+      <c r="S156">
+        <v>3.25</v>
+      </c>
+      <c r="T156">
+        <v>1.25</v>
+      </c>
+      <c r="U156">
+        <v>3.75</v>
+      </c>
+      <c r="V156">
+        <v>2.2</v>
+      </c>
+      <c r="W156">
+        <v>1.62</v>
+      </c>
+      <c r="X156">
+        <v>5</v>
+      </c>
+      <c r="Y156">
+        <v>1.17</v>
+      </c>
+      <c r="Z156">
+        <v>2.18</v>
+      </c>
+      <c r="AA156">
+        <v>3.88</v>
+      </c>
+      <c r="AB156">
+        <v>2.94</v>
+      </c>
+      <c r="AC156">
+        <v>1.01</v>
+      </c>
+      <c r="AD156">
+        <v>15</v>
+      </c>
+      <c r="AE156">
+        <v>1.16</v>
+      </c>
+      <c r="AF156">
+        <v>5</v>
+      </c>
+      <c r="AG156">
+        <v>1.48</v>
+      </c>
+      <c r="AH156">
+        <v>2.6</v>
+      </c>
+      <c r="AI156">
+        <v>1.4</v>
+      </c>
+      <c r="AJ156">
+        <v>2.75</v>
+      </c>
+      <c r="AK156">
+        <v>1.45</v>
+      </c>
+      <c r="AL156">
+        <v>1.2</v>
+      </c>
+      <c r="AM156">
+        <v>1.63</v>
+      </c>
+      <c r="AN156">
+        <v>1.13</v>
+      </c>
+      <c r="AO156">
+        <v>1.43</v>
+      </c>
+      <c r="AP156">
+        <v>1.33</v>
+      </c>
+      <c r="AQ156">
+        <v>1.25</v>
+      </c>
+      <c r="AR156">
+        <v>1.76</v>
+      </c>
+      <c r="AS156">
+        <v>1.95</v>
+      </c>
+      <c r="AT156">
+        <v>3.71</v>
+      </c>
+      <c r="AU156">
+        <v>8</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>2</v>
+      </c>
+      <c r="AX156">
+        <v>5</v>
+      </c>
+      <c r="AY156">
+        <v>14</v>
+      </c>
+      <c r="AZ156">
+        <v>11</v>
+      </c>
+      <c r="BA156">
+        <v>3</v>
+      </c>
+      <c r="BB156">
+        <v>5</v>
+      </c>
+      <c r="BC156">
+        <v>8</v>
+      </c>
+      <c r="BD156">
+        <v>2</v>
+      </c>
+      <c r="BE156">
+        <v>6</v>
+      </c>
+      <c r="BF156">
+        <v>2.15</v>
+      </c>
+      <c r="BG156">
+        <v>0</v>
+      </c>
+      <c r="BH156">
+        <v>0</v>
+      </c>
+      <c r="BI156">
+        <v>1.28</v>
+      </c>
+      <c r="BJ156">
+        <v>3.3</v>
+      </c>
+      <c r="BK156">
+        <v>1.5</v>
+      </c>
+      <c r="BL156">
+        <v>2.35</v>
+      </c>
+      <c r="BM156">
+        <v>1.88</v>
+      </c>
+      <c r="BN156">
+        <v>1.8</v>
+      </c>
+      <c r="BO156">
+        <v>2.48</v>
+      </c>
+      <c r="BP156">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7465561</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45621.66666666666</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
         <v>88</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H157" t="s">
         <v>89</v>
       </c>
-      <c r="I147">
+      <c r="I157">
         <v>2</v>
       </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
         <v>2</v>
       </c>
-      <c r="L147">
+      <c r="L157">
         <v>3</v>
       </c>
-      <c r="M147">
-        <v>0</v>
-      </c>
-      <c r="N147">
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
         <v>3</v>
       </c>
-      <c r="O147" t="s">
-        <v>191</v>
-      </c>
-      <c r="P147" t="s">
+      <c r="O157" t="s">
+        <v>197</v>
+      </c>
+      <c r="P157" t="s">
         <v>93</v>
       </c>
-      <c r="Q147">
+      <c r="Q157">
         <v>1.83</v>
       </c>
-      <c r="R147">
+      <c r="R157">
         <v>2.88</v>
       </c>
-      <c r="S147">
+      <c r="S157">
         <v>5.5</v>
       </c>
-      <c r="T147">
+      <c r="T157">
         <v>1.18</v>
       </c>
-      <c r="U147">
+      <c r="U157">
         <v>4.5</v>
       </c>
-      <c r="V147">
+      <c r="V157">
         <v>1.83</v>
       </c>
-      <c r="W147">
+      <c r="W157">
         <v>1.83</v>
       </c>
-      <c r="X147">
+      <c r="X157">
         <v>3.75</v>
       </c>
-      <c r="Y147">
+      <c r="Y157">
         <v>1.25</v>
       </c>
-      <c r="Z147">
+      <c r="Z157">
         <v>1.4</v>
       </c>
-      <c r="AA147">
+      <c r="AA157">
         <v>5.3</v>
       </c>
-      <c r="AB147">
+      <c r="AB157">
         <v>6.14</v>
       </c>
-      <c r="AC147">
-        <v>0</v>
-      </c>
-      <c r="AD147">
-        <v>0</v>
-      </c>
-      <c r="AE147">
+      <c r="AC157">
+        <v>0</v>
+      </c>
+      <c r="AD157">
+        <v>0</v>
+      </c>
+      <c r="AE157">
         <v>1.08</v>
       </c>
-      <c r="AF147">
+      <c r="AF157">
         <v>7.5</v>
       </c>
-      <c r="AG147">
+      <c r="AG157">
         <v>1.29</v>
       </c>
-      <c r="AH147">
+      <c r="AH157">
         <v>3.6</v>
       </c>
-      <c r="AI147">
+      <c r="AI157">
         <v>1.44</v>
       </c>
-      <c r="AJ147">
+      <c r="AJ157">
         <v>2.63</v>
       </c>
-      <c r="AK147">
+      <c r="AK157">
         <v>1.12</v>
       </c>
-      <c r="AL147">
+      <c r="AL157">
         <v>1.12</v>
       </c>
-      <c r="AM147">
+      <c r="AM157">
         <v>2.8</v>
       </c>
-      <c r="AN147">
+      <c r="AN157">
         <v>2.14</v>
       </c>
-      <c r="AO147">
+      <c r="AO157">
         <v>1.29</v>
       </c>
-      <c r="AP147">
+      <c r="AP157">
         <v>2.25</v>
       </c>
-      <c r="AQ147">
+      <c r="AQ157">
         <v>1.13</v>
       </c>
-      <c r="AR147">
+      <c r="AR157">
         <v>2.01</v>
       </c>
-      <c r="AS147">
+      <c r="AS157">
         <v>1.47</v>
       </c>
-      <c r="AT147">
+      <c r="AT157">
         <v>3.48</v>
       </c>
-      <c r="AU147">
+      <c r="AU157">
         <v>9</v>
       </c>
-      <c r="AV147">
+      <c r="AV157">
         <v>3</v>
       </c>
-      <c r="AW147">
+      <c r="AW157">
         <v>10</v>
       </c>
-      <c r="AX147">
+      <c r="AX157">
         <v>5</v>
       </c>
-      <c r="AY147">
+      <c r="AY157">
         <v>25</v>
       </c>
-      <c r="AZ147">
+      <c r="AZ157">
         <v>13</v>
       </c>
-      <c r="BA147">
+      <c r="BA157">
         <v>5</v>
       </c>
-      <c r="BB147">
+      <c r="BB157">
         <v>5</v>
       </c>
-      <c r="BC147">
+      <c r="BC157">
         <v>10</v>
       </c>
-      <c r="BD147">
+      <c r="BD157">
         <v>1.25</v>
       </c>
-      <c r="BE147">
+      <c r="BE157">
         <v>7.8</v>
       </c>
-      <c r="BF147">
+      <c r="BF157">
         <v>5.05</v>
       </c>
-      <c r="BG147">
+      <c r="BG157">
         <v>1.15</v>
       </c>
-      <c r="BH147">
+      <c r="BH157">
         <v>4.5</v>
       </c>
-      <c r="BI147">
+      <c r="BI157">
         <v>1.24</v>
       </c>
-      <c r="BJ147">
+      <c r="BJ157">
         <v>3.55</v>
       </c>
-      <c r="BK147">
+      <c r="BK157">
         <v>1.48</v>
       </c>
-      <c r="BL147">
+      <c r="BL157">
         <v>2.45</v>
       </c>
-      <c r="BM147">
+      <c r="BM157">
         <v>1.82</v>
       </c>
-      <c r="BN147">
+      <c r="BN157">
         <v>1.85</v>
       </c>
-      <c r="BO147">
+      <c r="BO157">
         <v>2.38</v>
       </c>
-      <c r="BP147">
+      <c r="BP157">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7465562</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45621.66666666666</v>
+      </c>
+      <c r="F158">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>72</v>
+      </c>
+      <c r="H158" t="s">
+        <v>76</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>198</v>
+      </c>
+      <c r="P158" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q158">
+        <v>3.5</v>
+      </c>
+      <c r="R158">
+        <v>2.3</v>
+      </c>
+      <c r="S158">
+        <v>2.75</v>
+      </c>
+      <c r="T158">
+        <v>1.3</v>
+      </c>
+      <c r="U158">
+        <v>3.4</v>
+      </c>
+      <c r="V158">
+        <v>2.5</v>
+      </c>
+      <c r="W158">
+        <v>1.5</v>
+      </c>
+      <c r="X158">
+        <v>6</v>
+      </c>
+      <c r="Y158">
+        <v>1.13</v>
+      </c>
+      <c r="Z158">
+        <v>3.13</v>
+      </c>
+      <c r="AA158">
+        <v>3.62</v>
+      </c>
+      <c r="AB158">
+        <v>2.17</v>
+      </c>
+      <c r="AC158">
+        <v>1.02</v>
+      </c>
+      <c r="AD158">
+        <v>17</v>
+      </c>
+      <c r="AE158">
+        <v>1.2</v>
+      </c>
+      <c r="AF158">
+        <v>4.5</v>
+      </c>
+      <c r="AG158">
+        <v>1.61</v>
+      </c>
+      <c r="AH158">
+        <v>2.2</v>
+      </c>
+      <c r="AI158">
+        <v>1.57</v>
+      </c>
+      <c r="AJ158">
+        <v>2.25</v>
+      </c>
+      <c r="AK158">
+        <v>1.72</v>
+      </c>
+      <c r="AL158">
+        <v>1.22</v>
+      </c>
+      <c r="AM158">
+        <v>1.38</v>
+      </c>
+      <c r="AN158">
+        <v>1.38</v>
+      </c>
+      <c r="AO158">
+        <v>1.43</v>
+      </c>
+      <c r="AP158">
+        <v>1.56</v>
+      </c>
+      <c r="AQ158">
+        <v>1.25</v>
+      </c>
+      <c r="AR158">
+        <v>1.63</v>
+      </c>
+      <c r="AS158">
+        <v>1.58</v>
+      </c>
+      <c r="AT158">
+        <v>3.21</v>
+      </c>
+      <c r="AU158">
+        <v>4</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>4</v>
+      </c>
+      <c r="AX158">
+        <v>9</v>
+      </c>
+      <c r="AY158">
+        <v>12</v>
+      </c>
+      <c r="AZ158">
+        <v>20</v>
+      </c>
+      <c r="BA158">
+        <v>3</v>
+      </c>
+      <c r="BB158">
+        <v>6</v>
+      </c>
+      <c r="BC158">
+        <v>9</v>
+      </c>
+      <c r="BD158">
+        <v>2.52</v>
+      </c>
+      <c r="BE158">
+        <v>6</v>
+      </c>
+      <c r="BF158">
+        <v>1.75</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
+        <v>0</v>
+      </c>
+      <c r="BI158">
+        <v>1.33</v>
+      </c>
+      <c r="BJ158">
+        <v>3</v>
+      </c>
+      <c r="BK158">
+        <v>1.6</v>
+      </c>
+      <c r="BL158">
+        <v>2.15</v>
+      </c>
+      <c r="BM158">
+        <v>2.05</v>
+      </c>
+      <c r="BN158">
+        <v>1.65</v>
+      </c>
+      <c r="BO158">
+        <v>2.72</v>
+      </c>
+      <c r="BP158">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7465565</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45622.66666666666</v>
+      </c>
+      <c r="F159">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>82</v>
+      </c>
+      <c r="H159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>3</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>199</v>
+      </c>
+      <c r="P159" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q159">
+        <v>2.2</v>
+      </c>
+      <c r="R159">
+        <v>2.5</v>
+      </c>
+      <c r="S159">
+        <v>4.75</v>
+      </c>
+      <c r="T159">
+        <v>1.29</v>
+      </c>
+      <c r="U159">
+        <v>3.5</v>
+      </c>
+      <c r="V159">
+        <v>2.25</v>
+      </c>
+      <c r="W159">
+        <v>1.57</v>
+      </c>
+      <c r="X159">
+        <v>5.5</v>
+      </c>
+      <c r="Y159">
+        <v>1.14</v>
+      </c>
+      <c r="Z159">
+        <v>1.63</v>
+      </c>
+      <c r="AA159">
+        <v>4.2</v>
+      </c>
+      <c r="AB159">
+        <v>4.8</v>
+      </c>
+      <c r="AC159">
+        <v>1.01</v>
+      </c>
+      <c r="AD159">
+        <v>15</v>
+      </c>
+      <c r="AE159">
+        <v>1.16</v>
+      </c>
+      <c r="AF159">
+        <v>5</v>
+      </c>
+      <c r="AG159">
+        <v>1.57</v>
+      </c>
+      <c r="AH159">
+        <v>2.35</v>
+      </c>
+      <c r="AI159">
+        <v>1.57</v>
+      </c>
+      <c r="AJ159">
+        <v>2.25</v>
+      </c>
+      <c r="AK159">
+        <v>1.17</v>
+      </c>
+      <c r="AL159">
+        <v>1.18</v>
+      </c>
+      <c r="AM159">
+        <v>2.35</v>
+      </c>
+      <c r="AN159">
+        <v>2.17</v>
+      </c>
+      <c r="AO159">
+        <v>1.14</v>
+      </c>
+      <c r="AP159">
+        <v>2.29</v>
+      </c>
+      <c r="AQ159">
+        <v>1</v>
+      </c>
+      <c r="AR159">
+        <v>1.83</v>
+      </c>
+      <c r="AS159">
+        <v>1.46</v>
+      </c>
+      <c r="AT159">
+        <v>3.29</v>
+      </c>
+      <c r="AU159">
+        <v>11</v>
+      </c>
+      <c r="AV159">
+        <v>2</v>
+      </c>
+      <c r="AW159">
+        <v>7</v>
+      </c>
+      <c r="AX159">
+        <v>4</v>
+      </c>
+      <c r="AY159">
+        <v>21</v>
+      </c>
+      <c r="AZ159">
+        <v>7</v>
+      </c>
+      <c r="BA159">
+        <v>9</v>
+      </c>
+      <c r="BB159">
+        <v>1</v>
+      </c>
+      <c r="BC159">
+        <v>10</v>
+      </c>
+      <c r="BD159">
+        <v>1.41</v>
+      </c>
+      <c r="BE159">
+        <v>6.8</v>
+      </c>
+      <c r="BF159">
+        <v>3.7</v>
+      </c>
+      <c r="BG159">
+        <v>0</v>
+      </c>
+      <c r="BH159">
+        <v>0</v>
+      </c>
+      <c r="BI159">
+        <v>1.28</v>
+      </c>
+      <c r="BJ159">
+        <v>3.3</v>
+      </c>
+      <c r="BK159">
+        <v>1.52</v>
+      </c>
+      <c r="BL159">
+        <v>2.3</v>
+      </c>
+      <c r="BM159">
+        <v>1.92</v>
+      </c>
+      <c r="BN159">
+        <v>1.75</v>
+      </c>
+      <c r="BO159">
+        <v>2.52</v>
+      </c>
+      <c r="BP159">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7465566</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45622.66666666666</v>
+      </c>
+      <c r="F160">
+        <v>15</v>
+      </c>
+      <c r="G160" t="s">
+        <v>87</v>
+      </c>
+      <c r="H160" t="s">
+        <v>85</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>144</v>
+      </c>
+      <c r="P160" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q160">
+        <v>2.25</v>
+      </c>
+      <c r="R160">
+        <v>2.5</v>
+      </c>
+      <c r="S160">
+        <v>4.5</v>
+      </c>
+      <c r="T160">
+        <v>1.29</v>
+      </c>
+      <c r="U160">
+        <v>3.5</v>
+      </c>
+      <c r="V160">
+        <v>2.25</v>
+      </c>
+      <c r="W160">
+        <v>1.57</v>
+      </c>
+      <c r="X160">
+        <v>5.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.14</v>
+      </c>
+      <c r="Z160">
+        <v>1.7</v>
+      </c>
+      <c r="AA160">
+        <v>4.13</v>
+      </c>
+      <c r="AB160">
+        <v>4.38</v>
+      </c>
+      <c r="AC160">
+        <v>1.01</v>
+      </c>
+      <c r="AD160">
+        <v>15</v>
+      </c>
+      <c r="AE160">
+        <v>1.16</v>
+      </c>
+      <c r="AF160">
+        <v>5</v>
+      </c>
+      <c r="AG160">
+        <v>1.53</v>
+      </c>
+      <c r="AH160">
+        <v>2.4</v>
+      </c>
+      <c r="AI160">
+        <v>1.53</v>
+      </c>
+      <c r="AJ160">
+        <v>2.38</v>
+      </c>
+      <c r="AK160">
+        <v>1.2</v>
+      </c>
+      <c r="AL160">
+        <v>1.18</v>
+      </c>
+      <c r="AM160">
+        <v>2.2</v>
+      </c>
+      <c r="AN160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
+        <v>1.43</v>
+      </c>
+      <c r="AP160">
+        <v>0.88</v>
+      </c>
+      <c r="AQ160">
+        <v>1.63</v>
+      </c>
+      <c r="AR160">
+        <v>1.85</v>
+      </c>
+      <c r="AS160">
+        <v>1.25</v>
+      </c>
+      <c r="AT160">
+        <v>3.1</v>
+      </c>
+      <c r="AU160">
+        <v>9</v>
+      </c>
+      <c r="AV160">
+        <v>5</v>
+      </c>
+      <c r="AW160">
+        <v>9</v>
+      </c>
+      <c r="AX160">
+        <v>3</v>
+      </c>
+      <c r="AY160">
+        <v>25</v>
+      </c>
+      <c r="AZ160">
+        <v>9</v>
+      </c>
+      <c r="BA160">
+        <v>8</v>
+      </c>
+      <c r="BB160">
+        <v>5</v>
+      </c>
+      <c r="BC160">
+        <v>13</v>
+      </c>
+      <c r="BD160">
+        <v>1.21</v>
+      </c>
+      <c r="BE160">
+        <v>9.5</v>
+      </c>
+      <c r="BF160">
+        <v>5.05</v>
+      </c>
+      <c r="BG160">
+        <v>1.15</v>
+      </c>
+      <c r="BH160">
+        <v>4.5</v>
+      </c>
+      <c r="BI160">
+        <v>1.24</v>
+      </c>
+      <c r="BJ160">
+        <v>3.55</v>
+      </c>
+      <c r="BK160">
+        <v>1.48</v>
+      </c>
+      <c r="BL160">
+        <v>2.45</v>
+      </c>
+      <c r="BM160">
+        <v>1.82</v>
+      </c>
+      <c r="BN160">
+        <v>1.85</v>
+      </c>
+      <c r="BO160">
+        <v>2.38</v>
+      </c>
+      <c r="BP160">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7465563</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45622.66666666666</v>
+      </c>
+      <c r="F161">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
+        <v>84</v>
+      </c>
+      <c r="H161" t="s">
+        <v>83</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>93</v>
+      </c>
+      <c r="P161" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q161">
+        <v>5</v>
+      </c>
+      <c r="R161">
+        <v>2.5</v>
+      </c>
+      <c r="S161">
+        <v>2.1</v>
+      </c>
+      <c r="T161">
+        <v>1.25</v>
+      </c>
+      <c r="U161">
+        <v>3.75</v>
+      </c>
+      <c r="V161">
+        <v>2.2</v>
+      </c>
+      <c r="W161">
+        <v>1.62</v>
+      </c>
+      <c r="X161">
+        <v>5</v>
+      </c>
+      <c r="Y161">
+        <v>1.17</v>
+      </c>
+      <c r="Z161">
+        <v>4.5</v>
+      </c>
+      <c r="AA161">
+        <v>4</v>
+      </c>
+      <c r="AB161">
+        <v>1.55</v>
+      </c>
+      <c r="AC161">
+        <v>1.01</v>
+      </c>
+      <c r="AD161">
+        <v>15</v>
+      </c>
+      <c r="AE161">
+        <v>1.16</v>
+      </c>
+      <c r="AF161">
+        <v>5</v>
+      </c>
+      <c r="AG161">
+        <v>1.5</v>
+      </c>
+      <c r="AH161">
+        <v>2.5</v>
+      </c>
+      <c r="AI161">
+        <v>1.57</v>
+      </c>
+      <c r="AJ161">
+        <v>2.25</v>
+      </c>
+      <c r="AK161">
+        <v>2.35</v>
+      </c>
+      <c r="AL161">
+        <v>1.17</v>
+      </c>
+      <c r="AM161">
+        <v>1.18</v>
+      </c>
+      <c r="AN161">
+        <v>0.5</v>
+      </c>
+      <c r="AO161">
+        <v>1.75</v>
+      </c>
+      <c r="AP161">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ161">
+        <v>1.67</v>
+      </c>
+      <c r="AR161">
+        <v>1.46</v>
+      </c>
+      <c r="AS161">
+        <v>1.84</v>
+      </c>
+      <c r="AT161">
+        <v>3.3</v>
+      </c>
+      <c r="AU161">
+        <v>4</v>
+      </c>
+      <c r="AV161">
+        <v>5</v>
+      </c>
+      <c r="AW161">
+        <v>7</v>
+      </c>
+      <c r="AX161">
+        <v>9</v>
+      </c>
+      <c r="AY161">
+        <v>14</v>
+      </c>
+      <c r="AZ161">
+        <v>17</v>
+      </c>
+      <c r="BA161">
+        <v>4</v>
+      </c>
+      <c r="BB161">
+        <v>8</v>
+      </c>
+      <c r="BC161">
+        <v>12</v>
+      </c>
+      <c r="BD161">
+        <v>5</v>
+      </c>
+      <c r="BE161">
+        <v>9</v>
+      </c>
+      <c r="BF161">
+        <v>1.22</v>
+      </c>
+      <c r="BG161">
+        <v>1.22</v>
+      </c>
+      <c r="BH161">
+        <v>3.7</v>
+      </c>
+      <c r="BI161">
+        <v>1.43</v>
+      </c>
+      <c r="BJ161">
+        <v>2.6</v>
+      </c>
+      <c r="BK161">
+        <v>1.78</v>
+      </c>
+      <c r="BL161">
+        <v>1.92</v>
+      </c>
+      <c r="BM161">
+        <v>2.32</v>
+      </c>
+      <c r="BN161">
+        <v>1.52</v>
+      </c>
+      <c r="BO161">
+        <v>3.15</v>
+      </c>
+      <c r="BP161">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -33951,13 +33951,13 @@
         <v>7</v>
       </c>
       <c r="AX159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY159">
         <v>21</v>
       </c>
       <c r="AZ159">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA159">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,21 @@
     <t>['9', '65', '90+3']</t>
   </si>
   <si>
+    <t>['2', '29']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['15', '32']</t>
+  </si>
+  <si>
+    <t>['7', '42']</t>
+  </si>
+  <si>
+    <t>['58', '69']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -887,6 +902,12 @@
   </si>
   <si>
     <t>['7', '81']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+1']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2">
         <v>1.63</v>
@@ -1713,7 +1734,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1919,7 +1940,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2000,7 +2021,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2125,7 +2146,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2206,7 +2227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2331,7 +2352,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2409,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ6">
         <v>1.67</v>
@@ -2537,7 +2558,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2615,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ7">
         <v>1.33</v>
@@ -2743,7 +2764,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2821,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2949,7 +2970,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3030,7 +3051,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3361,7 +3382,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3442,7 +3463,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ11">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3773,7 +3794,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3851,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>1.44</v>
@@ -4057,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -4263,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ15">
         <v>1.25</v>
@@ -4391,7 +4412,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4472,7 +4493,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5090,7 +5111,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ19">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5215,7 +5236,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5296,7 +5317,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ20">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5705,10 +5726,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ22">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -5914,7 +5935,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>2.16</v>
@@ -6245,7 +6266,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6326,7 +6347,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ25">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6451,7 +6472,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6529,10 +6550,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -6657,7 +6678,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6735,10 +6756,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6941,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ28">
         <v>1.67</v>
@@ -7069,7 +7090,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7481,7 +7502,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7765,7 +7786,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ32">
         <v>1.44</v>
@@ -7971,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
         <v>1.25</v>
@@ -8099,7 +8120,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8180,7 +8201,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.12</v>
@@ -8305,7 +8326,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8386,7 +8407,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ35">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR35">
         <v>0.8</v>
@@ -8798,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -8923,7 +8944,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9001,7 +9022,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>1.67</v>
@@ -9129,7 +9150,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9541,7 +9562,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9619,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ41">
         <v>1.25</v>
@@ -10031,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -10159,7 +10180,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10240,7 +10261,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ44">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>2.05</v>
@@ -10365,7 +10386,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10446,7 +10467,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ45">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR45">
         <v>1.68</v>
@@ -10571,7 +10592,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10649,10 +10670,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.3</v>
@@ -10777,7 +10798,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10983,7 +11004,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11064,7 +11085,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.9</v>
@@ -11267,7 +11288,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11395,7 +11416,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11476,7 +11497,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ50">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.58</v>
@@ -11601,7 +11622,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11679,7 +11700,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11807,7 +11828,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12503,7 +12524,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12631,7 +12652,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13043,7 +13064,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13249,7 +13270,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13661,7 +13682,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13867,7 +13888,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13948,7 +13969,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.68</v>
@@ -14073,7 +14094,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14154,7 +14175,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14360,7 +14381,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR64">
         <v>2.12</v>
@@ -14563,7 +14584,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ65">
         <v>1.33</v>
@@ -14691,7 +14712,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14975,7 +14996,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67">
         <v>0.5</v>
@@ -15103,7 +15124,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15181,10 +15202,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15309,7 +15330,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15387,7 +15408,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69">
         <v>1.44</v>
@@ -15515,7 +15536,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15721,7 +15742,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15802,7 +15823,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ71">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR71">
         <v>1.34</v>
@@ -15927,7 +15948,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16133,7 +16154,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16339,7 +16360,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16417,7 +16438,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ74">
         <v>1.25</v>
@@ -16545,7 +16566,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16623,10 +16644,10 @@
         <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR75">
         <v>1.48</v>
@@ -16829,7 +16850,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76">
         <v>1.11</v>
@@ -17035,7 +17056,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ77">
         <v>1.63</v>
@@ -17163,7 +17184,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17369,7 +17390,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17450,7 +17471,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ79">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17781,7 +17802,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17862,7 +17883,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ81">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.73</v>
@@ -18068,7 +18089,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ82">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR82">
         <v>1.76</v>
@@ -18193,7 +18214,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18271,10 +18292,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18399,7 +18420,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18477,7 +18498,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ84">
         <v>1.25</v>
@@ -18683,7 +18704,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ85">
         <v>1.67</v>
@@ -19017,7 +19038,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19223,7 +19244,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19510,7 +19531,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
         <v>1.66</v>
@@ -19635,7 +19656,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19922,7 +19943,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.69</v>
@@ -20047,7 +20068,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20125,7 +20146,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ92">
         <v>1.25</v>
@@ -20459,7 +20480,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20540,7 +20561,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20665,7 +20686,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20871,7 +20892,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20949,7 +20970,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96">
         <v>1.33</v>
@@ -21077,7 +21098,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21158,7 +21179,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ97">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR97">
         <v>1.77</v>
@@ -21364,7 +21385,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ98">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR98">
         <v>1.49</v>
@@ -21489,7 +21510,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21567,10 +21588,10 @@
         <v>2.25</v>
       </c>
       <c r="AP99">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ99">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -21901,7 +21922,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21979,7 +22000,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -22107,7 +22128,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22188,7 +22209,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR102">
         <v>1.75</v>
@@ -22391,7 +22412,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ103">
         <v>1.11</v>
@@ -22519,7 +22540,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22931,7 +22952,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23549,7 +23570,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23755,7 +23776,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23961,7 +23982,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24167,7 +24188,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24245,7 +24266,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ112">
         <v>1.25</v>
@@ -24454,7 +24475,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR113">
         <v>2.08</v>
@@ -24579,7 +24600,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24785,7 +24806,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24863,10 +24884,10 @@
         <v>1.8</v>
       </c>
       <c r="AP115">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -24991,7 +25012,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25069,7 +25090,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ116">
         <v>1.25</v>
@@ -25197,7 +25218,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25275,10 +25296,10 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR117">
         <v>1.62</v>
@@ -25403,7 +25424,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25609,7 +25630,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25687,10 +25708,10 @@
         <v>1.8</v>
       </c>
       <c r="AP119">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ119">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR119">
         <v>1.83</v>
@@ -25815,7 +25836,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26021,7 +26042,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26102,7 +26123,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26227,7 +26248,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26308,7 +26329,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR122">
         <v>1.92</v>
@@ -26433,7 +26454,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26639,7 +26660,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26845,7 +26866,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -26923,7 +26944,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ125">
         <v>1.25</v>
@@ -27129,7 +27150,7 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ126">
         <v>0.5</v>
@@ -27257,7 +27278,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27463,7 +27484,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27541,10 +27562,10 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -27875,7 +27896,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28081,7 +28102,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28162,7 +28183,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ131">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -28493,7 +28514,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28777,7 +28798,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ134">
         <v>1.63</v>
@@ -28986,7 +29007,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR135">
         <v>1.75</v>
@@ -29111,7 +29132,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29192,7 +29213,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ136">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.7</v>
@@ -29395,7 +29416,7 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ137">
         <v>1.44</v>
@@ -29601,7 +29622,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29810,7 +29831,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ139">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR139">
         <v>1.86</v>
@@ -30013,7 +30034,7 @@
         <v>1.71</v>
       </c>
       <c r="AP140">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ140">
         <v>1.33</v>
@@ -30222,7 +30243,7 @@
         <v>2</v>
       </c>
       <c r="AQ141">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR141">
         <v>2.06</v>
@@ -30425,7 +30446,7 @@
         <v>1.17</v>
       </c>
       <c r="AP142">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30553,7 +30574,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30631,7 +30652,7 @@
         <v>0.43</v>
       </c>
       <c r="AP143">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ143">
         <v>0.5</v>
@@ -30759,7 +30780,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30965,7 +30986,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31046,7 +31067,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ145">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR145">
         <v>1.6</v>
@@ -31171,7 +31192,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31252,7 +31273,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ146">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR146">
         <v>1.65</v>
@@ -31377,7 +31398,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31455,10 +31476,10 @@
         <v>2.14</v>
       </c>
       <c r="AP147">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ147">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR147">
         <v>1.58</v>
@@ -31583,7 +31604,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31995,7 +32016,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32201,7 +32222,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32613,7 +32634,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32819,7 +32840,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33025,7 +33046,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33518,7 +33539,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ157">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>2.01</v>
@@ -33643,7 +33664,7 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33927,7 +33948,7 @@
         <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -34055,7 +34076,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34418,6 +34439,1448 @@
       </c>
       <c r="BP161">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7465570</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45624.875</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>83</v>
+      </c>
+      <c r="H162" t="s">
+        <v>89</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>200</v>
+      </c>
+      <c r="P162" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q162">
+        <v>1.8</v>
+      </c>
+      <c r="R162">
+        <v>2.95</v>
+      </c>
+      <c r="S162">
+        <v>5.5</v>
+      </c>
+      <c r="T162">
+        <v>1.16</v>
+      </c>
+      <c r="U162">
+        <v>4.65</v>
+      </c>
+      <c r="V162">
+        <v>1.86</v>
+      </c>
+      <c r="W162">
+        <v>1.86</v>
+      </c>
+      <c r="X162">
+        <v>3.7</v>
+      </c>
+      <c r="Y162">
+        <v>1.24</v>
+      </c>
+      <c r="Z162">
+        <v>1.4</v>
+      </c>
+      <c r="AA162">
+        <v>5.39</v>
+      </c>
+      <c r="AB162">
+        <v>6.21</v>
+      </c>
+      <c r="AC162">
+        <v>0</v>
+      </c>
+      <c r="AD162">
+        <v>0</v>
+      </c>
+      <c r="AE162">
+        <v>1.08</v>
+      </c>
+      <c r="AF162">
+        <v>7.5</v>
+      </c>
+      <c r="AG162">
+        <v>1.3</v>
+      </c>
+      <c r="AH162">
+        <v>3.4</v>
+      </c>
+      <c r="AI162">
+        <v>1.47</v>
+      </c>
+      <c r="AJ162">
+        <v>2.6</v>
+      </c>
+      <c r="AK162">
+        <v>1.1</v>
+      </c>
+      <c r="AL162">
+        <v>1.11</v>
+      </c>
+      <c r="AM162">
+        <v>3</v>
+      </c>
+      <c r="AN162">
+        <v>2.57</v>
+      </c>
+      <c r="AO162">
+        <v>1.13</v>
+      </c>
+      <c r="AP162">
+        <v>2.63</v>
+      </c>
+      <c r="AQ162">
+        <v>1</v>
+      </c>
+      <c r="AR162">
+        <v>1.78</v>
+      </c>
+      <c r="AS162">
+        <v>1.43</v>
+      </c>
+      <c r="AT162">
+        <v>3.21</v>
+      </c>
+      <c r="AU162">
+        <v>8</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>6</v>
+      </c>
+      <c r="AX162">
+        <v>5</v>
+      </c>
+      <c r="AY162">
+        <v>19</v>
+      </c>
+      <c r="AZ162">
+        <v>8</v>
+      </c>
+      <c r="BA162">
+        <v>11</v>
+      </c>
+      <c r="BB162">
+        <v>2</v>
+      </c>
+      <c r="BC162">
+        <v>13</v>
+      </c>
+      <c r="BD162">
+        <v>0</v>
+      </c>
+      <c r="BE162">
+        <v>0</v>
+      </c>
+      <c r="BF162">
+        <v>0</v>
+      </c>
+      <c r="BG162">
+        <v>0</v>
+      </c>
+      <c r="BH162">
+        <v>0</v>
+      </c>
+      <c r="BI162">
+        <v>0</v>
+      </c>
+      <c r="BJ162">
+        <v>0</v>
+      </c>
+      <c r="BK162">
+        <v>0</v>
+      </c>
+      <c r="BL162">
+        <v>0</v>
+      </c>
+      <c r="BM162">
+        <v>0</v>
+      </c>
+      <c r="BN162">
+        <v>0</v>
+      </c>
+      <c r="BO162">
+        <v>0</v>
+      </c>
+      <c r="BP162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7465572</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45624.875</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>82</v>
+      </c>
+      <c r="H163" t="s">
+        <v>88</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>201</v>
+      </c>
+      <c r="P163" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q163">
+        <v>2.8</v>
+      </c>
+      <c r="R163">
+        <v>2.45</v>
+      </c>
+      <c r="S163">
+        <v>3.2</v>
+      </c>
+      <c r="T163">
+        <v>1.22</v>
+      </c>
+      <c r="U163">
+        <v>3.9</v>
+      </c>
+      <c r="V163">
+        <v>2.09</v>
+      </c>
+      <c r="W163">
+        <v>1.67</v>
+      </c>
+      <c r="X163">
+        <v>4.45</v>
+      </c>
+      <c r="Y163">
+        <v>1.17</v>
+      </c>
+      <c r="Z163">
+        <v>2.42</v>
+      </c>
+      <c r="AA163">
+        <v>3.72</v>
+      </c>
+      <c r="AB163">
+        <v>2.67</v>
+      </c>
+      <c r="AC163">
+        <v>1.01</v>
+      </c>
+      <c r="AD163">
+        <v>17</v>
+      </c>
+      <c r="AE163">
+        <v>1.12</v>
+      </c>
+      <c r="AF163">
+        <v>6</v>
+      </c>
+      <c r="AG163">
+        <v>1.44</v>
+      </c>
+      <c r="AH163">
+        <v>2.8</v>
+      </c>
+      <c r="AI163">
+        <v>1.4</v>
+      </c>
+      <c r="AJ163">
+        <v>2.9</v>
+      </c>
+      <c r="AK163">
+        <v>1.45</v>
+      </c>
+      <c r="AL163">
+        <v>1.22</v>
+      </c>
+      <c r="AM163">
+        <v>1.63</v>
+      </c>
+      <c r="AN163">
+        <v>2.29</v>
+      </c>
+      <c r="AO163">
+        <v>1.75</v>
+      </c>
+      <c r="AP163">
+        <v>2.13</v>
+      </c>
+      <c r="AQ163">
+        <v>1.67</v>
+      </c>
+      <c r="AR163">
+        <v>1.91</v>
+      </c>
+      <c r="AS163">
+        <v>1.64</v>
+      </c>
+      <c r="AT163">
+        <v>3.55</v>
+      </c>
+      <c r="AU163">
+        <v>8</v>
+      </c>
+      <c r="AV163">
+        <v>7</v>
+      </c>
+      <c r="AW163">
+        <v>5</v>
+      </c>
+      <c r="AX163">
+        <v>5</v>
+      </c>
+      <c r="AY163">
+        <v>15</v>
+      </c>
+      <c r="AZ163">
+        <v>16</v>
+      </c>
+      <c r="BA163">
+        <v>1</v>
+      </c>
+      <c r="BB163">
+        <v>8</v>
+      </c>
+      <c r="BC163">
+        <v>9</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>0</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>0</v>
+      </c>
+      <c r="BJ163">
+        <v>0</v>
+      </c>
+      <c r="BK163">
+        <v>0</v>
+      </c>
+      <c r="BL163">
+        <v>0</v>
+      </c>
+      <c r="BM163">
+        <v>0</v>
+      </c>
+      <c r="BN163">
+        <v>0</v>
+      </c>
+      <c r="BO163">
+        <v>0</v>
+      </c>
+      <c r="BP163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7465573</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45624.875</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>81</v>
+      </c>
+      <c r="H164" t="s">
+        <v>87</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>202</v>
+      </c>
+      <c r="P164" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q164">
+        <v>3.1</v>
+      </c>
+      <c r="R164">
+        <v>2.2</v>
+      </c>
+      <c r="S164">
+        <v>3.3</v>
+      </c>
+      <c r="T164">
+        <v>1.31</v>
+      </c>
+      <c r="U164">
+        <v>3.2</v>
+      </c>
+      <c r="V164">
+        <v>2.5</v>
+      </c>
+      <c r="W164">
+        <v>1.48</v>
+      </c>
+      <c r="X164">
+        <v>5.95</v>
+      </c>
+      <c r="Y164">
+        <v>1.1</v>
+      </c>
+      <c r="Z164">
+        <v>2.53</v>
+      </c>
+      <c r="AA164">
+        <v>3.46</v>
+      </c>
+      <c r="AB164">
+        <v>2.69</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>13</v>
+      </c>
+      <c r="AE164">
+        <v>1.22</v>
+      </c>
+      <c r="AF164">
+        <v>4.2</v>
+      </c>
+      <c r="AG164">
+        <v>1.67</v>
+      </c>
+      <c r="AH164">
+        <v>2.05</v>
+      </c>
+      <c r="AI164">
+        <v>1.57</v>
+      </c>
+      <c r="AJ164">
+        <v>2.35</v>
+      </c>
+      <c r="AK164">
+        <v>1.47</v>
+      </c>
+      <c r="AL164">
+        <v>1.25</v>
+      </c>
+      <c r="AM164">
+        <v>1.53</v>
+      </c>
+      <c r="AN164">
+        <v>1.43</v>
+      </c>
+      <c r="AO164">
+        <v>2.25</v>
+      </c>
+      <c r="AP164">
+        <v>1.38</v>
+      </c>
+      <c r="AQ164">
+        <v>2.11</v>
+      </c>
+      <c r="AR164">
+        <v>1.74</v>
+      </c>
+      <c r="AS164">
+        <v>1.94</v>
+      </c>
+      <c r="AT164">
+        <v>3.68</v>
+      </c>
+      <c r="AU164">
+        <v>6</v>
+      </c>
+      <c r="AV164">
+        <v>6</v>
+      </c>
+      <c r="AW164">
+        <v>5</v>
+      </c>
+      <c r="AX164">
+        <v>1</v>
+      </c>
+      <c r="AY164">
+        <v>11</v>
+      </c>
+      <c r="AZ164">
+        <v>11</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>5</v>
+      </c>
+      <c r="BC164">
+        <v>10</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>0</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>0</v>
+      </c>
+      <c r="BI164">
+        <v>0</v>
+      </c>
+      <c r="BJ164">
+        <v>0</v>
+      </c>
+      <c r="BK164">
+        <v>0</v>
+      </c>
+      <c r="BL164">
+        <v>0</v>
+      </c>
+      <c r="BM164">
+        <v>0</v>
+      </c>
+      <c r="BN164">
+        <v>0</v>
+      </c>
+      <c r="BO164">
+        <v>0</v>
+      </c>
+      <c r="BP164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7465567</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45625.66666666666</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>76</v>
+      </c>
+      <c r="H165" t="s">
+        <v>71</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>3</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>203</v>
+      </c>
+      <c r="P165" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q165">
+        <v>2.55</v>
+      </c>
+      <c r="R165">
+        <v>2.35</v>
+      </c>
+      <c r="S165">
+        <v>3.75</v>
+      </c>
+      <c r="T165">
+        <v>1.29</v>
+      </c>
+      <c r="U165">
+        <v>3.35</v>
+      </c>
+      <c r="V165">
+        <v>2.4</v>
+      </c>
+      <c r="W165">
+        <v>1.51</v>
+      </c>
+      <c r="X165">
+        <v>5.45</v>
+      </c>
+      <c r="Y165">
+        <v>1.12</v>
+      </c>
+      <c r="Z165">
+        <v>1.81</v>
+      </c>
+      <c r="AA165">
+        <v>3.9</v>
+      </c>
+      <c r="AB165">
+        <v>3.98</v>
+      </c>
+      <c r="AC165">
+        <v>1.02</v>
+      </c>
+      <c r="AD165">
+        <v>15</v>
+      </c>
+      <c r="AE165">
+        <v>1.2</v>
+      </c>
+      <c r="AF165">
+        <v>4.33</v>
+      </c>
+      <c r="AG165">
+        <v>1.6</v>
+      </c>
+      <c r="AH165">
+        <v>2.15</v>
+      </c>
+      <c r="AI165">
+        <v>1.57</v>
+      </c>
+      <c r="AJ165">
+        <v>2.3</v>
+      </c>
+      <c r="AK165">
+        <v>1.3</v>
+      </c>
+      <c r="AL165">
+        <v>1.2</v>
+      </c>
+      <c r="AM165">
+        <v>1.87</v>
+      </c>
+      <c r="AN165">
+        <v>1.5</v>
+      </c>
+      <c r="AO165">
+        <v>2.57</v>
+      </c>
+      <c r="AP165">
+        <v>1.67</v>
+      </c>
+      <c r="AQ165">
+        <v>2.25</v>
+      </c>
+      <c r="AR165">
+        <v>1.64</v>
+      </c>
+      <c r="AS165">
+        <v>1.83</v>
+      </c>
+      <c r="AT165">
+        <v>3.47</v>
+      </c>
+      <c r="AU165">
+        <v>9</v>
+      </c>
+      <c r="AV165">
+        <v>2</v>
+      </c>
+      <c r="AW165">
+        <v>7</v>
+      </c>
+      <c r="AX165">
+        <v>7</v>
+      </c>
+      <c r="AY165">
+        <v>22</v>
+      </c>
+      <c r="AZ165">
+        <v>10</v>
+      </c>
+      <c r="BA165">
+        <v>6</v>
+      </c>
+      <c r="BB165">
+        <v>4</v>
+      </c>
+      <c r="BC165">
+        <v>10</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>0</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
+      <c r="BH165">
+        <v>0</v>
+      </c>
+      <c r="BI165">
+        <v>0</v>
+      </c>
+      <c r="BJ165">
+        <v>0</v>
+      </c>
+      <c r="BK165">
+        <v>0</v>
+      </c>
+      <c r="BL165">
+        <v>0</v>
+      </c>
+      <c r="BM165">
+        <v>0</v>
+      </c>
+      <c r="BN165">
+        <v>0</v>
+      </c>
+      <c r="BO165">
+        <v>0</v>
+      </c>
+      <c r="BP165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7465571</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45625.66666666666</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>70</v>
+      </c>
+      <c r="H166" t="s">
+        <v>79</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>117</v>
+      </c>
+      <c r="P166" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q166">
+        <v>2.25</v>
+      </c>
+      <c r="R166">
+        <v>2.5</v>
+      </c>
+      <c r="S166">
+        <v>4.33</v>
+      </c>
+      <c r="T166">
+        <v>1.22</v>
+      </c>
+      <c r="U166">
+        <v>3.9</v>
+      </c>
+      <c r="V166">
+        <v>2.12</v>
+      </c>
+      <c r="W166">
+        <v>1.66</v>
+      </c>
+      <c r="X166">
+        <v>4.65</v>
+      </c>
+      <c r="Y166">
+        <v>1.16</v>
+      </c>
+      <c r="Z166">
+        <v>1.78</v>
+      </c>
+      <c r="AA166">
+        <v>4.14</v>
+      </c>
+      <c r="AB166">
+        <v>3.89</v>
+      </c>
+      <c r="AC166">
+        <v>1.01</v>
+      </c>
+      <c r="AD166">
+        <v>17</v>
+      </c>
+      <c r="AE166">
+        <v>1.14</v>
+      </c>
+      <c r="AF166">
+        <v>5.5</v>
+      </c>
+      <c r="AG166">
+        <v>1.45</v>
+      </c>
+      <c r="AH166">
+        <v>2.7</v>
+      </c>
+      <c r="AI166">
+        <v>1.47</v>
+      </c>
+      <c r="AJ166">
+        <v>2.65</v>
+      </c>
+      <c r="AK166">
+        <v>1.22</v>
+      </c>
+      <c r="AL166">
+        <v>1.18</v>
+      </c>
+      <c r="AM166">
+        <v>2.1</v>
+      </c>
+      <c r="AN166">
+        <v>0.86</v>
+      </c>
+      <c r="AO166">
+        <v>1.5</v>
+      </c>
+      <c r="AP166">
+        <v>1.13</v>
+      </c>
+      <c r="AQ166">
+        <v>1.33</v>
+      </c>
+      <c r="AR166">
+        <v>1.3</v>
+      </c>
+      <c r="AS166">
+        <v>1.35</v>
+      </c>
+      <c r="AT166">
+        <v>2.65</v>
+      </c>
+      <c r="AU166">
+        <v>7</v>
+      </c>
+      <c r="AV166">
+        <v>4</v>
+      </c>
+      <c r="AW166">
+        <v>14</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+      <c r="AY166">
+        <v>23</v>
+      </c>
+      <c r="AZ166">
+        <v>7</v>
+      </c>
+      <c r="BA166">
+        <v>7</v>
+      </c>
+      <c r="BB166">
+        <v>4</v>
+      </c>
+      <c r="BC166">
+        <v>11</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>0</v>
+      </c>
+      <c r="BG166">
+        <v>0</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>0</v>
+      </c>
+      <c r="BJ166">
+        <v>0</v>
+      </c>
+      <c r="BK166">
+        <v>0</v>
+      </c>
+      <c r="BL166">
+        <v>0</v>
+      </c>
+      <c r="BM166">
+        <v>0</v>
+      </c>
+      <c r="BN166">
+        <v>0</v>
+      </c>
+      <c r="BO166">
+        <v>0</v>
+      </c>
+      <c r="BP166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7465574</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45625.66666666666</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" t="s">
+        <v>72</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>204</v>
+      </c>
+      <c r="P167" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q167">
+        <v>3</v>
+      </c>
+      <c r="R167">
+        <v>2.3</v>
+      </c>
+      <c r="S167">
+        <v>3.25</v>
+      </c>
+      <c r="T167">
+        <v>1.28</v>
+      </c>
+      <c r="U167">
+        <v>3.35</v>
+      </c>
+      <c r="V167">
+        <v>2.4</v>
+      </c>
+      <c r="W167">
+        <v>1.51</v>
+      </c>
+      <c r="X167">
+        <v>5.45</v>
+      </c>
+      <c r="Y167">
+        <v>1.12</v>
+      </c>
+      <c r="Z167">
+        <v>2.42</v>
+      </c>
+      <c r="AA167">
+        <v>3.66</v>
+      </c>
+      <c r="AB167">
+        <v>2.71</v>
+      </c>
+      <c r="AC167">
+        <v>1.02</v>
+      </c>
+      <c r="AD167">
+        <v>15</v>
+      </c>
+      <c r="AE167">
+        <v>1.2</v>
+      </c>
+      <c r="AF167">
+        <v>4.33</v>
+      </c>
+      <c r="AG167">
+        <v>1.65</v>
+      </c>
+      <c r="AH167">
+        <v>2.15</v>
+      </c>
+      <c r="AI167">
+        <v>1.55</v>
+      </c>
+      <c r="AJ167">
+        <v>2.4</v>
+      </c>
+      <c r="AK167">
+        <v>1.5</v>
+      </c>
+      <c r="AL167">
+        <v>1.22</v>
+      </c>
+      <c r="AM167">
+        <v>1.55</v>
+      </c>
+      <c r="AN167">
+        <v>0.5</v>
+      </c>
+      <c r="AO167">
+        <v>2.29</v>
+      </c>
+      <c r="AP167">
+        <v>0.78</v>
+      </c>
+      <c r="AQ167">
+        <v>2</v>
+      </c>
+      <c r="AR167">
+        <v>1.58</v>
+      </c>
+      <c r="AS167">
+        <v>1.41</v>
+      </c>
+      <c r="AT167">
+        <v>2.99</v>
+      </c>
+      <c r="AU167">
+        <v>11</v>
+      </c>
+      <c r="AV167">
+        <v>5</v>
+      </c>
+      <c r="AW167">
+        <v>8</v>
+      </c>
+      <c r="AX167">
+        <v>8</v>
+      </c>
+      <c r="AY167">
+        <v>22</v>
+      </c>
+      <c r="AZ167">
+        <v>15</v>
+      </c>
+      <c r="BA167">
+        <v>9</v>
+      </c>
+      <c r="BB167">
+        <v>8</v>
+      </c>
+      <c r="BC167">
+        <v>17</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>0</v>
+      </c>
+      <c r="BG167">
+        <v>0</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>0</v>
+      </c>
+      <c r="BJ167">
+        <v>0</v>
+      </c>
+      <c r="BK167">
+        <v>0</v>
+      </c>
+      <c r="BL167">
+        <v>0</v>
+      </c>
+      <c r="BM167">
+        <v>0</v>
+      </c>
+      <c r="BN167">
+        <v>0</v>
+      </c>
+      <c r="BO167">
+        <v>0</v>
+      </c>
+      <c r="BP167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7465575</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45626.52083333334</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>74</v>
+      </c>
+      <c r="H168" t="s">
+        <v>84</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>92</v>
+      </c>
+      <c r="P168" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q168">
+        <v>3</v>
+      </c>
+      <c r="R168">
+        <v>2.25</v>
+      </c>
+      <c r="S168">
+        <v>3.3</v>
+      </c>
+      <c r="T168">
+        <v>1.31</v>
+      </c>
+      <c r="U168">
+        <v>3.2</v>
+      </c>
+      <c r="V168">
+        <v>2.55</v>
+      </c>
+      <c r="W168">
+        <v>1.46</v>
+      </c>
+      <c r="X168">
+        <v>5.95</v>
+      </c>
+      <c r="Y168">
+        <v>1.1</v>
+      </c>
+      <c r="Z168">
+        <v>2.41</v>
+      </c>
+      <c r="AA168">
+        <v>3.55</v>
+      </c>
+      <c r="AB168">
+        <v>2.85</v>
+      </c>
+      <c r="AC168">
+        <v>1.03</v>
+      </c>
+      <c r="AD168">
+        <v>13</v>
+      </c>
+      <c r="AE168">
+        <v>1.22</v>
+      </c>
+      <c r="AF168">
+        <v>4</v>
+      </c>
+      <c r="AG168">
+        <v>1.7</v>
+      </c>
+      <c r="AH168">
+        <v>2.05</v>
+      </c>
+      <c r="AI168">
+        <v>1.6</v>
+      </c>
+      <c r="AJ168">
+        <v>2.25</v>
+      </c>
+      <c r="AK168">
+        <v>1.45</v>
+      </c>
+      <c r="AL168">
+        <v>1.25</v>
+      </c>
+      <c r="AM168">
+        <v>1.6</v>
+      </c>
+      <c r="AN168">
+        <v>1.63</v>
+      </c>
+      <c r="AO168">
+        <v>0.57</v>
+      </c>
+      <c r="AP168">
+        <v>1.56</v>
+      </c>
+      <c r="AQ168">
+        <v>0.63</v>
+      </c>
+      <c r="AR168">
+        <v>1.16</v>
+      </c>
+      <c r="AS168">
+        <v>1.21</v>
+      </c>
+      <c r="AT168">
+        <v>2.37</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>2</v>
+      </c>
+      <c r="AW168">
+        <v>9</v>
+      </c>
+      <c r="AX168">
+        <v>5</v>
+      </c>
+      <c r="AY168">
+        <v>16</v>
+      </c>
+      <c r="AZ168">
+        <v>7</v>
+      </c>
+      <c r="BA168">
+        <v>6</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>8</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>0</v>
+      </c>
+      <c r="BG168">
+        <v>0</v>
+      </c>
+      <c r="BH168">
+        <v>0</v>
+      </c>
+      <c r="BI168">
+        <v>0</v>
+      </c>
+      <c r="BJ168">
+        <v>0</v>
+      </c>
+      <c r="BK168">
+        <v>0</v>
+      </c>
+      <c r="BL168">
+        <v>0</v>
+      </c>
+      <c r="BM168">
+        <v>0</v>
+      </c>
+      <c r="BN168">
+        <v>0</v>
+      </c>
+      <c r="BO168">
+        <v>0</v>
+      </c>
+      <c r="BP168">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -616,6 +616,9 @@
     <t>['9', '65', '90+3']</t>
   </si>
   <si>
+    <t>['7', '42']</t>
+  </si>
+  <si>
     <t>['2', '29']</t>
   </si>
   <si>
@@ -623,9 +626,6 @@
   </si>
   <si>
     <t>['15', '32']</t>
-  </si>
-  <si>
-    <t>['7', '42']</t>
   </si>
   <si>
     <t>['58', '69']</t>
@@ -34446,7 +34446,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7465570</v>
+        <v>7465567</v>
       </c>
       <c r="C162" t="s">
         <v>68</v>
@@ -34455,157 +34455,157 @@
         <v>69</v>
       </c>
       <c r="E162" s="2">
-        <v>45624.875</v>
+        <v>45625.66666666666</v>
       </c>
       <c r="F162">
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H162" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I162">
         <v>2</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L162">
         <v>2</v>
       </c>
       <c r="M162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O162" t="s">
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="Q162">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="R162">
-        <v>2.95</v>
+        <v>2.35</v>
       </c>
       <c r="S162">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T162">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="U162">
-        <v>4.65</v>
+        <v>3.35</v>
       </c>
       <c r="V162">
-        <v>1.86</v>
+        <v>2.4</v>
       </c>
       <c r="W162">
-        <v>1.86</v>
+        <v>1.51</v>
       </c>
       <c r="X162">
-        <v>3.7</v>
+        <v>5.45</v>
       </c>
       <c r="Y162">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="Z162">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="AA162">
-        <v>5.39</v>
+        <v>3.9</v>
       </c>
       <c r="AB162">
-        <v>6.21</v>
+        <v>3.98</v>
       </c>
       <c r="AC162">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD162">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE162">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AF162">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG162">
+        <v>1.6</v>
+      </c>
+      <c r="AH162">
+        <v>2.15</v>
+      </c>
+      <c r="AI162">
+        <v>1.57</v>
+      </c>
+      <c r="AJ162">
+        <v>2.3</v>
+      </c>
+      <c r="AK162">
         <v>1.3</v>
       </c>
-      <c r="AH162">
-        <v>3.4</v>
-      </c>
-      <c r="AI162">
-        <v>1.47</v>
-      </c>
-      <c r="AJ162">
-        <v>2.6</v>
-      </c>
-      <c r="AK162">
-        <v>1.1</v>
-      </c>
       <c r="AL162">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AM162">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="AN162">
+        <v>1.5</v>
+      </c>
+      <c r="AO162">
         <v>2.57</v>
       </c>
-      <c r="AO162">
-        <v>1.13</v>
-      </c>
       <c r="AP162">
-        <v>2.63</v>
+        <v>1.67</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AR162">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="AS162">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="AT162">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="AU162">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW162">
+        <v>7</v>
+      </c>
+      <c r="AX162">
+        <v>7</v>
+      </c>
+      <c r="AY162">
+        <v>22</v>
+      </c>
+      <c r="AZ162">
+        <v>10</v>
+      </c>
+      <c r="BA162">
         <v>6</v>
       </c>
-      <c r="AX162">
-        <v>5</v>
-      </c>
-      <c r="AY162">
-        <v>19</v>
-      </c>
-      <c r="AZ162">
-        <v>8</v>
-      </c>
-      <c r="BA162">
-        <v>11</v>
-      </c>
       <c r="BB162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC162">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD162">
         <v>0</v>
@@ -34652,7 +34652,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7465572</v>
+        <v>7465570</v>
       </c>
       <c r="C163" t="s">
         <v>68</v>
@@ -34661,31 +34661,31 @@
         <v>69</v>
       </c>
       <c r="E163" s="2">
-        <v>45624.875</v>
+        <v>45625.66666666666</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H163" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N163">
         <v>2</v>
@@ -34694,124 +34694,124 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="Q163">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="R163">
-        <v>2.45</v>
+        <v>2.95</v>
       </c>
       <c r="S163">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="T163">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="U163">
-        <v>3.9</v>
+        <v>4.65</v>
       </c>
       <c r="V163">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="W163">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="X163">
-        <v>4.45</v>
+        <v>3.7</v>
       </c>
       <c r="Y163">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="Z163">
-        <v>2.42</v>
+        <v>1.4</v>
       </c>
       <c r="AA163">
-        <v>3.72</v>
+        <v>5.39</v>
       </c>
       <c r="AB163">
-        <v>2.67</v>
+        <v>6.21</v>
       </c>
       <c r="AC163">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD163">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE163">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AF163">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AG163">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AH163">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="AI163">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AJ163">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AK163">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="AL163">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AM163">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="AN163">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="AO163">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="AP163">
-        <v>2.13</v>
+        <v>2.63</v>
       </c>
       <c r="AQ163">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR163">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AS163">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="AT163">
-        <v>3.55</v>
+        <v>3.21</v>
       </c>
       <c r="AU163">
         <v>8</v>
       </c>
       <c r="AV163">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW163">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX163">
         <v>5</v>
       </c>
       <c r="AY163">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ163">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA163">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BB163">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC163">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD163">
         <v>0</v>
@@ -34858,7 +34858,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7465573</v>
+        <v>7465571</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34867,157 +34867,157 @@
         <v>69</v>
       </c>
       <c r="E164" s="2">
-        <v>45624.875</v>
+        <v>45625.66666666666</v>
       </c>
       <c r="F164">
         <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H164" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>117</v>
+      </c>
+      <c r="P164" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q164">
+        <v>2.25</v>
+      </c>
+      <c r="R164">
+        <v>2.5</v>
+      </c>
+      <c r="S164">
+        <v>4.33</v>
+      </c>
+      <c r="T164">
+        <v>1.22</v>
+      </c>
+      <c r="U164">
+        <v>3.9</v>
+      </c>
+      <c r="V164">
+        <v>2.12</v>
+      </c>
+      <c r="W164">
+        <v>1.66</v>
+      </c>
+      <c r="X164">
+        <v>4.65</v>
+      </c>
+      <c r="Y164">
+        <v>1.16</v>
+      </c>
+      <c r="Z164">
+        <v>1.78</v>
+      </c>
+      <c r="AA164">
+        <v>4.14</v>
+      </c>
+      <c r="AB164">
+        <v>3.89</v>
+      </c>
+      <c r="AC164">
+        <v>1.01</v>
+      </c>
+      <c r="AD164">
+        <v>17</v>
+      </c>
+      <c r="AE164">
+        <v>1.14</v>
+      </c>
+      <c r="AF164">
+        <v>5.5</v>
+      </c>
+      <c r="AG164">
+        <v>1.45</v>
+      </c>
+      <c r="AH164">
+        <v>2.7</v>
+      </c>
+      <c r="AI164">
+        <v>1.47</v>
+      </c>
+      <c r="AJ164">
+        <v>2.65</v>
+      </c>
+      <c r="AK164">
+        <v>1.22</v>
+      </c>
+      <c r="AL164">
+        <v>1.18</v>
+      </c>
+      <c r="AM164">
+        <v>2.1</v>
+      </c>
+      <c r="AN164">
+        <v>0.86</v>
+      </c>
+      <c r="AO164">
+        <v>1.5</v>
+      </c>
+      <c r="AP164">
+        <v>1.13</v>
+      </c>
+      <c r="AQ164">
+        <v>1.33</v>
+      </c>
+      <c r="AR164">
+        <v>1.3</v>
+      </c>
+      <c r="AS164">
+        <v>1.35</v>
+      </c>
+      <c r="AT164">
+        <v>2.65</v>
+      </c>
+      <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>4</v>
+      </c>
+      <c r="AW164">
+        <v>14</v>
+      </c>
+      <c r="AX164">
         <v>2</v>
       </c>
-      <c r="J164">
-        <v>1</v>
-      </c>
-      <c r="K164">
-        <v>3</v>
-      </c>
-      <c r="L164">
-        <v>2</v>
-      </c>
-      <c r="M164">
-        <v>2</v>
-      </c>
-      <c r="N164">
+      <c r="AY164">
+        <v>23</v>
+      </c>
+      <c r="AZ164">
+        <v>7</v>
+      </c>
+      <c r="BA164">
+        <v>7</v>
+      </c>
+      <c r="BB164">
         <v>4</v>
       </c>
-      <c r="O164" t="s">
-        <v>202</v>
-      </c>
-      <c r="P164" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q164">
-        <v>3.1</v>
-      </c>
-      <c r="R164">
-        <v>2.2</v>
-      </c>
-      <c r="S164">
-        <v>3.3</v>
-      </c>
-      <c r="T164">
-        <v>1.31</v>
-      </c>
-      <c r="U164">
-        <v>3.2</v>
-      </c>
-      <c r="V164">
-        <v>2.5</v>
-      </c>
-      <c r="W164">
-        <v>1.48</v>
-      </c>
-      <c r="X164">
-        <v>5.95</v>
-      </c>
-      <c r="Y164">
-        <v>1.1</v>
-      </c>
-      <c r="Z164">
-        <v>2.53</v>
-      </c>
-      <c r="AA164">
-        <v>3.46</v>
-      </c>
-      <c r="AB164">
-        <v>2.69</v>
-      </c>
-      <c r="AC164">
-        <v>1.03</v>
-      </c>
-      <c r="AD164">
-        <v>13</v>
-      </c>
-      <c r="AE164">
-        <v>1.22</v>
-      </c>
-      <c r="AF164">
-        <v>4.2</v>
-      </c>
-      <c r="AG164">
-        <v>1.67</v>
-      </c>
-      <c r="AH164">
-        <v>2.05</v>
-      </c>
-      <c r="AI164">
-        <v>1.57</v>
-      </c>
-      <c r="AJ164">
-        <v>2.35</v>
-      </c>
-      <c r="AK164">
-        <v>1.47</v>
-      </c>
-      <c r="AL164">
-        <v>1.25</v>
-      </c>
-      <c r="AM164">
-        <v>1.53</v>
-      </c>
-      <c r="AN164">
-        <v>1.43</v>
-      </c>
-      <c r="AO164">
-        <v>2.25</v>
-      </c>
-      <c r="AP164">
-        <v>1.38</v>
-      </c>
-      <c r="AQ164">
-        <v>2.11</v>
-      </c>
-      <c r="AR164">
-        <v>1.74</v>
-      </c>
-      <c r="AS164">
-        <v>1.94</v>
-      </c>
-      <c r="AT164">
-        <v>3.68</v>
-      </c>
-      <c r="AU164">
-        <v>6</v>
-      </c>
-      <c r="AV164">
-        <v>6</v>
-      </c>
-      <c r="AW164">
-        <v>5</v>
-      </c>
-      <c r="AX164">
-        <v>1</v>
-      </c>
-      <c r="AY164">
+      <c r="BC164">
         <v>11</v>
-      </c>
-      <c r="AZ164">
-        <v>11</v>
-      </c>
-      <c r="BA164">
-        <v>5</v>
-      </c>
-      <c r="BB164">
-        <v>5</v>
-      </c>
-      <c r="BC164">
-        <v>10</v>
       </c>
       <c r="BD164">
         <v>0</v>
@@ -35064,7 +35064,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7465567</v>
+        <v>7465572</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -35079,151 +35079,151 @@
         <v>17</v>
       </c>
       <c r="G165" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H165" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
         <v>2</v>
       </c>
-      <c r="J165">
-        <v>1</v>
-      </c>
-      <c r="K165">
-        <v>3</v>
-      </c>
-      <c r="L165">
-        <v>2</v>
-      </c>
-      <c r="M165">
-        <v>1</v>
-      </c>
-      <c r="N165">
-        <v>3</v>
-      </c>
       <c r="O165" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="Q165">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="R165">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="S165">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T165">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U165">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="V165">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="W165">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="X165">
-        <v>5.45</v>
+        <v>4.45</v>
       </c>
       <c r="Y165">
+        <v>1.17</v>
+      </c>
+      <c r="Z165">
+        <v>2.42</v>
+      </c>
+      <c r="AA165">
+        <v>3.72</v>
+      </c>
+      <c r="AB165">
+        <v>2.67</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>17</v>
+      </c>
+      <c r="AE165">
         <v>1.12</v>
       </c>
-      <c r="Z165">
-        <v>1.81</v>
-      </c>
-      <c r="AA165">
-        <v>3.9</v>
-      </c>
-      <c r="AB165">
-        <v>3.98</v>
-      </c>
-      <c r="AC165">
-        <v>1.02</v>
-      </c>
-      <c r="AD165">
+      <c r="AF165">
+        <v>6</v>
+      </c>
+      <c r="AG165">
+        <v>1.44</v>
+      </c>
+      <c r="AH165">
+        <v>2.8</v>
+      </c>
+      <c r="AI165">
+        <v>1.4</v>
+      </c>
+      <c r="AJ165">
+        <v>2.9</v>
+      </c>
+      <c r="AK165">
+        <v>1.45</v>
+      </c>
+      <c r="AL165">
+        <v>1.22</v>
+      </c>
+      <c r="AM165">
+        <v>1.63</v>
+      </c>
+      <c r="AN165">
+        <v>2.29</v>
+      </c>
+      <c r="AO165">
+        <v>1.75</v>
+      </c>
+      <c r="AP165">
+        <v>2.13</v>
+      </c>
+      <c r="AQ165">
+        <v>1.67</v>
+      </c>
+      <c r="AR165">
+        <v>1.91</v>
+      </c>
+      <c r="AS165">
+        <v>1.64</v>
+      </c>
+      <c r="AT165">
+        <v>3.55</v>
+      </c>
+      <c r="AU165">
+        <v>8</v>
+      </c>
+      <c r="AV165">
+        <v>7</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>5</v>
+      </c>
+      <c r="AY165">
         <v>15</v>
       </c>
-      <c r="AE165">
-        <v>1.2</v>
-      </c>
-      <c r="AF165">
-        <v>4.33</v>
-      </c>
-      <c r="AG165">
-        <v>1.6</v>
-      </c>
-      <c r="AH165">
-        <v>2.15</v>
-      </c>
-      <c r="AI165">
-        <v>1.57</v>
-      </c>
-      <c r="AJ165">
-        <v>2.3</v>
-      </c>
-      <c r="AK165">
-        <v>1.3</v>
-      </c>
-      <c r="AL165">
-        <v>1.2</v>
-      </c>
-      <c r="AM165">
-        <v>1.87</v>
-      </c>
-      <c r="AN165">
-        <v>1.5</v>
-      </c>
-      <c r="AO165">
-        <v>2.57</v>
-      </c>
-      <c r="AP165">
-        <v>1.67</v>
-      </c>
-      <c r="AQ165">
-        <v>2.25</v>
-      </c>
-      <c r="AR165">
-        <v>1.64</v>
-      </c>
-      <c r="AS165">
-        <v>1.83</v>
-      </c>
-      <c r="AT165">
-        <v>3.47</v>
-      </c>
-      <c r="AU165">
+      <c r="AZ165">
+        <v>16</v>
+      </c>
+      <c r="BA165">
+        <v>1</v>
+      </c>
+      <c r="BB165">
+        <v>8</v>
+      </c>
+      <c r="BC165">
         <v>9</v>
-      </c>
-      <c r="AV165">
-        <v>2</v>
-      </c>
-      <c r="AW165">
-        <v>7</v>
-      </c>
-      <c r="AX165">
-        <v>7</v>
-      </c>
-      <c r="AY165">
-        <v>22</v>
-      </c>
-      <c r="AZ165">
-        <v>10</v>
-      </c>
-      <c r="BA165">
-        <v>6</v>
-      </c>
-      <c r="BB165">
-        <v>4</v>
-      </c>
-      <c r="BC165">
-        <v>10</v>
       </c>
       <c r="BD165">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7465571</v>
+        <v>7465573</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35285,151 +35285,151 @@
         <v>17</v>
       </c>
       <c r="G166" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H166" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O166" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="Q166">
+        <v>3.1</v>
+      </c>
+      <c r="R166">
+        <v>2.2</v>
+      </c>
+      <c r="S166">
+        <v>3.3</v>
+      </c>
+      <c r="T166">
+        <v>1.31</v>
+      </c>
+      <c r="U166">
+        <v>3.2</v>
+      </c>
+      <c r="V166">
+        <v>2.5</v>
+      </c>
+      <c r="W166">
+        <v>1.48</v>
+      </c>
+      <c r="X166">
+        <v>5.95</v>
+      </c>
+      <c r="Y166">
+        <v>1.1</v>
+      </c>
+      <c r="Z166">
+        <v>2.53</v>
+      </c>
+      <c r="AA166">
+        <v>3.46</v>
+      </c>
+      <c r="AB166">
+        <v>2.69</v>
+      </c>
+      <c r="AC166">
+        <v>1.03</v>
+      </c>
+      <c r="AD166">
+        <v>13</v>
+      </c>
+      <c r="AE166">
+        <v>1.22</v>
+      </c>
+      <c r="AF166">
+        <v>4.2</v>
+      </c>
+      <c r="AG166">
+        <v>1.67</v>
+      </c>
+      <c r="AH166">
+        <v>2.05</v>
+      </c>
+      <c r="AI166">
+        <v>1.57</v>
+      </c>
+      <c r="AJ166">
+        <v>2.35</v>
+      </c>
+      <c r="AK166">
+        <v>1.47</v>
+      </c>
+      <c r="AL166">
+        <v>1.25</v>
+      </c>
+      <c r="AM166">
+        <v>1.53</v>
+      </c>
+      <c r="AN166">
+        <v>1.43</v>
+      </c>
+      <c r="AO166">
         <v>2.25</v>
       </c>
-      <c r="R166">
-        <v>2.5</v>
-      </c>
-      <c r="S166">
-        <v>4.33</v>
-      </c>
-      <c r="T166">
-        <v>1.22</v>
-      </c>
-      <c r="U166">
-        <v>3.9</v>
-      </c>
-      <c r="V166">
-        <v>2.12</v>
-      </c>
-      <c r="W166">
-        <v>1.66</v>
-      </c>
-      <c r="X166">
-        <v>4.65</v>
-      </c>
-      <c r="Y166">
-        <v>1.16</v>
-      </c>
-      <c r="Z166">
-        <v>1.78</v>
-      </c>
-      <c r="AA166">
-        <v>4.14</v>
-      </c>
-      <c r="AB166">
-        <v>3.89</v>
-      </c>
-      <c r="AC166">
-        <v>1.01</v>
-      </c>
-      <c r="AD166">
-        <v>17</v>
-      </c>
-      <c r="AE166">
-        <v>1.14</v>
-      </c>
-      <c r="AF166">
-        <v>5.5</v>
-      </c>
-      <c r="AG166">
-        <v>1.45</v>
-      </c>
-      <c r="AH166">
-        <v>2.7</v>
-      </c>
-      <c r="AI166">
-        <v>1.47</v>
-      </c>
-      <c r="AJ166">
-        <v>2.65</v>
-      </c>
-      <c r="AK166">
-        <v>1.22</v>
-      </c>
-      <c r="AL166">
-        <v>1.18</v>
-      </c>
-      <c r="AM166">
-        <v>2.1</v>
-      </c>
-      <c r="AN166">
-        <v>0.86</v>
-      </c>
-      <c r="AO166">
-        <v>1.5</v>
-      </c>
       <c r="AP166">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>2.11</v>
       </c>
       <c r="AR166">
-        <v>1.3</v>
+        <v>1.74</v>
       </c>
       <c r="AS166">
-        <v>1.35</v>
+        <v>1.94</v>
       </c>
       <c r="AT166">
-        <v>2.65</v>
+        <v>3.68</v>
       </c>
       <c r="AU166">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV166">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW166">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AX166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY166">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AZ166">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA166">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC166">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD166">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,12 @@
     <t>['58', '69']</t>
   </si>
   <si>
+    <t>['2', '25', '90+1']</t>
+  </si>
+  <si>
+    <t>['18', '45+2']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -908,6 +914,12 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['57', '81', '85']</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1734,7 +1746,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1815,7 +1827,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1940,7 +1952,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2146,7 +2158,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2352,7 +2364,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2558,7 +2570,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2764,7 +2776,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2845,7 +2857,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2970,7 +2982,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3048,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -3382,7 +3394,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3794,7 +3806,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4412,7 +4424,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4696,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -5236,7 +5248,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6138,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -6266,7 +6278,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6344,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ25">
         <v>0.63</v>
@@ -6472,7 +6484,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6678,7 +6690,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7090,7 +7102,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7377,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -7502,7 +7514,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8120,7 +8132,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8326,7 +8338,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8613,7 +8625,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8944,7 +8956,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9150,7 +9162,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9562,7 +9574,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9846,7 +9858,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ42">
         <v>1.44</v>
@@ -10180,7 +10192,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10386,7 +10398,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10592,7 +10604,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10798,7 +10810,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11004,7 +11016,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11291,7 +11303,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11416,7 +11428,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11494,7 +11506,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11622,7 +11634,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11828,7 +11840,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12112,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>1.25</v>
@@ -12527,7 +12539,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.7</v>
@@ -12652,7 +12664,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13064,7 +13076,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13270,7 +13282,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13557,7 +13569,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR60">
         <v>1.64</v>
@@ -13682,7 +13694,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13888,7 +13900,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14094,7 +14106,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14378,7 +14390,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>2.25</v>
@@ -14712,7 +14724,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15124,7 +15136,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15330,7 +15342,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15536,7 +15548,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15742,7 +15754,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15948,7 +15960,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16029,7 +16041,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16154,7 +16166,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16360,7 +16372,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16566,7 +16578,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -17184,7 +17196,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17262,7 +17274,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17390,7 +17402,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17677,7 +17689,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.68</v>
@@ -17802,7 +17814,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18214,7 +18226,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18420,7 +18432,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -19038,7 +19050,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19244,7 +19256,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19656,7 +19668,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19734,7 +19746,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ90">
         <v>1.25</v>
@@ -20068,7 +20080,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20355,7 +20367,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR93">
         <v>1.74</v>
@@ -20480,7 +20492,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20686,7 +20698,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20767,7 +20779,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
         <v>1.66</v>
@@ -20892,7 +20904,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21098,7 +21110,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21510,7 +21522,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21794,7 +21806,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -21922,7 +21934,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22128,7 +22140,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22206,7 +22218,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ102">
         <v>1.33</v>
@@ -22540,7 +22552,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22952,7 +22964,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23570,7 +23582,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23776,7 +23788,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23982,7 +23994,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24188,7 +24200,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24600,7 +24612,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24806,7 +24818,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25012,7 +25024,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25218,7 +25230,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25424,7 +25436,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25630,7 +25642,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25836,7 +25848,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26042,7 +26054,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26248,7 +26260,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26454,7 +26466,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26535,7 +26547,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR123">
         <v>1.47</v>
@@ -26660,7 +26672,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26738,10 +26750,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ124">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -26866,7 +26878,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27278,7 +27290,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27356,7 +27368,7 @@
         <v>0.86</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
         <v>1.11</v>
@@ -27484,7 +27496,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27896,7 +27908,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28102,7 +28114,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28514,7 +28526,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29132,7 +29144,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -30449,7 +30461,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR142">
         <v>1.74</v>
@@ -30574,7 +30586,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30780,7 +30792,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30861,7 +30873,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ144">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR144">
         <v>1.68</v>
@@ -30986,7 +30998,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31192,7 +31204,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31398,7 +31410,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31604,7 +31616,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -32016,7 +32028,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32222,7 +32234,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32300,7 +32312,7 @@
         <v>1.57</v>
       </c>
       <c r="AP151">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ151">
         <v>1.67</v>
@@ -32506,7 +32518,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ152">
         <v>0.5</v>
@@ -32634,7 +32646,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32840,7 +32852,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33046,7 +33058,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33664,7 +33676,7 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34076,7 +34088,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34488,7 +34500,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35106,7 +35118,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q165">
         <v>2.8</v>
@@ -35312,7 +35324,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35518,7 +35530,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35724,7 +35736,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35881,6 +35893,418 @@
       </c>
       <c r="BP168">
         <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7465568</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45627.34375</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>77</v>
+      </c>
+      <c r="H169" t="s">
+        <v>80</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>205</v>
+      </c>
+      <c r="P169" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q169">
+        <v>1.78</v>
+      </c>
+      <c r="R169">
+        <v>2.9</v>
+      </c>
+      <c r="S169">
+        <v>6</v>
+      </c>
+      <c r="T169">
+        <v>1.16</v>
+      </c>
+      <c r="U169">
+        <v>4.6</v>
+      </c>
+      <c r="V169">
+        <v>1.94</v>
+      </c>
+      <c r="W169">
+        <v>1.79</v>
+      </c>
+      <c r="X169">
+        <v>3.95</v>
+      </c>
+      <c r="Y169">
+        <v>1.21</v>
+      </c>
+      <c r="Z169">
+        <v>1.34</v>
+      </c>
+      <c r="AA169">
+        <v>5.49</v>
+      </c>
+      <c r="AB169">
+        <v>7.28</v>
+      </c>
+      <c r="AC169">
+        <v>0</v>
+      </c>
+      <c r="AD169">
+        <v>0</v>
+      </c>
+      <c r="AE169">
+        <v>1.1</v>
+      </c>
+      <c r="AF169">
+        <v>6.5</v>
+      </c>
+      <c r="AG169">
+        <v>1.36</v>
+      </c>
+      <c r="AH169">
+        <v>3.1</v>
+      </c>
+      <c r="AI169">
+        <v>1.57</v>
+      </c>
+      <c r="AJ169">
+        <v>2.35</v>
+      </c>
+      <c r="AK169">
+        <v>1.08</v>
+      </c>
+      <c r="AL169">
+        <v>1.1</v>
+      </c>
+      <c r="AM169">
+        <v>3.25</v>
+      </c>
+      <c r="AN169">
+        <v>2.38</v>
+      </c>
+      <c r="AO169">
+        <v>1</v>
+      </c>
+      <c r="AP169">
+        <v>2.44</v>
+      </c>
+      <c r="AQ169">
+        <v>0.88</v>
+      </c>
+      <c r="AR169">
+        <v>1.79</v>
+      </c>
+      <c r="AS169">
+        <v>1.36</v>
+      </c>
+      <c r="AT169">
+        <v>3.15</v>
+      </c>
+      <c r="AU169">
+        <v>6</v>
+      </c>
+      <c r="AV169">
+        <v>6</v>
+      </c>
+      <c r="AW169">
+        <v>3</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>11</v>
+      </c>
+      <c r="BA169">
+        <v>3</v>
+      </c>
+      <c r="BB169">
+        <v>5</v>
+      </c>
+      <c r="BC169">
+        <v>8</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>0</v>
+      </c>
+      <c r="BG169">
+        <v>0</v>
+      </c>
+      <c r="BH169">
+        <v>0</v>
+      </c>
+      <c r="BI169">
+        <v>0</v>
+      </c>
+      <c r="BJ169">
+        <v>0</v>
+      </c>
+      <c r="BK169">
+        <v>0</v>
+      </c>
+      <c r="BL169">
+        <v>0</v>
+      </c>
+      <c r="BM169">
+        <v>0</v>
+      </c>
+      <c r="BN169">
+        <v>0</v>
+      </c>
+      <c r="BO169">
+        <v>0</v>
+      </c>
+      <c r="BP169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7465576</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45627.53125</v>
+      </c>
+      <c r="F170">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>85</v>
+      </c>
+      <c r="H170" t="s">
+        <v>86</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>3</v>
+      </c>
+      <c r="N170">
+        <v>5</v>
+      </c>
+      <c r="O170" t="s">
+        <v>206</v>
+      </c>
+      <c r="P170" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q170">
+        <v>2.95</v>
+      </c>
+      <c r="R170">
+        <v>2.4</v>
+      </c>
+      <c r="S170">
+        <v>3.1</v>
+      </c>
+      <c r="T170">
+        <v>1.24</v>
+      </c>
+      <c r="U170">
+        <v>3.7</v>
+      </c>
+      <c r="V170">
+        <v>2.19</v>
+      </c>
+      <c r="W170">
+        <v>1.62</v>
+      </c>
+      <c r="X170">
+        <v>4.7</v>
+      </c>
+      <c r="Y170">
+        <v>1.16</v>
+      </c>
+      <c r="Z170">
+        <v>2.4</v>
+      </c>
+      <c r="AA170">
+        <v>3.6</v>
+      </c>
+      <c r="AB170">
+        <v>2.7</v>
+      </c>
+      <c r="AC170">
+        <v>1.01</v>
+      </c>
+      <c r="AD170">
+        <v>13</v>
+      </c>
+      <c r="AE170">
+        <v>1.15</v>
+      </c>
+      <c r="AF170">
+        <v>5.5</v>
+      </c>
+      <c r="AG170">
+        <v>1.47</v>
+      </c>
+      <c r="AH170">
+        <v>2.65</v>
+      </c>
+      <c r="AI170">
+        <v>1.42</v>
+      </c>
+      <c r="AJ170">
+        <v>2.8</v>
+      </c>
+      <c r="AK170">
+        <v>1.47</v>
+      </c>
+      <c r="AL170">
+        <v>1.22</v>
+      </c>
+      <c r="AM170">
+        <v>1.57</v>
+      </c>
+      <c r="AN170">
+        <v>1.88</v>
+      </c>
+      <c r="AO170">
+        <v>1.25</v>
+      </c>
+      <c r="AP170">
+        <v>1.67</v>
+      </c>
+      <c r="AQ170">
+        <v>1.44</v>
+      </c>
+      <c r="AR170">
+        <v>1.8</v>
+      </c>
+      <c r="AS170">
+        <v>1.38</v>
+      </c>
+      <c r="AT170">
+        <v>3.18</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>7</v>
+      </c>
+      <c r="AW170">
+        <v>4</v>
+      </c>
+      <c r="AX170">
+        <v>5</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>15</v>
+      </c>
+      <c r="BA170">
+        <v>3</v>
+      </c>
+      <c r="BB170">
+        <v>9</v>
+      </c>
+      <c r="BC170">
+        <v>12</v>
+      </c>
+      <c r="BD170">
+        <v>1.92</v>
+      </c>
+      <c r="BE170">
+        <v>6</v>
+      </c>
+      <c r="BF170">
+        <v>2.25</v>
+      </c>
+      <c r="BG170">
+        <v>0</v>
+      </c>
+      <c r="BH170">
+        <v>0</v>
+      </c>
+      <c r="BI170">
+        <v>1.26</v>
+      </c>
+      <c r="BJ170">
+        <v>3.4</v>
+      </c>
+      <c r="BK170">
+        <v>1.5</v>
+      </c>
+      <c r="BL170">
+        <v>2.38</v>
+      </c>
+      <c r="BM170">
+        <v>1.85</v>
+      </c>
+      <c r="BN170">
+        <v>1.82</v>
+      </c>
+      <c r="BO170">
+        <v>2.45</v>
+      </c>
+      <c r="BP170">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,9 @@
     <t>['18', '45+2']</t>
   </si>
   <si>
+    <t>['17', '83']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -920,6 +923,9 @@
   </si>
   <si>
     <t>['57', '81', '85']</t>
+  </si>
+  <si>
+    <t>['22', '29', '55']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1746,7 +1752,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1952,7 +1958,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2158,7 +2164,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2364,7 +2370,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2570,7 +2576,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2776,7 +2782,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2982,7 +2988,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3266,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ10">
         <v>1.11</v>
@@ -3394,7 +3400,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3806,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4424,7 +4430,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5248,7 +5254,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5535,7 +5541,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6153,7 +6159,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR24">
         <v>2.49</v>
@@ -6278,7 +6284,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6484,7 +6490,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6690,7 +6696,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7102,7 +7108,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7386,7 +7392,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ30">
         <v>1.44</v>
@@ -7514,7 +7520,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8132,7 +8138,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8338,7 +8344,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8956,7 +8962,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9162,7 +9168,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9574,7 +9580,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10067,7 +10073,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR43">
         <v>1.9</v>
@@ -10192,7 +10198,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10398,7 +10404,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10604,7 +10610,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10810,7 +10816,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10888,7 +10894,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11016,7 +11022,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11428,7 +11434,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11634,7 +11640,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11840,7 +11846,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12664,7 +12670,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13076,7 +13082,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13282,7 +13288,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13694,7 +13700,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13900,7 +13906,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14106,7 +14112,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14724,7 +14730,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15011,7 +15017,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR67">
         <v>1.6</v>
@@ -15136,7 +15142,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15342,7 +15348,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15548,7 +15554,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15626,7 +15632,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ70">
         <v>1.25</v>
@@ -15754,7 +15760,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15960,7 +15966,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16166,7 +16172,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16372,7 +16378,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16578,7 +16584,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -17196,7 +17202,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17402,7 +17408,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17814,7 +17820,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18226,7 +18232,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18432,7 +18438,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -19050,7 +19056,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19128,7 +19134,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ87">
         <v>1.44</v>
@@ -19256,7 +19262,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19337,7 +19343,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR88">
         <v>1.89</v>
@@ -19668,7 +19674,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -20080,7 +20086,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20492,7 +20498,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20570,7 +20576,7 @@
         <v>2.5</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ94">
         <v>2</v>
@@ -20698,7 +20704,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20904,7 +20910,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21110,7 +21116,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21522,7 +21528,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21934,7 +21940,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22015,7 +22021,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR101">
         <v>1.83</v>
@@ -22140,7 +22146,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22552,7 +22558,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22964,7 +22970,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23582,7 +23588,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23788,7 +23794,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23994,7 +24000,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24200,7 +24206,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24612,7 +24618,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24818,7 +24824,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25024,7 +25030,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25230,7 +25236,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25436,7 +25442,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25642,7 +25648,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25848,7 +25854,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26054,7 +26060,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26260,7 +26266,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26338,7 +26344,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ122">
         <v>2.11</v>
@@ -26466,7 +26472,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26672,7 +26678,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26878,7 +26884,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27290,7 +27296,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27496,7 +27502,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27908,7 +27914,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27989,7 +27995,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ130">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR130">
         <v>1.33</v>
@@ -28114,7 +28120,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28526,7 +28532,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29144,7 +29150,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -30586,7 +30592,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30667,7 +30673,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ143">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR143">
         <v>1.29</v>
@@ -30792,7 +30798,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30998,7 +31004,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31204,7 +31210,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31410,7 +31416,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31616,7 +31622,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -32028,7 +32034,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32234,7 +32240,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32646,7 +32652,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32724,7 +32730,7 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ153">
         <v>1.25</v>
@@ -32852,7 +32858,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33058,7 +33064,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33676,7 +33682,7 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34088,7 +34094,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34500,7 +34506,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35118,7 +35124,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q165">
         <v>2.8</v>
@@ -35324,7 +35330,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35530,7 +35536,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35736,7 +35742,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35942,7 +35948,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>1.78</v>
@@ -36148,7 +36154,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36305,6 +36311,212 @@
       </c>
       <c r="BP170">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7465577</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45628.66666666666</v>
+      </c>
+      <c r="F171">
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>78</v>
+      </c>
+      <c r="H171" t="s">
+        <v>73</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>2</v>
+      </c>
+      <c r="K171">
+        <v>3</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>5</v>
+      </c>
+      <c r="O171" t="s">
+        <v>207</v>
+      </c>
+      <c r="P171" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q171">
+        <v>2.5</v>
+      </c>
+      <c r="R171">
+        <v>2.5</v>
+      </c>
+      <c r="S171">
+        <v>3.6</v>
+      </c>
+      <c r="T171">
+        <v>1.22</v>
+      </c>
+      <c r="U171">
+        <v>3.9</v>
+      </c>
+      <c r="V171">
+        <v>2.09</v>
+      </c>
+      <c r="W171">
+        <v>1.67</v>
+      </c>
+      <c r="X171">
+        <v>4.45</v>
+      </c>
+      <c r="Y171">
+        <v>1.17</v>
+      </c>
+      <c r="Z171">
+        <v>2.01</v>
+      </c>
+      <c r="AA171">
+        <v>3.64</v>
+      </c>
+      <c r="AB171">
+        <v>3.51</v>
+      </c>
+      <c r="AC171">
+        <v>1.01</v>
+      </c>
+      <c r="AD171">
+        <v>17</v>
+      </c>
+      <c r="AE171">
+        <v>1.12</v>
+      </c>
+      <c r="AF171">
+        <v>6</v>
+      </c>
+      <c r="AG171">
+        <v>1.55</v>
+      </c>
+      <c r="AH171">
+        <v>2.32</v>
+      </c>
+      <c r="AI171">
+        <v>1.4</v>
+      </c>
+      <c r="AJ171">
+        <v>2.85</v>
+      </c>
+      <c r="AK171">
+        <v>1.35</v>
+      </c>
+      <c r="AL171">
+        <v>1.2</v>
+      </c>
+      <c r="AM171">
+        <v>1.83</v>
+      </c>
+      <c r="AN171">
+        <v>1</v>
+      </c>
+      <c r="AO171">
+        <v>0.5</v>
+      </c>
+      <c r="AP171">
+        <v>0.89</v>
+      </c>
+      <c r="AQ171">
+        <v>0.78</v>
+      </c>
+      <c r="AR171">
+        <v>1.87</v>
+      </c>
+      <c r="AS171">
+        <v>1.2</v>
+      </c>
+      <c r="AT171">
+        <v>3.07</v>
+      </c>
+      <c r="AU171">
+        <v>5</v>
+      </c>
+      <c r="AV171">
+        <v>6</v>
+      </c>
+      <c r="AW171">
+        <v>7</v>
+      </c>
+      <c r="AX171">
+        <v>2</v>
+      </c>
+      <c r="AY171">
+        <v>20</v>
+      </c>
+      <c r="AZ171">
+        <v>11</v>
+      </c>
+      <c r="BA171">
+        <v>11</v>
+      </c>
+      <c r="BB171">
+        <v>6</v>
+      </c>
+      <c r="BC171">
+        <v>17</v>
+      </c>
+      <c r="BD171">
+        <v>1.44</v>
+      </c>
+      <c r="BE171">
+        <v>7.7</v>
+      </c>
+      <c r="BF171">
+        <v>3.25</v>
+      </c>
+      <c r="BG171">
+        <v>1.17</v>
+      </c>
+      <c r="BH171">
+        <v>4.35</v>
+      </c>
+      <c r="BI171">
+        <v>1.37</v>
+      </c>
+      <c r="BJ171">
+        <v>2.82</v>
+      </c>
+      <c r="BK171">
+        <v>1.65</v>
+      </c>
+      <c r="BL171">
+        <v>2.05</v>
+      </c>
+      <c r="BM171">
+        <v>2.12</v>
+      </c>
+      <c r="BN171">
+        <v>1.62</v>
+      </c>
+      <c r="BO171">
+        <v>2.85</v>
+      </c>
+      <c r="BP171">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,15 @@
     <t>['17', '83']</t>
   </si>
   <si>
+    <t>['57', '81']</t>
+  </si>
+  <si>
+    <t>['55', '60', '74']</t>
+  </si>
+  <si>
+    <t>['24', '66']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -926,6 +935,12 @@
   </si>
   <si>
     <t>['22', '29', '55']</t>
+  </si>
+  <si>
+    <t>['31', '88']</t>
+  </si>
+  <si>
+    <t>['45', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,7 +1642,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ2">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1752,7 +1767,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1958,7 +1973,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2036,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>0.63</v>
@@ -2164,7 +2179,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2242,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ5">
         <v>2.11</v>
@@ -2370,7 +2385,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2576,7 +2591,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2657,7 +2672,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2782,7 +2797,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2988,7 +3003,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3400,7 +3415,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3684,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3812,7 +3827,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4099,7 +4114,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4430,7 +4445,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4717,7 +4732,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4920,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -5254,7 +5269,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5332,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20">
         <v>2.25</v>
@@ -6284,7 +6299,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6490,7 +6505,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6696,7 +6711,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7108,7 +7123,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7186,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>1.11</v>
@@ -7520,7 +7535,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7601,7 +7616,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -8013,7 +8028,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR33">
         <v>1.26</v>
@@ -8138,7 +8153,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8216,7 +8231,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ34">
         <v>1.33</v>
@@ -8344,7 +8359,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8628,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>0.88</v>
@@ -8834,7 +8849,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ37">
         <v>2.11</v>
@@ -8962,7 +8977,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9168,7 +9183,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9249,7 +9264,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ39">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR39">
         <v>2.22</v>
@@ -9452,10 +9467,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9580,7 +9595,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10198,7 +10213,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10404,7 +10419,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10482,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ45">
         <v>0.63</v>
@@ -10610,7 +10625,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10816,7 +10831,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11022,7 +11037,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11100,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11434,7 +11449,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11640,7 +11655,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11721,7 +11736,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11846,7 +11861,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12670,7 +12685,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12954,10 +12969,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR57">
         <v>1.47</v>
@@ -13082,7 +13097,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13163,7 +13178,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ58">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR58">
         <v>1.06</v>
@@ -13288,7 +13303,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13572,7 +13587,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60">
         <v>1.44</v>
@@ -13700,7 +13715,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13781,7 +13796,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR61">
         <v>1.96</v>
@@ -13906,7 +13921,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13984,7 +13999,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -14112,7 +14127,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14190,7 +14205,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
         <v>1.67</v>
@@ -14605,7 +14620,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14730,7 +14745,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14808,7 +14823,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
         <v>1.67</v>
@@ -15142,7 +15157,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15348,7 +15363,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15554,7 +15569,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15760,7 +15775,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15966,7 +15981,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16044,7 +16059,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ72">
         <v>0.88</v>
@@ -16172,7 +16187,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16250,10 +16265,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16378,7 +16393,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16459,7 +16474,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR74">
         <v>1.75</v>
@@ -16584,7 +16599,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -17077,7 +17092,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ77">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR77">
         <v>1.86</v>
@@ -17202,7 +17217,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17408,7 +17423,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17820,7 +17835,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18104,7 +18119,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ82">
         <v>2.11</v>
@@ -18232,7 +18247,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18438,7 +18453,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18931,7 +18946,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -19056,7 +19071,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19262,7 +19277,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19546,7 +19561,7 @@
         <v>2.25</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ89">
         <v>1.33</v>
@@ -19674,7 +19689,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19958,7 +19973,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20086,7 +20101,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20370,7 +20385,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
         <v>0.88</v>
@@ -20498,7 +20513,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20704,7 +20719,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20782,7 +20797,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ95">
         <v>1.44</v>
@@ -20910,7 +20925,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20991,7 +21006,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -21116,7 +21131,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21528,7 +21543,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21940,7 +21955,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22146,7 +22161,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22558,7 +22573,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22970,7 +22985,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23048,7 +23063,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>1.11</v>
@@ -23463,7 +23478,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR108">
         <v>1.82</v>
@@ -23588,7 +23603,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23669,7 +23684,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR109">
         <v>1.34</v>
@@ -23794,7 +23809,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23872,7 +23887,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24000,7 +24015,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24078,10 +24093,10 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ111">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR111">
         <v>1.8</v>
@@ -24206,7 +24221,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24490,7 +24505,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ113">
         <v>0.63</v>
@@ -24618,7 +24633,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24696,7 +24711,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ114">
         <v>1.44</v>
@@ -24824,7 +24839,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25030,7 +25045,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25111,7 +25126,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR116">
         <v>1.22</v>
@@ -25236,7 +25251,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25442,7 +25457,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25520,10 +25535,10 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ118">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR118">
         <v>1.66</v>
@@ -25648,7 +25663,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25854,7 +25869,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25935,7 +25950,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR120">
         <v>1.79</v>
@@ -26060,7 +26075,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26138,7 +26153,7 @@
         <v>2.6</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
         <v>2</v>
@@ -26266,7 +26281,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26472,7 +26487,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26678,7 +26693,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26884,7 +26899,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27171,7 +27186,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ126">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR126">
         <v>1.62</v>
@@ -27296,7 +27311,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27502,7 +27517,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27786,7 +27801,7 @@
         <v>1.33</v>
       </c>
       <c r="AP129">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
         <v>1.67</v>
@@ -27914,7 +27929,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28120,7 +28135,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28404,7 +28419,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ132">
         <v>1.25</v>
@@ -28532,7 +28547,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28610,10 +28625,10 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ133">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR133">
         <v>1.73</v>
@@ -28819,7 +28834,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ134">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR134">
         <v>1.22</v>
@@ -29150,7 +29165,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29846,7 +29861,7 @@
         <v>0.67</v>
       </c>
       <c r="AP139">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ139">
         <v>0.63</v>
@@ -30055,7 +30070,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR140">
         <v>1.77</v>
@@ -30258,7 +30273,7 @@
         <v>2.67</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ141">
         <v>2</v>
@@ -30592,7 +30607,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30798,7 +30813,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30876,7 +30891,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ144">
         <v>1.44</v>
@@ -31004,7 +31019,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31210,7 +31225,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31288,7 +31303,7 @@
         <v>2.5</v>
       </c>
       <c r="AP146">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ146">
         <v>2.25</v>
@@ -31416,7 +31431,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31622,7 +31637,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31909,7 +31924,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ149">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR149">
         <v>1.58</v>
@@ -32034,7 +32049,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32112,7 +32127,7 @@
         <v>1.25</v>
       </c>
       <c r="AP150">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.44</v>
@@ -32240,7 +32255,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32527,7 +32542,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ152">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR152">
         <v>1.79</v>
@@ -32652,7 +32667,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32858,7 +32873,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -32939,7 +32954,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ154">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR154">
         <v>1.6</v>
@@ -33064,7 +33079,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33142,10 +33157,10 @@
         <v>0.43</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ155">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR155">
         <v>2.01</v>
@@ -33554,7 +33569,7 @@
         <v>1.29</v>
       </c>
       <c r="AP157">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -33682,7 +33697,7 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33760,7 +33775,7 @@
         <v>1.43</v>
       </c>
       <c r="AP158">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ158">
         <v>1.25</v>
@@ -34094,7 +34109,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34175,7 +34190,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ160">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR160">
         <v>1.85</v>
@@ -34506,7 +34521,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35124,7 +35139,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>2.8</v>
@@ -35330,7 +35345,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35536,7 +35551,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35742,7 +35757,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35948,7 +35963,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q169">
         <v>1.78</v>
@@ -36154,7 +36169,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36360,7 +36375,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36517,6 +36532,1036 @@
       </c>
       <c r="BP171">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7465583</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>80</v>
+      </c>
+      <c r="H172" t="s">
+        <v>74</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>93</v>
+      </c>
+      <c r="P172" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q172">
+        <v>2.5</v>
+      </c>
+      <c r="R172">
+        <v>2.35</v>
+      </c>
+      <c r="S172">
+        <v>4</v>
+      </c>
+      <c r="T172">
+        <v>1.29</v>
+      </c>
+      <c r="U172">
+        <v>3.3</v>
+      </c>
+      <c r="V172">
+        <v>2.4</v>
+      </c>
+      <c r="W172">
+        <v>1.51</v>
+      </c>
+      <c r="X172">
+        <v>5.45</v>
+      </c>
+      <c r="Y172">
+        <v>1.12</v>
+      </c>
+      <c r="Z172">
+        <v>1.95</v>
+      </c>
+      <c r="AA172">
+        <v>3.75</v>
+      </c>
+      <c r="AB172">
+        <v>3.6</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>15</v>
+      </c>
+      <c r="AE172">
+        <v>1.2</v>
+      </c>
+      <c r="AF172">
+        <v>4.33</v>
+      </c>
+      <c r="AG172">
+        <v>1.66</v>
+      </c>
+      <c r="AH172">
+        <v>2.2</v>
+      </c>
+      <c r="AI172">
+        <v>1.6</v>
+      </c>
+      <c r="AJ172">
+        <v>2.3</v>
+      </c>
+      <c r="AK172">
+        <v>1.3</v>
+      </c>
+      <c r="AL172">
+        <v>1.22</v>
+      </c>
+      <c r="AM172">
+        <v>1.9</v>
+      </c>
+      <c r="AN172">
+        <v>0.44</v>
+      </c>
+      <c r="AO172">
+        <v>0.5</v>
+      </c>
+      <c r="AP172">
+        <v>0.5</v>
+      </c>
+      <c r="AQ172">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR172">
+        <v>1.65</v>
+      </c>
+      <c r="AS172">
+        <v>1.04</v>
+      </c>
+      <c r="AT172">
+        <v>2.69</v>
+      </c>
+      <c r="AU172">
+        <v>3</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>3</v>
+      </c>
+      <c r="AX172">
+        <v>6</v>
+      </c>
+      <c r="AY172">
+        <v>13</v>
+      </c>
+      <c r="AZ172">
+        <v>13</v>
+      </c>
+      <c r="BA172">
+        <v>3</v>
+      </c>
+      <c r="BB172">
+        <v>7</v>
+      </c>
+      <c r="BC172">
+        <v>10</v>
+      </c>
+      <c r="BD172">
+        <v>1.52</v>
+      </c>
+      <c r="BE172">
+        <v>7.5</v>
+      </c>
+      <c r="BF172">
+        <v>2.98</v>
+      </c>
+      <c r="BG172">
+        <v>1.22</v>
+      </c>
+      <c r="BH172">
+        <v>3.8</v>
+      </c>
+      <c r="BI172">
+        <v>1.33</v>
+      </c>
+      <c r="BJ172">
+        <v>3</v>
+      </c>
+      <c r="BK172">
+        <v>1.6</v>
+      </c>
+      <c r="BL172">
+        <v>2.15</v>
+      </c>
+      <c r="BM172">
+        <v>2.05</v>
+      </c>
+      <c r="BN172">
+        <v>1.65</v>
+      </c>
+      <c r="BO172">
+        <v>2.72</v>
+      </c>
+      <c r="BP172">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7465582</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>73</v>
+      </c>
+      <c r="H173" t="s">
+        <v>75</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>208</v>
+      </c>
+      <c r="P173" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q173">
+        <v>2.6</v>
+      </c>
+      <c r="R173">
+        <v>2.3</v>
+      </c>
+      <c r="S173">
+        <v>3.75</v>
+      </c>
+      <c r="T173">
+        <v>1.33</v>
+      </c>
+      <c r="U173">
+        <v>3.25</v>
+      </c>
+      <c r="V173">
+        <v>2.63</v>
+      </c>
+      <c r="W173">
+        <v>1.44</v>
+      </c>
+      <c r="X173">
+        <v>6.5</v>
+      </c>
+      <c r="Y173">
+        <v>1.11</v>
+      </c>
+      <c r="Z173">
+        <v>2</v>
+      </c>
+      <c r="AA173">
+        <v>3.4</v>
+      </c>
+      <c r="AB173">
+        <v>3.75</v>
+      </c>
+      <c r="AC173">
+        <v>1.03</v>
+      </c>
+      <c r="AD173">
+        <v>12.3</v>
+      </c>
+      <c r="AE173">
+        <v>1.13</v>
+      </c>
+      <c r="AF173">
+        <v>4.3</v>
+      </c>
+      <c r="AG173">
+        <v>1.7</v>
+      </c>
+      <c r="AH173">
+        <v>2.1</v>
+      </c>
+      <c r="AI173">
+        <v>1.57</v>
+      </c>
+      <c r="AJ173">
+        <v>2.25</v>
+      </c>
+      <c r="AK173">
+        <v>1.33</v>
+      </c>
+      <c r="AL173">
+        <v>1.22</v>
+      </c>
+      <c r="AM173">
+        <v>1.8</v>
+      </c>
+      <c r="AN173">
+        <v>1.5</v>
+      </c>
+      <c r="AO173">
+        <v>1</v>
+      </c>
+      <c r="AP173">
+        <v>1.44</v>
+      </c>
+      <c r="AQ173">
+        <v>1</v>
+      </c>
+      <c r="AR173">
+        <v>1.68</v>
+      </c>
+      <c r="AS173">
+        <v>1.36</v>
+      </c>
+      <c r="AT173">
+        <v>3.04</v>
+      </c>
+      <c r="AU173">
+        <v>10</v>
+      </c>
+      <c r="AV173">
+        <v>9</v>
+      </c>
+      <c r="AW173">
+        <v>7</v>
+      </c>
+      <c r="AX173">
+        <v>3</v>
+      </c>
+      <c r="AY173">
+        <v>19</v>
+      </c>
+      <c r="AZ173">
+        <v>14</v>
+      </c>
+      <c r="BA173">
+        <v>7</v>
+      </c>
+      <c r="BB173">
+        <v>2</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>1.75</v>
+      </c>
+      <c r="BE173">
+        <v>7.1</v>
+      </c>
+      <c r="BF173">
+        <v>2.35</v>
+      </c>
+      <c r="BG173">
+        <v>0</v>
+      </c>
+      <c r="BH173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
+        <v>1.3</v>
+      </c>
+      <c r="BJ173">
+        <v>3.1</v>
+      </c>
+      <c r="BK173">
+        <v>1.55</v>
+      </c>
+      <c r="BL173">
+        <v>2.25</v>
+      </c>
+      <c r="BM173">
+        <v>1.95</v>
+      </c>
+      <c r="BN173">
+        <v>1.75</v>
+      </c>
+      <c r="BO173">
+        <v>2.6</v>
+      </c>
+      <c r="BP173">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7465579</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>86</v>
+      </c>
+      <c r="H174" t="s">
+        <v>81</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174" t="s">
+        <v>209</v>
+      </c>
+      <c r="P174" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q174">
+        <v>2.55</v>
+      </c>
+      <c r="R174">
+        <v>2.3</v>
+      </c>
+      <c r="S174">
+        <v>3.4</v>
+      </c>
+      <c r="T174">
+        <v>1.25</v>
+      </c>
+      <c r="U174">
+        <v>3.5</v>
+      </c>
+      <c r="V174">
+        <v>2.15</v>
+      </c>
+      <c r="W174">
+        <v>1.62</v>
+      </c>
+      <c r="X174">
+        <v>4.6</v>
+      </c>
+      <c r="Y174">
+        <v>1.17</v>
+      </c>
+      <c r="Z174">
+        <v>2.1</v>
+      </c>
+      <c r="AA174">
+        <v>3.8</v>
+      </c>
+      <c r="AB174">
+        <v>3.1</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>13</v>
+      </c>
+      <c r="AE174">
+        <v>1.15</v>
+      </c>
+      <c r="AF174">
+        <v>5.25</v>
+      </c>
+      <c r="AG174">
+        <v>1.5</v>
+      </c>
+      <c r="AH174">
+        <v>2.55</v>
+      </c>
+      <c r="AI174">
+        <v>1.42</v>
+      </c>
+      <c r="AJ174">
+        <v>2.6</v>
+      </c>
+      <c r="AK174">
+        <v>1.36</v>
+      </c>
+      <c r="AL174">
+        <v>1.22</v>
+      </c>
+      <c r="AM174">
+        <v>1.7</v>
+      </c>
+      <c r="AN174">
+        <v>2</v>
+      </c>
+      <c r="AO174">
+        <v>1.33</v>
+      </c>
+      <c r="AP174">
+        <v>2.11</v>
+      </c>
+      <c r="AQ174">
+        <v>1.2</v>
+      </c>
+      <c r="AR174">
+        <v>2</v>
+      </c>
+      <c r="AS174">
+        <v>1.64</v>
+      </c>
+      <c r="AT174">
+        <v>3.64</v>
+      </c>
+      <c r="AU174">
+        <v>5</v>
+      </c>
+      <c r="AV174">
+        <v>7</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>5</v>
+      </c>
+      <c r="AY174">
+        <v>12</v>
+      </c>
+      <c r="AZ174">
+        <v>18</v>
+      </c>
+      <c r="BA174">
+        <v>4</v>
+      </c>
+      <c r="BB174">
+        <v>6</v>
+      </c>
+      <c r="BC174">
+        <v>10</v>
+      </c>
+      <c r="BD174">
+        <v>1.78</v>
+      </c>
+      <c r="BE174">
+        <v>7.2</v>
+      </c>
+      <c r="BF174">
+        <v>2.32</v>
+      </c>
+      <c r="BG174">
+        <v>1.2</v>
+      </c>
+      <c r="BH174">
+        <v>4</v>
+      </c>
+      <c r="BI174">
+        <v>1.27</v>
+      </c>
+      <c r="BJ174">
+        <v>3.35</v>
+      </c>
+      <c r="BK174">
+        <v>1.52</v>
+      </c>
+      <c r="BL174">
+        <v>2.32</v>
+      </c>
+      <c r="BM174">
+        <v>1.9</v>
+      </c>
+      <c r="BN174">
+        <v>1.78</v>
+      </c>
+      <c r="BO174">
+        <v>2.48</v>
+      </c>
+      <c r="BP174">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7465580</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>88</v>
+      </c>
+      <c r="H175" t="s">
+        <v>78</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>210</v>
+      </c>
+      <c r="P175" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q175">
+        <v>1.83</v>
+      </c>
+      <c r="R175">
+        <v>2.63</v>
+      </c>
+      <c r="S175">
+        <v>6.5</v>
+      </c>
+      <c r="T175">
+        <v>1.25</v>
+      </c>
+      <c r="U175">
+        <v>3.75</v>
+      </c>
+      <c r="V175">
+        <v>2.1</v>
+      </c>
+      <c r="W175">
+        <v>1.67</v>
+      </c>
+      <c r="X175">
+        <v>5</v>
+      </c>
+      <c r="Y175">
+        <v>1.17</v>
+      </c>
+      <c r="Z175">
+        <v>1.36</v>
+      </c>
+      <c r="AA175">
+        <v>5.25</v>
+      </c>
+      <c r="AB175">
+        <v>7</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>18.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.07</v>
+      </c>
+      <c r="AF175">
+        <v>5.55</v>
+      </c>
+      <c r="AG175">
+        <v>1.44</v>
+      </c>
+      <c r="AH175">
+        <v>2.7</v>
+      </c>
+      <c r="AI175">
+        <v>1.67</v>
+      </c>
+      <c r="AJ175">
+        <v>2.1</v>
+      </c>
+      <c r="AK175">
+        <v>1.08</v>
+      </c>
+      <c r="AL175">
+        <v>1.11</v>
+      </c>
+      <c r="AM175">
+        <v>3.25</v>
+      </c>
+      <c r="AN175">
+        <v>2.25</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>2.33</v>
+      </c>
+      <c r="AQ175">
+        <v>1.11</v>
+      </c>
+      <c r="AR175">
+        <v>2.04</v>
+      </c>
+      <c r="AS175">
+        <v>1.32</v>
+      </c>
+      <c r="AT175">
+        <v>3.36</v>
+      </c>
+      <c r="AU175">
+        <v>8</v>
+      </c>
+      <c r="AV175">
+        <v>4</v>
+      </c>
+      <c r="AW175">
+        <v>4</v>
+      </c>
+      <c r="AX175">
+        <v>5</v>
+      </c>
+      <c r="AY175">
+        <v>14</v>
+      </c>
+      <c r="AZ175">
+        <v>13</v>
+      </c>
+      <c r="BA175">
+        <v>6</v>
+      </c>
+      <c r="BB175">
+        <v>2</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>1.26</v>
+      </c>
+      <c r="BE175">
+        <v>7.7</v>
+      </c>
+      <c r="BF175">
+        <v>4.9</v>
+      </c>
+      <c r="BG175">
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <v>0</v>
+      </c>
+      <c r="BI175">
+        <v>1.24</v>
+      </c>
+      <c r="BJ175">
+        <v>3.55</v>
+      </c>
+      <c r="BK175">
+        <v>1.45</v>
+      </c>
+      <c r="BL175">
+        <v>2.52</v>
+      </c>
+      <c r="BM175">
+        <v>1.78</v>
+      </c>
+      <c r="BN175">
+        <v>1.92</v>
+      </c>
+      <c r="BO175">
+        <v>2.28</v>
+      </c>
+      <c r="BP175">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7465581</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>72</v>
+      </c>
+      <c r="H176" t="s">
+        <v>85</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176" t="s">
+        <v>93</v>
+      </c>
+      <c r="P176" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q176">
+        <v>2.7</v>
+      </c>
+      <c r="R176">
+        <v>2.2</v>
+      </c>
+      <c r="S176">
+        <v>3.45</v>
+      </c>
+      <c r="T176">
+        <v>1.33</v>
+      </c>
+      <c r="U176">
+        <v>3.1</v>
+      </c>
+      <c r="V176">
+        <v>2.4</v>
+      </c>
+      <c r="W176">
+        <v>1.5</v>
+      </c>
+      <c r="X176">
+        <v>5.35</v>
+      </c>
+      <c r="Y176">
+        <v>1.13</v>
+      </c>
+      <c r="Z176">
+        <v>2.2</v>
+      </c>
+      <c r="AA176">
+        <v>3.5</v>
+      </c>
+      <c r="AB176">
+        <v>3.1</v>
+      </c>
+      <c r="AC176">
+        <v>1.04</v>
+      </c>
+      <c r="AD176">
+        <v>10</v>
+      </c>
+      <c r="AE176">
+        <v>1.22</v>
+      </c>
+      <c r="AF176">
+        <v>4.2</v>
+      </c>
+      <c r="AG176">
+        <v>1.67</v>
+      </c>
+      <c r="AH176">
+        <v>2.15</v>
+      </c>
+      <c r="AI176">
+        <v>1.5</v>
+      </c>
+      <c r="AJ176">
+        <v>2.35</v>
+      </c>
+      <c r="AK176">
+        <v>1.36</v>
+      </c>
+      <c r="AL176">
+        <v>1.25</v>
+      </c>
+      <c r="AM176">
+        <v>1.65</v>
+      </c>
+      <c r="AN176">
+        <v>1.56</v>
+      </c>
+      <c r="AO176">
+        <v>1.63</v>
+      </c>
+      <c r="AP176">
+        <v>1.5</v>
+      </c>
+      <c r="AQ176">
+        <v>1.56</v>
+      </c>
+      <c r="AR176">
+        <v>1.56</v>
+      </c>
+      <c r="AS176">
+        <v>1.24</v>
+      </c>
+      <c r="AT176">
+        <v>2.8</v>
+      </c>
+      <c r="AU176">
+        <v>2</v>
+      </c>
+      <c r="AV176">
+        <v>4</v>
+      </c>
+      <c r="AW176">
+        <v>3</v>
+      </c>
+      <c r="AX176">
+        <v>6</v>
+      </c>
+      <c r="AY176">
+        <v>9</v>
+      </c>
+      <c r="AZ176">
+        <v>13</v>
+      </c>
+      <c r="BA176">
+        <v>3</v>
+      </c>
+      <c r="BB176">
+        <v>3</v>
+      </c>
+      <c r="BC176">
+        <v>6</v>
+      </c>
+      <c r="BD176">
+        <v>1.62</v>
+      </c>
+      <c r="BE176">
+        <v>7.4</v>
+      </c>
+      <c r="BF176">
+        <v>2.65</v>
+      </c>
+      <c r="BG176">
+        <v>0</v>
+      </c>
+      <c r="BH176">
+        <v>0</v>
+      </c>
+      <c r="BI176">
+        <v>1.29</v>
+      </c>
+      <c r="BJ176">
+        <v>3.25</v>
+      </c>
+      <c r="BK176">
+        <v>1.52</v>
+      </c>
+      <c r="BL176">
+        <v>2.32</v>
+      </c>
+      <c r="BM176">
+        <v>1.9</v>
+      </c>
+      <c r="BN176">
+        <v>1.78</v>
+      </c>
+      <c r="BO176">
+        <v>2.52</v>
+      </c>
+      <c r="BP176">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,9 @@
     <t>['24', '66']</t>
   </si>
   <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -941,6 +944,9 @@
   </si>
   <si>
     <t>['45', '90+3']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1767,7 +1773,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1973,7 +1979,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2179,7 +2185,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2385,7 +2391,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2591,7 +2597,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2797,7 +2803,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3003,7 +3009,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3415,7 +3421,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3827,7 +3833,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4445,7 +4451,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4938,7 +4944,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5141,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -5269,7 +5275,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6299,7 +6305,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6505,7 +6511,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6711,7 +6717,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7123,7 +7129,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7535,7 +7541,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8153,7 +8159,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8359,7 +8365,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8977,7 +8983,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9183,7 +9189,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9595,7 +9601,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10213,7 +10219,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10291,7 +10297,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10419,7 +10425,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10625,7 +10631,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10831,7 +10837,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11037,7 +11043,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11449,7 +11455,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11655,7 +11661,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11861,7 +11867,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12148,7 +12154,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR53">
         <v>2.41</v>
@@ -12351,7 +12357,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54">
         <v>1.11</v>
@@ -12685,7 +12691,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13097,7 +13103,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13303,7 +13309,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13384,7 +13390,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR59">
         <v>1.91</v>
@@ -13715,7 +13721,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13921,7 +13927,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14127,7 +14133,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14745,7 +14751,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15157,7 +15163,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15363,7 +15369,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15569,7 +15575,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15775,7 +15781,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15981,7 +15987,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16187,7 +16193,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16393,7 +16399,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16599,7 +16605,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -17217,7 +17223,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17423,7 +17429,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17501,7 +17507,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ79">
         <v>2.25</v>
@@ -17835,7 +17841,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18247,7 +18253,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18453,7 +18459,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18534,7 +18540,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -19071,7 +19077,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19277,7 +19283,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19689,7 +19695,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -20101,7 +20107,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20513,7 +20519,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20719,7 +20725,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20925,7 +20931,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21131,7 +21137,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21209,7 +21215,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ97">
         <v>1.67</v>
@@ -21543,7 +21549,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21955,7 +21961,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22161,7 +22167,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22573,7 +22579,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22860,7 +22866,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -22985,7 +22991,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23269,7 +23275,7 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ107">
         <v>1.44</v>
@@ -23603,7 +23609,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23809,7 +23815,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24015,7 +24021,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24221,7 +24227,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24633,7 +24639,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24839,7 +24845,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25045,7 +25051,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25251,7 +25257,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25457,7 +25463,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25663,7 +25669,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25869,7 +25875,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26075,7 +26081,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26281,7 +26287,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26487,7 +26493,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26693,7 +26699,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26899,7 +26905,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -26980,7 +26986,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ125">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR125">
         <v>1.31</v>
@@ -27311,7 +27317,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27517,7 +27523,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27929,7 +27935,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28135,7 +28141,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28547,7 +28553,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29037,7 +29043,7 @@
         <v>1.71</v>
       </c>
       <c r="AP135">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ135">
         <v>1.33</v>
@@ -29165,7 +29171,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -30607,7 +30613,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30813,7 +30819,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31019,7 +31025,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31225,7 +31231,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31431,7 +31437,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31637,7 +31643,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -32049,7 +32055,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32255,7 +32261,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32667,7 +32673,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32748,7 +32754,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ153">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR153">
         <v>1.87</v>
@@ -32873,7 +32879,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33079,7 +33085,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33697,7 +33703,7 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33778,7 +33784,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ158">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR158">
         <v>1.63</v>
@@ -34109,7 +34115,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34187,7 +34193,7 @@
         <v>1.43</v>
       </c>
       <c r="AP160">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ160">
         <v>1.56</v>
@@ -34521,7 +34527,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35139,7 +35145,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q165">
         <v>2.8</v>
@@ -35345,7 +35351,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35551,7 +35557,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35757,7 +35763,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35963,7 +35969,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q169">
         <v>1.78</v>
@@ -36169,7 +36175,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36375,7 +36381,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36787,7 +36793,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -36993,7 +36999,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37562,6 +37568,212 @@
       </c>
       <c r="BP176">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7465584</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45633.52083333334</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>87</v>
+      </c>
+      <c r="H177" t="s">
+        <v>76</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>211</v>
+      </c>
+      <c r="P177" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q177">
+        <v>2.75</v>
+      </c>
+      <c r="R177">
+        <v>2.35</v>
+      </c>
+      <c r="S177">
+        <v>3.5</v>
+      </c>
+      <c r="T177">
+        <v>1.26</v>
+      </c>
+      <c r="U177">
+        <v>3.5</v>
+      </c>
+      <c r="V177">
+        <v>2.24</v>
+      </c>
+      <c r="W177">
+        <v>1.59</v>
+      </c>
+      <c r="X177">
+        <v>4.95</v>
+      </c>
+      <c r="Y177">
+        <v>1.14</v>
+      </c>
+      <c r="Z177">
+        <v>2.2</v>
+      </c>
+      <c r="AA177">
+        <v>3.75</v>
+      </c>
+      <c r="AB177">
+        <v>3</v>
+      </c>
+      <c r="AC177">
+        <v>1.01</v>
+      </c>
+      <c r="AD177">
+        <v>13</v>
+      </c>
+      <c r="AE177">
+        <v>1.16</v>
+      </c>
+      <c r="AF177">
+        <v>5</v>
+      </c>
+      <c r="AG177">
+        <v>1.53</v>
+      </c>
+      <c r="AH177">
+        <v>2.45</v>
+      </c>
+      <c r="AI177">
+        <v>1.47</v>
+      </c>
+      <c r="AJ177">
+        <v>2.65</v>
+      </c>
+      <c r="AK177">
+        <v>1.38</v>
+      </c>
+      <c r="AL177">
+        <v>1.22</v>
+      </c>
+      <c r="AM177">
+        <v>1.68</v>
+      </c>
+      <c r="AN177">
+        <v>0.88</v>
+      </c>
+      <c r="AO177">
+        <v>1.25</v>
+      </c>
+      <c r="AP177">
+        <v>1.11</v>
+      </c>
+      <c r="AQ177">
+        <v>1.11</v>
+      </c>
+      <c r="AR177">
+        <v>1.93</v>
+      </c>
+      <c r="AS177">
+        <v>1.58</v>
+      </c>
+      <c r="AT177">
+        <v>3.51</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>9</v>
+      </c>
+      <c r="AW177">
+        <v>3</v>
+      </c>
+      <c r="AX177">
+        <v>3</v>
+      </c>
+      <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>17</v>
+      </c>
+      <c r="BA177">
+        <v>2</v>
+      </c>
+      <c r="BB177">
+        <v>3</v>
+      </c>
+      <c r="BC177">
+        <v>5</v>
+      </c>
+      <c r="BD177">
+        <v>1.55</v>
+      </c>
+      <c r="BE177">
+        <v>7.3</v>
+      </c>
+      <c r="BF177">
+        <v>2.82</v>
+      </c>
+      <c r="BG177">
+        <v>1.17</v>
+      </c>
+      <c r="BH177">
+        <v>4.3</v>
+      </c>
+      <c r="BI177">
+        <v>1.35</v>
+      </c>
+      <c r="BJ177">
+        <v>2.9</v>
+      </c>
+      <c r="BK177">
+        <v>1.62</v>
+      </c>
+      <c r="BL177">
+        <v>2.12</v>
+      </c>
+      <c r="BM177">
+        <v>2.08</v>
+      </c>
+      <c r="BN177">
+        <v>1.65</v>
+      </c>
+      <c r="BO177">
+        <v>2.78</v>
+      </c>
+      <c r="BP177">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>['22', '80']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -1308,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1773,7 +1776,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1851,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ3">
         <v>1.44</v>
@@ -1979,7 +1982,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2185,7 +2188,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2391,7 +2394,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2472,7 +2475,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2597,7 +2600,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2803,7 +2806,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3009,7 +3012,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3421,7 +3424,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3833,7 +3836,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4451,7 +4454,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5275,7 +5278,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5971,7 +5974,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -6305,7 +6308,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6511,7 +6514,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6717,7 +6720,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7004,7 +7007,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -7129,7 +7132,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7541,7 +7544,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8159,7 +8162,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8365,7 +8368,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8983,7 +8986,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9064,7 +9067,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR38">
         <v>1.6</v>
@@ -9189,7 +9192,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9601,7 +9604,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10219,7 +10222,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10425,7 +10428,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10631,7 +10634,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10837,7 +10840,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11043,7 +11046,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11455,7 +11458,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11661,7 +11664,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11867,7 +11870,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11945,7 +11948,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ52">
         <v>1.11</v>
@@ -12691,7 +12694,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12769,7 +12772,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13103,7 +13106,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13309,7 +13312,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13721,7 +13724,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13927,7 +13930,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14133,7 +14136,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14751,7 +14754,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14832,7 +14835,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -15163,7 +15166,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15369,7 +15372,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15575,7 +15578,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15781,7 +15784,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15987,7 +15990,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16193,7 +16196,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16399,7 +16402,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16605,7 +16608,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -17223,7 +17226,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17429,7 +17432,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17841,7 +17844,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18253,7 +18256,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18459,7 +18462,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18746,7 +18749,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR85">
         <v>1.66</v>
@@ -19077,7 +19080,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19283,7 +19286,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19361,7 +19364,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ88">
         <v>0.78</v>
@@ -19695,7 +19698,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -20107,7 +20110,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20519,7 +20522,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20725,7 +20728,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20931,7 +20934,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21137,7 +21140,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21549,7 +21552,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21961,7 +21964,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22167,7 +22170,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22579,7 +22582,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22660,7 +22663,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ104">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -22991,7 +22994,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23481,7 +23484,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ108">
         <v>0.5600000000000001</v>
@@ -23609,7 +23612,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23815,7 +23818,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24021,7 +24024,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24227,7 +24230,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24639,7 +24642,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24845,7 +24848,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25051,7 +25054,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25257,7 +25260,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25463,7 +25466,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25669,7 +25672,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25875,7 +25878,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25953,7 +25956,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ120">
         <v>1.2</v>
@@ -26081,7 +26084,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26287,7 +26290,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26493,7 +26496,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26699,7 +26702,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26905,7 +26908,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27317,7 +27320,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27523,7 +27526,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27810,7 +27813,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR129">
         <v>1.74</v>
@@ -27935,7 +27938,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28141,7 +28144,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28553,7 +28556,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29171,7 +29174,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29249,7 +29252,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -30613,7 +30616,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30819,7 +30822,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31025,7 +31028,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31231,7 +31234,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31437,7 +31440,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31643,7 +31646,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -32055,7 +32058,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32261,7 +32264,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32342,7 +32345,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ151">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR151">
         <v>1.8</v>
@@ -32673,7 +32676,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32879,7 +32882,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33085,7 +33088,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33369,7 +33372,7 @@
         <v>1.43</v>
       </c>
       <c r="AP156">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ156">
         <v>1.25</v>
@@ -33703,7 +33706,7 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34115,7 +34118,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34402,7 +34405,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ161">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR161">
         <v>1.46</v>
@@ -34527,7 +34530,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35145,7 +35148,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q165">
         <v>2.8</v>
@@ -35351,7 +35354,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35557,7 +35560,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35763,7 +35766,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35969,7 +35972,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q169">
         <v>1.78</v>
@@ -36175,7 +36178,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36381,7 +36384,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36793,7 +36796,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -36999,7 +37002,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37617,7 +37620,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -37774,6 +37777,212 @@
       </c>
       <c r="BP177">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7465585</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45634.53125</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>71</v>
+      </c>
+      <c r="H178" t="s">
+        <v>83</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>212</v>
+      </c>
+      <c r="P178" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>2.15</v>
+      </c>
+      <c r="S178">
+        <v>3.1</v>
+      </c>
+      <c r="T178">
+        <v>1.33</v>
+      </c>
+      <c r="U178">
+        <v>3</v>
+      </c>
+      <c r="V178">
+        <v>2.4</v>
+      </c>
+      <c r="W178">
+        <v>1.5</v>
+      </c>
+      <c r="X178">
+        <v>5.9</v>
+      </c>
+      <c r="Y178">
+        <v>1.11</v>
+      </c>
+      <c r="Z178">
+        <v>2.66</v>
+      </c>
+      <c r="AA178">
+        <v>3.56</v>
+      </c>
+      <c r="AB178">
+        <v>2.51</v>
+      </c>
+      <c r="AC178">
+        <v>1.04</v>
+      </c>
+      <c r="AD178">
+        <v>10</v>
+      </c>
+      <c r="AE178">
+        <v>1.22</v>
+      </c>
+      <c r="AF178">
+        <v>4.2</v>
+      </c>
+      <c r="AG178">
+        <v>1.67</v>
+      </c>
+      <c r="AH178">
+        <v>2.15</v>
+      </c>
+      <c r="AI178">
+        <v>1.5</v>
+      </c>
+      <c r="AJ178">
+        <v>2.35</v>
+      </c>
+      <c r="AK178">
+        <v>1.48</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.48</v>
+      </c>
+      <c r="AN178">
+        <v>1.33</v>
+      </c>
+      <c r="AO178">
+        <v>1.67</v>
+      </c>
+      <c r="AP178">
+        <v>1.3</v>
+      </c>
+      <c r="AQ178">
+        <v>1.6</v>
+      </c>
+      <c r="AR178">
+        <v>1.72</v>
+      </c>
+      <c r="AS178">
+        <v>1.83</v>
+      </c>
+      <c r="AT178">
+        <v>3.55</v>
+      </c>
+      <c r="AU178">
+        <v>5</v>
+      </c>
+      <c r="AV178">
+        <v>6</v>
+      </c>
+      <c r="AW178">
+        <v>3</v>
+      </c>
+      <c r="AX178">
+        <v>7</v>
+      </c>
+      <c r="AY178">
+        <v>11</v>
+      </c>
+      <c r="AZ178">
+        <v>16</v>
+      </c>
+      <c r="BA178">
+        <v>3</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>7</v>
+      </c>
+      <c r="BD178">
+        <v>2.35</v>
+      </c>
+      <c r="BE178">
+        <v>5.95</v>
+      </c>
+      <c r="BF178">
+        <v>1.85</v>
+      </c>
+      <c r="BG178">
+        <v>1.18</v>
+      </c>
+      <c r="BH178">
+        <v>4.2</v>
+      </c>
+      <c r="BI178">
+        <v>1.35</v>
+      </c>
+      <c r="BJ178">
+        <v>2.9</v>
+      </c>
+      <c r="BK178">
+        <v>1.65</v>
+      </c>
+      <c r="BL178">
+        <v>2.08</v>
+      </c>
+      <c r="BM178">
+        <v>2.12</v>
+      </c>
+      <c r="BN178">
+        <v>1.62</v>
+      </c>
+      <c r="BO178">
+        <v>2.9</v>
+      </c>
+      <c r="BP178">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,12 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['12', '90+7']</t>
+  </si>
+  <si>
+    <t>['17', '78']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -950,6 +956,12 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['16', '35', '75', '78']</t>
+  </si>
+  <si>
+    <t>['52', '85', '88']</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1776,7 +1788,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1982,7 +1994,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2188,7 +2200,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2394,7 +2406,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2600,7 +2612,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2806,7 +2818,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3012,7 +3024,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3299,7 +3311,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ10">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3424,7 +3436,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3502,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3836,7 +3848,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3917,7 +3929,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4329,7 +4341,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4454,7 +4466,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4532,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -5278,7 +5290,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5562,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.78</v>
@@ -6308,7 +6320,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6514,7 +6526,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6720,7 +6732,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7132,7 +7144,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7213,7 +7225,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ29">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7544,7 +7556,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7622,7 +7634,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ31">
         <v>1.2</v>
@@ -7831,7 +7843,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ32">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -8162,7 +8174,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8368,7 +8380,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8446,7 +8458,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ35">
         <v>2.25</v>
@@ -8986,7 +8998,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9192,7 +9204,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9270,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>1.56</v>
@@ -9604,7 +9616,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9685,7 +9697,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9891,7 +9903,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10222,7 +10234,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10428,7 +10440,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10634,7 +10646,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10840,7 +10852,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11046,7 +11058,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11458,7 +11470,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11664,7 +11676,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11870,7 +11882,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11951,7 +11963,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12363,7 +12375,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR54">
         <v>1.99</v>
@@ -12694,7 +12706,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13106,7 +13118,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13184,7 +13196,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ58">
         <v>1.56</v>
@@ -13312,7 +13324,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13390,7 +13402,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ59">
         <v>1.11</v>
@@ -13724,7 +13736,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13802,7 +13814,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>1.11</v>
@@ -13930,7 +13942,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14136,7 +14148,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14754,7 +14766,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15166,7 +15178,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15372,7 +15384,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15453,7 +15465,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15578,7 +15590,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15659,7 +15671,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -15784,7 +15796,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15862,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ71">
         <v>2.11</v>
@@ -15990,7 +16002,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16196,7 +16208,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16402,7 +16414,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16608,7 +16620,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16895,7 +16907,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ76">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -17226,7 +17238,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17432,7 +17444,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17716,7 +17728,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>1.44</v>
@@ -17844,7 +17856,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17922,7 +17934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ81">
         <v>2</v>
@@ -18256,7 +18268,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18462,7 +18474,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18952,7 +18964,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ86">
         <v>1.2</v>
@@ -19080,7 +19092,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19161,7 +19173,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ87">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR87">
         <v>1.95</v>
@@ -19286,7 +19298,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19698,7 +19710,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19779,7 +19791,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR90">
         <v>1.95</v>
@@ -20110,7 +20122,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20191,7 +20203,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR92">
         <v>1.75</v>
@@ -20522,7 +20534,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20728,7 +20740,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20934,7 +20946,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21140,7 +21152,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21424,7 +21436,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>0.63</v>
@@ -21552,7 +21564,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21964,7 +21976,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22170,7 +22182,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22457,7 +22469,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ103">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22582,7 +22594,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22660,7 +22672,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ104">
         <v>1.6</v>
@@ -22866,7 +22878,7 @@
         <v>1.25</v>
       </c>
       <c r="AP105">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
         <v>1.11</v>
@@ -22994,7 +23006,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23075,7 +23087,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23281,7 +23293,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR107">
         <v>1.77</v>
@@ -23612,7 +23624,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23690,7 +23702,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ109">
         <v>1.11</v>
@@ -23818,7 +23830,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24024,7 +24036,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24230,7 +24242,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24311,7 +24323,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -24642,7 +24654,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24723,7 +24735,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ114">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24848,7 +24860,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25054,7 +25066,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25260,7 +25272,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25466,7 +25478,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25672,7 +25684,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25878,7 +25890,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26084,7 +26096,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26290,7 +26302,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26496,7 +26508,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26574,7 +26586,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -26702,7 +26714,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26908,7 +26920,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27320,7 +27332,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27401,7 +27413,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ127">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR127">
         <v>1.8</v>
@@ -27526,7 +27538,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27938,7 +27950,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28016,7 +28028,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ130">
         <v>0.78</v>
@@ -28144,7 +28156,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28222,7 +28234,7 @@
         <v>2.4</v>
       </c>
       <c r="AP131">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ131">
         <v>2.25</v>
@@ -28431,7 +28443,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ132">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR132">
         <v>1.8</v>
@@ -28556,7 +28568,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29174,7 +29186,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29461,7 +29473,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ137">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -30616,7 +30628,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30822,7 +30834,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31028,7 +31040,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31106,7 +31118,7 @@
         <v>1.57</v>
       </c>
       <c r="AP145">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ145">
         <v>1.67</v>
@@ -31234,7 +31246,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31440,7 +31452,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31646,7 +31658,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31724,10 +31736,10 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ148">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR148">
         <v>1.46</v>
@@ -31930,7 +31942,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
         <v>1.2</v>
@@ -32058,7 +32070,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32139,7 +32151,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR150">
         <v>1.63</v>
@@ -32264,7 +32276,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32676,7 +32688,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32882,7 +32894,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -32960,7 +32972,7 @@
         <v>1.43</v>
       </c>
       <c r="AP154">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ154">
         <v>1.11</v>
@@ -33088,7 +33100,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33375,7 +33387,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ156">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR156">
         <v>1.76</v>
@@ -33706,7 +33718,7 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34118,7 +34130,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34402,7 +34414,7 @@
         <v>1.75</v>
       </c>
       <c r="AP161">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ161">
         <v>1.6</v>
@@ -34530,7 +34542,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35148,7 +35160,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>2.8</v>
@@ -35354,7 +35366,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35560,7 +35572,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35766,7 +35778,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35972,7 +35984,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q169">
         <v>1.78</v>
@@ -36178,7 +36190,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36384,7 +36396,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36796,7 +36808,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37002,7 +37014,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37620,7 +37632,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -37826,7 +37838,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -37983,6 +37995,624 @@
       </c>
       <c r="BP178">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7465587</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45635.66666666666</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>89</v>
+      </c>
+      <c r="H179" t="s">
+        <v>77</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>213</v>
+      </c>
+      <c r="P179" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q179">
+        <v>3.6</v>
+      </c>
+      <c r="R179">
+        <v>2.5</v>
+      </c>
+      <c r="S179">
+        <v>2.4</v>
+      </c>
+      <c r="T179">
+        <v>1.22</v>
+      </c>
+      <c r="U179">
+        <v>4</v>
+      </c>
+      <c r="V179">
+        <v>2.1</v>
+      </c>
+      <c r="W179">
+        <v>1.67</v>
+      </c>
+      <c r="X179">
+        <v>4.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.18</v>
+      </c>
+      <c r="Z179">
+        <v>3.75</v>
+      </c>
+      <c r="AA179">
+        <v>3.7</v>
+      </c>
+      <c r="AB179">
+        <v>1.9</v>
+      </c>
+      <c r="AC179">
+        <v>1.01</v>
+      </c>
+      <c r="AD179">
+        <v>17</v>
+      </c>
+      <c r="AE179">
+        <v>1.12</v>
+      </c>
+      <c r="AF179">
+        <v>6</v>
+      </c>
+      <c r="AG179">
+        <v>1.44</v>
+      </c>
+      <c r="AH179">
+        <v>2.7</v>
+      </c>
+      <c r="AI179">
+        <v>1.4</v>
+      </c>
+      <c r="AJ179">
+        <v>2.75</v>
+      </c>
+      <c r="AK179">
+        <v>1.83</v>
+      </c>
+      <c r="AL179">
+        <v>1.2</v>
+      </c>
+      <c r="AM179">
+        <v>1.35</v>
+      </c>
+      <c r="AN179">
+        <v>0.75</v>
+      </c>
+      <c r="AO179">
+        <v>1.25</v>
+      </c>
+      <c r="AP179">
+        <v>1</v>
+      </c>
+      <c r="AQ179">
+        <v>1.11</v>
+      </c>
+      <c r="AR179">
+        <v>1.58</v>
+      </c>
+      <c r="AS179">
+        <v>1.85</v>
+      </c>
+      <c r="AT179">
+        <v>3.43</v>
+      </c>
+      <c r="AU179">
+        <v>6</v>
+      </c>
+      <c r="AV179">
+        <v>5</v>
+      </c>
+      <c r="AW179">
+        <v>5</v>
+      </c>
+      <c r="AX179">
+        <v>5</v>
+      </c>
+      <c r="AY179">
+        <v>16</v>
+      </c>
+      <c r="AZ179">
+        <v>15</v>
+      </c>
+      <c r="BA179">
+        <v>2</v>
+      </c>
+      <c r="BB179">
+        <v>4</v>
+      </c>
+      <c r="BC179">
+        <v>6</v>
+      </c>
+      <c r="BD179">
+        <v>2.82</v>
+      </c>
+      <c r="BE179">
+        <v>6.2</v>
+      </c>
+      <c r="BF179">
+        <v>1.62</v>
+      </c>
+      <c r="BG179">
+        <v>1.21</v>
+      </c>
+      <c r="BH179">
+        <v>3.9</v>
+      </c>
+      <c r="BI179">
+        <v>1.3</v>
+      </c>
+      <c r="BJ179">
+        <v>3.1</v>
+      </c>
+      <c r="BK179">
+        <v>1.55</v>
+      </c>
+      <c r="BL179">
+        <v>2.25</v>
+      </c>
+      <c r="BM179">
+        <v>1.95</v>
+      </c>
+      <c r="BN179">
+        <v>1.75</v>
+      </c>
+      <c r="BO179">
+        <v>2.6</v>
+      </c>
+      <c r="BP179">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7465588</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45635.66666666666</v>
+      </c>
+      <c r="F180">
+        <v>18</v>
+      </c>
+      <c r="G180" t="s">
+        <v>84</v>
+      </c>
+      <c r="H180" t="s">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>4</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>93</v>
+      </c>
+      <c r="P180" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q180">
+        <v>3.4</v>
+      </c>
+      <c r="R180">
+        <v>2.2</v>
+      </c>
+      <c r="S180">
+        <v>3.1</v>
+      </c>
+      <c r="T180">
+        <v>1.4</v>
+      </c>
+      <c r="U180">
+        <v>2.75</v>
+      </c>
+      <c r="V180">
+        <v>2.75</v>
+      </c>
+      <c r="W180">
+        <v>1.4</v>
+      </c>
+      <c r="X180">
+        <v>8</v>
+      </c>
+      <c r="Y180">
+        <v>1.08</v>
+      </c>
+      <c r="Z180">
+        <v>2.75</v>
+      </c>
+      <c r="AA180">
+        <v>3.6</v>
+      </c>
+      <c r="AB180">
+        <v>2.35</v>
+      </c>
+      <c r="AC180">
+        <v>1.04</v>
+      </c>
+      <c r="AD180">
+        <v>12</v>
+      </c>
+      <c r="AE180">
+        <v>1.28</v>
+      </c>
+      <c r="AF180">
+        <v>3.6</v>
+      </c>
+      <c r="AG180">
+        <v>1.85</v>
+      </c>
+      <c r="AH180">
+        <v>1.95</v>
+      </c>
+      <c r="AI180">
+        <v>1.73</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>1.57</v>
+      </c>
+      <c r="AL180">
+        <v>1.25</v>
+      </c>
+      <c r="AM180">
+        <v>1.44</v>
+      </c>
+      <c r="AN180">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO180">
+        <v>1.44</v>
+      </c>
+      <c r="AP180">
+        <v>0.5</v>
+      </c>
+      <c r="AQ180">
+        <v>1.6</v>
+      </c>
+      <c r="AR180">
+        <v>1.44</v>
+      </c>
+      <c r="AS180">
+        <v>1.13</v>
+      </c>
+      <c r="AT180">
+        <v>2.57</v>
+      </c>
+      <c r="AU180">
+        <v>0</v>
+      </c>
+      <c r="AV180">
+        <v>8</v>
+      </c>
+      <c r="AW180">
+        <v>6</v>
+      </c>
+      <c r="AX180">
+        <v>4</v>
+      </c>
+      <c r="AY180">
+        <v>8</v>
+      </c>
+      <c r="AZ180">
+        <v>17</v>
+      </c>
+      <c r="BA180">
+        <v>3</v>
+      </c>
+      <c r="BB180">
+        <v>4</v>
+      </c>
+      <c r="BC180">
+        <v>7</v>
+      </c>
+      <c r="BD180">
+        <v>2.07</v>
+      </c>
+      <c r="BE180">
+        <v>6.75</v>
+      </c>
+      <c r="BF180">
+        <v>1.91</v>
+      </c>
+      <c r="BG180">
+        <v>1.24</v>
+      </c>
+      <c r="BH180">
+        <v>3.65</v>
+      </c>
+      <c r="BI180">
+        <v>1.41</v>
+      </c>
+      <c r="BJ180">
+        <v>2.65</v>
+      </c>
+      <c r="BK180">
+        <v>1.66</v>
+      </c>
+      <c r="BL180">
+        <v>2.07</v>
+      </c>
+      <c r="BM180">
+        <v>2</v>
+      </c>
+      <c r="BN180">
+        <v>1.7</v>
+      </c>
+      <c r="BO180">
+        <v>2.55</v>
+      </c>
+      <c r="BP180">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7465589</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45635.66666666666</v>
+      </c>
+      <c r="F181">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>82</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+      <c r="N181">
+        <v>5</v>
+      </c>
+      <c r="O181" t="s">
+        <v>214</v>
+      </c>
+      <c r="P181" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q181">
+        <v>3.75</v>
+      </c>
+      <c r="R181">
+        <v>2.4</v>
+      </c>
+      <c r="S181">
+        <v>2.5</v>
+      </c>
+      <c r="T181">
+        <v>1.29</v>
+      </c>
+      <c r="U181">
+        <v>3.5</v>
+      </c>
+      <c r="V181">
+        <v>2.25</v>
+      </c>
+      <c r="W181">
+        <v>1.57</v>
+      </c>
+      <c r="X181">
+        <v>5.5</v>
+      </c>
+      <c r="Y181">
+        <v>1.14</v>
+      </c>
+      <c r="Z181">
+        <v>3.75</v>
+      </c>
+      <c r="AA181">
+        <v>3.7</v>
+      </c>
+      <c r="AB181">
+        <v>1.91</v>
+      </c>
+      <c r="AC181">
+        <v>1.04</v>
+      </c>
+      <c r="AD181">
+        <v>10</v>
+      </c>
+      <c r="AE181">
+        <v>1.16</v>
+      </c>
+      <c r="AF181">
+        <v>5</v>
+      </c>
+      <c r="AG181">
+        <v>1.53</v>
+      </c>
+      <c r="AH181">
+        <v>2.4</v>
+      </c>
+      <c r="AI181">
+        <v>1.5</v>
+      </c>
+      <c r="AJ181">
+        <v>2.5</v>
+      </c>
+      <c r="AK181">
+        <v>1.85</v>
+      </c>
+      <c r="AL181">
+        <v>1.22</v>
+      </c>
+      <c r="AM181">
+        <v>1.3</v>
+      </c>
+      <c r="AN181">
+        <v>0.63</v>
+      </c>
+      <c r="AO181">
+        <v>1.11</v>
+      </c>
+      <c r="AP181">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ181">
+        <v>1.3</v>
+      </c>
+      <c r="AR181">
+        <v>1.56</v>
+      </c>
+      <c r="AS181">
+        <v>1.66</v>
+      </c>
+      <c r="AT181">
+        <v>3.22</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>11</v>
+      </c>
+      <c r="AW181">
+        <v>2</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>11</v>
+      </c>
+      <c r="AZ181">
+        <v>19</v>
+      </c>
+      <c r="BA181">
+        <v>3</v>
+      </c>
+      <c r="BB181">
+        <v>6</v>
+      </c>
+      <c r="BC181">
+        <v>9</v>
+      </c>
+      <c r="BD181">
+        <v>3.5</v>
+      </c>
+      <c r="BE181">
+        <v>8</v>
+      </c>
+      <c r="BF181">
+        <v>1.39</v>
+      </c>
+      <c r="BG181">
+        <v>1.2</v>
+      </c>
+      <c r="BH181">
+        <v>3.9</v>
+      </c>
+      <c r="BI181">
+        <v>1.28</v>
+      </c>
+      <c r="BJ181">
+        <v>3.3</v>
+      </c>
+      <c r="BK181">
+        <v>1.52</v>
+      </c>
+      <c r="BL181">
+        <v>2.32</v>
+      </c>
+      <c r="BM181">
+        <v>1.92</v>
+      </c>
+      <c r="BN181">
+        <v>1.78</v>
+      </c>
+      <c r="BO181">
+        <v>2.55</v>
+      </c>
+      <c r="BP181">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -655,10 +655,10 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['12', '90+7']</t>
+    <t>['17', '78']</t>
   </si>
   <si>
-    <t>['17', '78']</t>
+    <t>['12', '90+7']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -958,10 +958,10 @@
     <t>['73']</t>
   </si>
   <si>
-    <t>['16', '35', '75', '78']</t>
+    <t>['52', '85', '88']</t>
   </si>
   <si>
-    <t>['52', '85', '88']</t>
+    <t>['16', '35', '75', '78']</t>
   </si>
 </sst>
 </file>
@@ -38002,7 +38002,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7465587</v>
+        <v>7465589</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -38011,16 +38011,16 @@
         <v>69</v>
       </c>
       <c r="E179" s="2">
-        <v>45635.66666666666</v>
+        <v>45634.875</v>
       </c>
       <c r="F179">
         <v>18</v>
       </c>
       <c r="G179" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H179" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -38035,43 +38035,43 @@
         <v>2</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O179" t="s">
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="Q179">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="R179">
+        <v>2.4</v>
+      </c>
+      <c r="S179">
         <v>2.5</v>
       </c>
-      <c r="S179">
-        <v>2.4</v>
-      </c>
       <c r="T179">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U179">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V179">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W179">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X179">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y179">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z179">
         <v>3.75</v>
@@ -38080,127 +38080,127 @@
         <v>3.7</v>
       </c>
       <c r="AB179">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AC179">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD179">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE179">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG179">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AH179">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AI179">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AJ179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AK179">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AL179">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM179">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AN179">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="AO179">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AP179">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ179">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR179">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AS179">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AT179">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="AU179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV179">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AW179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX179">
         <v>5</v>
       </c>
       <c r="AY179">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ179">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB179">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC179">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD179">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="BE179">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="BF179">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="BG179">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BH179">
         <v>3.9</v>
       </c>
       <c r="BI179">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BJ179">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="BK179">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="BL179">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="BM179">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BN179">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="BO179">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="BP179">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -38208,7 +38208,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7465588</v>
+        <v>7465587</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38223,190 +38223,190 @@
         <v>18</v>
       </c>
       <c r="G180" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H180" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
         <v>2</v>
       </c>
-      <c r="K180">
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
         <v>2</v>
       </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-      <c r="M180">
+      <c r="O180" t="s">
+        <v>214</v>
+      </c>
+      <c r="P180" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q180">
+        <v>3.6</v>
+      </c>
+      <c r="R180">
+        <v>2.5</v>
+      </c>
+      <c r="S180">
+        <v>2.4</v>
+      </c>
+      <c r="T180">
+        <v>1.22</v>
+      </c>
+      <c r="U180">
         <v>4</v>
       </c>
-      <c r="N180">
-        <v>4</v>
-      </c>
-      <c r="O180" t="s">
-        <v>93</v>
-      </c>
-      <c r="P180" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q180">
-        <v>3.4</v>
-      </c>
-      <c r="R180">
-        <v>2.2</v>
-      </c>
-      <c r="S180">
-        <v>3.1</v>
-      </c>
-      <c r="T180">
+      <c r="V180">
+        <v>2.1</v>
+      </c>
+      <c r="W180">
+        <v>1.67</v>
+      </c>
+      <c r="X180">
+        <v>4.5</v>
+      </c>
+      <c r="Y180">
+        <v>1.18</v>
+      </c>
+      <c r="Z180">
+        <v>3.75</v>
+      </c>
+      <c r="AA180">
+        <v>3.7</v>
+      </c>
+      <c r="AB180">
+        <v>1.9</v>
+      </c>
+      <c r="AC180">
+        <v>1.01</v>
+      </c>
+      <c r="AD180">
+        <v>17</v>
+      </c>
+      <c r="AE180">
+        <v>1.12</v>
+      </c>
+      <c r="AF180">
+        <v>6</v>
+      </c>
+      <c r="AG180">
+        <v>1.44</v>
+      </c>
+      <c r="AH180">
+        <v>2.7</v>
+      </c>
+      <c r="AI180">
         <v>1.4</v>
       </c>
-      <c r="U180">
+      <c r="AJ180">
         <v>2.75</v>
       </c>
-      <c r="V180">
-        <v>2.75</v>
-      </c>
-      <c r="W180">
-        <v>1.4</v>
-      </c>
-      <c r="X180">
-        <v>8</v>
-      </c>
-      <c r="Y180">
-        <v>1.08</v>
-      </c>
-      <c r="Z180">
-        <v>2.75</v>
-      </c>
-      <c r="AA180">
-        <v>3.6</v>
-      </c>
-      <c r="AB180">
-        <v>2.35</v>
-      </c>
-      <c r="AC180">
-        <v>1.04</v>
-      </c>
-      <c r="AD180">
-        <v>12</v>
-      </c>
-      <c r="AE180">
-        <v>1.28</v>
-      </c>
-      <c r="AF180">
-        <v>3.6</v>
-      </c>
-      <c r="AG180">
+      <c r="AK180">
+        <v>1.83</v>
+      </c>
+      <c r="AL180">
+        <v>1.2</v>
+      </c>
+      <c r="AM180">
+        <v>1.35</v>
+      </c>
+      <c r="AN180">
+        <v>0.75</v>
+      </c>
+      <c r="AO180">
+        <v>1.25</v>
+      </c>
+      <c r="AP180">
+        <v>1</v>
+      </c>
+      <c r="AQ180">
+        <v>1.11</v>
+      </c>
+      <c r="AR180">
+        <v>1.58</v>
+      </c>
+      <c r="AS180">
         <v>1.85</v>
       </c>
-      <c r="AH180">
-        <v>1.95</v>
-      </c>
-      <c r="AI180">
-        <v>1.73</v>
-      </c>
-      <c r="AJ180">
+      <c r="AT180">
+        <v>3.43</v>
+      </c>
+      <c r="AU180">
+        <v>6</v>
+      </c>
+      <c r="AV180">
+        <v>5</v>
+      </c>
+      <c r="AW180">
+        <v>5</v>
+      </c>
+      <c r="AX180">
+        <v>5</v>
+      </c>
+      <c r="AY180">
+        <v>16</v>
+      </c>
+      <c r="AZ180">
+        <v>15</v>
+      </c>
+      <c r="BA180">
         <v>2</v>
-      </c>
-      <c r="AK180">
-        <v>1.57</v>
-      </c>
-      <c r="AL180">
-        <v>1.25</v>
-      </c>
-      <c r="AM180">
-        <v>1.44</v>
-      </c>
-      <c r="AN180">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AO180">
-        <v>1.44</v>
-      </c>
-      <c r="AP180">
-        <v>0.5</v>
-      </c>
-      <c r="AQ180">
-        <v>1.6</v>
-      </c>
-      <c r="AR180">
-        <v>1.44</v>
-      </c>
-      <c r="AS180">
-        <v>1.13</v>
-      </c>
-      <c r="AT180">
-        <v>2.57</v>
-      </c>
-      <c r="AU180">
-        <v>0</v>
-      </c>
-      <c r="AV180">
-        <v>8</v>
-      </c>
-      <c r="AW180">
-        <v>6</v>
-      </c>
-      <c r="AX180">
-        <v>4</v>
-      </c>
-      <c r="AY180">
-        <v>8</v>
-      </c>
-      <c r="AZ180">
-        <v>17</v>
-      </c>
-      <c r="BA180">
-        <v>3</v>
       </c>
       <c r="BB180">
         <v>4</v>
       </c>
       <c r="BC180">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD180">
-        <v>2.07</v>
+        <v>2.82</v>
       </c>
       <c r="BE180">
-        <v>6.75</v>
+        <v>6.2</v>
       </c>
       <c r="BF180">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="BG180">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="BH180">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BI180">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BJ180">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="BK180">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="BL180">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="BM180">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN180">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="BO180">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="BP180">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -38414,7 +38414,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7465589</v>
+        <v>7465588</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38429,184 +38429,184 @@
         <v>18</v>
       </c>
       <c r="G181" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H181" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N181">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O181" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="P181" t="s">
         <v>315</v>
       </c>
       <c r="Q181">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="R181">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S181">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="T181">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U181">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V181">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="W181">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="X181">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y181">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="Z181">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="AA181">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB181">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="AC181">
         <v>1.04</v>
       </c>
       <c r="AD181">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE181">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AF181">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AG181">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="AH181">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="AI181">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AJ181">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AK181">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AL181">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM181">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AN181">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO181">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="AP181">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ181">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AR181">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AS181">
-        <v>1.66</v>
+        <v>1.13</v>
       </c>
       <c r="AT181">
-        <v>3.22</v>
+        <v>2.57</v>
       </c>
       <c r="AU181">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV181">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AW181">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX181">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY181">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ181">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA181">
         <v>3</v>
       </c>
       <c r="BB181">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC181">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD181">
-        <v>3.5</v>
+        <v>2.07</v>
       </c>
       <c r="BE181">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF181">
-        <v>1.39</v>
+        <v>1.91</v>
       </c>
       <c r="BG181">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BH181">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BI181">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="BJ181">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="BK181">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="BL181">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="BM181">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BN181">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="BO181">
         <v>2.55</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,10 +655,28 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['12', '90+7']</t>
+  </si>
+  <si>
     <t>['17', '78']</t>
   </si>
   <si>
-    <t>['12', '90+7']</t>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['32', '44', '69']</t>
+  </si>
+  <si>
+    <t>['35', '48']</t>
+  </si>
+  <si>
+    <t>['54', '80']</t>
+  </si>
+  <si>
+    <t>['56', '60']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -928,9 +946,6 @@
     <t>['72', '76']</t>
   </si>
   <si>
-    <t>['21']</t>
-  </si>
-  <si>
     <t>['7', '81']</t>
   </si>
   <si>
@@ -958,10 +973,22 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['16', '35', '75', '78']</t>
+  </si>
+  <si>
     <t>['52', '85', '88']</t>
   </si>
   <si>
-    <t>['16', '35', '75', '78']</t>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['13', '88', '90+3']</t>
+  </si>
+  <si>
+    <t>['24', '89']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.56</v>
@@ -1788,7 +1815,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1869,7 +1896,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ3">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1994,7 +2021,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2075,7 +2102,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2200,7 +2227,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2281,7 +2308,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ5">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2406,7 +2433,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2484,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ6">
         <v>1.6</v>
@@ -2612,7 +2639,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2690,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1.2</v>
@@ -2818,7 +2845,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2896,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3024,7 +3051,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3102,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3308,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ10">
         <v>1.3</v>
@@ -3436,7 +3463,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3517,7 +3544,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3848,7 +3875,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3926,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
         <v>1.6</v>
@@ -4132,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ14">
         <v>0.5600000000000001</v>
@@ -4338,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ15">
         <v>1.11</v>
@@ -4466,7 +4493,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4547,7 +4574,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4750,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>1.11</v>
@@ -5165,7 +5192,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5290,7 +5317,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5371,7 +5398,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5577,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5780,10 +5807,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ22">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -5989,7 +6016,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR23">
         <v>2.16</v>
@@ -6192,10 +6219,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR24">
         <v>2.49</v>
@@ -6320,7 +6347,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6398,10 +6425,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ25">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR25">
         <v>1.58</v>
@@ -6526,7 +6553,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6604,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -6732,7 +6759,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6810,10 +6837,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7016,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.6</v>
@@ -7144,7 +7171,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7428,10 +7455,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ30">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -7556,7 +7583,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7840,7 +7867,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1.6</v>
@@ -8046,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ33">
         <v>1.11</v>
@@ -8174,7 +8201,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8255,7 +8282,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR34">
         <v>1.12</v>
@@ -8380,7 +8407,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8461,7 +8488,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ35">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR35">
         <v>0.8</v>
@@ -8667,7 +8694,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8873,7 +8900,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ37">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -8998,7 +9025,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9076,7 +9103,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
         <v>1.6</v>
@@ -9204,7 +9231,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9616,7 +9643,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9694,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ41">
         <v>1.11</v>
@@ -9900,7 +9927,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ42">
         <v>1.6</v>
@@ -10106,10 +10133,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR43">
         <v>1.9</v>
@@ -10234,7 +10261,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10315,7 +10342,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR44">
         <v>2.05</v>
@@ -10440,7 +10467,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10521,7 +10548,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ45">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR45">
         <v>1.68</v>
@@ -10646,7 +10673,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10724,10 +10751,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR46">
         <v>1.3</v>
@@ -10852,7 +10879,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10930,7 +10957,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11058,7 +11085,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11139,7 +11166,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR48">
         <v>1.9</v>
@@ -11342,10 +11369,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11470,7 +11497,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11548,10 +11575,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR50">
         <v>1.58</v>
@@ -11676,7 +11703,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11754,7 +11781,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ51">
         <v>1.2</v>
@@ -11882,7 +11909,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12166,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53">
         <v>1.11</v>
@@ -12578,10 +12605,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR55">
         <v>1.7</v>
@@ -12706,7 +12733,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13118,7 +13145,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13324,7 +13351,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13611,7 +13638,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ60">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR60">
         <v>1.64</v>
@@ -13736,7 +13763,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13942,7 +13969,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14023,7 +14050,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR62">
         <v>1.68</v>
@@ -14148,7 +14175,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14229,7 +14256,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14432,10 +14459,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ64">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR64">
         <v>2.12</v>
@@ -14638,7 +14665,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ65">
         <v>1.2</v>
@@ -14766,7 +14793,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15050,10 +15077,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ67">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR67">
         <v>1.6</v>
@@ -15178,7 +15205,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15256,10 +15283,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15384,7 +15411,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15462,7 +15489,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ69">
         <v>1.6</v>
@@ -15590,7 +15617,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15668,7 +15695,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ70">
         <v>1.11</v>
@@ -15796,7 +15823,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15877,7 +15904,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ71">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR71">
         <v>1.34</v>
@@ -16002,7 +16029,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16083,7 +16110,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ72">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16208,7 +16235,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16414,7 +16441,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16492,7 +16519,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ74">
         <v>1.11</v>
@@ -16620,7 +16647,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16698,10 +16725,10 @@
         <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ75">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR75">
         <v>1.48</v>
@@ -16904,7 +16931,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
         <v>1.3</v>
@@ -17110,7 +17137,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ77">
         <v>1.56</v>
@@ -17238,7 +17265,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17316,7 +17343,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17444,7 +17471,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17525,7 +17552,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ79">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17731,7 +17758,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR80">
         <v>1.68</v>
@@ -17856,7 +17883,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17937,7 +17964,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR81">
         <v>1.73</v>
@@ -18143,7 +18170,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ82">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR82">
         <v>1.76</v>
@@ -18268,7 +18295,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18346,10 +18373,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18474,7 +18501,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18552,7 +18579,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ84">
         <v>1.11</v>
@@ -18758,7 +18785,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ85">
         <v>1.6</v>
@@ -19092,7 +19119,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19170,7 +19197,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ87">
         <v>1.6</v>
@@ -19298,7 +19325,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19379,7 +19406,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ88">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR88">
         <v>1.89</v>
@@ -19585,7 +19612,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ89">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR89">
         <v>1.66</v>
@@ -19710,7 +19737,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19788,7 +19815,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ90">
         <v>1.11</v>
@@ -19997,7 +20024,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR91">
         <v>1.69</v>
@@ -20122,7 +20149,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20200,7 +20227,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ92">
         <v>1.11</v>
@@ -20409,7 +20436,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ93">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR93">
         <v>1.74</v>
@@ -20534,7 +20561,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20612,10 +20639,10 @@
         <v>2.5</v>
       </c>
       <c r="AP94">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ94">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20740,7 +20767,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20821,7 +20848,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ95">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR95">
         <v>1.66</v>
@@ -20946,7 +20973,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21024,7 +21051,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ96">
         <v>1.2</v>
@@ -21152,7 +21179,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21233,7 +21260,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ97">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR97">
         <v>1.77</v>
@@ -21439,7 +21466,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR98">
         <v>1.49</v>
@@ -21564,7 +21591,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21642,10 +21669,10 @@
         <v>2.25</v>
       </c>
       <c r="AP99">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -21848,7 +21875,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -21976,7 +22003,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22054,10 +22081,10 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ101">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR101">
         <v>1.83</v>
@@ -22182,7 +22209,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22260,10 +22287,10 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ102">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR102">
         <v>1.75</v>
@@ -22466,7 +22493,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ103">
         <v>1.3</v>
@@ -22594,7 +22621,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23006,7 +23033,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23624,7 +23651,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23830,7 +23857,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24036,7 +24063,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24242,7 +24269,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24320,7 +24347,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ112">
         <v>1.11</v>
@@ -24529,7 +24556,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ113">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR113">
         <v>2.08</v>
@@ -24654,7 +24681,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24860,7 +24887,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24938,10 +24965,10 @@
         <v>1.8</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -25066,7 +25093,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25144,7 +25171,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ116">
         <v>1.11</v>
@@ -25272,7 +25299,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25350,10 +25377,10 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ117">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR117">
         <v>1.62</v>
@@ -25478,7 +25505,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25684,7 +25711,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25762,10 +25789,10 @@
         <v>1.8</v>
       </c>
       <c r="AP119">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ119">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR119">
         <v>1.83</v>
@@ -25890,7 +25917,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26096,7 +26123,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26177,7 +26204,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26302,7 +26329,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26380,10 +26407,10 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ122">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR122">
         <v>1.92</v>
@@ -26508,7 +26535,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26589,7 +26616,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR123">
         <v>1.47</v>
@@ -26714,7 +26741,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26792,10 +26819,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ124">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -26920,7 +26947,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -26998,7 +27025,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
         <v>1.11</v>
@@ -27204,7 +27231,7 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ126">
         <v>0.5600000000000001</v>
@@ -27332,7 +27359,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27410,7 +27437,7 @@
         <v>0.86</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ127">
         <v>1.3</v>
@@ -27538,7 +27565,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27616,10 +27643,10 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ128">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -27950,7 +27977,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28031,7 +28058,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ130">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR130">
         <v>1.33</v>
@@ -28156,7 +28183,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28237,7 +28264,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ131">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -28568,7 +28595,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28852,7 +28879,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ134">
         <v>1.56</v>
@@ -29061,7 +29088,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ135">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR135">
         <v>1.75</v>
@@ -29186,7 +29213,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29267,7 +29294,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR136">
         <v>1.7</v>
@@ -29470,7 +29497,7 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ137">
         <v>1.6</v>
@@ -29676,7 +29703,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29885,7 +29912,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ139">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR139">
         <v>1.86</v>
@@ -30088,7 +30115,7 @@
         <v>1.71</v>
       </c>
       <c r="AP140">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ140">
         <v>1.2</v>
@@ -30297,7 +30324,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ141">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR141">
         <v>2.06</v>
@@ -30500,10 +30527,10 @@
         <v>1.17</v>
       </c>
       <c r="AP142">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR142">
         <v>1.74</v>
@@ -30628,7 +30655,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30706,10 +30733,10 @@
         <v>0.43</v>
       </c>
       <c r="AP143">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR143">
         <v>1.29</v>
@@ -30834,7 +30861,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30915,7 +30942,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ144">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR144">
         <v>1.68</v>
@@ -31040,7 +31067,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31121,7 +31148,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ145">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR145">
         <v>1.6</v>
@@ -31246,7 +31273,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31327,7 +31354,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ146">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR146">
         <v>1.65</v>
@@ -31452,7 +31479,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31530,10 +31557,10 @@
         <v>2.14</v>
       </c>
       <c r="AP147">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ147">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR147">
         <v>1.58</v>
@@ -31658,7 +31685,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -32070,7 +32097,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32276,7 +32303,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32354,7 +32381,7 @@
         <v>1.57</v>
       </c>
       <c r="AP151">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ151">
         <v>1.6</v>
@@ -32560,7 +32587,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ152">
         <v>0.5600000000000001</v>
@@ -32688,7 +32715,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32766,7 +32793,7 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ153">
         <v>1.11</v>
@@ -32894,7 +32921,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33100,7 +33127,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33593,7 +33620,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR157">
         <v>2.01</v>
@@ -33718,7 +33745,7 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34002,7 +34029,7 @@
         <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -34130,7 +34157,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34542,7 +34569,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -34620,10 +34647,10 @@
         <v>2.57</v>
       </c>
       <c r="AP162">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ162">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR162">
         <v>1.64</v>
@@ -34826,10 +34853,10 @@
         <v>1.13</v>
       </c>
       <c r="AP163">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR163">
         <v>1.78</v>
@@ -35032,10 +35059,10 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ164">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR164">
         <v>1.3</v>
@@ -35160,7 +35187,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q165">
         <v>2.8</v>
@@ -35238,10 +35265,10 @@
         <v>1.75</v>
       </c>
       <c r="AP165">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ165">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR165">
         <v>1.91</v>
@@ -35366,7 +35393,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35444,10 +35471,10 @@
         <v>2.25</v>
       </c>
       <c r="AP166">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ166">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR166">
         <v>1.74</v>
@@ -35572,7 +35599,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35650,10 +35677,10 @@
         <v>2.29</v>
       </c>
       <c r="AP167">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ167">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR167">
         <v>1.58</v>
@@ -35778,7 +35805,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35856,10 +35883,10 @@
         <v>0.57</v>
       </c>
       <c r="AP168">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ168">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR168">
         <v>1.16</v>
@@ -35984,7 +36011,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>1.78</v>
@@ -36062,10 +36089,10 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ169">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR169">
         <v>1.79</v>
@@ -36190,7 +36217,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36268,10 +36295,10 @@
         <v>1.25</v>
       </c>
       <c r="AP170">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ170">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR170">
         <v>1.8</v>
@@ -36396,7 +36423,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36474,10 +36501,10 @@
         <v>0.5</v>
       </c>
       <c r="AP171">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ171">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR171">
         <v>1.87</v>
@@ -36808,7 +36835,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37014,7 +37041,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37632,7 +37659,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -37838,7 +37865,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38002,7 +38029,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7465589</v>
+        <v>7465587</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -38011,16 +38038,16 @@
         <v>69</v>
       </c>
       <c r="E179" s="2">
-        <v>45634.875</v>
+        <v>45635.66666666666</v>
       </c>
       <c r="F179">
         <v>18</v>
       </c>
       <c r="G179" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H179" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -38035,43 +38062,43 @@
         <v>2</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O179" t="s">
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="Q179">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="R179">
+        <v>2.5</v>
+      </c>
+      <c r="S179">
         <v>2.4</v>
       </c>
-      <c r="S179">
-        <v>2.5</v>
-      </c>
       <c r="T179">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U179">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V179">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W179">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X179">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y179">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z179">
         <v>3.75</v>
@@ -38080,127 +38107,127 @@
         <v>3.7</v>
       </c>
       <c r="AB179">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AC179">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD179">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE179">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AF179">
+        <v>6</v>
+      </c>
+      <c r="AG179">
+        <v>1.44</v>
+      </c>
+      <c r="AH179">
+        <v>2.7</v>
+      </c>
+      <c r="AI179">
+        <v>1.4</v>
+      </c>
+      <c r="AJ179">
+        <v>2.75</v>
+      </c>
+      <c r="AK179">
+        <v>1.83</v>
+      </c>
+      <c r="AL179">
+        <v>1.2</v>
+      </c>
+      <c r="AM179">
+        <v>1.35</v>
+      </c>
+      <c r="AN179">
+        <v>0.75</v>
+      </c>
+      <c r="AO179">
+        <v>1.25</v>
+      </c>
+      <c r="AP179">
+        <v>1</v>
+      </c>
+      <c r="AQ179">
+        <v>1.11</v>
+      </c>
+      <c r="AR179">
+        <v>1.58</v>
+      </c>
+      <c r="AS179">
+        <v>1.85</v>
+      </c>
+      <c r="AT179">
+        <v>3.43</v>
+      </c>
+      <c r="AU179">
+        <v>6</v>
+      </c>
+      <c r="AV179">
         <v>5</v>
       </c>
-      <c r="AG179">
-        <v>1.53</v>
-      </c>
-      <c r="AH179">
-        <v>2.4</v>
-      </c>
-      <c r="AI179">
-        <v>1.5</v>
-      </c>
-      <c r="AJ179">
-        <v>2.5</v>
-      </c>
-      <c r="AK179">
-        <v>1.85</v>
-      </c>
-      <c r="AL179">
-        <v>1.22</v>
-      </c>
-      <c r="AM179">
-        <v>1.3</v>
-      </c>
-      <c r="AN179">
-        <v>0.63</v>
-      </c>
-      <c r="AO179">
-        <v>1.11</v>
-      </c>
-      <c r="AP179">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AQ179">
-        <v>1.3</v>
-      </c>
-      <c r="AR179">
-        <v>1.56</v>
-      </c>
-      <c r="AS179">
-        <v>1.66</v>
-      </c>
-      <c r="AT179">
-        <v>3.22</v>
-      </c>
-      <c r="AU179">
+      <c r="AW179">
         <v>5</v>
-      </c>
-      <c r="AV179">
-        <v>11</v>
-      </c>
-      <c r="AW179">
-        <v>2</v>
       </c>
       <c r="AX179">
         <v>5</v>
       </c>
       <c r="AY179">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ179">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB179">
+        <v>4</v>
+      </c>
+      <c r="BC179">
         <v>6</v>
       </c>
-      <c r="BC179">
-        <v>9</v>
-      </c>
       <c r="BD179">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="BE179">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="BF179">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="BG179">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH179">
         <v>3.9</v>
       </c>
       <c r="BI179">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BJ179">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="BK179">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="BL179">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="BM179">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BN179">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="BO179">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="BP179">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -38208,7 +38235,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7465587</v>
+        <v>7465588</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38223,190 +38250,190 @@
         <v>18</v>
       </c>
       <c r="G180" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H180" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>4</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>93</v>
+      </c>
+      <c r="P180" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q180">
+        <v>3.4</v>
+      </c>
+      <c r="R180">
+        <v>2.2</v>
+      </c>
+      <c r="S180">
+        <v>3.1</v>
+      </c>
+      <c r="T180">
+        <v>1.4</v>
+      </c>
+      <c r="U180">
+        <v>2.75</v>
+      </c>
+      <c r="V180">
+        <v>2.75</v>
+      </c>
+      <c r="W180">
+        <v>1.4</v>
+      </c>
+      <c r="X180">
+        <v>8</v>
+      </c>
+      <c r="Y180">
+        <v>1.08</v>
+      </c>
+      <c r="Z180">
+        <v>2.75</v>
+      </c>
+      <c r="AA180">
+        <v>3.6</v>
+      </c>
+      <c r="AB180">
+        <v>2.35</v>
+      </c>
+      <c r="AC180">
+        <v>1.04</v>
+      </c>
+      <c r="AD180">
+        <v>12</v>
+      </c>
+      <c r="AE180">
+        <v>1.28</v>
+      </c>
+      <c r="AF180">
+        <v>3.6</v>
+      </c>
+      <c r="AG180">
+        <v>1.85</v>
+      </c>
+      <c r="AH180">
+        <v>1.95</v>
+      </c>
+      <c r="AI180">
+        <v>1.73</v>
+      </c>
+      <c r="AJ180">
         <v>2</v>
       </c>
-      <c r="M180">
-        <v>0</v>
-      </c>
-      <c r="N180">
-        <v>2</v>
-      </c>
-      <c r="O180" t="s">
-        <v>214</v>
-      </c>
-      <c r="P180" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q180">
-        <v>3.6</v>
-      </c>
-      <c r="R180">
-        <v>2.5</v>
-      </c>
-      <c r="S180">
-        <v>2.4</v>
-      </c>
-      <c r="T180">
-        <v>1.22</v>
-      </c>
-      <c r="U180">
+      <c r="AK180">
+        <v>1.57</v>
+      </c>
+      <c r="AL180">
+        <v>1.25</v>
+      </c>
+      <c r="AM180">
+        <v>1.44</v>
+      </c>
+      <c r="AN180">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO180">
+        <v>1.44</v>
+      </c>
+      <c r="AP180">
+        <v>0.5</v>
+      </c>
+      <c r="AQ180">
+        <v>1.6</v>
+      </c>
+      <c r="AR180">
+        <v>1.44</v>
+      </c>
+      <c r="AS180">
+        <v>1.13</v>
+      </c>
+      <c r="AT180">
+        <v>2.57</v>
+      </c>
+      <c r="AU180">
+        <v>0</v>
+      </c>
+      <c r="AV180">
+        <v>8</v>
+      </c>
+      <c r="AW180">
+        <v>6</v>
+      </c>
+      <c r="AX180">
         <v>4</v>
       </c>
-      <c r="V180">
-        <v>2.1</v>
-      </c>
-      <c r="W180">
-        <v>1.67</v>
-      </c>
-      <c r="X180">
-        <v>4.5</v>
-      </c>
-      <c r="Y180">
-        <v>1.18</v>
-      </c>
-      <c r="Z180">
-        <v>3.75</v>
-      </c>
-      <c r="AA180">
-        <v>3.7</v>
-      </c>
-      <c r="AB180">
-        <v>1.9</v>
-      </c>
-      <c r="AC180">
-        <v>1.01</v>
-      </c>
-      <c r="AD180">
+      <c r="AY180">
+        <v>8</v>
+      </c>
+      <c r="AZ180">
         <v>17</v>
       </c>
-      <c r="AE180">
-        <v>1.12</v>
-      </c>
-      <c r="AF180">
-        <v>6</v>
-      </c>
-      <c r="AG180">
-        <v>1.44</v>
-      </c>
-      <c r="AH180">
-        <v>2.7</v>
-      </c>
-      <c r="AI180">
-        <v>1.4</v>
-      </c>
-      <c r="AJ180">
-        <v>2.75</v>
-      </c>
-      <c r="AK180">
-        <v>1.83</v>
-      </c>
-      <c r="AL180">
-        <v>1.2</v>
-      </c>
-      <c r="AM180">
-        <v>1.35</v>
-      </c>
-      <c r="AN180">
-        <v>0.75</v>
-      </c>
-      <c r="AO180">
-        <v>1.25</v>
-      </c>
-      <c r="AP180">
-        <v>1</v>
-      </c>
-      <c r="AQ180">
-        <v>1.11</v>
-      </c>
-      <c r="AR180">
-        <v>1.58</v>
-      </c>
-      <c r="AS180">
-        <v>1.85</v>
-      </c>
-      <c r="AT180">
-        <v>3.43</v>
-      </c>
-      <c r="AU180">
-        <v>6</v>
-      </c>
-      <c r="AV180">
-        <v>5</v>
-      </c>
-      <c r="AW180">
-        <v>5</v>
-      </c>
-      <c r="AX180">
-        <v>5</v>
-      </c>
-      <c r="AY180">
-        <v>16</v>
-      </c>
-      <c r="AZ180">
-        <v>15</v>
-      </c>
       <c r="BA180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB180">
         <v>4</v>
       </c>
       <c r="BC180">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD180">
-        <v>2.82</v>
+        <v>2.07</v>
       </c>
       <c r="BE180">
-        <v>6.2</v>
+        <v>6.75</v>
       </c>
       <c r="BF180">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="BG180">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="BH180">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BI180">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="BJ180">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="BK180">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="BL180">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="BM180">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN180">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BO180">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="BP180">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -38414,7 +38441,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7465588</v>
+        <v>7465589</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38429,190 +38456,2250 @@
         <v>18</v>
       </c>
       <c r="G181" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H181" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
         <v>2</v>
       </c>
-      <c r="K181">
-        <v>2</v>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
       <c r="M181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O181" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q181">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R181">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S181">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="T181">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U181">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V181">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W181">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X181">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Y181">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z181">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="AA181">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB181">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="AC181">
         <v>1.04</v>
       </c>
       <c r="AD181">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE181">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AF181">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AG181">
+        <v>1.53</v>
+      </c>
+      <c r="AH181">
+        <v>2.4</v>
+      </c>
+      <c r="AI181">
+        <v>1.5</v>
+      </c>
+      <c r="AJ181">
+        <v>2.5</v>
+      </c>
+      <c r="AK181">
         <v>1.85</v>
       </c>
-      <c r="AH181">
-        <v>1.95</v>
-      </c>
-      <c r="AI181">
-        <v>1.73</v>
-      </c>
-      <c r="AJ181">
-        <v>2</v>
-      </c>
-      <c r="AK181">
-        <v>1.57</v>
-      </c>
       <c r="AL181">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM181">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AN181">
+        <v>0.63</v>
+      </c>
+      <c r="AO181">
+        <v>1.11</v>
+      </c>
+      <c r="AP181">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AO181">
-        <v>1.44</v>
-      </c>
-      <c r="AP181">
-        <v>0.5</v>
-      </c>
       <c r="AQ181">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AR181">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS181">
-        <v>1.13</v>
+        <v>1.66</v>
       </c>
       <c r="AT181">
-        <v>2.57</v>
+        <v>3.22</v>
       </c>
       <c r="AU181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV181">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW181">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX181">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY181">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ181">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="BA181">
         <v>3</v>
       </c>
       <c r="BB181">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC181">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD181">
-        <v>2.07</v>
+        <v>3.5</v>
       </c>
       <c r="BE181">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="BF181">
-        <v>1.91</v>
+        <v>1.39</v>
       </c>
       <c r="BG181">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BH181">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BI181">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="BJ181">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="BK181">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="BL181">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="BM181">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BN181">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="BO181">
         <v>2.55</v>
       </c>
       <c r="BP181">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7465597</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45638.875</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>82</v>
+      </c>
+      <c r="H182" t="s">
+        <v>86</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>93</v>
+      </c>
+      <c r="P182" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q182">
+        <v>2.38</v>
+      </c>
+      <c r="R182">
+        <v>2.5</v>
+      </c>
+      <c r="S182">
+        <v>3.75</v>
+      </c>
+      <c r="T182">
+        <v>1.25</v>
+      </c>
+      <c r="U182">
+        <v>3.75</v>
+      </c>
+      <c r="V182">
+        <v>2.1</v>
+      </c>
+      <c r="W182">
+        <v>1.67</v>
+      </c>
+      <c r="X182">
+        <v>5</v>
+      </c>
+      <c r="Y182">
+        <v>1.17</v>
+      </c>
+      <c r="Z182">
+        <v>1.83</v>
+      </c>
+      <c r="AA182">
+        <v>4.5</v>
+      </c>
+      <c r="AB182">
+        <v>3.4</v>
+      </c>
+      <c r="AC182">
+        <v>1.01</v>
+      </c>
+      <c r="AD182">
+        <v>17</v>
+      </c>
+      <c r="AE182">
+        <v>1.14</v>
+      </c>
+      <c r="AF182">
+        <v>5.5</v>
+      </c>
+      <c r="AG182">
+        <v>1.44</v>
+      </c>
+      <c r="AH182">
+        <v>2.7</v>
+      </c>
+      <c r="AI182">
+        <v>1.44</v>
+      </c>
+      <c r="AJ182">
+        <v>2.63</v>
+      </c>
+      <c r="AK182">
+        <v>1.28</v>
+      </c>
+      <c r="AL182">
+        <v>1.18</v>
+      </c>
+      <c r="AM182">
+        <v>2</v>
+      </c>
+      <c r="AN182">
+        <v>2.13</v>
+      </c>
+      <c r="AO182">
+        <v>1.44</v>
+      </c>
+      <c r="AP182">
+        <v>1.89</v>
+      </c>
+      <c r="AQ182">
+        <v>1.6</v>
+      </c>
+      <c r="AR182">
+        <v>1.89</v>
+      </c>
+      <c r="AS182">
+        <v>1.42</v>
+      </c>
+      <c r="AT182">
+        <v>3.31</v>
+      </c>
+      <c r="AU182">
+        <v>6</v>
+      </c>
+      <c r="AV182">
+        <v>3</v>
+      </c>
+      <c r="AW182">
+        <v>11</v>
+      </c>
+      <c r="AX182">
+        <v>4</v>
+      </c>
+      <c r="AY182">
+        <v>22</v>
+      </c>
+      <c r="AZ182">
+        <v>10</v>
+      </c>
+      <c r="BA182">
+        <v>5</v>
+      </c>
+      <c r="BB182">
+        <v>4</v>
+      </c>
+      <c r="BC182">
+        <v>9</v>
+      </c>
+      <c r="BD182">
+        <v>1.37</v>
+      </c>
+      <c r="BE182">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF182">
+        <v>3.6</v>
+      </c>
+      <c r="BG182">
+        <v>1.23</v>
+      </c>
+      <c r="BH182">
+        <v>3.65</v>
+      </c>
+      <c r="BI182">
+        <v>1.25</v>
+      </c>
+      <c r="BJ182">
+        <v>3.45</v>
+      </c>
+      <c r="BK182">
+        <v>1.5</v>
+      </c>
+      <c r="BL182">
+        <v>2.4</v>
+      </c>
+      <c r="BM182">
+        <v>1.85</v>
+      </c>
+      <c r="BN182">
+        <v>1.82</v>
+      </c>
+      <c r="BO182">
+        <v>2.42</v>
+      </c>
+      <c r="BP182">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7465596</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45638.875</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" t="s">
+        <v>71</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>215</v>
+      </c>
+      <c r="P183" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q183">
+        <v>3.65</v>
+      </c>
+      <c r="R183">
+        <v>2.25</v>
+      </c>
+      <c r="S183">
+        <v>2.5</v>
+      </c>
+      <c r="T183">
+        <v>1.3</v>
+      </c>
+      <c r="U183">
+        <v>3.25</v>
+      </c>
+      <c r="V183">
+        <v>2.3</v>
+      </c>
+      <c r="W183">
+        <v>1.55</v>
+      </c>
+      <c r="X183">
+        <v>5</v>
+      </c>
+      <c r="Y183">
+        <v>1.15</v>
+      </c>
+      <c r="Z183">
+        <v>3.45</v>
+      </c>
+      <c r="AA183">
+        <v>3.65</v>
+      </c>
+      <c r="AB183">
+        <v>1.95</v>
+      </c>
+      <c r="AC183">
+        <v>1.04</v>
+      </c>
+      <c r="AD183">
+        <v>10</v>
+      </c>
+      <c r="AE183">
+        <v>1.2</v>
+      </c>
+      <c r="AF183">
+        <v>4.5</v>
+      </c>
+      <c r="AG183">
+        <v>1.57</v>
+      </c>
+      <c r="AH183">
+        <v>2.35</v>
+      </c>
+      <c r="AI183">
+        <v>1.48</v>
+      </c>
+      <c r="AJ183">
+        <v>2.4</v>
+      </c>
+      <c r="AK183">
+        <v>1.8</v>
+      </c>
+      <c r="AL183">
+        <v>1.22</v>
+      </c>
+      <c r="AM183">
+        <v>1.3</v>
+      </c>
+      <c r="AN183">
+        <v>0.89</v>
+      </c>
+      <c r="AO183">
+        <v>2.25</v>
+      </c>
+      <c r="AP183">
+        <v>0.9</v>
+      </c>
+      <c r="AQ183">
+        <v>2.11</v>
+      </c>
+      <c r="AR183">
+        <v>1.84</v>
+      </c>
+      <c r="AS183">
+        <v>1.69</v>
+      </c>
+      <c r="AT183">
+        <v>3.53</v>
+      </c>
+      <c r="AU183">
+        <v>5</v>
+      </c>
+      <c r="AV183">
+        <v>7</v>
+      </c>
+      <c r="AW183">
+        <v>5</v>
+      </c>
+      <c r="AX183">
+        <v>10</v>
+      </c>
+      <c r="AY183">
+        <v>13</v>
+      </c>
+      <c r="AZ183">
+        <v>25</v>
+      </c>
+      <c r="BA183">
+        <v>3</v>
+      </c>
+      <c r="BB183">
+        <v>16</v>
+      </c>
+      <c r="BC183">
+        <v>19</v>
+      </c>
+      <c r="BD183">
+        <v>2.18</v>
+      </c>
+      <c r="BE183">
+        <v>5.95</v>
+      </c>
+      <c r="BF183">
+        <v>2</v>
+      </c>
+      <c r="BG183">
+        <v>1.16</v>
+      </c>
+      <c r="BH183">
+        <v>4.5</v>
+      </c>
+      <c r="BI183">
+        <v>1.35</v>
+      </c>
+      <c r="BJ183">
+        <v>2.9</v>
+      </c>
+      <c r="BK183">
+        <v>1.62</v>
+      </c>
+      <c r="BL183">
+        <v>2.12</v>
+      </c>
+      <c r="BM183">
+        <v>2.08</v>
+      </c>
+      <c r="BN183">
+        <v>1.65</v>
+      </c>
+      <c r="BO183">
+        <v>2.78</v>
+      </c>
+      <c r="BP183">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7465595</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45638.875</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>70</v>
+      </c>
+      <c r="H184" t="s">
+        <v>80</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>3</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>216</v>
+      </c>
+      <c r="P184" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q184">
+        <v>2.4</v>
+      </c>
+      <c r="R184">
+        <v>2.38</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>1.3</v>
+      </c>
+      <c r="U184">
+        <v>3.4</v>
+      </c>
+      <c r="V184">
+        <v>2.38</v>
+      </c>
+      <c r="W184">
+        <v>1.53</v>
+      </c>
+      <c r="X184">
+        <v>6</v>
+      </c>
+      <c r="Y184">
+        <v>1.13</v>
+      </c>
+      <c r="Z184">
+        <v>1.85</v>
+      </c>
+      <c r="AA184">
+        <v>3.9</v>
+      </c>
+      <c r="AB184">
+        <v>3.7</v>
+      </c>
+      <c r="AC184">
+        <v>1.02</v>
+      </c>
+      <c r="AD184">
+        <v>15</v>
+      </c>
+      <c r="AE184">
+        <v>1.2</v>
+      </c>
+      <c r="AF184">
+        <v>4.5</v>
+      </c>
+      <c r="AG184">
+        <v>1.6</v>
+      </c>
+      <c r="AH184">
+        <v>2.3</v>
+      </c>
+      <c r="AI184">
+        <v>1.57</v>
+      </c>
+      <c r="AJ184">
+        <v>2.25</v>
+      </c>
+      <c r="AK184">
+        <v>1.3</v>
+      </c>
+      <c r="AL184">
+        <v>1.22</v>
+      </c>
+      <c r="AM184">
+        <v>1.9</v>
+      </c>
+      <c r="AN184">
+        <v>1.13</v>
+      </c>
+      <c r="AO184">
+        <v>0.88</v>
+      </c>
+      <c r="AP184">
+        <v>1</v>
+      </c>
+      <c r="AQ184">
+        <v>1.11</v>
+      </c>
+      <c r="AR184">
+        <v>1.43</v>
+      </c>
+      <c r="AS184">
+        <v>1.37</v>
+      </c>
+      <c r="AT184">
+        <v>2.8</v>
+      </c>
+      <c r="AU184">
+        <v>5</v>
+      </c>
+      <c r="AV184">
+        <v>3</v>
+      </c>
+      <c r="AW184">
+        <v>4</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>13</v>
+      </c>
+      <c r="AZ184">
+        <v>6</v>
+      </c>
+      <c r="BA184">
+        <v>6</v>
+      </c>
+      <c r="BB184">
+        <v>3</v>
+      </c>
+      <c r="BC184">
+        <v>9</v>
+      </c>
+      <c r="BD184">
+        <v>1.55</v>
+      </c>
+      <c r="BE184">
+        <v>7.3</v>
+      </c>
+      <c r="BF184">
+        <v>2.85</v>
+      </c>
+      <c r="BG184">
+        <v>1.2</v>
+      </c>
+      <c r="BH184">
+        <v>4</v>
+      </c>
+      <c r="BI184">
+        <v>1.4</v>
+      </c>
+      <c r="BJ184">
+        <v>2.72</v>
+      </c>
+      <c r="BK184">
+        <v>1.7</v>
+      </c>
+      <c r="BL184">
+        <v>2</v>
+      </c>
+      <c r="BM184">
+        <v>2.2</v>
+      </c>
+      <c r="BN184">
+        <v>1.58</v>
+      </c>
+      <c r="BO184">
+        <v>2.98</v>
+      </c>
+      <c r="BP184">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7465599</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>81</v>
+      </c>
+      <c r="H185" t="s">
+        <v>72</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>217</v>
+      </c>
+      <c r="P185" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q185">
+        <v>2.3</v>
+      </c>
+      <c r="R185">
+        <v>2.35</v>
+      </c>
+      <c r="S185">
+        <v>4.5</v>
+      </c>
+      <c r="T185">
+        <v>1.3</v>
+      </c>
+      <c r="U185">
+        <v>3.2</v>
+      </c>
+      <c r="V185">
+        <v>2.45</v>
+      </c>
+      <c r="W185">
+        <v>1.49</v>
+      </c>
+      <c r="X185">
+        <v>5.95</v>
+      </c>
+      <c r="Y185">
+        <v>1.1</v>
+      </c>
+      <c r="Z185">
+        <v>1.75</v>
+      </c>
+      <c r="AA185">
+        <v>4</v>
+      </c>
+      <c r="AB185">
+        <v>4.33</v>
+      </c>
+      <c r="AC185">
+        <v>1.02</v>
+      </c>
+      <c r="AD185">
+        <v>15</v>
+      </c>
+      <c r="AE185">
+        <v>1.22</v>
+      </c>
+      <c r="AF185">
+        <v>4.2</v>
+      </c>
+      <c r="AG185">
+        <v>1.7</v>
+      </c>
+      <c r="AH185">
+        <v>2.1</v>
+      </c>
+      <c r="AI185">
+        <v>1.68</v>
+      </c>
+      <c r="AJ185">
+        <v>2.15</v>
+      </c>
+      <c r="AK185">
+        <v>1.22</v>
+      </c>
+      <c r="AL185">
+        <v>1.2</v>
+      </c>
+      <c r="AM185">
+        <v>2.1</v>
+      </c>
+      <c r="AN185">
+        <v>1.38</v>
+      </c>
+      <c r="AO185">
+        <v>2</v>
+      </c>
+      <c r="AP185">
+        <v>1.56</v>
+      </c>
+      <c r="AQ185">
+        <v>1.78</v>
+      </c>
+      <c r="AR185">
+        <v>1.69</v>
+      </c>
+      <c r="AS185">
+        <v>1.41</v>
+      </c>
+      <c r="AT185">
+        <v>3.1</v>
+      </c>
+      <c r="AU185">
+        <v>6</v>
+      </c>
+      <c r="AV185">
+        <v>2</v>
+      </c>
+      <c r="AW185">
+        <v>5</v>
+      </c>
+      <c r="AX185">
+        <v>2</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>7</v>
+      </c>
+      <c r="BA185">
+        <v>3</v>
+      </c>
+      <c r="BB185">
+        <v>1</v>
+      </c>
+      <c r="BC185">
+        <v>4</v>
+      </c>
+      <c r="BD185">
+        <v>1.32</v>
+      </c>
+      <c r="BE185">
+        <v>7.2</v>
+      </c>
+      <c r="BF185">
+        <v>4.35</v>
+      </c>
+      <c r="BG185">
+        <v>1.22</v>
+      </c>
+      <c r="BH185">
+        <v>3.8</v>
+      </c>
+      <c r="BI185">
+        <v>1.28</v>
+      </c>
+      <c r="BJ185">
+        <v>3.3</v>
+      </c>
+      <c r="BK185">
+        <v>1.52</v>
+      </c>
+      <c r="BL185">
+        <v>2.3</v>
+      </c>
+      <c r="BM185">
+        <v>1.92</v>
+      </c>
+      <c r="BN185">
+        <v>1.75</v>
+      </c>
+      <c r="BO185">
+        <v>2.52</v>
+      </c>
+      <c r="BP185">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7465591</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>77</v>
+      </c>
+      <c r="H186" t="s">
+        <v>87</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>93</v>
+      </c>
+      <c r="P186" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q186">
+        <v>2.75</v>
+      </c>
+      <c r="R186">
+        <v>2.4</v>
+      </c>
+      <c r="S186">
+        <v>3.25</v>
+      </c>
+      <c r="T186">
+        <v>1.25</v>
+      </c>
+      <c r="U186">
+        <v>3.75</v>
+      </c>
+      <c r="V186">
+        <v>2.2</v>
+      </c>
+      <c r="W186">
+        <v>1.62</v>
+      </c>
+      <c r="X186">
+        <v>5</v>
+      </c>
+      <c r="Y186">
+        <v>1.17</v>
+      </c>
+      <c r="Z186">
+        <v>2.25</v>
+      </c>
+      <c r="AA186">
+        <v>4</v>
+      </c>
+      <c r="AB186">
+        <v>2.75</v>
+      </c>
+      <c r="AC186">
+        <v>1.01</v>
+      </c>
+      <c r="AD186">
+        <v>15</v>
+      </c>
+      <c r="AE186">
+        <v>1.14</v>
+      </c>
+      <c r="AF186">
+        <v>5.5</v>
+      </c>
+      <c r="AG186">
+        <v>1.48</v>
+      </c>
+      <c r="AH186">
+        <v>2.6</v>
+      </c>
+      <c r="AI186">
+        <v>1.44</v>
+      </c>
+      <c r="AJ186">
+        <v>2.63</v>
+      </c>
+      <c r="AK186">
+        <v>1.44</v>
+      </c>
+      <c r="AL186">
+        <v>1.2</v>
+      </c>
+      <c r="AM186">
+        <v>1.65</v>
+      </c>
+      <c r="AN186">
+        <v>2.44</v>
+      </c>
+      <c r="AO186">
+        <v>2.11</v>
+      </c>
+      <c r="AP186">
+        <v>2.2</v>
+      </c>
+      <c r="AQ186">
+        <v>2.2</v>
+      </c>
+      <c r="AR186">
+        <v>1.72</v>
+      </c>
+      <c r="AS186">
+        <v>1.86</v>
+      </c>
+      <c r="AT186">
+        <v>3.58</v>
+      </c>
+      <c r="AU186">
+        <v>3</v>
+      </c>
+      <c r="AV186">
+        <v>10</v>
+      </c>
+      <c r="AW186">
+        <v>7</v>
+      </c>
+      <c r="AX186">
+        <v>8</v>
+      </c>
+      <c r="AY186">
+        <v>15</v>
+      </c>
+      <c r="AZ186">
+        <v>18</v>
+      </c>
+      <c r="BA186">
+        <v>6</v>
+      </c>
+      <c r="BB186">
+        <v>4</v>
+      </c>
+      <c r="BC186">
+        <v>10</v>
+      </c>
+      <c r="BD186">
+        <v>1.75</v>
+      </c>
+      <c r="BE186">
+        <v>7.1</v>
+      </c>
+      <c r="BF186">
+        <v>2.4</v>
+      </c>
+      <c r="BG186">
+        <v>1.27</v>
+      </c>
+      <c r="BH186">
+        <v>3.3</v>
+      </c>
+      <c r="BI186">
+        <v>1.33</v>
+      </c>
+      <c r="BJ186">
+        <v>2.98</v>
+      </c>
+      <c r="BK186">
+        <v>1.6</v>
+      </c>
+      <c r="BL186">
+        <v>2.15</v>
+      </c>
+      <c r="BM186">
+        <v>2.02</v>
+      </c>
+      <c r="BN186">
+        <v>1.68</v>
+      </c>
+      <c r="BO186">
+        <v>2.7</v>
+      </c>
+      <c r="BP186">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7465593</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>83</v>
+      </c>
+      <c r="H187" t="s">
+        <v>88</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187" t="s">
+        <v>93</v>
+      </c>
+      <c r="P187" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q187">
+        <v>2.4</v>
+      </c>
+      <c r="R187">
+        <v>2.45</v>
+      </c>
+      <c r="S187">
+        <v>3.4</v>
+      </c>
+      <c r="T187">
+        <v>1.2</v>
+      </c>
+      <c r="U187">
+        <v>4</v>
+      </c>
+      <c r="V187">
+        <v>1.95</v>
+      </c>
+      <c r="W187">
+        <v>1.77</v>
+      </c>
+      <c r="X187">
+        <v>4</v>
+      </c>
+      <c r="Y187">
+        <v>1.22</v>
+      </c>
+      <c r="Z187">
+        <v>2</v>
+      </c>
+      <c r="AA187">
+        <v>3.95</v>
+      </c>
+      <c r="AB187">
+        <v>3.2</v>
+      </c>
+      <c r="AC187">
+        <v>0</v>
+      </c>
+      <c r="AD187">
+        <v>0</v>
+      </c>
+      <c r="AE187">
+        <v>1.11</v>
+      </c>
+      <c r="AF187">
+        <v>6.25</v>
+      </c>
+      <c r="AG187">
+        <v>1.36</v>
+      </c>
+      <c r="AH187">
+        <v>3.1</v>
+      </c>
+      <c r="AI187">
+        <v>1.33</v>
+      </c>
+      <c r="AJ187">
+        <v>3</v>
+      </c>
+      <c r="AK187">
+        <v>1.33</v>
+      </c>
+      <c r="AL187">
+        <v>1.2</v>
+      </c>
+      <c r="AM187">
+        <v>1.77</v>
+      </c>
+      <c r="AN187">
+        <v>2.63</v>
+      </c>
+      <c r="AO187">
+        <v>1.67</v>
+      </c>
+      <c r="AP187">
+        <v>2.44</v>
+      </c>
+      <c r="AQ187">
+        <v>1.6</v>
+      </c>
+      <c r="AR187">
+        <v>1.79</v>
+      </c>
+      <c r="AS187">
+        <v>1.63</v>
+      </c>
+      <c r="AT187">
+        <v>3.42</v>
+      </c>
+      <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
+        <v>6</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>15</v>
+      </c>
+      <c r="AZ187">
+        <v>6</v>
+      </c>
+      <c r="BA187">
+        <v>5</v>
+      </c>
+      <c r="BB187">
+        <v>7</v>
+      </c>
+      <c r="BC187">
+        <v>12</v>
+      </c>
+      <c r="BD187">
+        <v>1.5</v>
+      </c>
+      <c r="BE187">
+        <v>6.4</v>
+      </c>
+      <c r="BF187">
+        <v>3.25</v>
+      </c>
+      <c r="BG187">
+        <v>1.18</v>
+      </c>
+      <c r="BH187">
+        <v>4.1</v>
+      </c>
+      <c r="BI187">
+        <v>1.32</v>
+      </c>
+      <c r="BJ187">
+        <v>3</v>
+      </c>
+      <c r="BK187">
+        <v>1.58</v>
+      </c>
+      <c r="BL187">
+        <v>2.2</v>
+      </c>
+      <c r="BM187">
+        <v>2</v>
+      </c>
+      <c r="BN187">
+        <v>1.7</v>
+      </c>
+      <c r="BO187">
+        <v>2.7</v>
+      </c>
+      <c r="BP187">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7465590</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>76</v>
+      </c>
+      <c r="H188" t="s">
+        <v>73</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>218</v>
+      </c>
+      <c r="P188" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q188">
+        <v>1.85</v>
+      </c>
+      <c r="R188">
+        <v>2.8</v>
+      </c>
+      <c r="S188">
+        <v>5.5</v>
+      </c>
+      <c r="T188">
+        <v>1.18</v>
+      </c>
+      <c r="U188">
+        <v>4.4</v>
+      </c>
+      <c r="V188">
+        <v>1.94</v>
+      </c>
+      <c r="W188">
+        <v>1.79</v>
+      </c>
+      <c r="X188">
+        <v>3.95</v>
+      </c>
+      <c r="Y188">
+        <v>1.21</v>
+      </c>
+      <c r="Z188">
+        <v>1.42</v>
+      </c>
+      <c r="AA188">
+        <v>5</v>
+      </c>
+      <c r="AB188">
+        <v>6.5</v>
+      </c>
+      <c r="AC188">
+        <v>1.01</v>
+      </c>
+      <c r="AD188">
+        <v>17</v>
+      </c>
+      <c r="AE188">
+        <v>1.1</v>
+      </c>
+      <c r="AF188">
+        <v>7</v>
+      </c>
+      <c r="AG188">
+        <v>1.36</v>
+      </c>
+      <c r="AH188">
+        <v>3.1</v>
+      </c>
+      <c r="AI188">
+        <v>1.52</v>
+      </c>
+      <c r="AJ188">
+        <v>2.5</v>
+      </c>
+      <c r="AK188">
+        <v>1.1</v>
+      </c>
+      <c r="AL188">
+        <v>1.12</v>
+      </c>
+      <c r="AM188">
+        <v>3</v>
+      </c>
+      <c r="AN188">
+        <v>1.67</v>
+      </c>
+      <c r="AO188">
+        <v>0.78</v>
+      </c>
+      <c r="AP188">
+        <v>1.8</v>
+      </c>
+      <c r="AQ188">
+        <v>0.7</v>
+      </c>
+      <c r="AR188">
+        <v>1.68</v>
+      </c>
+      <c r="AS188">
+        <v>1.21</v>
+      </c>
+      <c r="AT188">
+        <v>2.89</v>
+      </c>
+      <c r="AU188">
+        <v>9</v>
+      </c>
+      <c r="AV188">
+        <v>4</v>
+      </c>
+      <c r="AW188">
+        <v>10</v>
+      </c>
+      <c r="AX188">
+        <v>1</v>
+      </c>
+      <c r="AY188">
+        <v>24</v>
+      </c>
+      <c r="AZ188">
+        <v>6</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>5</v>
+      </c>
+      <c r="BC188">
+        <v>10</v>
+      </c>
+      <c r="BD188">
+        <v>1.27</v>
+      </c>
+      <c r="BE188">
+        <v>7.4</v>
+      </c>
+      <c r="BF188">
+        <v>4.8</v>
+      </c>
+      <c r="BG188">
+        <v>1.17</v>
+      </c>
+      <c r="BH188">
+        <v>4.35</v>
+      </c>
+      <c r="BI188">
+        <v>1.37</v>
+      </c>
+      <c r="BJ188">
+        <v>2.82</v>
+      </c>
+      <c r="BK188">
+        <v>1.65</v>
+      </c>
+      <c r="BL188">
+        <v>2.05</v>
+      </c>
+      <c r="BM188">
+        <v>2.12</v>
+      </c>
+      <c r="BN188">
+        <v>1.62</v>
+      </c>
+      <c r="BO188">
+        <v>2.92</v>
+      </c>
+      <c r="BP188">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7465600</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>74</v>
+      </c>
+      <c r="H189" t="s">
+        <v>89</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189" t="s">
+        <v>219</v>
+      </c>
+      <c r="P189" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q189">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>2.38</v>
+      </c>
+      <c r="S189">
+        <v>3.1</v>
+      </c>
+      <c r="T189">
+        <v>1.3</v>
+      </c>
+      <c r="U189">
+        <v>3.4</v>
+      </c>
+      <c r="V189">
+        <v>2.38</v>
+      </c>
+      <c r="W189">
+        <v>1.53</v>
+      </c>
+      <c r="X189">
+        <v>6</v>
+      </c>
+      <c r="Y189">
+        <v>1.13</v>
+      </c>
+      <c r="Z189">
+        <v>2.45</v>
+      </c>
+      <c r="AA189">
+        <v>3.9</v>
+      </c>
+      <c r="AB189">
+        <v>2.55</v>
+      </c>
+      <c r="AC189">
+        <v>1.02</v>
+      </c>
+      <c r="AD189">
+        <v>17</v>
+      </c>
+      <c r="AE189">
+        <v>1.2</v>
+      </c>
+      <c r="AF189">
+        <v>4.5</v>
+      </c>
+      <c r="AG189">
+        <v>1.57</v>
+      </c>
+      <c r="AH189">
+        <v>2.35</v>
+      </c>
+      <c r="AI189">
+        <v>1.5</v>
+      </c>
+      <c r="AJ189">
+        <v>2.5</v>
+      </c>
+      <c r="AK189">
+        <v>1.5</v>
+      </c>
+      <c r="AL189">
+        <v>1.22</v>
+      </c>
+      <c r="AM189">
+        <v>1.55</v>
+      </c>
+      <c r="AN189">
+        <v>1.56</v>
+      </c>
+      <c r="AO189">
+        <v>1</v>
+      </c>
+      <c r="AP189">
+        <v>1.7</v>
+      </c>
+      <c r="AQ189">
+        <v>0.9</v>
+      </c>
+      <c r="AR189">
+        <v>1.28</v>
+      </c>
+      <c r="AS189">
+        <v>1.37</v>
+      </c>
+      <c r="AT189">
+        <v>2.65</v>
+      </c>
+      <c r="AU189">
+        <v>6</v>
+      </c>
+      <c r="AV189">
+        <v>8</v>
+      </c>
+      <c r="AW189">
+        <v>4</v>
+      </c>
+      <c r="AX189">
+        <v>5</v>
+      </c>
+      <c r="AY189">
+        <v>12</v>
+      </c>
+      <c r="AZ189">
+        <v>22</v>
+      </c>
+      <c r="BA189">
+        <v>2</v>
+      </c>
+      <c r="BB189">
+        <v>8</v>
+      </c>
+      <c r="BC189">
+        <v>10</v>
+      </c>
+      <c r="BD189">
+        <v>1.75</v>
+      </c>
+      <c r="BE189">
+        <v>6.1</v>
+      </c>
+      <c r="BF189">
+        <v>2.5</v>
+      </c>
+      <c r="BG189">
+        <v>1.18</v>
+      </c>
+      <c r="BH189">
+        <v>4.1</v>
+      </c>
+      <c r="BI189">
+        <v>1.29</v>
+      </c>
+      <c r="BJ189">
+        <v>3.25</v>
+      </c>
+      <c r="BK189">
+        <v>1.55</v>
+      </c>
+      <c r="BL189">
+        <v>2.28</v>
+      </c>
+      <c r="BM189">
+        <v>1.92</v>
+      </c>
+      <c r="BN189">
+        <v>1.75</v>
+      </c>
+      <c r="BO189">
+        <v>2.55</v>
+      </c>
+      <c r="BP189">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7465594</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>85</v>
+      </c>
+      <c r="H190" t="s">
+        <v>79</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>168</v>
+      </c>
+      <c r="P190" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q190">
+        <v>2.1</v>
+      </c>
+      <c r="R190">
+        <v>2.5</v>
+      </c>
+      <c r="S190">
+        <v>4.75</v>
+      </c>
+      <c r="T190">
+        <v>1.25</v>
+      </c>
+      <c r="U190">
+        <v>3.75</v>
+      </c>
+      <c r="V190">
+        <v>2.25</v>
+      </c>
+      <c r="W190">
+        <v>1.57</v>
+      </c>
+      <c r="X190">
+        <v>5.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.14</v>
+      </c>
+      <c r="Z190">
+        <v>1.62</v>
+      </c>
+      <c r="AA190">
+        <v>4.5</v>
+      </c>
+      <c r="AB190">
+        <v>4.75</v>
+      </c>
+      <c r="AC190">
+        <v>1.02</v>
+      </c>
+      <c r="AD190">
+        <v>19</v>
+      </c>
+      <c r="AE190">
+        <v>1.16</v>
+      </c>
+      <c r="AF190">
+        <v>5</v>
+      </c>
+      <c r="AG190">
+        <v>1.5</v>
+      </c>
+      <c r="AH190">
+        <v>2.5</v>
+      </c>
+      <c r="AI190">
+        <v>1.57</v>
+      </c>
+      <c r="AJ190">
+        <v>2.25</v>
+      </c>
+      <c r="AK190">
+        <v>1.2</v>
+      </c>
+      <c r="AL190">
+        <v>1.17</v>
+      </c>
+      <c r="AM190">
+        <v>2.25</v>
+      </c>
+      <c r="AN190">
+        <v>1.67</v>
+      </c>
+      <c r="AO190">
+        <v>1.33</v>
+      </c>
+      <c r="AP190">
+        <v>1.6</v>
+      </c>
+      <c r="AQ190">
+        <v>1.3</v>
+      </c>
+      <c r="AR190">
+        <v>1.73</v>
+      </c>
+      <c r="AS190">
+        <v>1.31</v>
+      </c>
+      <c r="AT190">
+        <v>3.04</v>
+      </c>
+      <c r="AU190">
+        <v>8</v>
+      </c>
+      <c r="AV190">
+        <v>6</v>
+      </c>
+      <c r="AW190">
+        <v>5</v>
+      </c>
+      <c r="AX190">
+        <v>2</v>
+      </c>
+      <c r="AY190">
+        <v>18</v>
+      </c>
+      <c r="AZ190">
+        <v>11</v>
+      </c>
+      <c r="BA190">
+        <v>9</v>
+      </c>
+      <c r="BB190">
+        <v>1</v>
+      </c>
+      <c r="BC190">
+        <v>10</v>
+      </c>
+      <c r="BD190">
+        <v>1.2</v>
+      </c>
+      <c r="BE190">
+        <v>9.6</v>
+      </c>
+      <c r="BF190">
+        <v>5.15</v>
+      </c>
+      <c r="BG190">
+        <v>1.2</v>
+      </c>
+      <c r="BH190">
+        <v>3.95</v>
+      </c>
+      <c r="BI190">
+        <v>1.25</v>
+      </c>
+      <c r="BJ190">
+        <v>3.45</v>
+      </c>
+      <c r="BK190">
+        <v>1.5</v>
+      </c>
+      <c r="BL190">
+        <v>2.4</v>
+      </c>
+      <c r="BM190">
+        <v>1.85</v>
+      </c>
+      <c r="BN190">
+        <v>1.82</v>
+      </c>
+      <c r="BO190">
+        <v>2.42</v>
+      </c>
+      <c r="BP190">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7467159</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F191">
+        <v>19</v>
+      </c>
+      <c r="G191" t="s">
+        <v>75</v>
+      </c>
+      <c r="H191" t="s">
+        <v>84</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191" t="s">
+        <v>220</v>
+      </c>
+      <c r="P191" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q191">
+        <v>2.3</v>
+      </c>
+      <c r="R191">
+        <v>2.38</v>
+      </c>
+      <c r="S191">
+        <v>4.5</v>
+      </c>
+      <c r="T191">
+        <v>1.3</v>
+      </c>
+      <c r="U191">
+        <v>3.4</v>
+      </c>
+      <c r="V191">
+        <v>2.5</v>
+      </c>
+      <c r="W191">
+        <v>1.5</v>
+      </c>
+      <c r="X191">
+        <v>6</v>
+      </c>
+      <c r="Y191">
+        <v>1.13</v>
+      </c>
+      <c r="Z191">
+        <v>1.73</v>
+      </c>
+      <c r="AA191">
+        <v>4.1</v>
+      </c>
+      <c r="AB191">
+        <v>4.2</v>
+      </c>
+      <c r="AC191">
+        <v>1.02</v>
+      </c>
+      <c r="AD191">
+        <v>15</v>
+      </c>
+      <c r="AE191">
+        <v>1.2</v>
+      </c>
+      <c r="AF191">
+        <v>4.33</v>
+      </c>
+      <c r="AG191">
+        <v>1.65</v>
+      </c>
+      <c r="AH191">
+        <v>2.2</v>
+      </c>
+      <c r="AI191">
+        <v>1.67</v>
+      </c>
+      <c r="AJ191">
+        <v>2.1</v>
+      </c>
+      <c r="AK191">
+        <v>1.22</v>
+      </c>
+      <c r="AL191">
+        <v>1.2</v>
+      </c>
+      <c r="AM191">
+        <v>2.05</v>
+      </c>
+      <c r="AN191">
+        <v>0.78</v>
+      </c>
+      <c r="AO191">
+        <v>0.63</v>
+      </c>
+      <c r="AP191">
+        <v>1</v>
+      </c>
+      <c r="AQ191">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR191">
+        <v>1.68</v>
+      </c>
+      <c r="AS191">
+        <v>1.22</v>
+      </c>
+      <c r="AT191">
+        <v>2.9</v>
+      </c>
+      <c r="AU191">
+        <v>4</v>
+      </c>
+      <c r="AV191">
+        <v>6</v>
+      </c>
+      <c r="AW191">
+        <v>8</v>
+      </c>
+      <c r="AX191">
+        <v>2</v>
+      </c>
+      <c r="AY191">
+        <v>20</v>
+      </c>
+      <c r="AZ191">
+        <v>11</v>
+      </c>
+      <c r="BA191">
+        <v>10</v>
+      </c>
+      <c r="BB191">
+        <v>2</v>
+      </c>
+      <c r="BC191">
+        <v>12</v>
+      </c>
+      <c r="BD191">
+        <v>1.57</v>
+      </c>
+      <c r="BE191">
+        <v>7</v>
+      </c>
+      <c r="BF191">
+        <v>2.65</v>
+      </c>
+      <c r="BG191">
+        <v>1.21</v>
+      </c>
+      <c r="BH191">
+        <v>3.8</v>
+      </c>
+      <c r="BI191">
+        <v>1.37</v>
+      </c>
+      <c r="BJ191">
+        <v>2.8</v>
+      </c>
+      <c r="BK191">
+        <v>1.61</v>
+      </c>
+      <c r="BL191">
+        <v>2.15</v>
+      </c>
+      <c r="BM191">
+        <v>1.97</v>
+      </c>
+      <c r="BN191">
+        <v>1.74</v>
+      </c>
+      <c r="BO191">
+        <v>2.43</v>
+      </c>
+      <c r="BP191">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -661,6 +661,9 @@
     <t>['17', '78']</t>
   </si>
   <si>
+    <t>['54', '80']</t>
+  </si>
+  <si>
     <t>['21']</t>
   </si>
   <si>
@@ -671,9 +674,6 @@
   </si>
   <si>
     <t>['35', '48']</t>
-  </si>
-  <si>
-    <t>['54', '80']</t>
   </si>
   <si>
     <t>['56', '60']</t>
@@ -33745,7 +33745,7 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -38647,7 +38647,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7465597</v>
+        <v>7465600</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38662,190 +38662,190 @@
         <v>19</v>
       </c>
       <c r="G182" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H182" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M182">
         <v>1</v>
       </c>
       <c r="N182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O182" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="Q182">
+        <v>3</v>
+      </c>
+      <c r="R182">
         <v>2.38</v>
       </c>
-      <c r="R182">
-        <v>2.5</v>
-      </c>
       <c r="S182">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="T182">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U182">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V182">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W182">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="X182">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y182">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Z182">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="AA182">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB182">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="AC182">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD182">
         <v>17</v>
       </c>
       <c r="AE182">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AF182">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AG182">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AH182">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="AI182">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AJ182">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK182">
+        <v>1.5</v>
+      </c>
+      <c r="AL182">
+        <v>1.22</v>
+      </c>
+      <c r="AM182">
+        <v>1.55</v>
+      </c>
+      <c r="AN182">
+        <v>1.56</v>
+      </c>
+      <c r="AO182">
+        <v>1</v>
+      </c>
+      <c r="AP182">
+        <v>1.7</v>
+      </c>
+      <c r="AQ182">
+        <v>0.9</v>
+      </c>
+      <c r="AR182">
         <v>1.28</v>
       </c>
-      <c r="AL182">
-        <v>1.18</v>
-      </c>
-      <c r="AM182">
-        <v>2</v>
-      </c>
-      <c r="AN182">
-        <v>2.13</v>
-      </c>
-      <c r="AO182">
-        <v>1.44</v>
-      </c>
-      <c r="AP182">
-        <v>1.89</v>
-      </c>
-      <c r="AQ182">
-        <v>1.6</v>
-      </c>
-      <c r="AR182">
-        <v>1.89</v>
-      </c>
       <c r="AS182">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AT182">
-        <v>3.31</v>
+        <v>2.65</v>
       </c>
       <c r="AU182">
         <v>6</v>
       </c>
       <c r="AV182">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW182">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY182">
+        <v>12</v>
+      </c>
+      <c r="AZ182">
         <v>22</v>
       </c>
-      <c r="AZ182">
+      <c r="BA182">
+        <v>2</v>
+      </c>
+      <c r="BB182">
+        <v>8</v>
+      </c>
+      <c r="BC182">
         <v>10</v>
       </c>
-      <c r="BA182">
-        <v>5</v>
-      </c>
-      <c r="BB182">
-        <v>4</v>
-      </c>
-      <c r="BC182">
-        <v>9</v>
-      </c>
       <c r="BD182">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="BE182">
-        <v>8.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="BF182">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="BG182">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BH182">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="BI182">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BJ182">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="BK182">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BL182">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="BM182">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="BN182">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="BO182">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="BP182">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38853,7 +38853,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7465596</v>
+        <v>7465597</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38868,190 +38868,190 @@
         <v>19</v>
       </c>
       <c r="G183" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H183" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K183">
         <v>1</v>
       </c>
       <c r="L183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M183">
         <v>1</v>
       </c>
       <c r="N183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O183" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="Q183">
-        <v>3.65</v>
+        <v>2.38</v>
       </c>
       <c r="R183">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S183">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T183">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U183">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V183">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="W183">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="X183">
         <v>5</v>
       </c>
       <c r="Y183">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="Z183">
+        <v>1.83</v>
+      </c>
+      <c r="AA183">
+        <v>4.5</v>
+      </c>
+      <c r="AB183">
+        <v>3.4</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>17</v>
+      </c>
+      <c r="AE183">
+        <v>1.14</v>
+      </c>
+      <c r="AF183">
+        <v>5.5</v>
+      </c>
+      <c r="AG183">
+        <v>1.44</v>
+      </c>
+      <c r="AH183">
+        <v>2.7</v>
+      </c>
+      <c r="AI183">
+        <v>1.44</v>
+      </c>
+      <c r="AJ183">
+        <v>2.63</v>
+      </c>
+      <c r="AK183">
+        <v>1.28</v>
+      </c>
+      <c r="AL183">
+        <v>1.18</v>
+      </c>
+      <c r="AM183">
+        <v>2</v>
+      </c>
+      <c r="AN183">
+        <v>2.13</v>
+      </c>
+      <c r="AO183">
+        <v>1.44</v>
+      </c>
+      <c r="AP183">
+        <v>1.89</v>
+      </c>
+      <c r="AQ183">
+        <v>1.6</v>
+      </c>
+      <c r="AR183">
+        <v>1.89</v>
+      </c>
+      <c r="AS183">
+        <v>1.42</v>
+      </c>
+      <c r="AT183">
+        <v>3.31</v>
+      </c>
+      <c r="AU183">
+        <v>6</v>
+      </c>
+      <c r="AV183">
+        <v>3</v>
+      </c>
+      <c r="AW183">
+        <v>11</v>
+      </c>
+      <c r="AX183">
+        <v>4</v>
+      </c>
+      <c r="AY183">
+        <v>22</v>
+      </c>
+      <c r="AZ183">
+        <v>10</v>
+      </c>
+      <c r="BA183">
+        <v>5</v>
+      </c>
+      <c r="BB183">
+        <v>4</v>
+      </c>
+      <c r="BC183">
+        <v>9</v>
+      </c>
+      <c r="BD183">
+        <v>1.37</v>
+      </c>
+      <c r="BE183">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF183">
+        <v>3.6</v>
+      </c>
+      <c r="BG183">
+        <v>1.23</v>
+      </c>
+      <c r="BH183">
+        <v>3.65</v>
+      </c>
+      <c r="BI183">
+        <v>1.25</v>
+      </c>
+      <c r="BJ183">
         <v>3.45</v>
       </c>
-      <c r="AA183">
-        <v>3.65</v>
-      </c>
-      <c r="AB183">
-        <v>1.95</v>
-      </c>
-      <c r="AC183">
-        <v>1.04</v>
-      </c>
-      <c r="AD183">
-        <v>10</v>
-      </c>
-      <c r="AE183">
-        <v>1.2</v>
-      </c>
-      <c r="AF183">
-        <v>4.5</v>
-      </c>
-      <c r="AG183">
-        <v>1.57</v>
-      </c>
-      <c r="AH183">
-        <v>2.35</v>
-      </c>
-      <c r="AI183">
+      <c r="BK183">
+        <v>1.5</v>
+      </c>
+      <c r="BL183">
+        <v>2.4</v>
+      </c>
+      <c r="BM183">
+        <v>1.85</v>
+      </c>
+      <c r="BN183">
+        <v>1.82</v>
+      </c>
+      <c r="BO183">
+        <v>2.42</v>
+      </c>
+      <c r="BP183">
         <v>1.48</v>
-      </c>
-      <c r="AJ183">
-        <v>2.4</v>
-      </c>
-      <c r="AK183">
-        <v>1.8</v>
-      </c>
-      <c r="AL183">
-        <v>1.22</v>
-      </c>
-      <c r="AM183">
-        <v>1.3</v>
-      </c>
-      <c r="AN183">
-        <v>0.89</v>
-      </c>
-      <c r="AO183">
-        <v>2.25</v>
-      </c>
-      <c r="AP183">
-        <v>0.9</v>
-      </c>
-      <c r="AQ183">
-        <v>2.11</v>
-      </c>
-      <c r="AR183">
-        <v>1.84</v>
-      </c>
-      <c r="AS183">
-        <v>1.69</v>
-      </c>
-      <c r="AT183">
-        <v>3.53</v>
-      </c>
-      <c r="AU183">
-        <v>5</v>
-      </c>
-      <c r="AV183">
-        <v>7</v>
-      </c>
-      <c r="AW183">
-        <v>5</v>
-      </c>
-      <c r="AX183">
-        <v>10</v>
-      </c>
-      <c r="AY183">
-        <v>13</v>
-      </c>
-      <c r="AZ183">
-        <v>25</v>
-      </c>
-      <c r="BA183">
-        <v>3</v>
-      </c>
-      <c r="BB183">
-        <v>16</v>
-      </c>
-      <c r="BC183">
-        <v>19</v>
-      </c>
-      <c r="BD183">
-        <v>2.18</v>
-      </c>
-      <c r="BE183">
-        <v>5.95</v>
-      </c>
-      <c r="BF183">
-        <v>2</v>
-      </c>
-      <c r="BG183">
-        <v>1.16</v>
-      </c>
-      <c r="BH183">
-        <v>4.5</v>
-      </c>
-      <c r="BI183">
-        <v>1.35</v>
-      </c>
-      <c r="BJ183">
-        <v>2.9</v>
-      </c>
-      <c r="BK183">
-        <v>1.62</v>
-      </c>
-      <c r="BL183">
-        <v>2.12</v>
-      </c>
-      <c r="BM183">
-        <v>2.08</v>
-      </c>
-      <c r="BN183">
-        <v>1.65</v>
-      </c>
-      <c r="BO183">
-        <v>2.78</v>
-      </c>
-      <c r="BP183">
-        <v>1.38</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -39059,7 +39059,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7465595</v>
+        <v>7465596</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -39074,76 +39074,76 @@
         <v>19</v>
       </c>
       <c r="G184" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H184" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
         <v>2</v>
-      </c>
-      <c r="L184">
-        <v>1</v>
-      </c>
-      <c r="M184">
-        <v>3</v>
-      </c>
-      <c r="N184">
-        <v>4</v>
       </c>
       <c r="O184" t="s">
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q184">
-        <v>2.4</v>
+        <v>3.65</v>
       </c>
       <c r="R184">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S184">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="T184">
         <v>1.3</v>
       </c>
       <c r="U184">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V184">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="W184">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y184">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="Z184">
-        <v>1.85</v>
+        <v>3.45</v>
       </c>
       <c r="AA184">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="AB184">
-        <v>3.7</v>
+        <v>1.95</v>
       </c>
       <c r="AC184">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD184">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE184">
         <v>1.2</v>
@@ -39152,112 +39152,112 @@
         <v>4.5</v>
       </c>
       <c r="AG184">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AH184">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AI184">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AJ184">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AK184">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AL184">
         <v>1.22</v>
       </c>
       <c r="AM184">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AN184">
-        <v>1.13</v>
+        <v>0.89</v>
       </c>
       <c r="AO184">
-        <v>0.88</v>
+        <v>2.25</v>
       </c>
       <c r="AP184">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ184">
-        <v>1.11</v>
+        <v>2.11</v>
       </c>
       <c r="AR184">
-        <v>1.43</v>
+        <v>1.84</v>
       </c>
       <c r="AS184">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="AT184">
-        <v>2.8</v>
+        <v>3.53</v>
       </c>
       <c r="AU184">
         <v>5</v>
       </c>
       <c r="AV184">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX184">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY184">
         <v>13</v>
       </c>
       <c r="AZ184">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="BA184">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB184">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="BC184">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BD184">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="BE184">
-        <v>7.3</v>
+        <v>5.95</v>
       </c>
       <c r="BF184">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="BG184">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="BH184">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BI184">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="BJ184">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="BK184">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BL184">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BM184">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="BN184">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BO184">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="BP184">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="185" spans="1:68">
@@ -39265,7 +39265,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>7465599</v>
+        <v>7465595</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39274,76 +39274,76 @@
         <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>45639.66666666666</v>
+        <v>45638.875</v>
       </c>
       <c r="F185">
         <v>19</v>
       </c>
       <c r="G185" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H185" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185">
         <v>2</v>
       </c>
       <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
         <v>3</v>
       </c>
-      <c r="M185">
-        <v>0</v>
-      </c>
       <c r="N185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O185" t="s">
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>93</v>
+        <v>322</v>
       </c>
       <c r="Q185">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R185">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="S185">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T185">
         <v>1.3</v>
       </c>
       <c r="U185">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V185">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="W185">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="X185">
-        <v>5.95</v>
+        <v>6</v>
       </c>
       <c r="Y185">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z185">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AA185">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AB185">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="AC185">
         <v>1.02</v>
@@ -39352,118 +39352,118 @@
         <v>15</v>
       </c>
       <c r="AE185">
+        <v>1.2</v>
+      </c>
+      <c r="AF185">
+        <v>4.5</v>
+      </c>
+      <c r="AG185">
+        <v>1.6</v>
+      </c>
+      <c r="AH185">
+        <v>2.3</v>
+      </c>
+      <c r="AI185">
+        <v>1.57</v>
+      </c>
+      <c r="AJ185">
+        <v>2.25</v>
+      </c>
+      <c r="AK185">
+        <v>1.3</v>
+      </c>
+      <c r="AL185">
         <v>1.22</v>
       </c>
-      <c r="AF185">
-        <v>4.2</v>
-      </c>
-      <c r="AG185">
+      <c r="AM185">
+        <v>1.9</v>
+      </c>
+      <c r="AN185">
+        <v>1.13</v>
+      </c>
+      <c r="AO185">
+        <v>0.88</v>
+      </c>
+      <c r="AP185">
+        <v>1</v>
+      </c>
+      <c r="AQ185">
+        <v>1.11</v>
+      </c>
+      <c r="AR185">
+        <v>1.43</v>
+      </c>
+      <c r="AS185">
+        <v>1.37</v>
+      </c>
+      <c r="AT185">
+        <v>2.8</v>
+      </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
+      <c r="AV185">
+        <v>3</v>
+      </c>
+      <c r="AW185">
+        <v>4</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>14</v>
+      </c>
+      <c r="AZ185">
+        <v>6</v>
+      </c>
+      <c r="BA185">
+        <v>6</v>
+      </c>
+      <c r="BB185">
+        <v>3</v>
+      </c>
+      <c r="BC185">
+        <v>9</v>
+      </c>
+      <c r="BD185">
+        <v>1.55</v>
+      </c>
+      <c r="BE185">
+        <v>7.3</v>
+      </c>
+      <c r="BF185">
+        <v>2.85</v>
+      </c>
+      <c r="BG185">
+        <v>1.2</v>
+      </c>
+      <c r="BH185">
+        <v>4</v>
+      </c>
+      <c r="BI185">
+        <v>1.4</v>
+      </c>
+      <c r="BJ185">
+        <v>2.72</v>
+      </c>
+      <c r="BK185">
         <v>1.7</v>
       </c>
-      <c r="AH185">
-        <v>2.1</v>
-      </c>
-      <c r="AI185">
-        <v>1.68</v>
-      </c>
-      <c r="AJ185">
-        <v>2.15</v>
-      </c>
-      <c r="AK185">
-        <v>1.22</v>
-      </c>
-      <c r="AL185">
-        <v>1.2</v>
-      </c>
-      <c r="AM185">
-        <v>2.1</v>
-      </c>
-      <c r="AN185">
-        <v>1.38</v>
-      </c>
-      <c r="AO185">
+      <c r="BL185">
         <v>2</v>
       </c>
-      <c r="AP185">
-        <v>1.56</v>
-      </c>
-      <c r="AQ185">
-        <v>1.78</v>
-      </c>
-      <c r="AR185">
-        <v>1.69</v>
-      </c>
-      <c r="AS185">
-        <v>1.41</v>
-      </c>
-      <c r="AT185">
-        <v>3.1</v>
-      </c>
-      <c r="AU185">
-        <v>6</v>
-      </c>
-      <c r="AV185">
-        <v>2</v>
-      </c>
-      <c r="AW185">
-        <v>5</v>
-      </c>
-      <c r="AX185">
-        <v>2</v>
-      </c>
-      <c r="AY185">
-        <v>12</v>
-      </c>
-      <c r="AZ185">
-        <v>7</v>
-      </c>
-      <c r="BA185">
-        <v>3</v>
-      </c>
-      <c r="BB185">
-        <v>1</v>
-      </c>
-      <c r="BC185">
-        <v>4</v>
-      </c>
-      <c r="BD185">
-        <v>1.32</v>
-      </c>
-      <c r="BE185">
-        <v>7.2</v>
-      </c>
-      <c r="BF185">
-        <v>4.35</v>
-      </c>
-      <c r="BG185">
-        <v>1.22</v>
-      </c>
-      <c r="BH185">
-        <v>3.8</v>
-      </c>
-      <c r="BI185">
-        <v>1.28</v>
-      </c>
-      <c r="BJ185">
-        <v>3.3</v>
-      </c>
-      <c r="BK185">
-        <v>1.52</v>
-      </c>
-      <c r="BL185">
-        <v>2.3</v>
-      </c>
       <c r="BM185">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="BN185">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="BO185">
-        <v>2.52</v>
+        <v>2.98</v>
       </c>
       <c r="BP185">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39471,7 +39471,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7465591</v>
+        <v>7465599</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39486,190 +39486,190 @@
         <v>19</v>
       </c>
       <c r="G186" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H186" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O186" t="s">
+        <v>218</v>
+      </c>
+      <c r="P186" t="s">
         <v>93</v>
       </c>
-      <c r="P186" t="s">
-        <v>323</v>
-      </c>
       <c r="Q186">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="R186">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S186">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="T186">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U186">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="V186">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="W186">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="X186">
-        <v>5</v>
+        <v>5.95</v>
       </c>
       <c r="Y186">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="Z186">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AA186">
         <v>4</v>
       </c>
       <c r="AB186">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="AC186">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD186">
         <v>15</v>
       </c>
       <c r="AE186">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AF186">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG186">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="AH186">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AI186">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="AJ186">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="AK186">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AL186">
         <v>1.2</v>
       </c>
       <c r="AM186">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="AN186">
-        <v>2.44</v>
+        <v>1.38</v>
       </c>
       <c r="AO186">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AP186">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="AQ186">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="AR186">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AS186">
-        <v>1.86</v>
+        <v>1.41</v>
       </c>
       <c r="AT186">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="AU186">
+        <v>6</v>
+      </c>
+      <c r="AV186">
+        <v>2</v>
+      </c>
+      <c r="AW186">
+        <v>5</v>
+      </c>
+      <c r="AX186">
+        <v>2</v>
+      </c>
+      <c r="AY186">
+        <v>12</v>
+      </c>
+      <c r="AZ186">
+        <v>7</v>
+      </c>
+      <c r="BA186">
         <v>3</v>
       </c>
-      <c r="AV186">
-        <v>10</v>
-      </c>
-      <c r="AW186">
-        <v>7</v>
-      </c>
-      <c r="AX186">
-        <v>8</v>
-      </c>
-      <c r="AY186">
-        <v>15</v>
-      </c>
-      <c r="AZ186">
-        <v>18</v>
-      </c>
-      <c r="BA186">
-        <v>6</v>
-      </c>
       <c r="BB186">
+        <v>1</v>
+      </c>
+      <c r="BC186">
         <v>4</v>
       </c>
-      <c r="BC186">
-        <v>10</v>
-      </c>
       <c r="BD186">
+        <v>1.32</v>
+      </c>
+      <c r="BE186">
+        <v>7.2</v>
+      </c>
+      <c r="BF186">
+        <v>4.35</v>
+      </c>
+      <c r="BG186">
+        <v>1.22</v>
+      </c>
+      <c r="BH186">
+        <v>3.8</v>
+      </c>
+      <c r="BI186">
+        <v>1.28</v>
+      </c>
+      <c r="BJ186">
+        <v>3.3</v>
+      </c>
+      <c r="BK186">
+        <v>1.52</v>
+      </c>
+      <c r="BL186">
+        <v>2.3</v>
+      </c>
+      <c r="BM186">
+        <v>1.92</v>
+      </c>
+      <c r="BN186">
         <v>1.75</v>
       </c>
-      <c r="BE186">
-        <v>7.1</v>
-      </c>
-      <c r="BF186">
-        <v>2.4</v>
-      </c>
-      <c r="BG186">
-        <v>1.27</v>
-      </c>
-      <c r="BH186">
-        <v>3.3</v>
-      </c>
-      <c r="BI186">
-        <v>1.33</v>
-      </c>
-      <c r="BJ186">
-        <v>2.98</v>
-      </c>
-      <c r="BK186">
-        <v>1.6</v>
-      </c>
-      <c r="BL186">
-        <v>2.15</v>
-      </c>
-      <c r="BM186">
-        <v>2.02</v>
-      </c>
-      <c r="BN186">
-        <v>1.68</v>
-      </c>
       <c r="BO186">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="BP186">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39677,7 +39677,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7465593</v>
+        <v>7465591</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39692,184 +39692,184 @@
         <v>19</v>
       </c>
       <c r="G187" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187">
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O187" t="s">
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>93</v>
+        <v>323</v>
       </c>
       <c r="Q187">
+        <v>2.75</v>
+      </c>
+      <c r="R187">
         <v>2.4</v>
       </c>
-      <c r="R187">
-        <v>2.45</v>
-      </c>
       <c r="S187">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T187">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="U187">
+        <v>3.75</v>
+      </c>
+      <c r="V187">
+        <v>2.2</v>
+      </c>
+      <c r="W187">
+        <v>1.62</v>
+      </c>
+      <c r="X187">
+        <v>5</v>
+      </c>
+      <c r="Y187">
+        <v>1.17</v>
+      </c>
+      <c r="Z187">
+        <v>2.25</v>
+      </c>
+      <c r="AA187">
         <v>4</v>
       </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>1.77</v>
-      </c>
-      <c r="X187">
-        <v>4</v>
-      </c>
-      <c r="Y187">
-        <v>1.22</v>
-      </c>
-      <c r="Z187">
-        <v>2</v>
-      </c>
-      <c r="AA187">
-        <v>3.95</v>
-      </c>
       <c r="AB187">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="AC187">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD187">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE187">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF187">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="AG187">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AH187">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AI187">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AJ187">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AK187">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AL187">
         <v>1.2</v>
       </c>
       <c r="AM187">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AN187">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AO187">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="AP187">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ187">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AR187">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="AS187">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="AT187">
-        <v>3.42</v>
+        <v>3.58</v>
       </c>
       <c r="AU187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV187">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AW187">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX187">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY187">
         <v>15</v>
       </c>
       <c r="AZ187">
+        <v>18</v>
+      </c>
+      <c r="BA187">
         <v>6</v>
       </c>
-      <c r="BA187">
-        <v>5</v>
-      </c>
       <c r="BB187">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC187">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD187">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="BE187">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="BF187">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="BG187">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BH187">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="BI187">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="BJ187">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="BK187">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="BL187">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="BM187">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="BN187">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="BO187">
         <v>2.7</v>
@@ -39883,7 +39883,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7465590</v>
+        <v>7465593</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39898,82 +39898,82 @@
         <v>19</v>
       </c>
       <c r="G188" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H188" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M188">
         <v>0</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O188" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="P188" t="s">
         <v>93</v>
       </c>
       <c r="Q188">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="R188">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="S188">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="T188">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U188">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="V188">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="X188">
+        <v>4</v>
+      </c>
+      <c r="Y188">
+        <v>1.22</v>
+      </c>
+      <c r="Z188">
+        <v>2</v>
+      </c>
+      <c r="AA188">
         <v>3.95</v>
       </c>
-      <c r="Y188">
-        <v>1.21</v>
-      </c>
-      <c r="Z188">
-        <v>1.42</v>
-      </c>
-      <c r="AA188">
-        <v>5</v>
-      </c>
       <c r="AB188">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC188">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD188">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE188">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AF188">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AG188">
         <v>1.36</v>
@@ -39982,55 +39982,55 @@
         <v>3.1</v>
       </c>
       <c r="AI188">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="AJ188">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AK188">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AL188">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AM188">
-        <v>3</v>
+        <v>1.77</v>
       </c>
       <c r="AN188">
+        <v>2.63</v>
+      </c>
+      <c r="AO188">
         <v>1.67</v>
       </c>
-      <c r="AO188">
-        <v>0.78</v>
-      </c>
       <c r="AP188">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="AQ188">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="AR188">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AS188">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="AT188">
-        <v>2.89</v>
+        <v>3.42</v>
       </c>
       <c r="AU188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW188">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY188">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AZ188">
         <v>6</v>
@@ -40039,49 +40039,49 @@
         <v>5</v>
       </c>
       <c r="BB188">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC188">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD188">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="BE188">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="BF188">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="BG188">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH188">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="BI188">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BJ188">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="BK188">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BL188">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BM188">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="BN188">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BO188">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="BP188">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40089,7 +40089,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7465600</v>
+        <v>7465590</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40104,190 +40104,190 @@
         <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H189" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189">
         <v>2</v>
       </c>
       <c r="M189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O189" t="s">
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="Q189">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="R189">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="S189">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T189">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="U189">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="V189">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="W189">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="X189">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="Y189">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="Z189">
-        <v>2.45</v>
+        <v>1.42</v>
       </c>
       <c r="AA189">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AB189">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="AC189">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD189">
         <v>17</v>
       </c>
       <c r="AE189">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AF189">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AG189">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AH189">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AI189">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AJ189">
         <v>2.5</v>
       </c>
       <c r="AK189">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AL189">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AM189">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="AN189">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AO189">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP189">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AQ189">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AR189">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="AS189">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AT189">
-        <v>2.65</v>
+        <v>2.89</v>
       </c>
       <c r="AU189">
+        <v>9</v>
+      </c>
+      <c r="AV189">
+        <v>4</v>
+      </c>
+      <c r="AW189">
+        <v>10</v>
+      </c>
+      <c r="AX189">
+        <v>1</v>
+      </c>
+      <c r="AY189">
+        <v>24</v>
+      </c>
+      <c r="AZ189">
         <v>6</v>
       </c>
-      <c r="AV189">
-        <v>8</v>
-      </c>
-      <c r="AW189">
-        <v>4</v>
-      </c>
-      <c r="AX189">
+      <c r="BA189">
         <v>5</v>
       </c>
-      <c r="AY189">
-        <v>12</v>
-      </c>
-      <c r="AZ189">
-        <v>22</v>
-      </c>
-      <c r="BA189">
-        <v>2</v>
-      </c>
       <c r="BB189">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC189">
         <v>10</v>
       </c>
       <c r="BD189">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="BE189">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="BF189">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="BG189">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH189">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="BI189">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BJ189">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="BK189">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="BL189">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="BM189">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="BN189">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="BO189">
-        <v>2.55</v>
+        <v>2.92</v>
       </c>
       <c r="BP189">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40337,7 +40337,7 @@
         <v>168</v>
       </c>
       <c r="P190" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q190">
         <v>2.1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -661,7 +661,7 @@
     <t>['17', '78']</t>
   </si>
   <si>
-    <t>['54', '80']</t>
+    <t>['32', '44', '69']</t>
   </si>
   <si>
     <t>['21']</t>
@@ -670,10 +670,10 @@
     <t>['31']</t>
   </si>
   <si>
-    <t>['32', '44', '69']</t>
+    <t>['35', '48']</t>
   </si>
   <si>
-    <t>['35', '48']</t>
+    <t>['54', '80']</t>
   </si>
   <si>
     <t>['56', '60']</t>
@@ -38647,7 +38647,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7465600</v>
+        <v>7465599</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38656,31 +38656,31 @@
         <v>69</v>
       </c>
       <c r="E182" s="2">
-        <v>45638.875</v>
+        <v>45639.66666666666</v>
       </c>
       <c r="F182">
         <v>19</v>
       </c>
       <c r="G182" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H182" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N182">
         <v>3</v>
@@ -38689,151 +38689,151 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="Q182">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R182">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="S182">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="T182">
         <v>1.3</v>
       </c>
       <c r="U182">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V182">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="W182">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="X182">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="Y182">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z182">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="AA182">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AB182">
-        <v>2.55</v>
+        <v>4.33</v>
       </c>
       <c r="AC182">
         <v>1.02</v>
       </c>
       <c r="AD182">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE182">
+        <v>1.22</v>
+      </c>
+      <c r="AF182">
+        <v>4.2</v>
+      </c>
+      <c r="AG182">
+        <v>1.7</v>
+      </c>
+      <c r="AH182">
+        <v>2.1</v>
+      </c>
+      <c r="AI182">
+        <v>1.68</v>
+      </c>
+      <c r="AJ182">
+        <v>2.15</v>
+      </c>
+      <c r="AK182">
+        <v>1.22</v>
+      </c>
+      <c r="AL182">
         <v>1.2</v>
       </c>
-      <c r="AF182">
-        <v>4.5</v>
-      </c>
-      <c r="AG182">
-        <v>1.57</v>
-      </c>
-      <c r="AH182">
-        <v>2.35</v>
-      </c>
-      <c r="AI182">
-        <v>1.5</v>
-      </c>
-      <c r="AJ182">
-        <v>2.5</v>
-      </c>
-      <c r="AK182">
-        <v>1.5</v>
-      </c>
-      <c r="AL182">
-        <v>1.22</v>
-      </c>
       <c r="AM182">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AN182">
+        <v>1.38</v>
+      </c>
+      <c r="AO182">
+        <v>2</v>
+      </c>
+      <c r="AP182">
         <v>1.56</v>
       </c>
-      <c r="AO182">
-        <v>1</v>
-      </c>
-      <c r="AP182">
-        <v>1.7</v>
-      </c>
       <c r="AQ182">
-        <v>0.9</v>
+        <v>1.78</v>
       </c>
       <c r="AR182">
-        <v>1.28</v>
+        <v>1.69</v>
       </c>
       <c r="AS182">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AT182">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="AU182">
         <v>6</v>
       </c>
       <c r="AV182">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX182">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY182">
         <v>12</v>
       </c>
       <c r="AZ182">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="BA182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB182">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BC182">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD182">
-        <v>1.75</v>
+        <v>1.32</v>
       </c>
       <c r="BE182">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="BF182">
-        <v>2.5</v>
+        <v>4.35</v>
       </c>
       <c r="BG182">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH182">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BI182">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BJ182">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="BK182">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="BL182">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="BM182">
         <v>1.92</v>
@@ -38842,10 +38842,10 @@
         <v>1.75</v>
       </c>
       <c r="BO182">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="BP182">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38862,7 +38862,7 @@
         <v>69</v>
       </c>
       <c r="E183" s="2">
-        <v>45638.875</v>
+        <v>45639.66666666666</v>
       </c>
       <c r="F183">
         <v>19</v>
@@ -39068,7 +39068,7 @@
         <v>69</v>
       </c>
       <c r="E184" s="2">
-        <v>45638.875</v>
+        <v>45639.66666666666</v>
       </c>
       <c r="F184">
         <v>19</v>
@@ -39274,7 +39274,7 @@
         <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>45638.875</v>
+        <v>45639.66666666666</v>
       </c>
       <c r="F185">
         <v>19</v>
@@ -39471,7 +39471,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7465599</v>
+        <v>7465591</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39486,190 +39486,190 @@
         <v>19</v>
       </c>
       <c r="G186" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H186" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
         <v>2</v>
       </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="K186">
+      <c r="N186">
         <v>2</v>
       </c>
-      <c r="L186">
-        <v>3</v>
-      </c>
-      <c r="M186">
-        <v>0</v>
-      </c>
-      <c r="N186">
-        <v>3</v>
-      </c>
       <c r="O186" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="P186" t="s">
-        <v>93</v>
+        <v>323</v>
       </c>
       <c r="Q186">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="R186">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S186">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="T186">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U186">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="V186">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="W186">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="X186">
-        <v>5.95</v>
+        <v>5</v>
       </c>
       <c r="Y186">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z186">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AA186">
         <v>4</v>
       </c>
       <c r="AB186">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="AC186">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD186">
         <v>15</v>
       </c>
       <c r="AE186">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AF186">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AG186">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AH186">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AI186">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="AJ186">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="AK186">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AL186">
         <v>1.2</v>
       </c>
       <c r="AM186">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="AN186">
-        <v>1.38</v>
+        <v>2.44</v>
       </c>
       <c r="AO186">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AP186">
-        <v>1.56</v>
+        <v>2.2</v>
       </c>
       <c r="AQ186">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="AR186">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AS186">
-        <v>1.41</v>
+        <v>1.86</v>
       </c>
       <c r="AT186">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="AU186">
+        <v>3</v>
+      </c>
+      <c r="AV186">
+        <v>10</v>
+      </c>
+      <c r="AW186">
+        <v>7</v>
+      </c>
+      <c r="AX186">
+        <v>8</v>
+      </c>
+      <c r="AY186">
+        <v>15</v>
+      </c>
+      <c r="AZ186">
+        <v>18</v>
+      </c>
+      <c r="BA186">
         <v>6</v>
       </c>
-      <c r="AV186">
-        <v>2</v>
-      </c>
-      <c r="AW186">
-        <v>5</v>
-      </c>
-      <c r="AX186">
-        <v>2</v>
-      </c>
-      <c r="AY186">
-        <v>12</v>
-      </c>
-      <c r="AZ186">
-        <v>7</v>
-      </c>
-      <c r="BA186">
-        <v>3</v>
-      </c>
       <c r="BB186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC186">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD186">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="BE186">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="BF186">
-        <v>4.35</v>
+        <v>2.4</v>
       </c>
       <c r="BG186">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BH186">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="BI186">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BJ186">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="BK186">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="BL186">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BM186">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="BN186">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="BO186">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="BP186">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39677,7 +39677,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7465591</v>
+        <v>7465593</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39692,184 +39692,184 @@
         <v>19</v>
       </c>
       <c r="G187" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H187" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L187">
         <v>0</v>
       </c>
       <c r="M187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O187" t="s">
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>323</v>
+        <v>93</v>
       </c>
       <c r="Q187">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="R187">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="S187">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T187">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="U187">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V187">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="X187">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y187">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="Z187">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AA187">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AB187">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="AC187">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD187">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE187">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AF187">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="AG187">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AH187">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AI187">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AJ187">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AK187">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AL187">
         <v>1.2</v>
       </c>
       <c r="AM187">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="AN187">
+        <v>2.63</v>
+      </c>
+      <c r="AO187">
+        <v>1.67</v>
+      </c>
+      <c r="AP187">
         <v>2.44</v>
       </c>
-      <c r="AO187">
-        <v>2.11</v>
-      </c>
-      <c r="AP187">
-        <v>2.2</v>
-      </c>
       <c r="AQ187">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AR187">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AS187">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT187">
-        <v>3.58</v>
+        <v>3.42</v>
       </c>
       <c r="AU187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV187">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AW187">
         <v>7</v>
       </c>
       <c r="AX187">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AY187">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ187">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="BA187">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB187">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC187">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD187">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="BE187">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF187">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="BG187">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BH187">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="BI187">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="BJ187">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="BK187">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="BL187">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="BM187">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="BN187">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="BO187">
         <v>2.7</v>
@@ -39883,7 +39883,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7465593</v>
+        <v>7465590</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39898,82 +39898,82 @@
         <v>19</v>
       </c>
       <c r="G188" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H188" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M188">
         <v>0</v>
       </c>
       <c r="N188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O188" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="P188" t="s">
         <v>93</v>
       </c>
       <c r="Q188">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="R188">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="S188">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="T188">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U188">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="W188">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="X188">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="Y188">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="Z188">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="AA188">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="AB188">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="AC188">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD188">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE188">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF188">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="AG188">
         <v>1.36</v>
@@ -39982,55 +39982,55 @@
         <v>3.1</v>
       </c>
       <c r="AI188">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="AJ188">
+        <v>2.5</v>
+      </c>
+      <c r="AK188">
+        <v>1.1</v>
+      </c>
+      <c r="AL188">
+        <v>1.12</v>
+      </c>
+      <c r="AM188">
         <v>3</v>
       </c>
-      <c r="AK188">
-        <v>1.33</v>
-      </c>
-      <c r="AL188">
-        <v>1.2</v>
-      </c>
-      <c r="AM188">
-        <v>1.77</v>
-      </c>
       <c r="AN188">
-        <v>2.63</v>
+        <v>1.67</v>
       </c>
       <c r="AO188">
-        <v>1.67</v>
+        <v>0.78</v>
       </c>
       <c r="AP188">
-        <v>2.44</v>
+        <v>1.8</v>
       </c>
       <c r="AQ188">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="AR188">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AS188">
-        <v>1.63</v>
+        <v>1.21</v>
       </c>
       <c r="AT188">
-        <v>3.42</v>
+        <v>2.89</v>
       </c>
       <c r="AU188">
+        <v>9</v>
+      </c>
+      <c r="AV188">
         <v>4</v>
       </c>
-      <c r="AV188">
-        <v>2</v>
-      </c>
       <c r="AW188">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY188">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ188">
         <v>6</v>
@@ -40039,49 +40039,49 @@
         <v>5</v>
       </c>
       <c r="BB188">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC188">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD188">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="BE188">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="BF188">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="BG188">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH188">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="BI188">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BJ188">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="BK188">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BL188">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BM188">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BN188">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BO188">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="BP188">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40089,7 +40089,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7465590</v>
+        <v>7465600</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40104,190 +40104,190 @@
         <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H189" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189">
         <v>2</v>
       </c>
       <c r="M189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O189" t="s">
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>93</v>
+        <v>233</v>
       </c>
       <c r="Q189">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="R189">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="S189">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T189">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="U189">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="V189">
-        <v>1.94</v>
+        <v>2.38</v>
       </c>
       <c r="W189">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="X189">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="Y189">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="Z189">
-        <v>1.42</v>
+        <v>2.45</v>
       </c>
       <c r="AA189">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="AB189">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="AC189">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD189">
         <v>17</v>
       </c>
       <c r="AE189">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AF189">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AG189">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AH189">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="AI189">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AJ189">
         <v>2.5</v>
       </c>
       <c r="AK189">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AL189">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AM189">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="AN189">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AO189">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AQ189">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AR189">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="AS189">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AT189">
-        <v>2.89</v>
+        <v>2.65</v>
       </c>
       <c r="AU189">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV189">
+        <v>8</v>
+      </c>
+      <c r="AW189">
         <v>4</v>
       </c>
-      <c r="AW189">
-        <v>10</v>
-      </c>
       <c r="AX189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY189">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AZ189">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="BA189">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB189">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC189">
         <v>10</v>
       </c>
       <c r="BD189">
-        <v>1.27</v>
+        <v>1.75</v>
       </c>
       <c r="BE189">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF189">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="BG189">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH189">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="BI189">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="BJ189">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="BK189">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="BL189">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="BM189">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="BN189">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="BO189">
-        <v>2.92</v>
+        <v>2.55</v>
       </c>
       <c r="BP189">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="190" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -39403,7 +39403,7 @@
         <v>5</v>
       </c>
       <c r="AV185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW185">
         <v>4</v>
@@ -39415,7 +39415,7 @@
         <v>14</v>
       </c>
       <c r="AZ185">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA185">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,15 @@
     <t>['56', '60']</t>
   </si>
   <si>
+    <t>['38', '54', '68']</t>
+  </si>
+  <si>
+    <t>['7', '38', '44', '66', '78', '81']</t>
+  </si>
+  <si>
+    <t>['45+2', '77', '88']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -989,6 +998,21 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['21', '46', '68', '83']</t>
+  </si>
+  <si>
+    <t>['82', '90+1']</t>
+  </si>
+  <si>
+    <t>['16', '60', '79']</t>
+  </si>
+  <si>
+    <t>['16', '21', '56']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1690,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1815,7 +1839,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1893,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ3">
         <v>1.6</v>
@@ -2021,7 +2045,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2227,7 +2251,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2433,7 +2457,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2639,7 +2663,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2845,7 +2869,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3051,7 +3075,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3463,7 +3487,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3541,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11">
         <v>0.9</v>
@@ -3750,7 +3774,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3875,7 +3899,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -3956,7 +3980,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4493,7 +4517,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4571,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ16">
         <v>1.3</v>
@@ -4780,7 +4804,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4983,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.11</v>
@@ -5189,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5317,7 +5341,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6013,10 +6037,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ23">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR23">
         <v>2.16</v>
@@ -6347,7 +6371,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6553,7 +6577,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6759,7 +6783,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7171,7 +7195,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7583,7 +7607,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7661,7 +7685,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31">
         <v>1.2</v>
@@ -7870,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR32">
         <v>1.27</v>
@@ -8076,7 +8100,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR33">
         <v>1.26</v>
@@ -8201,7 +8225,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8407,7 +8431,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -8485,7 +8509,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ35">
         <v>2.11</v>
@@ -8897,7 +8921,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>2.2</v>
@@ -9025,7 +9049,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9231,7 +9255,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9312,7 +9336,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR39">
         <v>2.22</v>
@@ -9643,7 +9667,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9930,7 +9954,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ42">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10261,7 +10285,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10339,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.9</v>
@@ -10467,7 +10491,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10673,7 +10697,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10879,7 +10903,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10960,7 +10984,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -11085,7 +11109,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11497,7 +11521,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11578,7 +11602,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR50">
         <v>1.58</v>
@@ -11703,7 +11727,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11909,7 +11933,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -11987,7 +12011,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ52">
         <v>1.3</v>
@@ -12399,7 +12423,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.3</v>
@@ -12733,7 +12757,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -12811,10 +12835,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR56">
         <v>1.88</v>
@@ -13145,7 +13169,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13223,10 +13247,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ58">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR58">
         <v>1.06</v>
@@ -13351,7 +13375,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13429,7 +13453,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ59">
         <v>1.11</v>
@@ -13763,7 +13787,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13844,7 +13868,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR61">
         <v>1.96</v>
@@ -13969,7 +13993,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14175,7 +14199,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14793,7 +14817,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14871,7 +14895,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.6</v>
@@ -15205,7 +15229,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15411,7 +15435,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15492,7 +15516,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ69">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR69">
         <v>1.43</v>
@@ -15617,7 +15641,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15823,7 +15847,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -15901,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ71">
         <v>2.2</v>
@@ -16029,7 +16053,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16235,7 +16259,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16441,7 +16465,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16522,7 +16546,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ74">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR74">
         <v>1.75</v>
@@ -16647,7 +16671,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -17140,7 +17164,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ77">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR77">
         <v>1.86</v>
@@ -17265,7 +17289,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17346,7 +17370,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17471,7 +17495,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17549,7 +17573,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>2.11</v>
@@ -17883,7 +17907,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17961,10 +17985,10 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ81">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR81">
         <v>1.73</v>
@@ -18295,7 +18319,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18501,7 +18525,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18991,7 +19015,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ86">
         <v>1.2</v>
@@ -19119,7 +19143,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19200,7 +19224,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ87">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR87">
         <v>1.95</v>
@@ -19325,7 +19349,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19403,7 +19427,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ88">
         <v>0.7</v>
@@ -19609,7 +19633,7 @@
         <v>2.25</v>
       </c>
       <c r="AP89">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>1.3</v>
@@ -19737,7 +19761,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -20149,7 +20173,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20561,7 +20585,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20642,7 +20666,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ94">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20767,7 +20791,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20973,7 +20997,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21179,7 +21203,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21257,7 +21281,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>1.6</v>
@@ -21591,7 +21615,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21878,7 +21902,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -22003,7 +22027,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22209,7 +22233,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22621,7 +22645,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22699,7 +22723,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ104">
         <v>1.6</v>
@@ -23033,7 +23057,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23317,10 +23341,10 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR107">
         <v>1.77</v>
@@ -23523,7 +23547,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ108">
         <v>0.5600000000000001</v>
@@ -23651,7 +23675,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23729,10 +23753,10 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ109">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR109">
         <v>1.34</v>
@@ -23857,7 +23881,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23935,10 +23959,10 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR110">
         <v>2.02</v>
@@ -24063,7 +24087,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24144,7 +24168,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ111">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR111">
         <v>1.8</v>
@@ -24269,7 +24293,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24553,7 +24577,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
         <v>0.5600000000000001</v>
@@ -24681,7 +24705,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24762,7 +24786,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ114">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24887,7 +24911,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25093,7 +25117,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25174,7 +25198,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ116">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR116">
         <v>1.22</v>
@@ -25299,7 +25323,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25505,7 +25529,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25586,7 +25610,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ118">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR118">
         <v>1.66</v>
@@ -25711,7 +25735,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25917,7 +25941,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -25995,7 +26019,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ120">
         <v>1.2</v>
@@ -26123,7 +26147,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26204,7 +26228,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR121">
         <v>1.74</v>
@@ -26329,7 +26353,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26535,7 +26559,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26741,7 +26765,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26947,7 +26971,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27359,7 +27383,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27565,7 +27589,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27977,7 +28001,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28055,7 +28079,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ130">
         <v>0.7</v>
@@ -28183,7 +28207,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28261,7 +28285,7 @@
         <v>2.4</v>
       </c>
       <c r="AP131">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ131">
         <v>2.11</v>
@@ -28595,7 +28619,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28676,7 +28700,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ133">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR133">
         <v>1.73</v>
@@ -28882,7 +28906,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ134">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR134">
         <v>1.22</v>
@@ -29085,7 +29109,7 @@
         <v>1.71</v>
       </c>
       <c r="AP135">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
         <v>1.3</v>
@@ -29213,7 +29237,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29291,7 +29315,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ136">
         <v>0.9</v>
@@ -29500,7 +29524,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ137">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -29706,7 +29730,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR138">
         <v>1.74</v>
@@ -30321,10 +30345,10 @@
         <v>2.67</v>
       </c>
       <c r="AP141">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR141">
         <v>2.06</v>
@@ -30655,7 +30679,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30861,7 +30885,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31067,7 +31091,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31145,7 +31169,7 @@
         <v>1.57</v>
       </c>
       <c r="AP145">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ145">
         <v>1.6</v>
@@ -31273,7 +31297,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31479,7 +31503,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31685,7 +31709,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31763,7 +31787,7 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ148">
         <v>1.3</v>
@@ -32097,7 +32121,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32178,7 +32202,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR150">
         <v>1.63</v>
@@ -32303,7 +32327,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32715,7 +32739,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32921,7 +32945,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -32999,10 +33023,10 @@
         <v>1.43</v>
       </c>
       <c r="AP154">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ154">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR154">
         <v>1.6</v>
@@ -33127,7 +33151,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -33205,7 +33229,7 @@
         <v>0.43</v>
       </c>
       <c r="AP155">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ155">
         <v>0.5600000000000001</v>
@@ -33411,7 +33435,7 @@
         <v>1.43</v>
       </c>
       <c r="AP156">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ156">
         <v>1.11</v>
@@ -34032,7 +34056,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR159">
         <v>1.83</v>
@@ -34157,7 +34181,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34235,10 +34259,10 @@
         <v>1.43</v>
       </c>
       <c r="AP160">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ160">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR160">
         <v>1.85</v>
@@ -34441,7 +34465,7 @@
         <v>1.75</v>
       </c>
       <c r="AP161">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ161">
         <v>1.6</v>
@@ -34569,7 +34593,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35187,7 +35211,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>2.8</v>
@@ -35393,7 +35417,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35599,7 +35623,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35680,7 +35704,7 @@
         <v>1</v>
       </c>
       <c r="AQ167">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR167">
         <v>1.58</v>
@@ -35805,7 +35829,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -36011,7 +36035,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q169">
         <v>1.78</v>
@@ -36217,7 +36241,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36423,7 +36447,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36835,7 +36859,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -36916,7 +36940,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ173">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR173">
         <v>1.68</v>
@@ -37041,7 +37065,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37119,7 +37143,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ174">
         <v>1.2</v>
@@ -37328,7 +37352,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ175">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR175">
         <v>2.04</v>
@@ -37534,7 +37558,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ176">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37659,7 +37683,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -37737,7 +37761,7 @@
         <v>1.25</v>
       </c>
       <c r="AP177">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ177">
         <v>1.11</v>
@@ -37865,7 +37889,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -37943,7 +37967,7 @@
         <v>1.67</v>
       </c>
       <c r="AP178">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ178">
         <v>1.6</v>
@@ -38277,7 +38301,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38355,10 +38379,10 @@
         <v>1.44</v>
       </c>
       <c r="AP180">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ180">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR180">
         <v>1.44</v>
@@ -38483,7 +38507,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -38561,7 +38585,7 @@
         <v>1.11</v>
       </c>
       <c r="AP181">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ181">
         <v>1.3</v>
@@ -38770,7 +38794,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ182">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR182">
         <v>1.69</v>
@@ -39101,7 +39125,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q184">
         <v>3.65</v>
@@ -39307,7 +39331,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39513,7 +39537,7 @@
         <v>93</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -40131,7 +40155,7 @@
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40543,7 +40567,7 @@
         <v>220</v>
       </c>
       <c r="P191" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q191">
         <v>2.3</v>
@@ -40700,6 +40724,1036 @@
       </c>
       <c r="BP191">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7465610</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45646.66666666666</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>84</v>
+      </c>
+      <c r="H192" t="s">
+        <v>72</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>221</v>
+      </c>
+      <c r="P192" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q192">
+        <v>3.4</v>
+      </c>
+      <c r="R192">
+        <v>2.25</v>
+      </c>
+      <c r="S192">
+        <v>2.88</v>
+      </c>
+      <c r="T192">
+        <v>1.33</v>
+      </c>
+      <c r="U192">
+        <v>3.25</v>
+      </c>
+      <c r="V192">
+        <v>2.63</v>
+      </c>
+      <c r="W192">
+        <v>1.44</v>
+      </c>
+      <c r="X192">
+        <v>7</v>
+      </c>
+      <c r="Y192">
+        <v>1.1</v>
+      </c>
+      <c r="Z192">
+        <v>3</v>
+      </c>
+      <c r="AA192">
+        <v>3.46</v>
+      </c>
+      <c r="AB192">
+        <v>2.31</v>
+      </c>
+      <c r="AC192">
+        <v>1.03</v>
+      </c>
+      <c r="AD192">
+        <v>13</v>
+      </c>
+      <c r="AE192">
+        <v>1.22</v>
+      </c>
+      <c r="AF192">
+        <v>4</v>
+      </c>
+      <c r="AG192">
+        <v>1.75</v>
+      </c>
+      <c r="AH192">
+        <v>2.05</v>
+      </c>
+      <c r="AI192">
+        <v>1.62</v>
+      </c>
+      <c r="AJ192">
+        <v>2.2</v>
+      </c>
+      <c r="AK192">
+        <v>1.62</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.4</v>
+      </c>
+      <c r="AN192">
+        <v>0.5</v>
+      </c>
+      <c r="AO192">
+        <v>1.78</v>
+      </c>
+      <c r="AP192">
+        <v>0.73</v>
+      </c>
+      <c r="AQ192">
+        <v>1.6</v>
+      </c>
+      <c r="AR192">
+        <v>1.35</v>
+      </c>
+      <c r="AS192">
+        <v>1.31</v>
+      </c>
+      <c r="AT192">
+        <v>2.66</v>
+      </c>
+      <c r="AU192">
+        <v>8</v>
+      </c>
+      <c r="AV192">
+        <v>4</v>
+      </c>
+      <c r="AW192">
+        <v>5</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>16</v>
+      </c>
+      <c r="AZ192">
+        <v>12</v>
+      </c>
+      <c r="BA192">
+        <v>3</v>
+      </c>
+      <c r="BB192">
+        <v>7</v>
+      </c>
+      <c r="BC192">
+        <v>10</v>
+      </c>
+      <c r="BD192">
+        <v>2.15</v>
+      </c>
+      <c r="BE192">
+        <v>6.4</v>
+      </c>
+      <c r="BF192">
+        <v>1.86</v>
+      </c>
+      <c r="BG192">
+        <v>1.35</v>
+      </c>
+      <c r="BH192">
+        <v>2.9</v>
+      </c>
+      <c r="BI192">
+        <v>1.58</v>
+      </c>
+      <c r="BJ192">
+        <v>2.18</v>
+      </c>
+      <c r="BK192">
+        <v>1.97</v>
+      </c>
+      <c r="BL192">
+        <v>1.74</v>
+      </c>
+      <c r="BM192">
+        <v>2.48</v>
+      </c>
+      <c r="BN192">
+        <v>1.47</v>
+      </c>
+      <c r="BO192">
+        <v>3.15</v>
+      </c>
+      <c r="BP192">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7465611</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45646.66666666666</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>79</v>
+      </c>
+      <c r="H193" t="s">
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <v>3</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>4</v>
+      </c>
+      <c r="L193">
+        <v>6</v>
+      </c>
+      <c r="M193">
+        <v>4</v>
+      </c>
+      <c r="N193">
+        <v>10</v>
+      </c>
+      <c r="O193" t="s">
+        <v>222</v>
+      </c>
+      <c r="P193" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q193">
+        <v>3</v>
+      </c>
+      <c r="R193">
+        <v>2.5</v>
+      </c>
+      <c r="S193">
+        <v>2.88</v>
+      </c>
+      <c r="T193">
+        <v>1.25</v>
+      </c>
+      <c r="U193">
+        <v>3.75</v>
+      </c>
+      <c r="V193">
+        <v>2.1</v>
+      </c>
+      <c r="W193">
+        <v>1.67</v>
+      </c>
+      <c r="X193">
+        <v>4.5</v>
+      </c>
+      <c r="Y193">
+        <v>1.18</v>
+      </c>
+      <c r="Z193">
+        <v>2.55</v>
+      </c>
+      <c r="AA193">
+        <v>3.83</v>
+      </c>
+      <c r="AB193">
+        <v>2.48</v>
+      </c>
+      <c r="AC193">
+        <v>1.01</v>
+      </c>
+      <c r="AD193">
+        <v>17</v>
+      </c>
+      <c r="AE193">
+        <v>1.12</v>
+      </c>
+      <c r="AF193">
+        <v>6</v>
+      </c>
+      <c r="AG193">
+        <v>1.44</v>
+      </c>
+      <c r="AH193">
+        <v>2.7</v>
+      </c>
+      <c r="AI193">
+        <v>1.4</v>
+      </c>
+      <c r="AJ193">
+        <v>2.75</v>
+      </c>
+      <c r="AK193">
+        <v>1.57</v>
+      </c>
+      <c r="AL193">
+        <v>1.2</v>
+      </c>
+      <c r="AM193">
+        <v>1.52</v>
+      </c>
+      <c r="AN193">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO193">
+        <v>1</v>
+      </c>
+      <c r="AP193">
+        <v>0.8</v>
+      </c>
+      <c r="AQ193">
+        <v>0.9</v>
+      </c>
+      <c r="AR193">
+        <v>1.56</v>
+      </c>
+      <c r="AS193">
+        <v>1.4</v>
+      </c>
+      <c r="AT193">
+        <v>2.96</v>
+      </c>
+      <c r="AU193">
+        <v>11</v>
+      </c>
+      <c r="AV193">
+        <v>7</v>
+      </c>
+      <c r="AW193">
+        <v>4</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>16</v>
+      </c>
+      <c r="AZ193">
+        <v>18</v>
+      </c>
+      <c r="BA193">
+        <v>2</v>
+      </c>
+      <c r="BB193">
+        <v>12</v>
+      </c>
+      <c r="BC193">
+        <v>14</v>
+      </c>
+      <c r="BD193">
+        <v>2</v>
+      </c>
+      <c r="BE193">
+        <v>6.4</v>
+      </c>
+      <c r="BF193">
+        <v>1.98</v>
+      </c>
+      <c r="BG193">
+        <v>1.27</v>
+      </c>
+      <c r="BH193">
+        <v>3.3</v>
+      </c>
+      <c r="BI193">
+        <v>1.47</v>
+      </c>
+      <c r="BJ193">
+        <v>2.48</v>
+      </c>
+      <c r="BK193">
+        <v>1.76</v>
+      </c>
+      <c r="BL193">
+        <v>1.94</v>
+      </c>
+      <c r="BM193">
+        <v>2.18</v>
+      </c>
+      <c r="BN193">
+        <v>1.58</v>
+      </c>
+      <c r="BO193">
+        <v>2.8</v>
+      </c>
+      <c r="BP193">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7465606</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45646.66666666666</v>
+      </c>
+      <c r="F194">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>87</v>
+      </c>
+      <c r="H194" t="s">
+        <v>78</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>93</v>
+      </c>
+      <c r="P194" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q194">
+        <v>1.91</v>
+      </c>
+      <c r="R194">
+        <v>2.75</v>
+      </c>
+      <c r="S194">
+        <v>5.5</v>
+      </c>
+      <c r="T194">
+        <v>1.2</v>
+      </c>
+      <c r="U194">
+        <v>4.33</v>
+      </c>
+      <c r="V194">
+        <v>2</v>
+      </c>
+      <c r="W194">
+        <v>1.73</v>
+      </c>
+      <c r="X194">
+        <v>4.33</v>
+      </c>
+      <c r="Y194">
+        <v>1.2</v>
+      </c>
+      <c r="Z194">
+        <v>1.4</v>
+      </c>
+      <c r="AA194">
+        <v>5.15</v>
+      </c>
+      <c r="AB194">
+        <v>6.57</v>
+      </c>
+      <c r="AC194">
+        <v>1.01</v>
+      </c>
+      <c r="AD194">
+        <v>17</v>
+      </c>
+      <c r="AE194">
+        <v>1.1</v>
+      </c>
+      <c r="AF194">
+        <v>6.5</v>
+      </c>
+      <c r="AG194">
+        <v>1.36</v>
+      </c>
+      <c r="AH194">
+        <v>3.1</v>
+      </c>
+      <c r="AI194">
+        <v>1.53</v>
+      </c>
+      <c r="AJ194">
+        <v>2.38</v>
+      </c>
+      <c r="AK194">
+        <v>1.11</v>
+      </c>
+      <c r="AL194">
+        <v>1.12</v>
+      </c>
+      <c r="AM194">
+        <v>2.85</v>
+      </c>
+      <c r="AN194">
+        <v>1.11</v>
+      </c>
+      <c r="AO194">
+        <v>1.11</v>
+      </c>
+      <c r="AP194">
+        <v>1</v>
+      </c>
+      <c r="AQ194">
+        <v>1.3</v>
+      </c>
+      <c r="AR194">
+        <v>1.8</v>
+      </c>
+      <c r="AS194">
+        <v>1.33</v>
+      </c>
+      <c r="AT194">
+        <v>3.13</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>6</v>
+      </c>
+      <c r="AW194">
+        <v>7</v>
+      </c>
+      <c r="AX194">
+        <v>2</v>
+      </c>
+      <c r="AY194">
+        <v>20</v>
+      </c>
+      <c r="AZ194">
+        <v>13</v>
+      </c>
+      <c r="BA194">
+        <v>8</v>
+      </c>
+      <c r="BB194">
+        <v>4</v>
+      </c>
+      <c r="BC194">
+        <v>12</v>
+      </c>
+      <c r="BD194">
+        <v>1.38</v>
+      </c>
+      <c r="BE194">
+        <v>7</v>
+      </c>
+      <c r="BF194">
+        <v>3.4</v>
+      </c>
+      <c r="BG194">
+        <v>1.26</v>
+      </c>
+      <c r="BH194">
+        <v>3.4</v>
+      </c>
+      <c r="BI194">
+        <v>1.47</v>
+      </c>
+      <c r="BJ194">
+        <v>2.48</v>
+      </c>
+      <c r="BK194">
+        <v>1.75</v>
+      </c>
+      <c r="BL194">
+        <v>1.95</v>
+      </c>
+      <c r="BM194">
+        <v>2.18</v>
+      </c>
+      <c r="BN194">
+        <v>1.58</v>
+      </c>
+      <c r="BO194">
+        <v>2.8</v>
+      </c>
+      <c r="BP194">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7465601</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45646.66666666666</v>
+      </c>
+      <c r="F195">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>86</v>
+      </c>
+      <c r="H195" t="s">
+        <v>70</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>3</v>
+      </c>
+      <c r="M195">
+        <v>3</v>
+      </c>
+      <c r="N195">
+        <v>6</v>
+      </c>
+      <c r="O195" t="s">
+        <v>223</v>
+      </c>
+      <c r="P195" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q195">
+        <v>2.25</v>
+      </c>
+      <c r="R195">
+        <v>2.5</v>
+      </c>
+      <c r="S195">
+        <v>4.33</v>
+      </c>
+      <c r="T195">
+        <v>1.25</v>
+      </c>
+      <c r="U195">
+        <v>3.75</v>
+      </c>
+      <c r="V195">
+        <v>2.2</v>
+      </c>
+      <c r="W195">
+        <v>1.62</v>
+      </c>
+      <c r="X195">
+        <v>5</v>
+      </c>
+      <c r="Y195">
+        <v>1.17</v>
+      </c>
+      <c r="Z195">
+        <v>1.71</v>
+      </c>
+      <c r="AA195">
+        <v>4.34</v>
+      </c>
+      <c r="AB195">
+        <v>4.08</v>
+      </c>
+      <c r="AC195">
+        <v>1.01</v>
+      </c>
+      <c r="AD195">
+        <v>13</v>
+      </c>
+      <c r="AE195">
+        <v>1.16</v>
+      </c>
+      <c r="AF195">
+        <v>5</v>
+      </c>
+      <c r="AG195">
+        <v>1.5</v>
+      </c>
+      <c r="AH195">
+        <v>2.5</v>
+      </c>
+      <c r="AI195">
+        <v>1.53</v>
+      </c>
+      <c r="AJ195">
+        <v>2.38</v>
+      </c>
+      <c r="AK195">
+        <v>1.22</v>
+      </c>
+      <c r="AL195">
+        <v>1.18</v>
+      </c>
+      <c r="AM195">
+        <v>2.1</v>
+      </c>
+      <c r="AN195">
+        <v>2.11</v>
+      </c>
+      <c r="AO195">
+        <v>1.6</v>
+      </c>
+      <c r="AP195">
+        <v>2</v>
+      </c>
+      <c r="AQ195">
+        <v>1.55</v>
+      </c>
+      <c r="AR195">
+        <v>1.91</v>
+      </c>
+      <c r="AS195">
+        <v>1.18</v>
+      </c>
+      <c r="AT195">
+        <v>3.09</v>
+      </c>
+      <c r="AU195">
+        <v>8</v>
+      </c>
+      <c r="AV195">
+        <v>6</v>
+      </c>
+      <c r="AW195">
+        <v>1</v>
+      </c>
+      <c r="AX195">
+        <v>3</v>
+      </c>
+      <c r="AY195">
+        <v>14</v>
+      </c>
+      <c r="AZ195">
+        <v>11</v>
+      </c>
+      <c r="BA195">
+        <v>10</v>
+      </c>
+      <c r="BB195">
+        <v>5</v>
+      </c>
+      <c r="BC195">
+        <v>15</v>
+      </c>
+      <c r="BD195">
+        <v>1.56</v>
+      </c>
+      <c r="BE195">
+        <v>6.75</v>
+      </c>
+      <c r="BF195">
+        <v>2.65</v>
+      </c>
+      <c r="BG195">
+        <v>1.29</v>
+      </c>
+      <c r="BH195">
+        <v>3.15</v>
+      </c>
+      <c r="BI195">
+        <v>1.5</v>
+      </c>
+      <c r="BJ195">
+        <v>2.38</v>
+      </c>
+      <c r="BK195">
+        <v>1.82</v>
+      </c>
+      <c r="BL195">
+        <v>1.86</v>
+      </c>
+      <c r="BM195">
+        <v>2.28</v>
+      </c>
+      <c r="BN195">
+        <v>1.54</v>
+      </c>
+      <c r="BO195">
+        <v>2.9</v>
+      </c>
+      <c r="BP195">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7465602</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45646.66666666666</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>71</v>
+      </c>
+      <c r="H196" t="s">
+        <v>85</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>3</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>93</v>
+      </c>
+      <c r="P196" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q196">
+        <v>2.3</v>
+      </c>
+      <c r="R196">
+        <v>2.38</v>
+      </c>
+      <c r="S196">
+        <v>4.5</v>
+      </c>
+      <c r="T196">
+        <v>1.33</v>
+      </c>
+      <c r="U196">
+        <v>3.25</v>
+      </c>
+      <c r="V196">
+        <v>2.5</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>6</v>
+      </c>
+      <c r="Y196">
+        <v>1.13</v>
+      </c>
+      <c r="Z196">
+        <v>1.7</v>
+      </c>
+      <c r="AA196">
+        <v>3.97</v>
+      </c>
+      <c r="AB196">
+        <v>4.56</v>
+      </c>
+      <c r="AC196">
+        <v>1.02</v>
+      </c>
+      <c r="AD196">
+        <v>15</v>
+      </c>
+      <c r="AE196">
+        <v>1.2</v>
+      </c>
+      <c r="AF196">
+        <v>4.33</v>
+      </c>
+      <c r="AG196">
+        <v>1.65</v>
+      </c>
+      <c r="AH196">
+        <v>2.2</v>
+      </c>
+      <c r="AI196">
+        <v>1.67</v>
+      </c>
+      <c r="AJ196">
+        <v>2.1</v>
+      </c>
+      <c r="AK196">
+        <v>1.22</v>
+      </c>
+      <c r="AL196">
+        <v>1.2</v>
+      </c>
+      <c r="AM196">
+        <v>2.05</v>
+      </c>
+      <c r="AN196">
+        <v>1.3</v>
+      </c>
+      <c r="AO196">
+        <v>1.56</v>
+      </c>
+      <c r="AP196">
+        <v>1.18</v>
+      </c>
+      <c r="AQ196">
+        <v>1.7</v>
+      </c>
+      <c r="AR196">
+        <v>1.66</v>
+      </c>
+      <c r="AS196">
+        <v>1.23</v>
+      </c>
+      <c r="AT196">
+        <v>2.89</v>
+      </c>
+      <c r="AU196">
+        <v>5</v>
+      </c>
+      <c r="AV196">
+        <v>5</v>
+      </c>
+      <c r="AW196">
+        <v>6</v>
+      </c>
+      <c r="AX196">
+        <v>4</v>
+      </c>
+      <c r="AY196">
+        <v>17</v>
+      </c>
+      <c r="AZ196">
+        <v>11</v>
+      </c>
+      <c r="BA196">
+        <v>6</v>
+      </c>
+      <c r="BB196">
+        <v>3</v>
+      </c>
+      <c r="BC196">
+        <v>9</v>
+      </c>
+      <c r="BD196">
+        <v>1.6</v>
+      </c>
+      <c r="BE196">
+        <v>6.75</v>
+      </c>
+      <c r="BF196">
+        <v>2.55</v>
+      </c>
+      <c r="BG196">
+        <v>1.35</v>
+      </c>
+      <c r="BH196">
+        <v>2.88</v>
+      </c>
+      <c r="BI196">
+        <v>1.6</v>
+      </c>
+      <c r="BJ196">
+        <v>2.17</v>
+      </c>
+      <c r="BK196">
+        <v>1.98</v>
+      </c>
+      <c r="BL196">
+        <v>1.73</v>
+      </c>
+      <c r="BM196">
+        <v>2.55</v>
+      </c>
+      <c r="BN196">
+        <v>1.45</v>
+      </c>
+      <c r="BO196">
+        <v>3.3</v>
+      </c>
+      <c r="BP196">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,9 +598,6 @@
     <t>['47', '59', '90+5']</t>
   </si>
   <si>
-    <t>['4', '82']</t>
-  </si>
-  <si>
     <t>['45+2', '64']</t>
   </si>
   <si>
@@ -611,6 +608,9 @@
   </si>
   <si>
     <t>['69', '89']</t>
+  </si>
+  <si>
+    <t>['4', '82']</t>
   </si>
   <si>
     <t>['9', '65', '90+3']</t>
@@ -661,28 +661,28 @@
     <t>['17', '78']</t>
   </si>
   <si>
+    <t>['54', '80']</t>
+  </si>
+  <si>
     <t>['32', '44', '69']</t>
   </si>
   <si>
     <t>['21']</t>
   </si>
   <si>
-    <t>['31']</t>
-  </si>
-  <si>
     <t>['35', '48']</t>
-  </si>
-  <si>
-    <t>['54', '80']</t>
   </si>
   <si>
     <t>['56', '60']</t>
   </si>
   <si>
-    <t>['38', '54', '68']</t>
+    <t>['31']</t>
   </si>
   <si>
     <t>['7', '38', '44', '66', '78', '81']</t>
+  </si>
+  <si>
+    <t>['38', '54', '68']</t>
   </si>
   <si>
     <t>['45+2', '77', '88']</t>
@@ -991,19 +991,19 @@
     <t>['66']</t>
   </si>
   <si>
-    <t>['13', '88', '90+3']</t>
-  </si>
-  <si>
     <t>['24', '89']</t>
   </si>
   <si>
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['33']</t>
+    <t>['13', '88', '90+3']</t>
   </si>
   <si>
     <t>['21', '46', '68', '83']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
   <si>
     <t>['82', '90+1']</t>
@@ -1374,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2538,7 +2538,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ12">
         <v>0.9</v>
@@ -7070,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR28">
         <v>1.82</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ29">
         <v>1.3</v>
@@ -9130,7 +9130,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR38">
         <v>1.6</v>
@@ -10569,7 +10569,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ45">
         <v>0.5600000000000001</v>
@@ -14071,7 +14071,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ62">
         <v>1.3</v>
@@ -14898,7 +14898,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -18191,7 +18191,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ82">
         <v>2.2</v>
@@ -18812,7 +18812,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ85">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR85">
         <v>1.66</v>
@@ -20869,7 +20869,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ95">
         <v>1.6</v>
@@ -22726,7 +22726,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ104">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -25607,7 +25607,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ118">
         <v>1.7</v>
@@ -27876,7 +27876,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR129">
         <v>1.74</v>
@@ -28697,7 +28697,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ133">
         <v>1.3</v>
@@ -31375,7 +31375,7 @@
         <v>2.5</v>
       </c>
       <c r="AP146">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ146">
         <v>2.11</v>
@@ -32408,7 +32408,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ151">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR151">
         <v>1.8</v>
@@ -32903,7 +32903,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7465564</v>
+        <v>7465559</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32918,49 +32918,49 @@
         <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H154" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L154">
         <v>2</v>
       </c>
       <c r="M154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O154" t="s">
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="Q154">
+        <v>1.91</v>
+      </c>
+      <c r="R154">
         <v>2.75</v>
       </c>
-      <c r="R154">
-        <v>2.6</v>
-      </c>
       <c r="S154">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T154">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U154">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V154">
         <v>2</v>
@@ -32975,109 +32975,109 @@
         <v>1.2</v>
       </c>
       <c r="Z154">
+        <v>1.43</v>
+      </c>
+      <c r="AA154">
+        <v>5.06</v>
+      </c>
+      <c r="AB154">
+        <v>6.04</v>
+      </c>
+      <c r="AC154">
+        <v>0</v>
+      </c>
+      <c r="AD154">
+        <v>0</v>
+      </c>
+      <c r="AE154">
+        <v>1.12</v>
+      </c>
+      <c r="AF154">
+        <v>6</v>
+      </c>
+      <c r="AG154">
+        <v>1.4</v>
+      </c>
+      <c r="AH154">
+        <v>2.88</v>
+      </c>
+      <c r="AI154">
+        <v>1.57</v>
+      </c>
+      <c r="AJ154">
         <v>2.25</v>
       </c>
-      <c r="AA154">
-        <v>4.07</v>
-      </c>
-      <c r="AB154">
-        <v>2.74</v>
-      </c>
-      <c r="AC154">
-        <v>0</v>
-      </c>
-      <c r="AD154">
-        <v>0</v>
-      </c>
-      <c r="AE154">
-        <v>1.09</v>
-      </c>
-      <c r="AF154">
-        <v>7.5</v>
-      </c>
-      <c r="AG154">
-        <v>1.36</v>
-      </c>
-      <c r="AH154">
-        <v>3.1</v>
-      </c>
-      <c r="AI154">
-        <v>1.33</v>
-      </c>
-      <c r="AJ154">
-        <v>3.25</v>
-      </c>
       <c r="AK154">
-        <v>1.52</v>
+        <v>1.11</v>
       </c>
       <c r="AL154">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AM154">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="AN154">
-        <v>0.29</v>
+        <v>2.14</v>
       </c>
       <c r="AO154">
-        <v>1.43</v>
+        <v>0.43</v>
       </c>
       <c r="AP154">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR154">
-        <v>1.6</v>
+        <v>2.01</v>
       </c>
       <c r="AS154">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="AT154">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="AU154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV154">
         <v>5</v>
       </c>
       <c r="AW154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX154">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY154">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AZ154">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA154">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB154">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC154">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD154">
-        <v>2.25</v>
+        <v>1.22</v>
       </c>
       <c r="BE154">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF154">
-        <v>1.92</v>
+        <v>5.45</v>
       </c>
       <c r="BG154">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BH154">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BI154">
         <v>1.28</v>
@@ -33086,22 +33086,22 @@
         <v>3.3</v>
       </c>
       <c r="BK154">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BL154">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BM154">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="BN154">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="BO154">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BP154">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -33109,7 +33109,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7465559</v>
+        <v>7465560</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -33124,142 +33124,142 @@
         <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H155" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O155" t="s">
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>312</v>
+        <v>93</v>
       </c>
       <c r="Q155">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="R155">
+        <v>2.5</v>
+      </c>
+      <c r="S155">
+        <v>3.25</v>
+      </c>
+      <c r="T155">
+        <v>1.25</v>
+      </c>
+      <c r="U155">
+        <v>3.75</v>
+      </c>
+      <c r="V155">
+        <v>2.2</v>
+      </c>
+      <c r="W155">
+        <v>1.62</v>
+      </c>
+      <c r="X155">
+        <v>5</v>
+      </c>
+      <c r="Y155">
+        <v>1.17</v>
+      </c>
+      <c r="Z155">
+        <v>2.18</v>
+      </c>
+      <c r="AA155">
+        <v>3.88</v>
+      </c>
+      <c r="AB155">
+        <v>2.94</v>
+      </c>
+      <c r="AC155">
+        <v>1.01</v>
+      </c>
+      <c r="AD155">
+        <v>15</v>
+      </c>
+      <c r="AE155">
+        <v>1.16</v>
+      </c>
+      <c r="AF155">
+        <v>5</v>
+      </c>
+      <c r="AG155">
+        <v>1.48</v>
+      </c>
+      <c r="AH155">
+        <v>2.6</v>
+      </c>
+      <c r="AI155">
+        <v>1.4</v>
+      </c>
+      <c r="AJ155">
         <v>2.75</v>
       </c>
-      <c r="S155">
-        <v>5.5</v>
-      </c>
-      <c r="T155">
-        <v>1.22</v>
-      </c>
-      <c r="U155">
+      <c r="AK155">
+        <v>1.45</v>
+      </c>
+      <c r="AL155">
+        <v>1.2</v>
+      </c>
+      <c r="AM155">
+        <v>1.63</v>
+      </c>
+      <c r="AN155">
+        <v>1.13</v>
+      </c>
+      <c r="AO155">
+        <v>1.43</v>
+      </c>
+      <c r="AP155">
+        <v>1.18</v>
+      </c>
+      <c r="AQ155">
+        <v>1.11</v>
+      </c>
+      <c r="AR155">
+        <v>1.76</v>
+      </c>
+      <c r="AS155">
+        <v>1.95</v>
+      </c>
+      <c r="AT155">
+        <v>3.71</v>
+      </c>
+      <c r="AU155">
+        <v>8</v>
+      </c>
+      <c r="AV155">
         <v>4</v>
       </c>
-      <c r="V155">
+      <c r="AW155">
         <v>2</v>
       </c>
-      <c r="W155">
-        <v>1.73</v>
-      </c>
-      <c r="X155">
-        <v>4.33</v>
-      </c>
-      <c r="Y155">
-        <v>1.2</v>
-      </c>
-      <c r="Z155">
-        <v>1.43</v>
-      </c>
-      <c r="AA155">
-        <v>5.06</v>
-      </c>
-      <c r="AB155">
-        <v>6.04</v>
-      </c>
-      <c r="AC155">
-        <v>0</v>
-      </c>
-      <c r="AD155">
-        <v>0</v>
-      </c>
-      <c r="AE155">
-        <v>1.12</v>
-      </c>
-      <c r="AF155">
-        <v>6</v>
-      </c>
-      <c r="AG155">
-        <v>1.4</v>
-      </c>
-      <c r="AH155">
-        <v>2.88</v>
-      </c>
-      <c r="AI155">
-        <v>1.57</v>
-      </c>
-      <c r="AJ155">
-        <v>2.25</v>
-      </c>
-      <c r="AK155">
-        <v>1.11</v>
-      </c>
-      <c r="AL155">
-        <v>1.12</v>
-      </c>
-      <c r="AM155">
-        <v>2.8</v>
-      </c>
-      <c r="AN155">
-        <v>2.14</v>
-      </c>
-      <c r="AO155">
-        <v>0.43</v>
-      </c>
-      <c r="AP155">
-        <v>2</v>
-      </c>
-      <c r="AQ155">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR155">
-        <v>2.01</v>
-      </c>
-      <c r="AS155">
-        <v>1.03</v>
-      </c>
-      <c r="AT155">
-        <v>3.04</v>
-      </c>
-      <c r="AU155">
-        <v>7</v>
-      </c>
-      <c r="AV155">
+      <c r="AX155">
         <v>5</v>
       </c>
-      <c r="AW155">
-        <v>8</v>
-      </c>
-      <c r="AX155">
-        <v>0</v>
-      </c>
       <c r="AY155">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AZ155">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA155">
         <v>3</v>
@@ -33271,19 +33271,19 @@
         <v>8</v>
       </c>
       <c r="BD155">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="BE155">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BF155">
-        <v>5.45</v>
+        <v>2.15</v>
       </c>
       <c r="BG155">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="BH155">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BI155">
         <v>1.28</v>
@@ -33295,7 +33295,7 @@
         <v>1.5</v>
       </c>
       <c r="BL155">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="BM155">
         <v>1.88</v>
@@ -33304,10 +33304,10 @@
         <v>1.8</v>
       </c>
       <c r="BO155">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="BP155">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33315,7 +33315,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7465560</v>
+        <v>7465561</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33327,13 +33327,13 @@
         <v>45621.66666666666</v>
       </c>
       <c r="F156">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H156" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -33360,160 +33360,160 @@
         <v>93</v>
       </c>
       <c r="Q156">
+        <v>1.83</v>
+      </c>
+      <c r="R156">
+        <v>2.88</v>
+      </c>
+      <c r="S156">
+        <v>5.5</v>
+      </c>
+      <c r="T156">
+        <v>1.18</v>
+      </c>
+      <c r="U156">
+        <v>4.5</v>
+      </c>
+      <c r="V156">
+        <v>1.83</v>
+      </c>
+      <c r="W156">
+        <v>1.83</v>
+      </c>
+      <c r="X156">
+        <v>3.75</v>
+      </c>
+      <c r="Y156">
+        <v>1.25</v>
+      </c>
+      <c r="Z156">
+        <v>1.4</v>
+      </c>
+      <c r="AA156">
+        <v>5.3</v>
+      </c>
+      <c r="AB156">
+        <v>6.14</v>
+      </c>
+      <c r="AC156">
+        <v>0</v>
+      </c>
+      <c r="AD156">
+        <v>0</v>
+      </c>
+      <c r="AE156">
+        <v>1.08</v>
+      </c>
+      <c r="AF156">
+        <v>7.5</v>
+      </c>
+      <c r="AG156">
+        <v>1.29</v>
+      </c>
+      <c r="AH156">
+        <v>3.6</v>
+      </c>
+      <c r="AI156">
+        <v>1.44</v>
+      </c>
+      <c r="AJ156">
         <v>2.63</v>
       </c>
-      <c r="R156">
-        <v>2.5</v>
-      </c>
-      <c r="S156">
-        <v>3.25</v>
-      </c>
-      <c r="T156">
-        <v>1.25</v>
-      </c>
-      <c r="U156">
-        <v>3.75</v>
-      </c>
-      <c r="V156">
-        <v>2.2</v>
-      </c>
-      <c r="W156">
-        <v>1.62</v>
-      </c>
-      <c r="X156">
-        <v>5</v>
-      </c>
-      <c r="Y156">
-        <v>1.17</v>
-      </c>
-      <c r="Z156">
-        <v>2.18</v>
-      </c>
-      <c r="AA156">
-        <v>3.88</v>
-      </c>
-      <c r="AB156">
-        <v>2.94</v>
-      </c>
-      <c r="AC156">
-        <v>1.01</v>
-      </c>
-      <c r="AD156">
-        <v>15</v>
-      </c>
-      <c r="AE156">
-        <v>1.16</v>
-      </c>
-      <c r="AF156">
-        <v>5</v>
-      </c>
-      <c r="AG156">
-        <v>1.48</v>
-      </c>
-      <c r="AH156">
-        <v>2.6</v>
-      </c>
-      <c r="AI156">
-        <v>1.4</v>
-      </c>
-      <c r="AJ156">
-        <v>2.75</v>
-      </c>
       <c r="AK156">
-        <v>1.45</v>
+        <v>1.12</v>
       </c>
       <c r="AL156">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AM156">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="AN156">
-        <v>1.13</v>
+        <v>2.14</v>
       </c>
       <c r="AO156">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AP156">
-        <v>1.18</v>
+        <v>2.33</v>
       </c>
       <c r="AQ156">
-        <v>1.11</v>
+        <v>0.9</v>
       </c>
       <c r="AR156">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="AS156">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="AT156">
-        <v>3.71</v>
+        <v>3.48</v>
       </c>
       <c r="AU156">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW156">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AX156">
         <v>5</v>
       </c>
       <c r="AY156">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AZ156">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA156">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB156">
         <v>5</v>
       </c>
       <c r="BC156">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD156">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="BE156">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="BF156">
-        <v>2.15</v>
+        <v>5.05</v>
       </c>
       <c r="BG156">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH156">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BI156">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="BJ156">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BK156">
+        <v>1.48</v>
+      </c>
+      <c r="BL156">
+        <v>2.45</v>
+      </c>
+      <c r="BM156">
+        <v>1.82</v>
+      </c>
+      <c r="BN156">
+        <v>1.85</v>
+      </c>
+      <c r="BO156">
+        <v>2.38</v>
+      </c>
+      <c r="BP156">
         <v>1.5</v>
-      </c>
-      <c r="BL156">
-        <v>2.35</v>
-      </c>
-      <c r="BM156">
-        <v>1.88</v>
-      </c>
-      <c r="BN156">
-        <v>1.8</v>
-      </c>
-      <c r="BO156">
-        <v>2.48</v>
-      </c>
-      <c r="BP156">
-        <v>1.46</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33521,7 +33521,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7465561</v>
+        <v>7465562</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33533,28 +33533,28 @@
         <v>45621.66666666666</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H157" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
         <v>2</v>
       </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>2</v>
-      </c>
-      <c r="L157">
-        <v>3</v>
-      </c>
       <c r="M157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157">
         <v>3</v>
@@ -33563,163 +33563,163 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="Q157">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="R157">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="S157">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="T157">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="U157">
+        <v>3.4</v>
+      </c>
+      <c r="V157">
+        <v>2.5</v>
+      </c>
+      <c r="W157">
+        <v>1.5</v>
+      </c>
+      <c r="X157">
+        <v>6</v>
+      </c>
+      <c r="Y157">
+        <v>1.13</v>
+      </c>
+      <c r="Z157">
+        <v>3.13</v>
+      </c>
+      <c r="AA157">
+        <v>3.62</v>
+      </c>
+      <c r="AB157">
+        <v>2.17</v>
+      </c>
+      <c r="AC157">
+        <v>1.02</v>
+      </c>
+      <c r="AD157">
+        <v>17</v>
+      </c>
+      <c r="AE157">
+        <v>1.2</v>
+      </c>
+      <c r="AF157">
         <v>4.5</v>
       </c>
-      <c r="V157">
-        <v>1.83</v>
-      </c>
-      <c r="W157">
-        <v>1.83</v>
-      </c>
-      <c r="X157">
-        <v>3.75</v>
-      </c>
-      <c r="Y157">
-        <v>1.25</v>
-      </c>
-      <c r="Z157">
+      <c r="AG157">
+        <v>1.61</v>
+      </c>
+      <c r="AH157">
+        <v>2.2</v>
+      </c>
+      <c r="AI157">
+        <v>1.57</v>
+      </c>
+      <c r="AJ157">
+        <v>2.25</v>
+      </c>
+      <c r="AK157">
+        <v>1.72</v>
+      </c>
+      <c r="AL157">
+        <v>1.22</v>
+      </c>
+      <c r="AM157">
+        <v>1.38</v>
+      </c>
+      <c r="AN157">
+        <v>1.38</v>
+      </c>
+      <c r="AO157">
+        <v>1.43</v>
+      </c>
+      <c r="AP157">
+        <v>1.5</v>
+      </c>
+      <c r="AQ157">
+        <v>1.11</v>
+      </c>
+      <c r="AR157">
+        <v>1.63</v>
+      </c>
+      <c r="AS157">
+        <v>1.58</v>
+      </c>
+      <c r="AT157">
+        <v>3.21</v>
+      </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
+      <c r="AV157">
+        <v>5</v>
+      </c>
+      <c r="AW157">
+        <v>4</v>
+      </c>
+      <c r="AX157">
+        <v>9</v>
+      </c>
+      <c r="AY157">
+        <v>12</v>
+      </c>
+      <c r="AZ157">
+        <v>20</v>
+      </c>
+      <c r="BA157">
+        <v>3</v>
+      </c>
+      <c r="BB157">
+        <v>6</v>
+      </c>
+      <c r="BC157">
+        <v>9</v>
+      </c>
+      <c r="BD157">
+        <v>2.52</v>
+      </c>
+      <c r="BE157">
+        <v>6</v>
+      </c>
+      <c r="BF157">
+        <v>1.75</v>
+      </c>
+      <c r="BG157">
+        <v>0</v>
+      </c>
+      <c r="BH157">
+        <v>0</v>
+      </c>
+      <c r="BI157">
+        <v>1.33</v>
+      </c>
+      <c r="BJ157">
+        <v>3</v>
+      </c>
+      <c r="BK157">
+        <v>1.6</v>
+      </c>
+      <c r="BL157">
+        <v>2.15</v>
+      </c>
+      <c r="BM157">
+        <v>2.05</v>
+      </c>
+      <c r="BN157">
+        <v>1.65</v>
+      </c>
+      <c r="BO157">
+        <v>2.72</v>
+      </c>
+      <c r="BP157">
         <v>1.4</v>
-      </c>
-      <c r="AA157">
-        <v>5.3</v>
-      </c>
-      <c r="AB157">
-        <v>6.14</v>
-      </c>
-      <c r="AC157">
-        <v>0</v>
-      </c>
-      <c r="AD157">
-        <v>0</v>
-      </c>
-      <c r="AE157">
-        <v>1.08</v>
-      </c>
-      <c r="AF157">
-        <v>7.5</v>
-      </c>
-      <c r="AG157">
-        <v>1.29</v>
-      </c>
-      <c r="AH157">
-        <v>3.6</v>
-      </c>
-      <c r="AI157">
-        <v>1.44</v>
-      </c>
-      <c r="AJ157">
-        <v>2.63</v>
-      </c>
-      <c r="AK157">
-        <v>1.12</v>
-      </c>
-      <c r="AL157">
-        <v>1.12</v>
-      </c>
-      <c r="AM157">
-        <v>2.8</v>
-      </c>
-      <c r="AN157">
-        <v>2.14</v>
-      </c>
-      <c r="AO157">
-        <v>1.29</v>
-      </c>
-      <c r="AP157">
-        <v>2.33</v>
-      </c>
-      <c r="AQ157">
-        <v>0.9</v>
-      </c>
-      <c r="AR157">
-        <v>2.01</v>
-      </c>
-      <c r="AS157">
-        <v>1.47</v>
-      </c>
-      <c r="AT157">
-        <v>3.48</v>
-      </c>
-      <c r="AU157">
-        <v>9</v>
-      </c>
-      <c r="AV157">
-        <v>3</v>
-      </c>
-      <c r="AW157">
-        <v>10</v>
-      </c>
-      <c r="AX157">
-        <v>5</v>
-      </c>
-      <c r="AY157">
-        <v>25</v>
-      </c>
-      <c r="AZ157">
-        <v>13</v>
-      </c>
-      <c r="BA157">
-        <v>5</v>
-      </c>
-      <c r="BB157">
-        <v>5</v>
-      </c>
-      <c r="BC157">
-        <v>10</v>
-      </c>
-      <c r="BD157">
-        <v>1.25</v>
-      </c>
-      <c r="BE157">
-        <v>7.8</v>
-      </c>
-      <c r="BF157">
-        <v>5.05</v>
-      </c>
-      <c r="BG157">
-        <v>1.15</v>
-      </c>
-      <c r="BH157">
-        <v>4.5</v>
-      </c>
-      <c r="BI157">
-        <v>1.24</v>
-      </c>
-      <c r="BJ157">
-        <v>3.55</v>
-      </c>
-      <c r="BK157">
-        <v>1.48</v>
-      </c>
-      <c r="BL157">
-        <v>2.45</v>
-      </c>
-      <c r="BM157">
-        <v>1.82</v>
-      </c>
-      <c r="BN157">
-        <v>1.85</v>
-      </c>
-      <c r="BO157">
-        <v>2.38</v>
-      </c>
-      <c r="BP157">
-        <v>1.5</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33727,7 +33727,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7465562</v>
+        <v>7465564</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33742,19 +33742,19 @@
         <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H158" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158">
         <v>1</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L158">
         <v>2</v>
@@ -33769,97 +33769,97 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="Q158">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R158">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S158">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="T158">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="U158">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="V158">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W158">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="X158">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="Y158">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="Z158">
-        <v>3.13</v>
+        <v>2.25</v>
       </c>
       <c r="AA158">
-        <v>3.62</v>
+        <v>4.07</v>
       </c>
       <c r="AB158">
-        <v>2.17</v>
+        <v>2.74</v>
       </c>
       <c r="AC158">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD158">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE158">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AF158">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG158">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AH158">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="AI158">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AJ158">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="AK158">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="AL158">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM158">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AN158">
-        <v>1.38</v>
+        <v>0.29</v>
       </c>
       <c r="AO158">
         <v>1.43</v>
       </c>
       <c r="AP158">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AQ158">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR158">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AS158">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="AT158">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="AU158">
         <v>4</v>
@@ -33871,31 +33871,31 @@
         <v>4</v>
       </c>
       <c r="AX158">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AY158">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ158">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BA158">
+        <v>6</v>
+      </c>
+      <c r="BB158">
         <v>3</v>
-      </c>
-      <c r="BB158">
-        <v>6</v>
       </c>
       <c r="BC158">
         <v>9</v>
       </c>
       <c r="BD158">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="BE158">
         <v>6</v>
       </c>
       <c r="BF158">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="BG158">
         <v>0</v>
@@ -33904,28 +33904,28 @@
         <v>0</v>
       </c>
       <c r="BI158">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BJ158">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BK158">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="BL158">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="BM158">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BN158">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="BO158">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="BP158">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33933,7 +33933,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7465565</v>
+        <v>7465566</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33948,43 +33948,43 @@
         <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H159" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159">
         <v>1</v>
       </c>
       <c r="L159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N159">
         <v>3</v>
       </c>
       <c r="O159" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="P159" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="Q159">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R159">
         <v>2.5</v>
       </c>
       <c r="S159">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="T159">
         <v>1.29</v>
@@ -34005,13 +34005,13 @@
         <v>1.14</v>
       </c>
       <c r="Z159">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AA159">
-        <v>4.2</v>
+        <v>4.13</v>
       </c>
       <c r="AB159">
-        <v>4.8</v>
+        <v>4.38</v>
       </c>
       <c r="AC159">
         <v>1.01</v>
@@ -34026,112 +34026,112 @@
         <v>5</v>
       </c>
       <c r="AG159">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AH159">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AI159">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AJ159">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AK159">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AL159">
         <v>1.18</v>
       </c>
       <c r="AM159">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AN159">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AO159">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>1.89</v>
+        <v>1</v>
       </c>
       <c r="AQ159">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR159">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS159">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="AT159">
-        <v>3.29</v>
+        <v>3.1</v>
       </c>
       <c r="AU159">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW159">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX159">
+        <v>3</v>
+      </c>
+      <c r="AY159">
+        <v>25</v>
+      </c>
+      <c r="AZ159">
+        <v>9</v>
+      </c>
+      <c r="BA159">
+        <v>8</v>
+      </c>
+      <c r="BB159">
         <v>5</v>
       </c>
-      <c r="AY159">
-        <v>21</v>
-      </c>
-      <c r="AZ159">
-        <v>8</v>
-      </c>
-      <c r="BA159">
-        <v>9</v>
-      </c>
-      <c r="BB159">
-        <v>1</v>
-      </c>
       <c r="BC159">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD159">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="BE159">
-        <v>6.8</v>
+        <v>9.5</v>
       </c>
       <c r="BF159">
-        <v>3.7</v>
+        <v>5.05</v>
       </c>
       <c r="BG159">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH159">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BI159">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="BJ159">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BK159">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BL159">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="BM159">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="BN159">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="BO159">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="BP159">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -34139,7 +34139,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7465566</v>
+        <v>7465565</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34154,43 +34154,43 @@
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H160" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
         <v>1</v>
       </c>
       <c r="L160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N160">
         <v>3</v>
       </c>
       <c r="O160" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="P160" t="s">
-        <v>313</v>
+        <v>93</v>
       </c>
       <c r="Q160">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R160">
         <v>2.5</v>
       </c>
       <c r="S160">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="T160">
         <v>1.29</v>
@@ -34211,13 +34211,13 @@
         <v>1.14</v>
       </c>
       <c r="Z160">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AA160">
-        <v>4.13</v>
+        <v>4.2</v>
       </c>
       <c r="AB160">
-        <v>4.38</v>
+        <v>4.8</v>
       </c>
       <c r="AC160">
         <v>1.01</v>
@@ -34232,112 +34232,112 @@
         <v>5</v>
       </c>
       <c r="AG160">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AH160">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AI160">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AJ160">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AK160">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AL160">
         <v>1.18</v>
       </c>
       <c r="AM160">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AN160">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AO160">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AP160">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="AQ160">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="AR160">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS160">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AT160">
-        <v>3.1</v>
+        <v>3.29</v>
       </c>
       <c r="AU160">
+        <v>11</v>
+      </c>
+      <c r="AV160">
+        <v>2</v>
+      </c>
+      <c r="AW160">
+        <v>7</v>
+      </c>
+      <c r="AX160">
+        <v>5</v>
+      </c>
+      <c r="AY160">
+        <v>21</v>
+      </c>
+      <c r="AZ160">
+        <v>8</v>
+      </c>
+      <c r="BA160">
         <v>9</v>
       </c>
-      <c r="AV160">
-        <v>5</v>
-      </c>
-      <c r="AW160">
-        <v>9</v>
-      </c>
-      <c r="AX160">
-        <v>3</v>
-      </c>
-      <c r="AY160">
-        <v>25</v>
-      </c>
-      <c r="AZ160">
-        <v>9</v>
-      </c>
-      <c r="BA160">
-        <v>8</v>
-      </c>
       <c r="BB160">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC160">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD160">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="BE160">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="BF160">
-        <v>5.05</v>
+        <v>3.7</v>
       </c>
       <c r="BG160">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH160">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BI160">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="BJ160">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BK160">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BL160">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="BM160">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="BN160">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="BO160">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="BP160">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34468,7 +34468,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ161">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR161">
         <v>1.46</v>
@@ -36731,7 +36731,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ172">
         <v>0.5600000000000001</v>
@@ -37970,7 +37970,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ178">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR178">
         <v>1.72</v>
@@ -38671,7 +38671,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7465599</v>
+        <v>7465600</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38686,25 +38686,25 @@
         <v>19</v>
       </c>
       <c r="G182" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H182" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
         <v>2</v>
       </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182">
-        <v>2</v>
-      </c>
-      <c r="L182">
-        <v>3</v>
-      </c>
       <c r="M182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N182">
         <v>3</v>
@@ -38713,151 +38713,151 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="Q182">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R182">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="S182">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="T182">
         <v>1.3</v>
       </c>
       <c r="U182">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V182">
+        <v>2.38</v>
+      </c>
+      <c r="W182">
+        <v>1.53</v>
+      </c>
+      <c r="X182">
+        <v>6</v>
+      </c>
+      <c r="Y182">
+        <v>1.13</v>
+      </c>
+      <c r="Z182">
         <v>2.45</v>
       </c>
-      <c r="W182">
-        <v>1.49</v>
-      </c>
-      <c r="X182">
-        <v>5.95</v>
-      </c>
-      <c r="Y182">
-        <v>1.1</v>
-      </c>
-      <c r="Z182">
-        <v>1.75</v>
-      </c>
       <c r="AA182">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AB182">
-        <v>4.33</v>
+        <v>2.55</v>
       </c>
       <c r="AC182">
         <v>1.02</v>
       </c>
       <c r="AD182">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE182">
+        <v>1.2</v>
+      </c>
+      <c r="AF182">
+        <v>4.5</v>
+      </c>
+      <c r="AG182">
+        <v>1.57</v>
+      </c>
+      <c r="AH182">
+        <v>2.35</v>
+      </c>
+      <c r="AI182">
+        <v>1.5</v>
+      </c>
+      <c r="AJ182">
+        <v>2.5</v>
+      </c>
+      <c r="AK182">
+        <v>1.5</v>
+      </c>
+      <c r="AL182">
         <v>1.22</v>
       </c>
-      <c r="AF182">
-        <v>4.2</v>
-      </c>
-      <c r="AG182">
+      <c r="AM182">
+        <v>1.55</v>
+      </c>
+      <c r="AN182">
+        <v>1.56</v>
+      </c>
+      <c r="AO182">
+        <v>1</v>
+      </c>
+      <c r="AP182">
         <v>1.7</v>
       </c>
-      <c r="AH182">
-        <v>2.1</v>
-      </c>
-      <c r="AI182">
-        <v>1.68</v>
-      </c>
-      <c r="AJ182">
-        <v>2.15</v>
-      </c>
-      <c r="AK182">
-        <v>1.22</v>
-      </c>
-      <c r="AL182">
-        <v>1.2</v>
-      </c>
-      <c r="AM182">
-        <v>2.1</v>
-      </c>
-      <c r="AN182">
-        <v>1.38</v>
-      </c>
-      <c r="AO182">
-        <v>2</v>
-      </c>
-      <c r="AP182">
-        <v>1.56</v>
-      </c>
       <c r="AQ182">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR182">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
       <c r="AS182">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AT182">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="AU182">
         <v>6</v>
       </c>
       <c r="AV182">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW182">
+        <v>4</v>
+      </c>
+      <c r="AX182">
         <v>5</v>
-      </c>
-      <c r="AX182">
-        <v>2</v>
       </c>
       <c r="AY182">
         <v>12</v>
       </c>
       <c r="AZ182">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BA182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB182">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC182">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD182">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="BE182">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="BF182">
-        <v>4.35</v>
+        <v>2.5</v>
       </c>
       <c r="BG182">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH182">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BI182">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BJ182">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="BK182">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="BL182">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="BM182">
         <v>1.92</v>
@@ -38866,10 +38866,10 @@
         <v>1.75</v>
       </c>
       <c r="BO182">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="BP182">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38877,7 +38877,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7465597</v>
+        <v>7465599</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38892,190 +38892,190 @@
         <v>19</v>
       </c>
       <c r="G183" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H183" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O183" t="s">
+        <v>216</v>
+      </c>
+      <c r="P183" t="s">
         <v>93</v>
       </c>
-      <c r="P183" t="s">
-        <v>168</v>
-      </c>
       <c r="Q183">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R183">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S183">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T183">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U183">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="V183">
+        <v>2.45</v>
+      </c>
+      <c r="W183">
+        <v>1.49</v>
+      </c>
+      <c r="X183">
+        <v>5.95</v>
+      </c>
+      <c r="Y183">
+        <v>1.1</v>
+      </c>
+      <c r="Z183">
+        <v>1.75</v>
+      </c>
+      <c r="AA183">
+        <v>4</v>
+      </c>
+      <c r="AB183">
+        <v>4.33</v>
+      </c>
+      <c r="AC183">
+        <v>1.02</v>
+      </c>
+      <c r="AD183">
+        <v>15</v>
+      </c>
+      <c r="AE183">
+        <v>1.22</v>
+      </c>
+      <c r="AF183">
+        <v>4.2</v>
+      </c>
+      <c r="AG183">
+        <v>1.7</v>
+      </c>
+      <c r="AH183">
         <v>2.1</v>
       </c>
-      <c r="W183">
-        <v>1.67</v>
-      </c>
-      <c r="X183">
-        <v>5</v>
-      </c>
-      <c r="Y183">
-        <v>1.17</v>
-      </c>
-      <c r="Z183">
-        <v>1.83</v>
-      </c>
-      <c r="AA183">
-        <v>4.5</v>
-      </c>
-      <c r="AB183">
-        <v>3.4</v>
-      </c>
-      <c r="AC183">
-        <v>1.01</v>
-      </c>
-      <c r="AD183">
-        <v>17</v>
-      </c>
-      <c r="AE183">
-        <v>1.14</v>
-      </c>
-      <c r="AF183">
-        <v>5.5</v>
-      </c>
-      <c r="AG183">
-        <v>1.44</v>
-      </c>
-      <c r="AH183">
-        <v>2.7</v>
-      </c>
       <c r="AI183">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="AJ183">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="AK183">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AL183">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AM183">
+        <v>2.1</v>
+      </c>
+      <c r="AN183">
+        <v>1.38</v>
+      </c>
+      <c r="AO183">
         <v>2</v>
       </c>
-      <c r="AN183">
-        <v>2.13</v>
-      </c>
-      <c r="AO183">
-        <v>1.44</v>
-      </c>
       <c r="AP183">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AQ183">
         <v>1.6</v>
       </c>
       <c r="AR183">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="AS183">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AT183">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="AU183">
         <v>6</v>
       </c>
       <c r="AV183">
+        <v>2</v>
+      </c>
+      <c r="AW183">
+        <v>5</v>
+      </c>
+      <c r="AX183">
+        <v>2</v>
+      </c>
+      <c r="AY183">
+        <v>12</v>
+      </c>
+      <c r="AZ183">
+        <v>7</v>
+      </c>
+      <c r="BA183">
         <v>3</v>
       </c>
-      <c r="AW183">
-        <v>11</v>
-      </c>
-      <c r="AX183">
+      <c r="BB183">
+        <v>1</v>
+      </c>
+      <c r="BC183">
         <v>4</v>
       </c>
-      <c r="AY183">
-        <v>22</v>
-      </c>
-      <c r="AZ183">
-        <v>10</v>
-      </c>
-      <c r="BA183">
-        <v>5</v>
-      </c>
-      <c r="BB183">
-        <v>4</v>
-      </c>
-      <c r="BC183">
-        <v>9</v>
-      </c>
       <c r="BD183">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BE183">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="BF183">
-        <v>3.6</v>
+        <v>4.35</v>
       </c>
       <c r="BG183">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="BH183">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="BI183">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="BJ183">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="BK183">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BL183">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="BM183">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="BN183">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="BO183">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="BP183">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -39083,7 +39083,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7465596</v>
+        <v>7465597</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -39098,190 +39098,190 @@
         <v>19</v>
       </c>
       <c r="G184" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H184" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184">
         <v>1</v>
       </c>
       <c r="L184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M184">
         <v>1</v>
       </c>
       <c r="N184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O184" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="Q184">
-        <v>3.65</v>
+        <v>2.38</v>
       </c>
       <c r="R184">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S184">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T184">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U184">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V184">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="W184">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="X184">
         <v>5</v>
       </c>
       <c r="Y184">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="Z184">
+        <v>1.83</v>
+      </c>
+      <c r="AA184">
+        <v>4.5</v>
+      </c>
+      <c r="AB184">
+        <v>3.4</v>
+      </c>
+      <c r="AC184">
+        <v>1.01</v>
+      </c>
+      <c r="AD184">
+        <v>17</v>
+      </c>
+      <c r="AE184">
+        <v>1.14</v>
+      </c>
+      <c r="AF184">
+        <v>5.5</v>
+      </c>
+      <c r="AG184">
+        <v>1.44</v>
+      </c>
+      <c r="AH184">
+        <v>2.7</v>
+      </c>
+      <c r="AI184">
+        <v>1.44</v>
+      </c>
+      <c r="AJ184">
+        <v>2.63</v>
+      </c>
+      <c r="AK184">
+        <v>1.28</v>
+      </c>
+      <c r="AL184">
+        <v>1.18</v>
+      </c>
+      <c r="AM184">
+        <v>2</v>
+      </c>
+      <c r="AN184">
+        <v>2.13</v>
+      </c>
+      <c r="AO184">
+        <v>1.44</v>
+      </c>
+      <c r="AP184">
+        <v>1.89</v>
+      </c>
+      <c r="AQ184">
+        <v>1.6</v>
+      </c>
+      <c r="AR184">
+        <v>1.89</v>
+      </c>
+      <c r="AS184">
+        <v>1.42</v>
+      </c>
+      <c r="AT184">
+        <v>3.31</v>
+      </c>
+      <c r="AU184">
+        <v>6</v>
+      </c>
+      <c r="AV184">
+        <v>3</v>
+      </c>
+      <c r="AW184">
+        <v>11</v>
+      </c>
+      <c r="AX184">
+        <v>4</v>
+      </c>
+      <c r="AY184">
+        <v>22</v>
+      </c>
+      <c r="AZ184">
+        <v>10</v>
+      </c>
+      <c r="BA184">
+        <v>5</v>
+      </c>
+      <c r="BB184">
+        <v>4</v>
+      </c>
+      <c r="BC184">
+        <v>9</v>
+      </c>
+      <c r="BD184">
+        <v>1.37</v>
+      </c>
+      <c r="BE184">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF184">
+        <v>3.6</v>
+      </c>
+      <c r="BG184">
+        <v>1.23</v>
+      </c>
+      <c r="BH184">
+        <v>3.65</v>
+      </c>
+      <c r="BI184">
+        <v>1.25</v>
+      </c>
+      <c r="BJ184">
         <v>3.45</v>
       </c>
-      <c r="AA184">
-        <v>3.65</v>
-      </c>
-      <c r="AB184">
-        <v>1.95</v>
-      </c>
-      <c r="AC184">
-        <v>1.04</v>
-      </c>
-      <c r="AD184">
-        <v>10</v>
-      </c>
-      <c r="AE184">
-        <v>1.2</v>
-      </c>
-      <c r="AF184">
-        <v>4.5</v>
-      </c>
-      <c r="AG184">
-        <v>1.57</v>
-      </c>
-      <c r="AH184">
-        <v>2.35</v>
-      </c>
-      <c r="AI184">
+      <c r="BK184">
+        <v>1.5</v>
+      </c>
+      <c r="BL184">
+        <v>2.4</v>
+      </c>
+      <c r="BM184">
+        <v>1.85</v>
+      </c>
+      <c r="BN184">
+        <v>1.82</v>
+      </c>
+      <c r="BO184">
+        <v>2.42</v>
+      </c>
+      <c r="BP184">
         <v>1.48</v>
-      </c>
-      <c r="AJ184">
-        <v>2.4</v>
-      </c>
-      <c r="AK184">
-        <v>1.8</v>
-      </c>
-      <c r="AL184">
-        <v>1.22</v>
-      </c>
-      <c r="AM184">
-        <v>1.3</v>
-      </c>
-      <c r="AN184">
-        <v>0.89</v>
-      </c>
-      <c r="AO184">
-        <v>2.25</v>
-      </c>
-      <c r="AP184">
-        <v>0.9</v>
-      </c>
-      <c r="AQ184">
-        <v>2.11</v>
-      </c>
-      <c r="AR184">
-        <v>1.84</v>
-      </c>
-      <c r="AS184">
-        <v>1.69</v>
-      </c>
-      <c r="AT184">
-        <v>3.53</v>
-      </c>
-      <c r="AU184">
-        <v>5</v>
-      </c>
-      <c r="AV184">
-        <v>7</v>
-      </c>
-      <c r="AW184">
-        <v>5</v>
-      </c>
-      <c r="AX184">
-        <v>10</v>
-      </c>
-      <c r="AY184">
-        <v>13</v>
-      </c>
-      <c r="AZ184">
-        <v>25</v>
-      </c>
-      <c r="BA184">
-        <v>3</v>
-      </c>
-      <c r="BB184">
-        <v>16</v>
-      </c>
-      <c r="BC184">
-        <v>19</v>
-      </c>
-      <c r="BD184">
-        <v>2.18</v>
-      </c>
-      <c r="BE184">
-        <v>5.95</v>
-      </c>
-      <c r="BF184">
-        <v>2</v>
-      </c>
-      <c r="BG184">
-        <v>1.16</v>
-      </c>
-      <c r="BH184">
-        <v>4.5</v>
-      </c>
-      <c r="BI184">
-        <v>1.35</v>
-      </c>
-      <c r="BJ184">
-        <v>2.9</v>
-      </c>
-      <c r="BK184">
-        <v>1.62</v>
-      </c>
-      <c r="BL184">
-        <v>2.12</v>
-      </c>
-      <c r="BM184">
-        <v>2.08</v>
-      </c>
-      <c r="BN184">
-        <v>1.65</v>
-      </c>
-      <c r="BO184">
-        <v>2.78</v>
-      </c>
-      <c r="BP184">
-        <v>1.38</v>
       </c>
     </row>
     <row r="185" spans="1:68">
@@ -39289,7 +39289,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>7465595</v>
+        <v>7465596</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39304,76 +39304,76 @@
         <v>19</v>
       </c>
       <c r="G185" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H185" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
         <v>2</v>
-      </c>
-      <c r="L185">
-        <v>1</v>
-      </c>
-      <c r="M185">
-        <v>3</v>
-      </c>
-      <c r="N185">
-        <v>4</v>
       </c>
       <c r="O185" t="s">
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q185">
-        <v>2.4</v>
+        <v>3.65</v>
       </c>
       <c r="R185">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S185">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="T185">
         <v>1.3</v>
       </c>
       <c r="U185">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V185">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="W185">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X185">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y185">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="Z185">
-        <v>1.85</v>
+        <v>3.45</v>
       </c>
       <c r="AA185">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="AB185">
-        <v>3.7</v>
+        <v>1.95</v>
       </c>
       <c r="AC185">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD185">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE185">
         <v>1.2</v>
@@ -39382,112 +39382,112 @@
         <v>4.5</v>
       </c>
       <c r="AG185">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AH185">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AI185">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AJ185">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AK185">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AL185">
         <v>1.22</v>
       </c>
       <c r="AM185">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AN185">
-        <v>1.13</v>
+        <v>0.89</v>
       </c>
       <c r="AO185">
-        <v>0.88</v>
+        <v>2.25</v>
       </c>
       <c r="AP185">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ185">
-        <v>1.11</v>
+        <v>2.11</v>
       </c>
       <c r="AR185">
-        <v>1.43</v>
+        <v>1.84</v>
       </c>
       <c r="AS185">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="AT185">
-        <v>2.8</v>
+        <v>3.53</v>
       </c>
       <c r="AU185">
         <v>5</v>
       </c>
       <c r="AV185">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW185">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX185">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY185">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ185">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="BA185">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB185">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="BC185">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BD185">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="BE185">
-        <v>7.3</v>
+        <v>5.95</v>
       </c>
       <c r="BF185">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="BG185">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="BH185">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BI185">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="BJ185">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="BK185">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BL185">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BM185">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="BN185">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BO185">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="BP185">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39537,7 +39537,7 @@
         <v>93</v>
       </c>
       <c r="P186" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39701,7 +39701,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7465593</v>
+        <v>7465594</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39713,193 +39713,193 @@
         <v>45639.66666666666</v>
       </c>
       <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>85</v>
+      </c>
+      <c r="H187" t="s">
+        <v>79</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>168</v>
+      </c>
+      <c r="P187" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q187">
+        <v>2.1</v>
+      </c>
+      <c r="R187">
+        <v>2.5</v>
+      </c>
+      <c r="S187">
+        <v>4.75</v>
+      </c>
+      <c r="T187">
+        <v>1.25</v>
+      </c>
+      <c r="U187">
+        <v>3.75</v>
+      </c>
+      <c r="V187">
+        <v>2.25</v>
+      </c>
+      <c r="W187">
+        <v>1.57</v>
+      </c>
+      <c r="X187">
+        <v>5.5</v>
+      </c>
+      <c r="Y187">
+        <v>1.14</v>
+      </c>
+      <c r="Z187">
+        <v>1.62</v>
+      </c>
+      <c r="AA187">
+        <v>4.5</v>
+      </c>
+      <c r="AB187">
+        <v>4.75</v>
+      </c>
+      <c r="AC187">
+        <v>1.02</v>
+      </c>
+      <c r="AD187">
         <v>19</v>
       </c>
-      <c r="G187" t="s">
-        <v>83</v>
-      </c>
-      <c r="H187" t="s">
-        <v>88</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-      <c r="M187">
-        <v>0</v>
-      </c>
-      <c r="N187">
-        <v>0</v>
-      </c>
-      <c r="O187" t="s">
-        <v>93</v>
-      </c>
-      <c r="P187" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q187">
+      <c r="AE187">
+        <v>1.16</v>
+      </c>
+      <c r="AF187">
+        <v>5</v>
+      </c>
+      <c r="AG187">
+        <v>1.5</v>
+      </c>
+      <c r="AH187">
+        <v>2.5</v>
+      </c>
+      <c r="AI187">
+        <v>1.57</v>
+      </c>
+      <c r="AJ187">
+        <v>2.25</v>
+      </c>
+      <c r="AK187">
+        <v>1.2</v>
+      </c>
+      <c r="AL187">
+        <v>1.17</v>
+      </c>
+      <c r="AM187">
+        <v>2.25</v>
+      </c>
+      <c r="AN187">
+        <v>1.67</v>
+      </c>
+      <c r="AO187">
+        <v>1.33</v>
+      </c>
+      <c r="AP187">
+        <v>1.6</v>
+      </c>
+      <c r="AQ187">
+        <v>1.3</v>
+      </c>
+      <c r="AR187">
+        <v>1.73</v>
+      </c>
+      <c r="AS187">
+        <v>1.31</v>
+      </c>
+      <c r="AT187">
+        <v>3.04</v>
+      </c>
+      <c r="AU187">
+        <v>8</v>
+      </c>
+      <c r="AV187">
+        <v>6</v>
+      </c>
+      <c r="AW187">
+        <v>5</v>
+      </c>
+      <c r="AX187">
+        <v>2</v>
+      </c>
+      <c r="AY187">
+        <v>18</v>
+      </c>
+      <c r="AZ187">
+        <v>11</v>
+      </c>
+      <c r="BA187">
+        <v>9</v>
+      </c>
+      <c r="BB187">
+        <v>1</v>
+      </c>
+      <c r="BC187">
+        <v>10</v>
+      </c>
+      <c r="BD187">
+        <v>1.2</v>
+      </c>
+      <c r="BE187">
+        <v>9.6</v>
+      </c>
+      <c r="BF187">
+        <v>5.15</v>
+      </c>
+      <c r="BG187">
+        <v>1.2</v>
+      </c>
+      <c r="BH187">
+        <v>3.95</v>
+      </c>
+      <c r="BI187">
+        <v>1.25</v>
+      </c>
+      <c r="BJ187">
+        <v>3.45</v>
+      </c>
+      <c r="BK187">
+        <v>1.5</v>
+      </c>
+      <c r="BL187">
         <v>2.4</v>
       </c>
-      <c r="R187">
-        <v>2.45</v>
-      </c>
-      <c r="S187">
-        <v>3.4</v>
-      </c>
-      <c r="T187">
-        <v>1.2</v>
-      </c>
-      <c r="U187">
-        <v>4</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>1.77</v>
-      </c>
-      <c r="X187">
-        <v>4</v>
-      </c>
-      <c r="Y187">
-        <v>1.22</v>
-      </c>
-      <c r="Z187">
-        <v>2</v>
-      </c>
-      <c r="AA187">
-        <v>3.95</v>
-      </c>
-      <c r="AB187">
-        <v>3.2</v>
-      </c>
-      <c r="AC187">
-        <v>0</v>
-      </c>
-      <c r="AD187">
-        <v>0</v>
-      </c>
-      <c r="AE187">
-        <v>1.11</v>
-      </c>
-      <c r="AF187">
-        <v>6.25</v>
-      </c>
-      <c r="AG187">
-        <v>1.36</v>
-      </c>
-      <c r="AH187">
-        <v>3.1</v>
-      </c>
-      <c r="AI187">
-        <v>1.33</v>
-      </c>
-      <c r="AJ187">
-        <v>3</v>
-      </c>
-      <c r="AK187">
-        <v>1.33</v>
-      </c>
-      <c r="AL187">
-        <v>1.2</v>
-      </c>
-      <c r="AM187">
-        <v>1.77</v>
-      </c>
-      <c r="AN187">
-        <v>2.63</v>
-      </c>
-      <c r="AO187">
-        <v>1.67</v>
-      </c>
-      <c r="AP187">
-        <v>2.44</v>
-      </c>
-      <c r="AQ187">
-        <v>1.6</v>
-      </c>
-      <c r="AR187">
-        <v>1.79</v>
-      </c>
-      <c r="AS187">
-        <v>1.63</v>
-      </c>
-      <c r="AT187">
-        <v>3.42</v>
-      </c>
-      <c r="AU187">
-        <v>4</v>
-      </c>
-      <c r="AV187">
-        <v>2</v>
-      </c>
-      <c r="AW187">
-        <v>7</v>
-      </c>
-      <c r="AX187">
-        <v>0</v>
-      </c>
-      <c r="AY187">
-        <v>16</v>
-      </c>
-      <c r="AZ187">
-        <v>6</v>
-      </c>
-      <c r="BA187">
-        <v>5</v>
-      </c>
-      <c r="BB187">
-        <v>7</v>
-      </c>
-      <c r="BC187">
-        <v>12</v>
-      </c>
-      <c r="BD187">
-        <v>1.5</v>
-      </c>
-      <c r="BE187">
-        <v>6.4</v>
-      </c>
-      <c r="BF187">
-        <v>3.25</v>
-      </c>
-      <c r="BG187">
-        <v>1.18</v>
-      </c>
-      <c r="BH187">
-        <v>4.1</v>
-      </c>
-      <c r="BI187">
-        <v>1.32</v>
-      </c>
-      <c r="BJ187">
-        <v>3</v>
-      </c>
-      <c r="BK187">
-        <v>1.58</v>
-      </c>
-      <c r="BL187">
-        <v>2.2</v>
-      </c>
       <c r="BM187">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BN187">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="BO187">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="BP187">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39907,7 +39907,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7465590</v>
+        <v>7465593</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39922,82 +39922,82 @@
         <v>19</v>
       </c>
       <c r="G188" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H188" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M188">
         <v>0</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O188" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="P188" t="s">
         <v>93</v>
       </c>
       <c r="Q188">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="R188">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="S188">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="T188">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U188">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="V188">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="X188">
+        <v>4</v>
+      </c>
+      <c r="Y188">
+        <v>1.22</v>
+      </c>
+      <c r="Z188">
+        <v>2</v>
+      </c>
+      <c r="AA188">
         <v>3.95</v>
       </c>
-      <c r="Y188">
-        <v>1.21</v>
-      </c>
-      <c r="Z188">
-        <v>1.42</v>
-      </c>
-      <c r="AA188">
-        <v>5</v>
-      </c>
       <c r="AB188">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC188">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD188">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE188">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AF188">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AG188">
         <v>1.36</v>
@@ -40006,55 +40006,55 @@
         <v>3.1</v>
       </c>
       <c r="AI188">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="AJ188">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AK188">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AL188">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AM188">
-        <v>3</v>
+        <v>1.77</v>
       </c>
       <c r="AN188">
+        <v>2.63</v>
+      </c>
+      <c r="AO188">
         <v>1.67</v>
       </c>
-      <c r="AO188">
-        <v>0.78</v>
-      </c>
       <c r="AP188">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="AQ188">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="AR188">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AS188">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="AT188">
-        <v>2.89</v>
+        <v>3.42</v>
       </c>
       <c r="AU188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW188">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY188">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AZ188">
         <v>6</v>
@@ -40063,49 +40063,49 @@
         <v>5</v>
       </c>
       <c r="BB188">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC188">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD188">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="BE188">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="BF188">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="BG188">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH188">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="BI188">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BJ188">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="BK188">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BL188">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BM188">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="BN188">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BO188">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="BP188">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40113,7 +40113,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7465600</v>
+        <v>7465590</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40128,190 +40128,190 @@
         <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H189" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189">
         <v>2</v>
       </c>
       <c r="M189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="Q189">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="R189">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="S189">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T189">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="U189">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="V189">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="W189">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="X189">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="Y189">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="Z189">
-        <v>2.45</v>
+        <v>1.42</v>
       </c>
       <c r="AA189">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AB189">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="AC189">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD189">
         <v>17</v>
       </c>
       <c r="AE189">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AF189">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AG189">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AH189">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AI189">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AJ189">
         <v>2.5</v>
       </c>
       <c r="AK189">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AL189">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AM189">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="AN189">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AO189">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP189">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AQ189">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AR189">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="AS189">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AT189">
-        <v>2.65</v>
+        <v>2.89</v>
       </c>
       <c r="AU189">
+        <v>9</v>
+      </c>
+      <c r="AV189">
+        <v>4</v>
+      </c>
+      <c r="AW189">
+        <v>10</v>
+      </c>
+      <c r="AX189">
+        <v>1</v>
+      </c>
+      <c r="AY189">
+        <v>24</v>
+      </c>
+      <c r="AZ189">
         <v>6</v>
       </c>
-      <c r="AV189">
-        <v>8</v>
-      </c>
-      <c r="AW189">
-        <v>4</v>
-      </c>
-      <c r="AX189">
+      <c r="BA189">
         <v>5</v>
       </c>
-      <c r="AY189">
-        <v>12</v>
-      </c>
-      <c r="AZ189">
-        <v>22</v>
-      </c>
-      <c r="BA189">
-        <v>2</v>
-      </c>
       <c r="BB189">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC189">
         <v>10</v>
       </c>
       <c r="BD189">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="BE189">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="BF189">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="BG189">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH189">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="BI189">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BJ189">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="BK189">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="BL189">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="BM189">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="BN189">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="BO189">
-        <v>2.55</v>
+        <v>2.92</v>
       </c>
       <c r="BP189">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40319,7 +40319,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7465594</v>
+        <v>7467159</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40331,193 +40331,193 @@
         <v>45639.66666666666</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G190" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H190" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
         <v>2</v>
       </c>
-      <c r="L190">
-        <v>1</v>
-      </c>
       <c r="M190">
         <v>1</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O190" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="P190" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="Q190">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R190">
+        <v>2.38</v>
+      </c>
+      <c r="S190">
+        <v>4.5</v>
+      </c>
+      <c r="T190">
+        <v>1.3</v>
+      </c>
+      <c r="U190">
+        <v>3.4</v>
+      </c>
+      <c r="V190">
         <v>2.5</v>
       </c>
-      <c r="S190">
-        <v>4.75</v>
-      </c>
-      <c r="T190">
-        <v>1.25</v>
-      </c>
-      <c r="U190">
-        <v>3.75</v>
-      </c>
-      <c r="V190">
-        <v>2.25</v>
-      </c>
       <c r="W190">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X190">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y190">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z190">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AA190">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AB190">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AC190">
         <v>1.02</v>
       </c>
       <c r="AD190">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE190">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AF190">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AG190">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AH190">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AI190">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ190">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK190">
+        <v>1.22</v>
+      </c>
+      <c r="AL190">
         <v>1.2</v>
       </c>
-      <c r="AL190">
-        <v>1.17</v>
-      </c>
       <c r="AM190">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AN190">
-        <v>1.67</v>
+        <v>0.78</v>
       </c>
       <c r="AO190">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AP190">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AQ190">
-        <v>1.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR190">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AS190">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AT190">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="AU190">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV190">
         <v>6</v>
       </c>
       <c r="AW190">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX190">
         <v>2</v>
       </c>
       <c r="AY190">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ190">
         <v>11</v>
       </c>
       <c r="BA190">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC190">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD190">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="BE190">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="BF190">
-        <v>5.15</v>
+        <v>2.65</v>
       </c>
       <c r="BG190">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH190">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="BI190">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="BJ190">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="BK190">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BL190">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BM190">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="BN190">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="BO190">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="BP190">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40525,7 +40525,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7467159</v>
+        <v>7465595</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40540,28 +40540,28 @@
         <v>19</v>
       </c>
       <c r="G191" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H191" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O191" t="s">
         <v>220</v>
@@ -40570,13 +40570,13 @@
         <v>327</v>
       </c>
       <c r="Q191">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R191">
         <v>2.38</v>
       </c>
       <c r="S191">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T191">
         <v>1.3</v>
@@ -40585,10 +40585,10 @@
         <v>3.4</v>
       </c>
       <c r="V191">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W191">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X191">
         <v>6</v>
@@ -40597,13 +40597,13 @@
         <v>1.13</v>
       </c>
       <c r="Z191">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AA191">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AB191">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AC191">
         <v>1.02</v>
@@ -40615,115 +40615,115 @@
         <v>1.2</v>
       </c>
       <c r="AF191">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AG191">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AH191">
+        <v>2.3</v>
+      </c>
+      <c r="AI191">
+        <v>1.57</v>
+      </c>
+      <c r="AJ191">
+        <v>2.25</v>
+      </c>
+      <c r="AK191">
+        <v>1.3</v>
+      </c>
+      <c r="AL191">
+        <v>1.22</v>
+      </c>
+      <c r="AM191">
+        <v>1.9</v>
+      </c>
+      <c r="AN191">
+        <v>1.13</v>
+      </c>
+      <c r="AO191">
+        <v>0.88</v>
+      </c>
+      <c r="AP191">
+        <v>1</v>
+      </c>
+      <c r="AQ191">
+        <v>1.11</v>
+      </c>
+      <c r="AR191">
+        <v>1.43</v>
+      </c>
+      <c r="AS191">
+        <v>1.37</v>
+      </c>
+      <c r="AT191">
+        <v>2.8</v>
+      </c>
+      <c r="AU191">
+        <v>5</v>
+      </c>
+      <c r="AV191">
+        <v>4</v>
+      </c>
+      <c r="AW191">
+        <v>4</v>
+      </c>
+      <c r="AX191">
+        <v>0</v>
+      </c>
+      <c r="AY191">
+        <v>14</v>
+      </c>
+      <c r="AZ191">
+        <v>7</v>
+      </c>
+      <c r="BA191">
+        <v>6</v>
+      </c>
+      <c r="BB191">
+        <v>3</v>
+      </c>
+      <c r="BC191">
+        <v>9</v>
+      </c>
+      <c r="BD191">
+        <v>1.55</v>
+      </c>
+      <c r="BE191">
+        <v>7.3</v>
+      </c>
+      <c r="BF191">
+        <v>2.85</v>
+      </c>
+      <c r="BG191">
+        <v>1.2</v>
+      </c>
+      <c r="BH191">
+        <v>4</v>
+      </c>
+      <c r="BI191">
+        <v>1.4</v>
+      </c>
+      <c r="BJ191">
+        <v>2.72</v>
+      </c>
+      <c r="BK191">
+        <v>1.7</v>
+      </c>
+      <c r="BL191">
+        <v>2</v>
+      </c>
+      <c r="BM191">
         <v>2.2</v>
       </c>
-      <c r="AI191">
-        <v>1.67</v>
-      </c>
-      <c r="AJ191">
-        <v>2.1</v>
-      </c>
-      <c r="AK191">
-        <v>1.22</v>
-      </c>
-      <c r="AL191">
-        <v>1.2</v>
-      </c>
-      <c r="AM191">
-        <v>2.05</v>
-      </c>
-      <c r="AN191">
-        <v>0.78</v>
-      </c>
-      <c r="AO191">
-        <v>0.63</v>
-      </c>
-      <c r="AP191">
-        <v>1</v>
-      </c>
-      <c r="AQ191">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR191">
-        <v>1.68</v>
-      </c>
-      <c r="AS191">
-        <v>1.22</v>
-      </c>
-      <c r="AT191">
-        <v>2.9</v>
-      </c>
-      <c r="AU191">
-        <v>4</v>
-      </c>
-      <c r="AV191">
-        <v>6</v>
-      </c>
-      <c r="AW191">
-        <v>8</v>
-      </c>
-      <c r="AX191">
-        <v>2</v>
-      </c>
-      <c r="AY191">
-        <v>20</v>
-      </c>
-      <c r="AZ191">
-        <v>11</v>
-      </c>
-      <c r="BA191">
-        <v>10</v>
-      </c>
-      <c r="BB191">
-        <v>2</v>
-      </c>
-      <c r="BC191">
-        <v>12</v>
-      </c>
-      <c r="BD191">
-        <v>1.57</v>
-      </c>
-      <c r="BE191">
-        <v>7</v>
-      </c>
-      <c r="BF191">
-        <v>2.65</v>
-      </c>
-      <c r="BG191">
-        <v>1.21</v>
-      </c>
-      <c r="BH191">
-        <v>3.8</v>
-      </c>
-      <c r="BI191">
-        <v>1.37</v>
-      </c>
-      <c r="BJ191">
-        <v>2.8</v>
-      </c>
-      <c r="BK191">
-        <v>1.61</v>
-      </c>
-      <c r="BL191">
-        <v>2.15</v>
-      </c>
-      <c r="BM191">
-        <v>1.97</v>
-      </c>
       <c r="BN191">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="BO191">
-        <v>2.43</v>
+        <v>2.98</v>
       </c>
       <c r="BP191">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40731,7 +40731,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7465610</v>
+        <v>7465611</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40740,34 +40740,34 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45646.66666666666</v>
+        <v>45645.875</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H192" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J192">
         <v>1</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L192">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O192" t="s">
         <v>221</v>
@@ -40776,103 +40776,103 @@
         <v>328</v>
       </c>
       <c r="Q192">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S192">
         <v>2.88</v>
       </c>
       <c r="T192">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U192">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V192">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W192">
+        <v>1.67</v>
+      </c>
+      <c r="X192">
+        <v>4.5</v>
+      </c>
+      <c r="Y192">
+        <v>1.18</v>
+      </c>
+      <c r="Z192">
+        <v>2.55</v>
+      </c>
+      <c r="AA192">
+        <v>3.83</v>
+      </c>
+      <c r="AB192">
+        <v>2.48</v>
+      </c>
+      <c r="AC192">
+        <v>1.01</v>
+      </c>
+      <c r="AD192">
+        <v>17</v>
+      </c>
+      <c r="AE192">
+        <v>1.12</v>
+      </c>
+      <c r="AF192">
+        <v>6</v>
+      </c>
+      <c r="AG192">
         <v>1.44</v>
       </c>
-      <c r="X192">
+      <c r="AH192">
+        <v>2.7</v>
+      </c>
+      <c r="AI192">
+        <v>1.4</v>
+      </c>
+      <c r="AJ192">
+        <v>2.75</v>
+      </c>
+      <c r="AK192">
+        <v>1.57</v>
+      </c>
+      <c r="AL192">
+        <v>1.2</v>
+      </c>
+      <c r="AM192">
+        <v>1.52</v>
+      </c>
+      <c r="AN192">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO192">
+        <v>1</v>
+      </c>
+      <c r="AP192">
+        <v>0.8</v>
+      </c>
+      <c r="AQ192">
+        <v>0.9</v>
+      </c>
+      <c r="AR192">
+        <v>1.56</v>
+      </c>
+      <c r="AS192">
+        <v>1.4</v>
+      </c>
+      <c r="AT192">
+        <v>2.96</v>
+      </c>
+      <c r="AU192">
+        <v>11</v>
+      </c>
+      <c r="AV192">
         <v>7</v>
       </c>
-      <c r="Y192">
-        <v>1.1</v>
-      </c>
-      <c r="Z192">
-        <v>3</v>
-      </c>
-      <c r="AA192">
-        <v>3.46</v>
-      </c>
-      <c r="AB192">
-        <v>2.31</v>
-      </c>
-      <c r="AC192">
-        <v>1.03</v>
-      </c>
-      <c r="AD192">
-        <v>13</v>
-      </c>
-      <c r="AE192">
-        <v>1.22</v>
-      </c>
-      <c r="AF192">
+      <c r="AW192">
         <v>4</v>
-      </c>
-      <c r="AG192">
-        <v>1.75</v>
-      </c>
-      <c r="AH192">
-        <v>2.05</v>
-      </c>
-      <c r="AI192">
-        <v>1.62</v>
-      </c>
-      <c r="AJ192">
-        <v>2.2</v>
-      </c>
-      <c r="AK192">
-        <v>1.62</v>
-      </c>
-      <c r="AL192">
-        <v>1.25</v>
-      </c>
-      <c r="AM192">
-        <v>1.4</v>
-      </c>
-      <c r="AN192">
-        <v>0.5</v>
-      </c>
-      <c r="AO192">
-        <v>1.78</v>
-      </c>
-      <c r="AP192">
-        <v>0.73</v>
-      </c>
-      <c r="AQ192">
-        <v>1.6</v>
-      </c>
-      <c r="AR192">
-        <v>1.35</v>
-      </c>
-      <c r="AS192">
-        <v>1.31</v>
-      </c>
-      <c r="AT192">
-        <v>2.66</v>
-      </c>
-      <c r="AU192">
-        <v>8</v>
-      </c>
-      <c r="AV192">
-        <v>4</v>
-      </c>
-      <c r="AW192">
-        <v>5</v>
       </c>
       <c r="AX192">
         <v>5</v>
@@ -40881,55 +40881,55 @@
         <v>16</v>
       </c>
       <c r="AZ192">
+        <v>18</v>
+      </c>
+      <c r="BA192">
+        <v>2</v>
+      </c>
+      <c r="BB192">
         <v>12</v>
       </c>
-      <c r="BA192">
-        <v>3</v>
-      </c>
-      <c r="BB192">
-        <v>7</v>
-      </c>
       <c r="BC192">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD192">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BE192">
         <v>6.4</v>
       </c>
       <c r="BF192">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="BG192">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="BH192">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI192">
+        <v>1.47</v>
+      </c>
+      <c r="BJ192">
+        <v>2.48</v>
+      </c>
+      <c r="BK192">
+        <v>1.76</v>
+      </c>
+      <c r="BL192">
+        <v>1.94</v>
+      </c>
+      <c r="BM192">
+        <v>2.18</v>
+      </c>
+      <c r="BN192">
         <v>1.58</v>
       </c>
-      <c r="BJ192">
-        <v>2.18</v>
-      </c>
-      <c r="BK192">
-        <v>1.97</v>
-      </c>
-      <c r="BL192">
-        <v>1.74</v>
-      </c>
-      <c r="BM192">
-        <v>2.48</v>
-      </c>
-      <c r="BN192">
-        <v>1.47</v>
-      </c>
       <c r="BO192">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BP192">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -40937,7 +40937,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7465611</v>
+        <v>7465610</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40949,31 +40949,31 @@
         <v>45646.66666666666</v>
       </c>
       <c r="F193">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H193" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
         <v>3</v>
       </c>
-      <c r="J193">
-        <v>1</v>
-      </c>
-      <c r="K193">
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
         <v>4</v>
-      </c>
-      <c r="L193">
-        <v>6</v>
-      </c>
-      <c r="M193">
-        <v>4</v>
-      </c>
-      <c r="N193">
-        <v>10</v>
       </c>
       <c r="O193" t="s">
         <v>222</v>
@@ -40982,103 +40982,103 @@
         <v>329</v>
       </c>
       <c r="Q193">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R193">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S193">
         <v>2.88</v>
       </c>
       <c r="T193">
+        <v>1.33</v>
+      </c>
+      <c r="U193">
+        <v>3.25</v>
+      </c>
+      <c r="V193">
+        <v>2.63</v>
+      </c>
+      <c r="W193">
+        <v>1.44</v>
+      </c>
+      <c r="X193">
+        <v>7</v>
+      </c>
+      <c r="Y193">
+        <v>1.1</v>
+      </c>
+      <c r="Z193">
+        <v>3</v>
+      </c>
+      <c r="AA193">
+        <v>3.46</v>
+      </c>
+      <c r="AB193">
+        <v>2.31</v>
+      </c>
+      <c r="AC193">
+        <v>1.03</v>
+      </c>
+      <c r="AD193">
+        <v>13</v>
+      </c>
+      <c r="AE193">
+        <v>1.22</v>
+      </c>
+      <c r="AF193">
+        <v>4</v>
+      </c>
+      <c r="AG193">
+        <v>1.75</v>
+      </c>
+      <c r="AH193">
+        <v>2.05</v>
+      </c>
+      <c r="AI193">
+        <v>1.62</v>
+      </c>
+      <c r="AJ193">
+        <v>2.2</v>
+      </c>
+      <c r="AK193">
+        <v>1.62</v>
+      </c>
+      <c r="AL193">
         <v>1.25</v>
       </c>
-      <c r="U193">
-        <v>3.75</v>
-      </c>
-      <c r="V193">
-        <v>2.1</v>
-      </c>
-      <c r="W193">
-        <v>1.67</v>
-      </c>
-      <c r="X193">
-        <v>4.5</v>
-      </c>
-      <c r="Y193">
-        <v>1.18</v>
-      </c>
-      <c r="Z193">
-        <v>2.55</v>
-      </c>
-      <c r="AA193">
-        <v>3.83</v>
-      </c>
-      <c r="AB193">
-        <v>2.48</v>
-      </c>
-      <c r="AC193">
-        <v>1.01</v>
-      </c>
-      <c r="AD193">
-        <v>17</v>
-      </c>
-      <c r="AE193">
-        <v>1.12</v>
-      </c>
-      <c r="AF193">
-        <v>6</v>
-      </c>
-      <c r="AG193">
-        <v>1.44</v>
-      </c>
-      <c r="AH193">
-        <v>2.7</v>
-      </c>
-      <c r="AI193">
+      <c r="AM193">
         <v>1.4</v>
       </c>
-      <c r="AJ193">
-        <v>2.75</v>
-      </c>
-      <c r="AK193">
-        <v>1.57</v>
-      </c>
-      <c r="AL193">
-        <v>1.2</v>
-      </c>
-      <c r="AM193">
-        <v>1.52</v>
-      </c>
       <c r="AN193">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AO193">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AP193">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ193">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="AR193">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AS193">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT193">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="AU193">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV193">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX193">
         <v>5</v>
@@ -41087,55 +41087,55 @@
         <v>16</v>
       </c>
       <c r="AZ193">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB193">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BC193">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD193">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BE193">
         <v>6.4</v>
       </c>
       <c r="BF193">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="BG193">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="BH193">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BI193">
+        <v>1.58</v>
+      </c>
+      <c r="BJ193">
+        <v>2.18</v>
+      </c>
+      <c r="BK193">
+        <v>1.97</v>
+      </c>
+      <c r="BL193">
+        <v>1.74</v>
+      </c>
+      <c r="BM193">
+        <v>2.48</v>
+      </c>
+      <c r="BN193">
         <v>1.47</v>
       </c>
-      <c r="BJ193">
-        <v>2.48</v>
-      </c>
-      <c r="BK193">
-        <v>1.76</v>
-      </c>
-      <c r="BL193">
-        <v>1.94</v>
-      </c>
-      <c r="BM193">
-        <v>2.18</v>
-      </c>
-      <c r="BN193">
-        <v>1.58</v>
-      </c>
       <c r="BO193">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP193">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41754,6 +41754,212 @@
       </c>
       <c r="BP196">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7465607</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45647.52083333334</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
+      </c>
+      <c r="G197" t="s">
+        <v>80</v>
+      </c>
+      <c r="H197" t="s">
+        <v>83</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>134</v>
+      </c>
+      <c r="P197" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q197">
+        <v>4.5</v>
+      </c>
+      <c r="R197">
+        <v>2.38</v>
+      </c>
+      <c r="S197">
+        <v>2.1</v>
+      </c>
+      <c r="T197">
+        <v>1.28</v>
+      </c>
+      <c r="U197">
+        <v>3.35</v>
+      </c>
+      <c r="V197">
+        <v>2.3</v>
+      </c>
+      <c r="W197">
+        <v>1.55</v>
+      </c>
+      <c r="X197">
+        <v>5.25</v>
+      </c>
+      <c r="Y197">
+        <v>1.14</v>
+      </c>
+      <c r="Z197">
+        <v>4.75</v>
+      </c>
+      <c r="AA197">
+        <v>4.2</v>
+      </c>
+      <c r="AB197">
+        <v>1.62</v>
+      </c>
+      <c r="AC197">
+        <v>1.03</v>
+      </c>
+      <c r="AD197">
+        <v>11</v>
+      </c>
+      <c r="AE197">
+        <v>1.18</v>
+      </c>
+      <c r="AF197">
+        <v>4.75</v>
+      </c>
+      <c r="AG197">
+        <v>1.57</v>
+      </c>
+      <c r="AH197">
+        <v>2.35</v>
+      </c>
+      <c r="AI197">
+        <v>1.57</v>
+      </c>
+      <c r="AJ197">
+        <v>2.2</v>
+      </c>
+      <c r="AK197">
+        <v>2.2</v>
+      </c>
+      <c r="AL197">
+        <v>1.18</v>
+      </c>
+      <c r="AM197">
+        <v>1.18</v>
+      </c>
+      <c r="AN197">
+        <v>0.5</v>
+      </c>
+      <c r="AO197">
+        <v>1.6</v>
+      </c>
+      <c r="AP197">
+        <v>0.55</v>
+      </c>
+      <c r="AQ197">
+        <v>1.55</v>
+      </c>
+      <c r="AR197">
+        <v>1.58</v>
+      </c>
+      <c r="AS197">
+        <v>1.81</v>
+      </c>
+      <c r="AT197">
+        <v>3.39</v>
+      </c>
+      <c r="AU197">
+        <v>8</v>
+      </c>
+      <c r="AV197">
+        <v>6</v>
+      </c>
+      <c r="AW197">
+        <v>5</v>
+      </c>
+      <c r="AX197">
+        <v>4</v>
+      </c>
+      <c r="AY197">
+        <v>16</v>
+      </c>
+      <c r="AZ197">
+        <v>13</v>
+      </c>
+      <c r="BA197">
+        <v>10</v>
+      </c>
+      <c r="BB197">
+        <v>5</v>
+      </c>
+      <c r="BC197">
+        <v>15</v>
+      </c>
+      <c r="BD197">
+        <v>2.8</v>
+      </c>
+      <c r="BE197">
+        <v>6.75</v>
+      </c>
+      <c r="BF197">
+        <v>1.5</v>
+      </c>
+      <c r="BG197">
+        <v>1.3</v>
+      </c>
+      <c r="BH197">
+        <v>3.15</v>
+      </c>
+      <c r="BI197">
+        <v>1.52</v>
+      </c>
+      <c r="BJ197">
+        <v>2.33</v>
+      </c>
+      <c r="BK197">
+        <v>1.84</v>
+      </c>
+      <c r="BL197">
+        <v>1.84</v>
+      </c>
+      <c r="BM197">
+        <v>2.32</v>
+      </c>
+      <c r="BN197">
+        <v>1.53</v>
+      </c>
+      <c r="BO197">
+        <v>2.95</v>
+      </c>
+      <c r="BP197">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="336">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,9 @@
     <t>['47', '59', '90+5']</t>
   </si>
   <si>
+    <t>['4', '82']</t>
+  </si>
+  <si>
     <t>['45+2', '64']</t>
   </si>
   <si>
@@ -608,9 +611,6 @@
   </si>
   <si>
     <t>['69', '89']</t>
-  </si>
-  <si>
-    <t>['4', '82']</t>
   </si>
   <si>
     <t>['9', '65', '90+3']</t>
@@ -661,31 +661,40 @@
     <t>['17', '78']</t>
   </si>
   <si>
-    <t>['54', '80']</t>
-  </si>
-  <si>
     <t>['32', '44', '69']</t>
   </si>
   <si>
     <t>['21']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['35', '48']</t>
+  </si>
+  <si>
+    <t>['54', '80']</t>
   </si>
   <si>
     <t>['56', '60']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['38', '54', '68']</t>
   </si>
   <si>
     <t>['7', '38', '44', '66', '78', '81']</t>
   </si>
   <si>
-    <t>['38', '54', '68']</t>
+    <t>['45+2', '77', '88']</t>
   </si>
   <si>
-    <t>['45+2', '77', '88']</t>
+    <t>['23', '86']</t>
+  </si>
+  <si>
+    <t>['22', '27', '75', '80', '90+2']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -991,19 +1000,19 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['13', '88', '90+3']</t>
+  </si>
+  <si>
     <t>['24', '89']</t>
   </si>
   <si>
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['13', '88', '90+3']</t>
+    <t>['33']</t>
   </si>
   <si>
     <t>['21', '46', '68', '83']</t>
-  </si>
-  <si>
-    <t>['33']</t>
   </si>
   <si>
     <t>['82', '90+1']</t>
@@ -1374,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP197"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1839,7 +1848,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2045,7 +2054,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2251,7 +2260,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2329,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5">
         <v>2.2</v>
@@ -2457,7 +2466,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2663,7 +2672,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2744,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2869,7 +2878,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2947,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ8">
         <v>1.11</v>
@@ -3075,7 +3084,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3487,7 +3496,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3899,7 +3908,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4186,7 +4195,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ14">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4392,7 +4401,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ15">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4517,7 +4526,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5341,7 +5350,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5419,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ20">
         <v>2.11</v>
@@ -6371,7 +6380,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6577,7 +6586,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6655,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ26">
         <v>1.6</v>
@@ -6783,7 +6792,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7195,7 +7204,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7607,7 +7616,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7688,7 +7697,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR31">
         <v>2.38</v>
@@ -8225,7 +8234,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8303,7 +8312,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
         <v>1.3</v>
@@ -8431,7 +8440,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -9049,7 +9058,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9127,7 +9136,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ38">
         <v>1.55</v>
@@ -9255,7 +9264,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9539,10 +9548,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ40">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.64</v>
@@ -9667,7 +9676,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -9748,7 +9757,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ41">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -10285,7 +10294,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10491,7 +10500,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10697,7 +10706,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10903,7 +10912,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11109,7 +11118,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11187,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
         <v>1.6</v>
@@ -11521,7 +11530,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11727,7 +11736,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11808,7 +11817,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ51">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11933,7 +11942,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12757,7 +12766,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13044,7 +13053,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.47</v>
@@ -13169,7 +13178,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13375,7 +13384,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13659,7 +13668,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ60">
         <v>1.6</v>
@@ -13787,7 +13796,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13993,7 +14002,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14199,7 +14208,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14689,10 +14698,10 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14817,7 +14826,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15229,7 +15238,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15435,7 +15444,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15641,7 +15650,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15722,7 +15731,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ70">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -15847,7 +15856,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -16053,7 +16062,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16131,7 +16140,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ72">
         <v>1.11</v>
@@ -16259,7 +16268,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16337,10 +16346,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16465,7 +16474,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16671,7 +16680,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16749,7 +16758,7 @@
         <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ75">
         <v>0.5600000000000001</v>
@@ -17289,7 +17298,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17495,7 +17504,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17907,7 +17916,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18319,7 +18328,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18525,7 +18534,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -19018,7 +19027,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ86">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR86">
         <v>1.36</v>
@@ -19143,7 +19152,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19349,7 +19358,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19761,7 +19770,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -19842,7 +19851,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ90">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.95</v>
@@ -20173,7 +20182,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20254,7 +20263,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ92">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.75</v>
@@ -20457,7 +20466,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ93">
         <v>1.11</v>
@@ -20585,7 +20594,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20791,7 +20800,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20997,7 +21006,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21078,7 +21087,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ96">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -21203,7 +21212,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21615,7 +21624,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22027,7 +22036,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22233,7 +22242,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22517,7 +22526,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ103">
         <v>1.3</v>
@@ -22645,7 +22654,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23057,7 +23066,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23550,7 +23559,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ108">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR108">
         <v>1.82</v>
@@ -23675,7 +23684,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23881,7 +23890,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24087,7 +24096,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24165,7 +24174,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ111">
         <v>1.7</v>
@@ -24293,7 +24302,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24371,10 +24380,10 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ112">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -24705,7 +24714,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24783,7 +24792,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ114">
         <v>1.55</v>
@@ -24911,7 +24920,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25117,7 +25126,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25323,7 +25332,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25529,7 +25538,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25735,7 +25744,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25941,7 +25950,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26022,7 +26031,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ120">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR120">
         <v>1.79</v>
@@ -26147,7 +26156,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26225,7 +26234,7 @@
         <v>2.6</v>
       </c>
       <c r="AP121">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ121">
         <v>1.6</v>
@@ -26353,7 +26362,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26559,7 +26568,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26765,7 +26774,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26971,7 +26980,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27258,7 +27267,7 @@
         <v>1</v>
       </c>
       <c r="AQ126">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR126">
         <v>1.62</v>
@@ -27383,7 +27392,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27589,7 +27598,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -28001,7 +28010,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28207,7 +28216,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28491,10 +28500,10 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ132">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.8</v>
@@ -28619,7 +28628,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29237,7 +29246,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29727,7 +29736,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ138">
         <v>0.9</v>
@@ -29933,7 +29942,7 @@
         <v>0.67</v>
       </c>
       <c r="AP139">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ139">
         <v>0.5600000000000001</v>
@@ -30142,7 +30151,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ140">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR140">
         <v>1.77</v>
@@ -30679,7 +30688,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30885,7 +30894,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30963,7 +30972,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ144">
         <v>1.6</v>
@@ -31091,7 +31100,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31297,7 +31306,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31503,7 +31512,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31709,7 +31718,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31996,7 +32005,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR149">
         <v>1.58</v>
@@ -32121,7 +32130,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32327,7 +32336,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32614,7 +32623,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ152">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR152">
         <v>1.79</v>
@@ -32739,7 +32748,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32903,7 +32912,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7465559</v>
+        <v>7465564</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32918,49 +32927,49 @@
         <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H154" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L154">
         <v>2</v>
       </c>
       <c r="M154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O154" t="s">
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="Q154">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="R154">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="S154">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T154">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U154">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V154">
         <v>2</v>
@@ -32975,109 +32984,109 @@
         <v>1.2</v>
       </c>
       <c r="Z154">
+        <v>2.25</v>
+      </c>
+      <c r="AA154">
+        <v>4.07</v>
+      </c>
+      <c r="AB154">
+        <v>2.74</v>
+      </c>
+      <c r="AC154">
+        <v>0</v>
+      </c>
+      <c r="AD154">
+        <v>0</v>
+      </c>
+      <c r="AE154">
+        <v>1.09</v>
+      </c>
+      <c r="AF154">
+        <v>7.5</v>
+      </c>
+      <c r="AG154">
+        <v>1.36</v>
+      </c>
+      <c r="AH154">
+        <v>3.1</v>
+      </c>
+      <c r="AI154">
+        <v>1.33</v>
+      </c>
+      <c r="AJ154">
+        <v>3.25</v>
+      </c>
+      <c r="AK154">
+        <v>1.52</v>
+      </c>
+      <c r="AL154">
+        <v>1.18</v>
+      </c>
+      <c r="AM154">
+        <v>1.6</v>
+      </c>
+      <c r="AN154">
+        <v>0.29</v>
+      </c>
+      <c r="AO154">
         <v>1.43</v>
       </c>
-      <c r="AA154">
-        <v>5.06</v>
-      </c>
-      <c r="AB154">
-        <v>6.04</v>
-      </c>
-      <c r="AC154">
-        <v>0</v>
-      </c>
-      <c r="AD154">
-        <v>0</v>
-      </c>
-      <c r="AE154">
-        <v>1.12</v>
-      </c>
-      <c r="AF154">
-        <v>6</v>
-      </c>
-      <c r="AG154">
-        <v>1.4</v>
-      </c>
-      <c r="AH154">
+      <c r="AP154">
+        <v>0.8</v>
+      </c>
+      <c r="AQ154">
+        <v>1.3</v>
+      </c>
+      <c r="AR154">
+        <v>1.6</v>
+      </c>
+      <c r="AS154">
+        <v>1.28</v>
+      </c>
+      <c r="AT154">
         <v>2.88</v>
       </c>
-      <c r="AI154">
-        <v>1.57</v>
-      </c>
-      <c r="AJ154">
-        <v>2.25</v>
-      </c>
-      <c r="AK154">
-        <v>1.11</v>
-      </c>
-      <c r="AL154">
-        <v>1.12</v>
-      </c>
-      <c r="AM154">
-        <v>2.8</v>
-      </c>
-      <c r="AN154">
-        <v>2.14</v>
-      </c>
-      <c r="AO154">
-        <v>0.43</v>
-      </c>
-      <c r="AP154">
-        <v>2</v>
-      </c>
-      <c r="AQ154">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR154">
-        <v>2.01</v>
-      </c>
-      <c r="AS154">
-        <v>1.03</v>
-      </c>
-      <c r="AT154">
-        <v>3.04</v>
-      </c>
       <c r="AU154">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV154">
         <v>5</v>
       </c>
       <c r="AW154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX154">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY154">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AZ154">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA154">
+        <v>6</v>
+      </c>
+      <c r="BB154">
         <v>3</v>
       </c>
-      <c r="BB154">
-        <v>5</v>
-      </c>
       <c r="BC154">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD154">
-        <v>1.22</v>
+        <v>2.25</v>
       </c>
       <c r="BE154">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BF154">
-        <v>5.45</v>
+        <v>1.92</v>
       </c>
       <c r="BG154">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="BH154">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BI154">
         <v>1.28</v>
@@ -33086,22 +33095,22 @@
         <v>3.3</v>
       </c>
       <c r="BK154">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BL154">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="BM154">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="BN154">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="BO154">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BP154">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -33109,7 +33118,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7465560</v>
+        <v>7465559</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -33124,142 +33133,142 @@
         <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H155" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
         <v>2</v>
       </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
+      <c r="M155">
         <v>2</v>
       </c>
-      <c r="L155">
-        <v>3</v>
-      </c>
-      <c r="M155">
-        <v>0</v>
-      </c>
       <c r="N155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O155" t="s">
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>93</v>
+        <v>315</v>
       </c>
       <c r="Q155">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="R155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S155">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="T155">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U155">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V155">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="X155">
+        <v>4.33</v>
+      </c>
+      <c r="Y155">
+        <v>1.2</v>
+      </c>
+      <c r="Z155">
+        <v>1.43</v>
+      </c>
+      <c r="AA155">
+        <v>5.06</v>
+      </c>
+      <c r="AB155">
+        <v>6.04</v>
+      </c>
+      <c r="AC155">
+        <v>0</v>
+      </c>
+      <c r="AD155">
+        <v>0</v>
+      </c>
+      <c r="AE155">
+        <v>1.12</v>
+      </c>
+      <c r="AF155">
+        <v>6</v>
+      </c>
+      <c r="AG155">
+        <v>1.4</v>
+      </c>
+      <c r="AH155">
+        <v>2.88</v>
+      </c>
+      <c r="AI155">
+        <v>1.57</v>
+      </c>
+      <c r="AJ155">
+        <v>2.25</v>
+      </c>
+      <c r="AK155">
+        <v>1.11</v>
+      </c>
+      <c r="AL155">
+        <v>1.12</v>
+      </c>
+      <c r="AM155">
+        <v>2.8</v>
+      </c>
+      <c r="AN155">
+        <v>2.14</v>
+      </c>
+      <c r="AO155">
+        <v>0.43</v>
+      </c>
+      <c r="AP155">
+        <v>2</v>
+      </c>
+      <c r="AQ155">
+        <v>0.5</v>
+      </c>
+      <c r="AR155">
+        <v>2.01</v>
+      </c>
+      <c r="AS155">
+        <v>1.03</v>
+      </c>
+      <c r="AT155">
+        <v>3.04</v>
+      </c>
+      <c r="AU155">
+        <v>7</v>
+      </c>
+      <c r="AV155">
         <v>5</v>
       </c>
-      <c r="Y155">
-        <v>1.17</v>
-      </c>
-      <c r="Z155">
-        <v>2.18</v>
-      </c>
-      <c r="AA155">
-        <v>3.88</v>
-      </c>
-      <c r="AB155">
-        <v>2.94</v>
-      </c>
-      <c r="AC155">
-        <v>1.01</v>
-      </c>
-      <c r="AD155">
-        <v>15</v>
-      </c>
-      <c r="AE155">
-        <v>1.16</v>
-      </c>
-      <c r="AF155">
-        <v>5</v>
-      </c>
-      <c r="AG155">
-        <v>1.48</v>
-      </c>
-      <c r="AH155">
-        <v>2.6</v>
-      </c>
-      <c r="AI155">
-        <v>1.4</v>
-      </c>
-      <c r="AJ155">
-        <v>2.75</v>
-      </c>
-      <c r="AK155">
-        <v>1.45</v>
-      </c>
-      <c r="AL155">
-        <v>1.2</v>
-      </c>
-      <c r="AM155">
-        <v>1.63</v>
-      </c>
-      <c r="AN155">
-        <v>1.13</v>
-      </c>
-      <c r="AO155">
-        <v>1.43</v>
-      </c>
-      <c r="AP155">
-        <v>1.18</v>
-      </c>
-      <c r="AQ155">
-        <v>1.11</v>
-      </c>
-      <c r="AR155">
-        <v>1.76</v>
-      </c>
-      <c r="AS155">
-        <v>1.95</v>
-      </c>
-      <c r="AT155">
-        <v>3.71</v>
-      </c>
-      <c r="AU155">
+      <c r="AW155">
         <v>8</v>
       </c>
-      <c r="AV155">
-        <v>4</v>
-      </c>
-      <c r="AW155">
-        <v>2</v>
-      </c>
       <c r="AX155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY155">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ155">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA155">
         <v>3</v>
@@ -33271,19 +33280,19 @@
         <v>8</v>
       </c>
       <c r="BD155">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="BE155">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF155">
-        <v>2.15</v>
+        <v>5.45</v>
       </c>
       <c r="BG155">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BH155">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BI155">
         <v>1.28</v>
@@ -33295,7 +33304,7 @@
         <v>1.5</v>
       </c>
       <c r="BL155">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="BM155">
         <v>1.88</v>
@@ -33304,10 +33313,10 @@
         <v>1.8</v>
       </c>
       <c r="BO155">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="BP155">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33315,7 +33324,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7465561</v>
+        <v>7465560</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33327,13 +33336,13 @@
         <v>45621.66666666666</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G156" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="H156" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -33360,160 +33369,160 @@
         <v>93</v>
       </c>
       <c r="Q156">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="R156">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="S156">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="T156">
+        <v>1.25</v>
+      </c>
+      <c r="U156">
+        <v>3.75</v>
+      </c>
+      <c r="V156">
+        <v>2.2</v>
+      </c>
+      <c r="W156">
+        <v>1.62</v>
+      </c>
+      <c r="X156">
+        <v>5</v>
+      </c>
+      <c r="Y156">
+        <v>1.17</v>
+      </c>
+      <c r="Z156">
+        <v>2.18</v>
+      </c>
+      <c r="AA156">
+        <v>3.88</v>
+      </c>
+      <c r="AB156">
+        <v>2.94</v>
+      </c>
+      <c r="AC156">
+        <v>1.01</v>
+      </c>
+      <c r="AD156">
+        <v>15</v>
+      </c>
+      <c r="AE156">
+        <v>1.16</v>
+      </c>
+      <c r="AF156">
+        <v>5</v>
+      </c>
+      <c r="AG156">
+        <v>1.48</v>
+      </c>
+      <c r="AH156">
+        <v>2.6</v>
+      </c>
+      <c r="AI156">
+        <v>1.4</v>
+      </c>
+      <c r="AJ156">
+        <v>2.75</v>
+      </c>
+      <c r="AK156">
+        <v>1.45</v>
+      </c>
+      <c r="AL156">
+        <v>1.2</v>
+      </c>
+      <c r="AM156">
+        <v>1.63</v>
+      </c>
+      <c r="AN156">
+        <v>1.13</v>
+      </c>
+      <c r="AO156">
+        <v>1.43</v>
+      </c>
+      <c r="AP156">
         <v>1.18</v>
       </c>
-      <c r="U156">
-        <v>4.5</v>
-      </c>
-      <c r="V156">
-        <v>1.83</v>
-      </c>
-      <c r="W156">
-        <v>1.83</v>
-      </c>
-      <c r="X156">
-        <v>3.75</v>
-      </c>
-      <c r="Y156">
-        <v>1.25</v>
-      </c>
-      <c r="Z156">
-        <v>1.4</v>
-      </c>
-      <c r="AA156">
-        <v>5.3</v>
-      </c>
-      <c r="AB156">
-        <v>6.14</v>
-      </c>
-      <c r="AC156">
-        <v>0</v>
-      </c>
-      <c r="AD156">
-        <v>0</v>
-      </c>
-      <c r="AE156">
-        <v>1.08</v>
-      </c>
-      <c r="AF156">
-        <v>7.5</v>
-      </c>
-      <c r="AG156">
-        <v>1.29</v>
-      </c>
-      <c r="AH156">
-        <v>3.6</v>
-      </c>
-      <c r="AI156">
-        <v>1.44</v>
-      </c>
-      <c r="AJ156">
-        <v>2.63</v>
-      </c>
-      <c r="AK156">
-        <v>1.12</v>
-      </c>
-      <c r="AL156">
-        <v>1.12</v>
-      </c>
-      <c r="AM156">
-        <v>2.8</v>
-      </c>
-      <c r="AN156">
-        <v>2.14</v>
-      </c>
-      <c r="AO156">
-        <v>1.29</v>
-      </c>
-      <c r="AP156">
-        <v>2.33</v>
-      </c>
       <c r="AQ156">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR156">
-        <v>2.01</v>
+        <v>1.76</v>
       </c>
       <c r="AS156">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="AT156">
-        <v>3.48</v>
+        <v>3.71</v>
       </c>
       <c r="AU156">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW156">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AX156">
         <v>5</v>
       </c>
       <c r="AY156">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AZ156">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA156">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB156">
         <v>5</v>
       </c>
       <c r="BC156">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD156">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="BE156">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="BF156">
-        <v>5.05</v>
+        <v>2.15</v>
       </c>
       <c r="BG156">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH156">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BI156">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="BJ156">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BK156">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BL156">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="BM156">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="BN156">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BO156">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="BP156">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33521,7 +33530,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7465562</v>
+        <v>7465561</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33533,28 +33542,28 @@
         <v>45621.66666666666</v>
       </c>
       <c r="F157">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H157" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157">
         <v>3</v>
@@ -33563,163 +33572,163 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="Q157">
-        <v>3.5</v>
+        <v>1.83</v>
       </c>
       <c r="R157">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="S157">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="T157">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="U157">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="V157">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W157">
+        <v>1.83</v>
+      </c>
+      <c r="X157">
+        <v>3.75</v>
+      </c>
+      <c r="Y157">
+        <v>1.25</v>
+      </c>
+      <c r="Z157">
+        <v>1.4</v>
+      </c>
+      <c r="AA157">
+        <v>5.3</v>
+      </c>
+      <c r="AB157">
+        <v>6.14</v>
+      </c>
+      <c r="AC157">
+        <v>0</v>
+      </c>
+      <c r="AD157">
+        <v>0</v>
+      </c>
+      <c r="AE157">
+        <v>1.08</v>
+      </c>
+      <c r="AF157">
+        <v>7.5</v>
+      </c>
+      <c r="AG157">
+        <v>1.29</v>
+      </c>
+      <c r="AH157">
+        <v>3.6</v>
+      </c>
+      <c r="AI157">
+        <v>1.44</v>
+      </c>
+      <c r="AJ157">
+        <v>2.63</v>
+      </c>
+      <c r="AK157">
+        <v>1.12</v>
+      </c>
+      <c r="AL157">
+        <v>1.12</v>
+      </c>
+      <c r="AM157">
+        <v>2.8</v>
+      </c>
+      <c r="AN157">
+        <v>2.14</v>
+      </c>
+      <c r="AO157">
+        <v>1.29</v>
+      </c>
+      <c r="AP157">
+        <v>2.4</v>
+      </c>
+      <c r="AQ157">
+        <v>0.9</v>
+      </c>
+      <c r="AR157">
+        <v>2.01</v>
+      </c>
+      <c r="AS157">
+        <v>1.47</v>
+      </c>
+      <c r="AT157">
+        <v>3.48</v>
+      </c>
+      <c r="AU157">
+        <v>9</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>10</v>
+      </c>
+      <c r="AX157">
+        <v>5</v>
+      </c>
+      <c r="AY157">
+        <v>25</v>
+      </c>
+      <c r="AZ157">
+        <v>13</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>5</v>
+      </c>
+      <c r="BC157">
+        <v>10</v>
+      </c>
+      <c r="BD157">
+        <v>1.25</v>
+      </c>
+      <c r="BE157">
+        <v>7.8</v>
+      </c>
+      <c r="BF157">
+        <v>5.05</v>
+      </c>
+      <c r="BG157">
+        <v>1.15</v>
+      </c>
+      <c r="BH157">
+        <v>4.5</v>
+      </c>
+      <c r="BI157">
+        <v>1.24</v>
+      </c>
+      <c r="BJ157">
+        <v>3.55</v>
+      </c>
+      <c r="BK157">
+        <v>1.48</v>
+      </c>
+      <c r="BL157">
+        <v>2.45</v>
+      </c>
+      <c r="BM157">
+        <v>1.82</v>
+      </c>
+      <c r="BN157">
+        <v>1.85</v>
+      </c>
+      <c r="BO157">
+        <v>2.38</v>
+      </c>
+      <c r="BP157">
         <v>1.5</v>
-      </c>
-      <c r="X157">
-        <v>6</v>
-      </c>
-      <c r="Y157">
-        <v>1.13</v>
-      </c>
-      <c r="Z157">
-        <v>3.13</v>
-      </c>
-      <c r="AA157">
-        <v>3.62</v>
-      </c>
-      <c r="AB157">
-        <v>2.17</v>
-      </c>
-      <c r="AC157">
-        <v>1.02</v>
-      </c>
-      <c r="AD157">
-        <v>17</v>
-      </c>
-      <c r="AE157">
-        <v>1.2</v>
-      </c>
-      <c r="AF157">
-        <v>4.5</v>
-      </c>
-      <c r="AG157">
-        <v>1.61</v>
-      </c>
-      <c r="AH157">
-        <v>2.2</v>
-      </c>
-      <c r="AI157">
-        <v>1.57</v>
-      </c>
-      <c r="AJ157">
-        <v>2.25</v>
-      </c>
-      <c r="AK157">
-        <v>1.72</v>
-      </c>
-      <c r="AL157">
-        <v>1.22</v>
-      </c>
-      <c r="AM157">
-        <v>1.38</v>
-      </c>
-      <c r="AN157">
-        <v>1.38</v>
-      </c>
-      <c r="AO157">
-        <v>1.43</v>
-      </c>
-      <c r="AP157">
-        <v>1.5</v>
-      </c>
-      <c r="AQ157">
-        <v>1.11</v>
-      </c>
-      <c r="AR157">
-        <v>1.63</v>
-      </c>
-      <c r="AS157">
-        <v>1.58</v>
-      </c>
-      <c r="AT157">
-        <v>3.21</v>
-      </c>
-      <c r="AU157">
-        <v>4</v>
-      </c>
-      <c r="AV157">
-        <v>5</v>
-      </c>
-      <c r="AW157">
-        <v>4</v>
-      </c>
-      <c r="AX157">
-        <v>9</v>
-      </c>
-      <c r="AY157">
-        <v>12</v>
-      </c>
-      <c r="AZ157">
-        <v>20</v>
-      </c>
-      <c r="BA157">
-        <v>3</v>
-      </c>
-      <c r="BB157">
-        <v>6</v>
-      </c>
-      <c r="BC157">
-        <v>9</v>
-      </c>
-      <c r="BD157">
-        <v>2.52</v>
-      </c>
-      <c r="BE157">
-        <v>6</v>
-      </c>
-      <c r="BF157">
-        <v>1.75</v>
-      </c>
-      <c r="BG157">
-        <v>0</v>
-      </c>
-      <c r="BH157">
-        <v>0</v>
-      </c>
-      <c r="BI157">
-        <v>1.33</v>
-      </c>
-      <c r="BJ157">
-        <v>3</v>
-      </c>
-      <c r="BK157">
-        <v>1.6</v>
-      </c>
-      <c r="BL157">
-        <v>2.15</v>
-      </c>
-      <c r="BM157">
-        <v>2.05</v>
-      </c>
-      <c r="BN157">
-        <v>1.65</v>
-      </c>
-      <c r="BO157">
-        <v>2.72</v>
-      </c>
-      <c r="BP157">
-        <v>1.4</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33727,7 +33736,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7465564</v>
+        <v>7465562</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33742,19 +33751,19 @@
         <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H158" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
         <v>1</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L158">
         <v>2</v>
@@ -33769,97 +33778,97 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="Q158">
+        <v>3.5</v>
+      </c>
+      <c r="R158">
+        <v>2.3</v>
+      </c>
+      <c r="S158">
         <v>2.75</v>
       </c>
-      <c r="R158">
-        <v>2.6</v>
-      </c>
-      <c r="S158">
-        <v>3.1</v>
-      </c>
       <c r="T158">
+        <v>1.3</v>
+      </c>
+      <c r="U158">
+        <v>3.4</v>
+      </c>
+      <c r="V158">
+        <v>2.5</v>
+      </c>
+      <c r="W158">
+        <v>1.5</v>
+      </c>
+      <c r="X158">
+        <v>6</v>
+      </c>
+      <c r="Y158">
+        <v>1.13</v>
+      </c>
+      <c r="Z158">
+        <v>3.13</v>
+      </c>
+      <c r="AA158">
+        <v>3.62</v>
+      </c>
+      <c r="AB158">
+        <v>2.17</v>
+      </c>
+      <c r="AC158">
+        <v>1.02</v>
+      </c>
+      <c r="AD158">
+        <v>17</v>
+      </c>
+      <c r="AE158">
         <v>1.2</v>
       </c>
-      <c r="U158">
-        <v>4.33</v>
-      </c>
-      <c r="V158">
-        <v>2</v>
-      </c>
-      <c r="W158">
-        <v>1.73</v>
-      </c>
-      <c r="X158">
-        <v>4.33</v>
-      </c>
-      <c r="Y158">
-        <v>1.2</v>
-      </c>
-      <c r="Z158">
+      <c r="AF158">
+        <v>4.5</v>
+      </c>
+      <c r="AG158">
+        <v>1.61</v>
+      </c>
+      <c r="AH158">
+        <v>2.2</v>
+      </c>
+      <c r="AI158">
+        <v>1.57</v>
+      </c>
+      <c r="AJ158">
         <v>2.25</v>
       </c>
-      <c r="AA158">
-        <v>4.07</v>
-      </c>
-      <c r="AB158">
-        <v>2.74</v>
-      </c>
-      <c r="AC158">
-        <v>0</v>
-      </c>
-      <c r="AD158">
-        <v>0</v>
-      </c>
-      <c r="AE158">
-        <v>1.09</v>
-      </c>
-      <c r="AF158">
-        <v>7.5</v>
-      </c>
-      <c r="AG158">
-        <v>1.36</v>
-      </c>
-      <c r="AH158">
-        <v>3.1</v>
-      </c>
-      <c r="AI158">
-        <v>1.33</v>
-      </c>
-      <c r="AJ158">
-        <v>3.25</v>
-      </c>
       <c r="AK158">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="AL158">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AM158">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AN158">
-        <v>0.29</v>
+        <v>1.38</v>
       </c>
       <c r="AO158">
         <v>1.43</v>
       </c>
       <c r="AP158">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ158">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AR158">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AS158">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
       <c r="AT158">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="AU158">
         <v>4</v>
@@ -33871,31 +33880,31 @@
         <v>4</v>
       </c>
       <c r="AX158">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY158">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ158">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA158">
+        <v>3</v>
+      </c>
+      <c r="BB158">
         <v>6</v>
-      </c>
-      <c r="BB158">
-        <v>3</v>
       </c>
       <c r="BC158">
         <v>9</v>
       </c>
       <c r="BD158">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="BE158">
         <v>6</v>
       </c>
       <c r="BF158">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="BG158">
         <v>0</v>
@@ -33904,28 +33913,28 @@
         <v>0</v>
       </c>
       <c r="BI158">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BJ158">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="BK158">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="BL158">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="BM158">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BN158">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="BO158">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="BP158">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33933,7 +33942,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7465566</v>
+        <v>7465565</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33948,43 +33957,43 @@
         <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H159" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159">
         <v>1</v>
       </c>
       <c r="L159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N159">
         <v>3</v>
       </c>
       <c r="O159" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="P159" t="s">
-        <v>313</v>
+        <v>93</v>
       </c>
       <c r="Q159">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R159">
         <v>2.5</v>
       </c>
       <c r="S159">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="T159">
         <v>1.29</v>
@@ -34005,13 +34014,13 @@
         <v>1.14</v>
       </c>
       <c r="Z159">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AA159">
-        <v>4.13</v>
+        <v>4.2</v>
       </c>
       <c r="AB159">
-        <v>4.38</v>
+        <v>4.8</v>
       </c>
       <c r="AC159">
         <v>1.01</v>
@@ -34026,112 +34035,112 @@
         <v>5</v>
       </c>
       <c r="AG159">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AH159">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AI159">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AJ159">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AK159">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AL159">
         <v>1.18</v>
       </c>
       <c r="AM159">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AN159">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AO159">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="AQ159">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="AR159">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS159">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AT159">
-        <v>3.1</v>
+        <v>3.29</v>
       </c>
       <c r="AU159">
+        <v>11</v>
+      </c>
+      <c r="AV159">
+        <v>2</v>
+      </c>
+      <c r="AW159">
+        <v>7</v>
+      </c>
+      <c r="AX159">
+        <v>5</v>
+      </c>
+      <c r="AY159">
+        <v>21</v>
+      </c>
+      <c r="AZ159">
+        <v>8</v>
+      </c>
+      <c r="BA159">
         <v>9</v>
       </c>
-      <c r="AV159">
-        <v>5</v>
-      </c>
-      <c r="AW159">
-        <v>9</v>
-      </c>
-      <c r="AX159">
-        <v>3</v>
-      </c>
-      <c r="AY159">
-        <v>25</v>
-      </c>
-      <c r="AZ159">
-        <v>9</v>
-      </c>
-      <c r="BA159">
-        <v>8</v>
-      </c>
       <c r="BB159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC159">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD159">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="BE159">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="BF159">
-        <v>5.05</v>
+        <v>3.7</v>
       </c>
       <c r="BG159">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH159">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BI159">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="BJ159">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BK159">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BL159">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="BM159">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="BN159">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="BO159">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="BP159">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -34139,7 +34148,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7465565</v>
+        <v>7465566</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34154,43 +34163,43 @@
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H160" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160">
         <v>1</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N160">
         <v>3</v>
       </c>
       <c r="O160" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>93</v>
+        <v>316</v>
       </c>
       <c r="Q160">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R160">
         <v>2.5</v>
       </c>
       <c r="S160">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="T160">
         <v>1.29</v>
@@ -34211,13 +34220,13 @@
         <v>1.14</v>
       </c>
       <c r="Z160">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AA160">
-        <v>4.2</v>
+        <v>4.13</v>
       </c>
       <c r="AB160">
-        <v>4.8</v>
+        <v>4.38</v>
       </c>
       <c r="AC160">
         <v>1.01</v>
@@ -34232,112 +34241,112 @@
         <v>5</v>
       </c>
       <c r="AG160">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AH160">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AI160">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AJ160">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AK160">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AL160">
         <v>1.18</v>
       </c>
       <c r="AM160">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AN160">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AO160">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AP160">
-        <v>1.89</v>
+        <v>1</v>
       </c>
       <c r="AQ160">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR160">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS160">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="AT160">
-        <v>3.29</v>
+        <v>3.1</v>
       </c>
       <c r="AU160">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW160">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX160">
+        <v>3</v>
+      </c>
+      <c r="AY160">
+        <v>25</v>
+      </c>
+      <c r="AZ160">
+        <v>9</v>
+      </c>
+      <c r="BA160">
+        <v>8</v>
+      </c>
+      <c r="BB160">
         <v>5</v>
       </c>
-      <c r="AY160">
-        <v>21</v>
-      </c>
-      <c r="AZ160">
-        <v>8</v>
-      </c>
-      <c r="BA160">
-        <v>9</v>
-      </c>
-      <c r="BB160">
-        <v>1</v>
-      </c>
       <c r="BC160">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD160">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="BE160">
-        <v>6.8</v>
+        <v>9.5</v>
       </c>
       <c r="BF160">
-        <v>3.7</v>
+        <v>5.05</v>
       </c>
       <c r="BG160">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH160">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BI160">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="BJ160">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BK160">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BL160">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="BM160">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="BN160">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="BO160">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="BP160">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34593,7 +34602,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -34671,7 +34680,7 @@
         <v>2.57</v>
       </c>
       <c r="AP162">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ162">
         <v>2.11</v>
@@ -35211,7 +35220,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q165">
         <v>2.8</v>
@@ -35417,7 +35426,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35623,7 +35632,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35829,7 +35838,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -36035,7 +36044,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>1.78</v>
@@ -36241,7 +36250,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36447,7 +36456,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36734,7 +36743,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ172">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR172">
         <v>1.65</v>
@@ -36859,7 +36868,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -36937,7 +36946,7 @@
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ173">
         <v>0.9</v>
@@ -37065,7 +37074,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37146,7 +37155,7 @@
         <v>2</v>
       </c>
       <c r="AQ174">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR174">
         <v>2</v>
@@ -37349,7 +37358,7 @@
         <v>1.25</v>
       </c>
       <c r="AP175">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ175">
         <v>1.3</v>
@@ -37683,7 +37692,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -37889,7 +37898,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38176,7 +38185,7 @@
         <v>1</v>
       </c>
       <c r="AQ179">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.58</v>
@@ -38301,7 +38310,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38507,7 +38516,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -38671,7 +38680,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7465600</v>
+        <v>7465599</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38686,25 +38695,25 @@
         <v>19</v>
       </c>
       <c r="G182" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H182" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N182">
         <v>3</v>
@@ -38713,151 +38722,151 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="Q182">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R182">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="S182">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="T182">
         <v>1.3</v>
       </c>
       <c r="U182">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V182">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="W182">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="X182">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="Y182">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z182">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="AA182">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AB182">
-        <v>2.55</v>
+        <v>4.33</v>
       </c>
       <c r="AC182">
         <v>1.02</v>
       </c>
       <c r="AD182">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE182">
+        <v>1.22</v>
+      </c>
+      <c r="AF182">
+        <v>4.2</v>
+      </c>
+      <c r="AG182">
+        <v>1.7</v>
+      </c>
+      <c r="AH182">
+        <v>2.1</v>
+      </c>
+      <c r="AI182">
+        <v>1.68</v>
+      </c>
+      <c r="AJ182">
+        <v>2.15</v>
+      </c>
+      <c r="AK182">
+        <v>1.22</v>
+      </c>
+      <c r="AL182">
         <v>1.2</v>
       </c>
-      <c r="AF182">
-        <v>4.5</v>
-      </c>
-      <c r="AG182">
-        <v>1.57</v>
-      </c>
-      <c r="AH182">
-        <v>2.35</v>
-      </c>
-      <c r="AI182">
-        <v>1.5</v>
-      </c>
-      <c r="AJ182">
-        <v>2.5</v>
-      </c>
-      <c r="AK182">
-        <v>1.5</v>
-      </c>
-      <c r="AL182">
-        <v>1.22</v>
-      </c>
       <c r="AM182">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AN182">
+        <v>1.38</v>
+      </c>
+      <c r="AO182">
+        <v>2</v>
+      </c>
+      <c r="AP182">
         <v>1.56</v>
       </c>
-      <c r="AO182">
-        <v>1</v>
-      </c>
-      <c r="AP182">
-        <v>1.7</v>
-      </c>
       <c r="AQ182">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="AR182">
-        <v>1.28</v>
+        <v>1.69</v>
       </c>
       <c r="AS182">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AT182">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="AU182">
         <v>6</v>
       </c>
       <c r="AV182">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX182">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY182">
         <v>12</v>
       </c>
       <c r="AZ182">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="BA182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB182">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BC182">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD182">
-        <v>1.75</v>
+        <v>1.32</v>
       </c>
       <c r="BE182">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="BF182">
-        <v>2.5</v>
+        <v>4.35</v>
       </c>
       <c r="BG182">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH182">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BI182">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BJ182">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="BK182">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="BL182">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="BM182">
         <v>1.92</v>
@@ -38866,10 +38875,10 @@
         <v>1.75</v>
       </c>
       <c r="BO182">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="BP182">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38877,7 +38886,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7465599</v>
+        <v>7465597</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38892,190 +38901,190 @@
         <v>19</v>
       </c>
       <c r="G183" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H183" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>93</v>
+      </c>
+      <c r="P183" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q183">
+        <v>2.38</v>
+      </c>
+      <c r="R183">
+        <v>2.5</v>
+      </c>
+      <c r="S183">
+        <v>3.75</v>
+      </c>
+      <c r="T183">
+        <v>1.25</v>
+      </c>
+      <c r="U183">
+        <v>3.75</v>
+      </c>
+      <c r="V183">
+        <v>2.1</v>
+      </c>
+      <c r="W183">
+        <v>1.67</v>
+      </c>
+      <c r="X183">
+        <v>5</v>
+      </c>
+      <c r="Y183">
+        <v>1.17</v>
+      </c>
+      <c r="Z183">
+        <v>1.83</v>
+      </c>
+      <c r="AA183">
+        <v>4.5</v>
+      </c>
+      <c r="AB183">
+        <v>3.4</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>17</v>
+      </c>
+      <c r="AE183">
+        <v>1.14</v>
+      </c>
+      <c r="AF183">
+        <v>5.5</v>
+      </c>
+      <c r="AG183">
+        <v>1.44</v>
+      </c>
+      <c r="AH183">
+        <v>2.7</v>
+      </c>
+      <c r="AI183">
+        <v>1.44</v>
+      </c>
+      <c r="AJ183">
+        <v>2.63</v>
+      </c>
+      <c r="AK183">
+        <v>1.28</v>
+      </c>
+      <c r="AL183">
+        <v>1.18</v>
+      </c>
+      <c r="AM183">
         <v>2</v>
       </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <v>2</v>
-      </c>
-      <c r="L183">
-        <v>3</v>
-      </c>
-      <c r="M183">
-        <v>0</v>
-      </c>
-      <c r="N183">
-        <v>3</v>
-      </c>
-      <c r="O183" t="s">
-        <v>216</v>
-      </c>
-      <c r="P183" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q183">
-        <v>2.3</v>
-      </c>
-      <c r="R183">
-        <v>2.35</v>
-      </c>
-      <c r="S183">
-        <v>4.5</v>
-      </c>
-      <c r="T183">
-        <v>1.3</v>
-      </c>
-      <c r="U183">
-        <v>3.2</v>
-      </c>
-      <c r="V183">
-        <v>2.45</v>
-      </c>
-      <c r="W183">
-        <v>1.49</v>
-      </c>
-      <c r="X183">
-        <v>5.95</v>
-      </c>
-      <c r="Y183">
-        <v>1.1</v>
-      </c>
-      <c r="Z183">
-        <v>1.75</v>
-      </c>
-      <c r="AA183">
-        <v>4</v>
-      </c>
-      <c r="AB183">
-        <v>4.33</v>
-      </c>
-      <c r="AC183">
-        <v>1.02</v>
-      </c>
-      <c r="AD183">
-        <v>15</v>
-      </c>
-      <c r="AE183">
-        <v>1.22</v>
-      </c>
-      <c r="AF183">
-        <v>4.2</v>
-      </c>
-      <c r="AG183">
-        <v>1.7</v>
-      </c>
-      <c r="AH183">
-        <v>2.1</v>
-      </c>
-      <c r="AI183">
-        <v>1.68</v>
-      </c>
-      <c r="AJ183">
-        <v>2.15</v>
-      </c>
-      <c r="AK183">
-        <v>1.22</v>
-      </c>
-      <c r="AL183">
-        <v>1.2</v>
-      </c>
-      <c r="AM183">
-        <v>2.1</v>
-      </c>
       <c r="AN183">
-        <v>1.38</v>
+        <v>2.13</v>
       </c>
       <c r="AO183">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AP183">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="AQ183">
         <v>1.6</v>
       </c>
       <c r="AR183">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="AS183">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AT183">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="AU183">
         <v>6</v>
       </c>
       <c r="AV183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW183">
+        <v>11</v>
+      </c>
+      <c r="AX183">
+        <v>4</v>
+      </c>
+      <c r="AY183">
+        <v>22</v>
+      </c>
+      <c r="AZ183">
+        <v>10</v>
+      </c>
+      <c r="BA183">
         <v>5</v>
       </c>
-      <c r="AX183">
-        <v>2</v>
-      </c>
-      <c r="AY183">
-        <v>12</v>
-      </c>
-      <c r="AZ183">
-        <v>7</v>
-      </c>
-      <c r="BA183">
-        <v>3</v>
-      </c>
       <c r="BB183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC183">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD183">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BE183">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF183">
-        <v>4.35</v>
+        <v>3.6</v>
       </c>
       <c r="BG183">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="BH183">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="BI183">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="BJ183">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="BK183">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BL183">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="BM183">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="BN183">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="BO183">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="BP183">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -39083,7 +39092,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7465597</v>
+        <v>7465596</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -39098,190 +39107,190 @@
         <v>19</v>
       </c>
       <c r="G184" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H184" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184">
         <v>1</v>
       </c>
       <c r="L184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184">
         <v>1</v>
       </c>
       <c r="N184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O184" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>168</v>
+        <v>327</v>
       </c>
       <c r="Q184">
-        <v>2.38</v>
+        <v>3.65</v>
       </c>
       <c r="R184">
+        <v>2.25</v>
+      </c>
+      <c r="S184">
         <v>2.5</v>
       </c>
-      <c r="S184">
-        <v>3.75</v>
-      </c>
       <c r="T184">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U184">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V184">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="W184">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="X184">
         <v>5</v>
       </c>
       <c r="Y184">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="Z184">
-        <v>1.83</v>
+        <v>3.45</v>
       </c>
       <c r="AA184">
+        <v>3.65</v>
+      </c>
+      <c r="AB184">
+        <v>1.95</v>
+      </c>
+      <c r="AC184">
+        <v>1.04</v>
+      </c>
+      <c r="AD184">
+        <v>10</v>
+      </c>
+      <c r="AE184">
+        <v>1.2</v>
+      </c>
+      <c r="AF184">
         <v>4.5</v>
       </c>
-      <c r="AB184">
-        <v>3.4</v>
-      </c>
-      <c r="AC184">
-        <v>1.01</v>
-      </c>
-      <c r="AD184">
-        <v>17</v>
-      </c>
-      <c r="AE184">
-        <v>1.14</v>
-      </c>
-      <c r="AF184">
-        <v>5.5</v>
-      </c>
       <c r="AG184">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AH184">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="AI184">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AJ184">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="AK184">
-        <v>1.28</v>
+        <v>1.8</v>
       </c>
       <c r="AL184">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AM184">
+        <v>1.3</v>
+      </c>
+      <c r="AN184">
+        <v>0.89</v>
+      </c>
+      <c r="AO184">
+        <v>2.25</v>
+      </c>
+      <c r="AP184">
+        <v>0.9</v>
+      </c>
+      <c r="AQ184">
+        <v>2.11</v>
+      </c>
+      <c r="AR184">
+        <v>1.84</v>
+      </c>
+      <c r="AS184">
+        <v>1.69</v>
+      </c>
+      <c r="AT184">
+        <v>3.53</v>
+      </c>
+      <c r="AU184">
+        <v>5</v>
+      </c>
+      <c r="AV184">
+        <v>7</v>
+      </c>
+      <c r="AW184">
+        <v>5</v>
+      </c>
+      <c r="AX184">
+        <v>10</v>
+      </c>
+      <c r="AY184">
+        <v>13</v>
+      </c>
+      <c r="AZ184">
+        <v>25</v>
+      </c>
+      <c r="BA184">
+        <v>3</v>
+      </c>
+      <c r="BB184">
+        <v>16</v>
+      </c>
+      <c r="BC184">
+        <v>19</v>
+      </c>
+      <c r="BD184">
+        <v>2.18</v>
+      </c>
+      <c r="BE184">
+        <v>5.95</v>
+      </c>
+      <c r="BF184">
         <v>2</v>
       </c>
-      <c r="AN184">
-        <v>2.13</v>
-      </c>
-      <c r="AO184">
-        <v>1.44</v>
-      </c>
-      <c r="AP184">
-        <v>1.89</v>
-      </c>
-      <c r="AQ184">
-        <v>1.6</v>
-      </c>
-      <c r="AR184">
-        <v>1.89</v>
-      </c>
-      <c r="AS184">
-        <v>1.42</v>
-      </c>
-      <c r="AT184">
-        <v>3.31</v>
-      </c>
-      <c r="AU184">
-        <v>6</v>
-      </c>
-      <c r="AV184">
-        <v>3</v>
-      </c>
-      <c r="AW184">
-        <v>11</v>
-      </c>
-      <c r="AX184">
-        <v>4</v>
-      </c>
-      <c r="AY184">
-        <v>22</v>
-      </c>
-      <c r="AZ184">
-        <v>10</v>
-      </c>
-      <c r="BA184">
-        <v>5</v>
-      </c>
-      <c r="BB184">
-        <v>4</v>
-      </c>
-      <c r="BC184">
-        <v>9</v>
-      </c>
-      <c r="BD184">
-        <v>1.37</v>
-      </c>
-      <c r="BE184">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF184">
-        <v>3.6</v>
-      </c>
       <c r="BG184">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="BH184">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="BI184">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="BJ184">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="BK184">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="BL184">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="BM184">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="BN184">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="BO184">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="BP184">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="185" spans="1:68">
@@ -39289,7 +39298,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>7465596</v>
+        <v>7465595</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39304,76 +39313,76 @@
         <v>19</v>
       </c>
       <c r="G185" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H185" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L185">
         <v>1</v>
       </c>
       <c r="M185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O185" t="s">
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q185">
-        <v>3.65</v>
+        <v>2.4</v>
       </c>
       <c r="R185">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S185">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="T185">
         <v>1.3</v>
       </c>
       <c r="U185">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V185">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="W185">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X185">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y185">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="Z185">
-        <v>3.45</v>
+        <v>1.85</v>
       </c>
       <c r="AA185">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="AB185">
-        <v>1.95</v>
+        <v>3.7</v>
       </c>
       <c r="AC185">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD185">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE185">
         <v>1.2</v>
@@ -39382,112 +39391,112 @@
         <v>4.5</v>
       </c>
       <c r="AG185">
+        <v>1.6</v>
+      </c>
+      <c r="AH185">
+        <v>2.3</v>
+      </c>
+      <c r="AI185">
         <v>1.57</v>
       </c>
-      <c r="AH185">
-        <v>2.35</v>
-      </c>
-      <c r="AI185">
-        <v>1.48</v>
-      </c>
       <c r="AJ185">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AK185">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AL185">
         <v>1.22</v>
       </c>
       <c r="AM185">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AN185">
-        <v>0.89</v>
+        <v>1.13</v>
       </c>
       <c r="AO185">
-        <v>2.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP185">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ185">
-        <v>2.11</v>
+        <v>1.11</v>
       </c>
       <c r="AR185">
-        <v>1.84</v>
+        <v>1.43</v>
       </c>
       <c r="AS185">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="AT185">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="AU185">
         <v>5</v>
       </c>
       <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>4</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>14</v>
+      </c>
+      <c r="AZ185">
         <v>7</v>
       </c>
-      <c r="AW185">
-        <v>5</v>
-      </c>
-      <c r="AX185">
-        <v>10</v>
-      </c>
-      <c r="AY185">
-        <v>13</v>
-      </c>
-      <c r="AZ185">
-        <v>25</v>
-      </c>
       <c r="BA185">
+        <v>6</v>
+      </c>
+      <c r="BB185">
         <v>3</v>
       </c>
-      <c r="BB185">
-        <v>16</v>
-      </c>
       <c r="BC185">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="BD185">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="BE185">
-        <v>5.95</v>
+        <v>7.3</v>
       </c>
       <c r="BF185">
+        <v>2.85</v>
+      </c>
+      <c r="BG185">
+        <v>1.2</v>
+      </c>
+      <c r="BH185">
+        <v>4</v>
+      </c>
+      <c r="BI185">
+        <v>1.4</v>
+      </c>
+      <c r="BJ185">
+        <v>2.72</v>
+      </c>
+      <c r="BK185">
+        <v>1.7</v>
+      </c>
+      <c r="BL185">
         <v>2</v>
       </c>
-      <c r="BG185">
-        <v>1.16</v>
-      </c>
-      <c r="BH185">
-        <v>4.5</v>
-      </c>
-      <c r="BI185">
-        <v>1.35</v>
-      </c>
-      <c r="BJ185">
-        <v>2.9</v>
-      </c>
-      <c r="BK185">
-        <v>1.62</v>
-      </c>
-      <c r="BL185">
-        <v>2.12</v>
-      </c>
       <c r="BM185">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="BN185">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BO185">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="BP185">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39537,7 +39546,7 @@
         <v>93</v>
       </c>
       <c r="P186" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39701,7 +39710,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7465594</v>
+        <v>7465593</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39713,193 +39722,193 @@
         <v>45639.66666666666</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G187" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H187" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187" t="s">
+        <v>93</v>
+      </c>
+      <c r="P187" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q187">
+        <v>2.4</v>
+      </c>
+      <c r="R187">
+        <v>2.45</v>
+      </c>
+      <c r="S187">
+        <v>3.4</v>
+      </c>
+      <c r="T187">
+        <v>1.2</v>
+      </c>
+      <c r="U187">
+        <v>4</v>
+      </c>
+      <c r="V187">
+        <v>1.95</v>
+      </c>
+      <c r="W187">
+        <v>1.77</v>
+      </c>
+      <c r="X187">
+        <v>4</v>
+      </c>
+      <c r="Y187">
+        <v>1.22</v>
+      </c>
+      <c r="Z187">
         <v>2</v>
       </c>
-      <c r="L187">
-        <v>1</v>
-      </c>
-      <c r="M187">
-        <v>1</v>
-      </c>
-      <c r="N187">
+      <c r="AA187">
+        <v>3.95</v>
+      </c>
+      <c r="AB187">
+        <v>3.2</v>
+      </c>
+      <c r="AC187">
+        <v>0</v>
+      </c>
+      <c r="AD187">
+        <v>0</v>
+      </c>
+      <c r="AE187">
+        <v>1.11</v>
+      </c>
+      <c r="AF187">
+        <v>6.25</v>
+      </c>
+      <c r="AG187">
+        <v>1.36</v>
+      </c>
+      <c r="AH187">
+        <v>3.1</v>
+      </c>
+      <c r="AI187">
+        <v>1.33</v>
+      </c>
+      <c r="AJ187">
+        <v>3</v>
+      </c>
+      <c r="AK187">
+        <v>1.33</v>
+      </c>
+      <c r="AL187">
+        <v>1.2</v>
+      </c>
+      <c r="AM187">
+        <v>1.77</v>
+      </c>
+      <c r="AN187">
+        <v>2.63</v>
+      </c>
+      <c r="AO187">
+        <v>1.67</v>
+      </c>
+      <c r="AP187">
+        <v>2.44</v>
+      </c>
+      <c r="AQ187">
+        <v>1.6</v>
+      </c>
+      <c r="AR187">
+        <v>1.79</v>
+      </c>
+      <c r="AS187">
+        <v>1.63</v>
+      </c>
+      <c r="AT187">
+        <v>3.42</v>
+      </c>
+      <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
         <v>2</v>
       </c>
-      <c r="O187" t="s">
-        <v>168</v>
-      </c>
-      <c r="P187" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q187">
-        <v>2.1</v>
-      </c>
-      <c r="R187">
-        <v>2.5</v>
-      </c>
-      <c r="S187">
-        <v>4.75</v>
-      </c>
-      <c r="T187">
-        <v>1.25</v>
-      </c>
-      <c r="U187">
-        <v>3.75</v>
-      </c>
-      <c r="V187">
-        <v>2.25</v>
-      </c>
-      <c r="W187">
-        <v>1.57</v>
-      </c>
-      <c r="X187">
-        <v>5.5</v>
-      </c>
-      <c r="Y187">
-        <v>1.14</v>
-      </c>
-      <c r="Z187">
-        <v>1.62</v>
-      </c>
-      <c r="AA187">
-        <v>4.5</v>
-      </c>
-      <c r="AB187">
-        <v>4.75</v>
-      </c>
-      <c r="AC187">
-        <v>1.02</v>
-      </c>
-      <c r="AD187">
-        <v>19</v>
-      </c>
-      <c r="AE187">
-        <v>1.16</v>
-      </c>
-      <c r="AF187">
+      <c r="AW187">
+        <v>7</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>16</v>
+      </c>
+      <c r="AZ187">
+        <v>6</v>
+      </c>
+      <c r="BA187">
         <v>5</v>
       </c>
-      <c r="AG187">
+      <c r="BB187">
+        <v>7</v>
+      </c>
+      <c r="BC187">
+        <v>12</v>
+      </c>
+      <c r="BD187">
         <v>1.5</v>
       </c>
-      <c r="AH187">
-        <v>2.5</v>
-      </c>
-      <c r="AI187">
-        <v>1.57</v>
-      </c>
-      <c r="AJ187">
-        <v>2.25</v>
-      </c>
-      <c r="AK187">
-        <v>1.2</v>
-      </c>
-      <c r="AL187">
-        <v>1.17</v>
-      </c>
-      <c r="AM187">
-        <v>2.25</v>
-      </c>
-      <c r="AN187">
-        <v>1.67</v>
-      </c>
-      <c r="AO187">
-        <v>1.33</v>
-      </c>
-      <c r="AP187">
-        <v>1.6</v>
-      </c>
-      <c r="AQ187">
-        <v>1.3</v>
-      </c>
-      <c r="AR187">
-        <v>1.73</v>
-      </c>
-      <c r="AS187">
-        <v>1.31</v>
-      </c>
-      <c r="AT187">
-        <v>3.04</v>
-      </c>
-      <c r="AU187">
-        <v>8</v>
-      </c>
-      <c r="AV187">
-        <v>6</v>
-      </c>
-      <c r="AW187">
-        <v>5</v>
-      </c>
-      <c r="AX187">
+      <c r="BE187">
+        <v>6.4</v>
+      </c>
+      <c r="BF187">
+        <v>3.25</v>
+      </c>
+      <c r="BG187">
+        <v>1.18</v>
+      </c>
+      <c r="BH187">
+        <v>4.1</v>
+      </c>
+      <c r="BI187">
+        <v>1.32</v>
+      </c>
+      <c r="BJ187">
+        <v>3</v>
+      </c>
+      <c r="BK187">
+        <v>1.58</v>
+      </c>
+      <c r="BL187">
+        <v>2.2</v>
+      </c>
+      <c r="BM187">
         <v>2</v>
       </c>
-      <c r="AY187">
-        <v>18</v>
-      </c>
-      <c r="AZ187">
-        <v>11</v>
-      </c>
-      <c r="BA187">
-        <v>9</v>
-      </c>
-      <c r="BB187">
-        <v>1</v>
-      </c>
-      <c r="BC187">
-        <v>10</v>
-      </c>
-      <c r="BD187">
-        <v>1.2</v>
-      </c>
-      <c r="BE187">
-        <v>9.6</v>
-      </c>
-      <c r="BF187">
-        <v>5.15</v>
-      </c>
-      <c r="BG187">
-        <v>1.2</v>
-      </c>
-      <c r="BH187">
-        <v>3.95</v>
-      </c>
-      <c r="BI187">
-        <v>1.25</v>
-      </c>
-      <c r="BJ187">
-        <v>3.45</v>
-      </c>
-      <c r="BK187">
-        <v>1.5</v>
-      </c>
-      <c r="BL187">
-        <v>2.4</v>
-      </c>
-      <c r="BM187">
-        <v>1.85</v>
-      </c>
       <c r="BN187">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="BO187">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="BP187">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39907,7 +39916,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7465593</v>
+        <v>7465590</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39922,82 +39931,82 @@
         <v>19</v>
       </c>
       <c r="G188" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H188" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M188">
         <v>0</v>
       </c>
       <c r="N188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O188" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="P188" t="s">
         <v>93</v>
       </c>
       <c r="Q188">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="R188">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="S188">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="T188">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U188">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="W188">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="X188">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="Y188">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="Z188">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="AA188">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="AB188">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="AC188">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD188">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE188">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF188">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="AG188">
         <v>1.36</v>
@@ -40006,55 +40015,55 @@
         <v>3.1</v>
       </c>
       <c r="AI188">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="AJ188">
+        <v>2.5</v>
+      </c>
+      <c r="AK188">
+        <v>1.1</v>
+      </c>
+      <c r="AL188">
+        <v>1.12</v>
+      </c>
+      <c r="AM188">
         <v>3</v>
       </c>
-      <c r="AK188">
-        <v>1.33</v>
-      </c>
-      <c r="AL188">
-        <v>1.2</v>
-      </c>
-      <c r="AM188">
-        <v>1.77</v>
-      </c>
       <c r="AN188">
-        <v>2.63</v>
+        <v>1.67</v>
       </c>
       <c r="AO188">
-        <v>1.67</v>
+        <v>0.78</v>
       </c>
       <c r="AP188">
-        <v>2.44</v>
+        <v>1.91</v>
       </c>
       <c r="AQ188">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="AR188">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AS188">
-        <v>1.63</v>
+        <v>1.21</v>
       </c>
       <c r="AT188">
-        <v>3.42</v>
+        <v>2.89</v>
       </c>
       <c r="AU188">
+        <v>9</v>
+      </c>
+      <c r="AV188">
         <v>4</v>
       </c>
-      <c r="AV188">
-        <v>2</v>
-      </c>
       <c r="AW188">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY188">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ188">
         <v>6</v>
@@ -40063,49 +40072,49 @@
         <v>5</v>
       </c>
       <c r="BB188">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC188">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD188">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="BE188">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="BF188">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="BG188">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH188">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="BI188">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BJ188">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="BK188">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BL188">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BM188">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BN188">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BO188">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="BP188">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40113,7 +40122,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7465590</v>
+        <v>7465600</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40128,190 +40137,190 @@
         <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H189" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189">
         <v>2</v>
       </c>
       <c r="M189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O189" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="Q189">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="R189">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="S189">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T189">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="U189">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="V189">
-        <v>1.94</v>
+        <v>2.38</v>
       </c>
       <c r="W189">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="X189">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="Y189">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="Z189">
-        <v>1.42</v>
+        <v>2.45</v>
       </c>
       <c r="AA189">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="AB189">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="AC189">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD189">
         <v>17</v>
       </c>
       <c r="AE189">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AF189">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AG189">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AH189">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="AI189">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AJ189">
         <v>2.5</v>
       </c>
       <c r="AK189">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AL189">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AM189">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="AN189">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AO189">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AQ189">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AR189">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="AS189">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AT189">
-        <v>2.89</v>
+        <v>2.65</v>
       </c>
       <c r="AU189">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV189">
+        <v>8</v>
+      </c>
+      <c r="AW189">
         <v>4</v>
       </c>
-      <c r="AW189">
-        <v>10</v>
-      </c>
       <c r="AX189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY189">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AZ189">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="BA189">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB189">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC189">
         <v>10</v>
       </c>
       <c r="BD189">
-        <v>1.27</v>
+        <v>1.75</v>
       </c>
       <c r="BE189">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF189">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="BG189">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH189">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="BI189">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="BJ189">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="BK189">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="BL189">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="BM189">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="BN189">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="BO189">
-        <v>2.92</v>
+        <v>2.55</v>
       </c>
       <c r="BP189">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40319,7 +40328,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7467159</v>
+        <v>7465594</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40331,193 +40340,193 @@
         <v>45639.66666666666</v>
       </c>
       <c r="F190">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H190" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
         <v>2</v>
       </c>
-      <c r="M190">
-        <v>1</v>
-      </c>
-      <c r="N190">
-        <v>3</v>
-      </c>
       <c r="O190" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="P190" t="s">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="Q190">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R190">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S190">
+        <v>4.75</v>
+      </c>
+      <c r="T190">
+        <v>1.25</v>
+      </c>
+      <c r="U190">
+        <v>3.75</v>
+      </c>
+      <c r="V190">
+        <v>2.25</v>
+      </c>
+      <c r="W190">
+        <v>1.57</v>
+      </c>
+      <c r="X190">
+        <v>5.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.14</v>
+      </c>
+      <c r="Z190">
+        <v>1.62</v>
+      </c>
+      <c r="AA190">
         <v>4.5</v>
       </c>
-      <c r="T190">
-        <v>1.3</v>
-      </c>
-      <c r="U190">
-        <v>3.4</v>
-      </c>
-      <c r="V190">
-        <v>2.5</v>
-      </c>
-      <c r="W190">
-        <v>1.5</v>
-      </c>
-      <c r="X190">
-        <v>6</v>
-      </c>
-      <c r="Y190">
-        <v>1.13</v>
-      </c>
-      <c r="Z190">
-        <v>1.73</v>
-      </c>
-      <c r="AA190">
-        <v>4.1</v>
-      </c>
       <c r="AB190">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AC190">
         <v>1.02</v>
       </c>
       <c r="AD190">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE190">
+        <v>1.16</v>
+      </c>
+      <c r="AF190">
+        <v>5</v>
+      </c>
+      <c r="AG190">
+        <v>1.5</v>
+      </c>
+      <c r="AH190">
+        <v>2.5</v>
+      </c>
+      <c r="AI190">
+        <v>1.57</v>
+      </c>
+      <c r="AJ190">
+        <v>2.25</v>
+      </c>
+      <c r="AK190">
         <v>1.2</v>
       </c>
-      <c r="AF190">
-        <v>4.33</v>
-      </c>
-      <c r="AG190">
-        <v>1.65</v>
-      </c>
-      <c r="AH190">
-        <v>2.2</v>
-      </c>
-      <c r="AI190">
+      <c r="AL190">
+        <v>1.17</v>
+      </c>
+      <c r="AM190">
+        <v>2.25</v>
+      </c>
+      <c r="AN190">
         <v>1.67</v>
       </c>
-      <c r="AJ190">
-        <v>2.1</v>
-      </c>
-      <c r="AK190">
-        <v>1.22</v>
-      </c>
-      <c r="AL190">
-        <v>1.2</v>
-      </c>
-      <c r="AM190">
-        <v>2.05</v>
-      </c>
-      <c r="AN190">
-        <v>0.78</v>
-      </c>
       <c r="AO190">
-        <v>0.63</v>
+        <v>1.33</v>
       </c>
       <c r="AP190">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AQ190">
-        <v>0.5600000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="AR190">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AS190">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AT190">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="AU190">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV190">
         <v>6</v>
       </c>
       <c r="AW190">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX190">
         <v>2</v>
       </c>
       <c r="AY190">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ190">
         <v>11</v>
       </c>
       <c r="BA190">
+        <v>9</v>
+      </c>
+      <c r="BB190">
+        <v>1</v>
+      </c>
+      <c r="BC190">
         <v>10</v>
       </c>
-      <c r="BB190">
-        <v>2</v>
-      </c>
-      <c r="BC190">
-        <v>12</v>
-      </c>
       <c r="BD190">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="BE190">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="BF190">
-        <v>2.65</v>
+        <v>5.15</v>
       </c>
       <c r="BG190">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BH190">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="BI190">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="BJ190">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="BK190">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BL190">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BM190">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="BN190">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="BO190">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="BP190">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40525,7 +40534,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7465595</v>
+        <v>7467159</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40540,43 +40549,43 @@
         <v>19</v>
       </c>
       <c r="G191" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H191" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
         <v>2</v>
       </c>
-      <c r="L191">
-        <v>1</v>
-      </c>
       <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
         <v>3</v>
-      </c>
-      <c r="N191">
-        <v>4</v>
       </c>
       <c r="O191" t="s">
         <v>220</v>
       </c>
       <c r="P191" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q191">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R191">
         <v>2.38</v>
       </c>
       <c r="S191">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T191">
         <v>1.3</v>
@@ -40585,10 +40594,10 @@
         <v>3.4</v>
       </c>
       <c r="V191">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W191">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X191">
         <v>6</v>
@@ -40597,13 +40606,13 @@
         <v>1.13</v>
       </c>
       <c r="Z191">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AA191">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AB191">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AC191">
         <v>1.02</v>
@@ -40615,115 +40624,115 @@
         <v>1.2</v>
       </c>
       <c r="AF191">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG191">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AH191">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AI191">
+        <v>1.67</v>
+      </c>
+      <c r="AJ191">
+        <v>2.1</v>
+      </c>
+      <c r="AK191">
+        <v>1.22</v>
+      </c>
+      <c r="AL191">
+        <v>1.2</v>
+      </c>
+      <c r="AM191">
+        <v>2.05</v>
+      </c>
+      <c r="AN191">
+        <v>0.78</v>
+      </c>
+      <c r="AO191">
+        <v>0.63</v>
+      </c>
+      <c r="AP191">
+        <v>1</v>
+      </c>
+      <c r="AQ191">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR191">
+        <v>1.68</v>
+      </c>
+      <c r="AS191">
+        <v>1.22</v>
+      </c>
+      <c r="AT191">
+        <v>2.9</v>
+      </c>
+      <c r="AU191">
+        <v>4</v>
+      </c>
+      <c r="AV191">
+        <v>6</v>
+      </c>
+      <c r="AW191">
+        <v>8</v>
+      </c>
+      <c r="AX191">
+        <v>2</v>
+      </c>
+      <c r="AY191">
+        <v>20</v>
+      </c>
+      <c r="AZ191">
+        <v>11</v>
+      </c>
+      <c r="BA191">
+        <v>10</v>
+      </c>
+      <c r="BB191">
+        <v>2</v>
+      </c>
+      <c r="BC191">
+        <v>12</v>
+      </c>
+      <c r="BD191">
         <v>1.57</v>
       </c>
-      <c r="AJ191">
-        <v>2.25</v>
-      </c>
-      <c r="AK191">
-        <v>1.3</v>
-      </c>
-      <c r="AL191">
-        <v>1.22</v>
-      </c>
-      <c r="AM191">
-        <v>1.9</v>
-      </c>
-      <c r="AN191">
-        <v>1.13</v>
-      </c>
-      <c r="AO191">
-        <v>0.88</v>
-      </c>
-      <c r="AP191">
-        <v>1</v>
-      </c>
-      <c r="AQ191">
-        <v>1.11</v>
-      </c>
-      <c r="AR191">
-        <v>1.43</v>
-      </c>
-      <c r="AS191">
+      <c r="BE191">
+        <v>7</v>
+      </c>
+      <c r="BF191">
+        <v>2.65</v>
+      </c>
+      <c r="BG191">
+        <v>1.21</v>
+      </c>
+      <c r="BH191">
+        <v>3.8</v>
+      </c>
+      <c r="BI191">
         <v>1.37</v>
       </c>
-      <c r="AT191">
+      <c r="BJ191">
         <v>2.8</v>
       </c>
-      <c r="AU191">
-        <v>5</v>
-      </c>
-      <c r="AV191">
-        <v>4</v>
-      </c>
-      <c r="AW191">
-        <v>4</v>
-      </c>
-      <c r="AX191">
-        <v>0</v>
-      </c>
-      <c r="AY191">
-        <v>14</v>
-      </c>
-      <c r="AZ191">
-        <v>7</v>
-      </c>
-      <c r="BA191">
-        <v>6</v>
-      </c>
-      <c r="BB191">
-        <v>3</v>
-      </c>
-      <c r="BC191">
-        <v>9</v>
-      </c>
-      <c r="BD191">
-        <v>1.55</v>
-      </c>
-      <c r="BE191">
-        <v>7.3</v>
-      </c>
-      <c r="BF191">
-        <v>2.85</v>
-      </c>
-      <c r="BG191">
-        <v>1.2</v>
-      </c>
-      <c r="BH191">
-        <v>4</v>
-      </c>
-      <c r="BI191">
-        <v>1.4</v>
-      </c>
-      <c r="BJ191">
-        <v>2.72</v>
-      </c>
       <c r="BK191">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="BL191">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BM191">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="BN191">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="BO191">
-        <v>2.98</v>
+        <v>2.43</v>
       </c>
       <c r="BP191">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40731,7 +40740,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7465611</v>
+        <v>7465610</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40740,139 +40749,139 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45645.875</v>
+        <v>45646.66666666666</v>
       </c>
       <c r="F192">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H192" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
         <v>3</v>
       </c>
-      <c r="J192">
-        <v>1</v>
-      </c>
-      <c r="K192">
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
         <v>4</v>
-      </c>
-      <c r="L192">
-        <v>6</v>
-      </c>
-      <c r="M192">
-        <v>4</v>
-      </c>
-      <c r="N192">
-        <v>10</v>
       </c>
       <c r="O192" t="s">
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q192">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R192">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S192">
         <v>2.88</v>
       </c>
       <c r="T192">
+        <v>1.33</v>
+      </c>
+      <c r="U192">
+        <v>3.25</v>
+      </c>
+      <c r="V192">
+        <v>2.63</v>
+      </c>
+      <c r="W192">
+        <v>1.44</v>
+      </c>
+      <c r="X192">
+        <v>7</v>
+      </c>
+      <c r="Y192">
+        <v>1.1</v>
+      </c>
+      <c r="Z192">
+        <v>3</v>
+      </c>
+      <c r="AA192">
+        <v>3.46</v>
+      </c>
+      <c r="AB192">
+        <v>2.31</v>
+      </c>
+      <c r="AC192">
+        <v>1.03</v>
+      </c>
+      <c r="AD192">
+        <v>13</v>
+      </c>
+      <c r="AE192">
+        <v>1.22</v>
+      </c>
+      <c r="AF192">
+        <v>4</v>
+      </c>
+      <c r="AG192">
+        <v>1.75</v>
+      </c>
+      <c r="AH192">
+        <v>2.05</v>
+      </c>
+      <c r="AI192">
+        <v>1.62</v>
+      </c>
+      <c r="AJ192">
+        <v>2.2</v>
+      </c>
+      <c r="AK192">
+        <v>1.62</v>
+      </c>
+      <c r="AL192">
         <v>1.25</v>
       </c>
-      <c r="U192">
-        <v>3.75</v>
-      </c>
-      <c r="V192">
-        <v>2.1</v>
-      </c>
-      <c r="W192">
-        <v>1.67</v>
-      </c>
-      <c r="X192">
-        <v>4.5</v>
-      </c>
-      <c r="Y192">
-        <v>1.18</v>
-      </c>
-      <c r="Z192">
-        <v>2.55</v>
-      </c>
-      <c r="AA192">
-        <v>3.83</v>
-      </c>
-      <c r="AB192">
-        <v>2.48</v>
-      </c>
-      <c r="AC192">
-        <v>1.01</v>
-      </c>
-      <c r="AD192">
-        <v>17</v>
-      </c>
-      <c r="AE192">
-        <v>1.12</v>
-      </c>
-      <c r="AF192">
-        <v>6</v>
-      </c>
-      <c r="AG192">
-        <v>1.44</v>
-      </c>
-      <c r="AH192">
-        <v>2.7</v>
-      </c>
-      <c r="AI192">
+      <c r="AM192">
         <v>1.4</v>
       </c>
-      <c r="AJ192">
-        <v>2.75</v>
-      </c>
-      <c r="AK192">
-        <v>1.57</v>
-      </c>
-      <c r="AL192">
-        <v>1.2</v>
-      </c>
-      <c r="AM192">
-        <v>1.52</v>
-      </c>
       <c r="AN192">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AO192">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AP192">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ192">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="AR192">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AS192">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT192">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="AU192">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV192">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW192">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX192">
         <v>5</v>
@@ -40881,55 +40890,55 @@
         <v>16</v>
       </c>
       <c r="AZ192">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB192">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BC192">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD192">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BE192">
         <v>6.4</v>
       </c>
       <c r="BF192">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="BG192">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="BH192">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BI192">
+        <v>1.58</v>
+      </c>
+      <c r="BJ192">
+        <v>2.18</v>
+      </c>
+      <c r="BK192">
+        <v>1.97</v>
+      </c>
+      <c r="BL192">
+        <v>1.74</v>
+      </c>
+      <c r="BM192">
+        <v>2.48</v>
+      </c>
+      <c r="BN192">
         <v>1.47</v>
       </c>
-      <c r="BJ192">
-        <v>2.48</v>
-      </c>
-      <c r="BK192">
-        <v>1.76</v>
-      </c>
-      <c r="BL192">
-        <v>1.94</v>
-      </c>
-      <c r="BM192">
-        <v>2.18</v>
-      </c>
-      <c r="BN192">
-        <v>1.58</v>
-      </c>
       <c r="BO192">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP192">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -40937,7 +40946,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7465610</v>
+        <v>7465611</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40949,193 +40958,193 @@
         <v>45646.66666666666</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G193" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H193" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193">
         <v>1</v>
       </c>
       <c r="K193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N193">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O193" t="s">
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q193">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R193">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S193">
         <v>2.88</v>
       </c>
       <c r="T193">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U193">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V193">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W193">
+        <v>1.67</v>
+      </c>
+      <c r="X193">
+        <v>4.5</v>
+      </c>
+      <c r="Y193">
+        <v>1.18</v>
+      </c>
+      <c r="Z193">
+        <v>2.55</v>
+      </c>
+      <c r="AA193">
+        <v>3.83</v>
+      </c>
+      <c r="AB193">
+        <v>2.48</v>
+      </c>
+      <c r="AC193">
+        <v>1.01</v>
+      </c>
+      <c r="AD193">
+        <v>17</v>
+      </c>
+      <c r="AE193">
+        <v>1.12</v>
+      </c>
+      <c r="AF193">
+        <v>6</v>
+      </c>
+      <c r="AG193">
         <v>1.44</v>
       </c>
-      <c r="X193">
-        <v>7</v>
-      </c>
-      <c r="Y193">
-        <v>1.1</v>
-      </c>
-      <c r="Z193">
-        <v>3</v>
-      </c>
-      <c r="AA193">
-        <v>3.46</v>
-      </c>
-      <c r="AB193">
-        <v>2.31</v>
-      </c>
-      <c r="AC193">
-        <v>1.03</v>
-      </c>
-      <c r="AD193">
-        <v>13</v>
-      </c>
-      <c r="AE193">
-        <v>1.22</v>
-      </c>
-      <c r="AF193">
-        <v>4</v>
-      </c>
-      <c r="AG193">
-        <v>1.75</v>
-      </c>
       <c r="AH193">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="AI193">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AJ193">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AK193">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AL193">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM193">
+        <v>1.52</v>
+      </c>
+      <c r="AN193">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO193">
+        <v>1</v>
+      </c>
+      <c r="AP193">
+        <v>0.8</v>
+      </c>
+      <c r="AQ193">
+        <v>0.9</v>
+      </c>
+      <c r="AR193">
+        <v>1.56</v>
+      </c>
+      <c r="AS193">
         <v>1.4</v>
       </c>
-      <c r="AN193">
-        <v>0.5</v>
-      </c>
-      <c r="AO193">
-        <v>1.78</v>
-      </c>
-      <c r="AP193">
-        <v>0.73</v>
-      </c>
-      <c r="AQ193">
-        <v>1.6</v>
-      </c>
-      <c r="AR193">
-        <v>1.35</v>
-      </c>
-      <c r="AS193">
-        <v>1.31</v>
-      </c>
       <c r="AT193">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="AU193">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV193">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW193">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX193">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY193">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="AZ193">
+        <v>-1</v>
+      </c>
+      <c r="BA193">
+        <v>2</v>
+      </c>
+      <c r="BB193">
         <v>12</v>
       </c>
-      <c r="BA193">
-        <v>3</v>
-      </c>
-      <c r="BB193">
-        <v>7</v>
-      </c>
       <c r="BC193">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD193">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BE193">
         <v>6.4</v>
       </c>
       <c r="BF193">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="BG193">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="BH193">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI193">
+        <v>1.47</v>
+      </c>
+      <c r="BJ193">
+        <v>2.48</v>
+      </c>
+      <c r="BK193">
+        <v>1.76</v>
+      </c>
+      <c r="BL193">
+        <v>1.94</v>
+      </c>
+      <c r="BM193">
+        <v>2.18</v>
+      </c>
+      <c r="BN193">
         <v>1.58</v>
       </c>
-      <c r="BJ193">
-        <v>2.18</v>
-      </c>
-      <c r="BK193">
-        <v>1.97</v>
-      </c>
-      <c r="BL193">
-        <v>1.74</v>
-      </c>
-      <c r="BM193">
-        <v>2.48</v>
-      </c>
-      <c r="BN193">
-        <v>1.47</v>
-      </c>
       <c r="BO193">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BP193">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41185,7 +41194,7 @@
         <v>93</v>
       </c>
       <c r="P194" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q194">
         <v>1.91</v>
@@ -41391,7 +41400,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41597,7 +41606,7 @@
         <v>93</v>
       </c>
       <c r="P196" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -41960,6 +41969,624 @@
       </c>
       <c r="BP197">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7465604</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45648.4375</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>88</v>
+      </c>
+      <c r="H198" t="s">
+        <v>77</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>224</v>
+      </c>
+      <c r="P198" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q198">
+        <v>2.5</v>
+      </c>
+      <c r="R198">
+        <v>2.6</v>
+      </c>
+      <c r="S198">
+        <v>3.4</v>
+      </c>
+      <c r="T198">
+        <v>1.22</v>
+      </c>
+      <c r="U198">
+        <v>4</v>
+      </c>
+      <c r="V198">
+        <v>2</v>
+      </c>
+      <c r="W198">
+        <v>1.73</v>
+      </c>
+      <c r="X198">
+        <v>4.33</v>
+      </c>
+      <c r="Y198">
+        <v>1.2</v>
+      </c>
+      <c r="Z198">
+        <v>2</v>
+      </c>
+      <c r="AA198">
+        <v>4.03</v>
+      </c>
+      <c r="AB198">
+        <v>3.24</v>
+      </c>
+      <c r="AC198">
+        <v>1.01</v>
+      </c>
+      <c r="AD198">
+        <v>11</v>
+      </c>
+      <c r="AE198">
+        <v>1.11</v>
+      </c>
+      <c r="AF198">
+        <v>6.5</v>
+      </c>
+      <c r="AG198">
+        <v>1.4</v>
+      </c>
+      <c r="AH198">
+        <v>2.88</v>
+      </c>
+      <c r="AI198">
+        <v>1.36</v>
+      </c>
+      <c r="AJ198">
+        <v>3</v>
+      </c>
+      <c r="AK198">
+        <v>1.36</v>
+      </c>
+      <c r="AL198">
+        <v>1.2</v>
+      </c>
+      <c r="AM198">
+        <v>1.78</v>
+      </c>
+      <c r="AN198">
+        <v>2.33</v>
+      </c>
+      <c r="AO198">
+        <v>1.11</v>
+      </c>
+      <c r="AP198">
+        <v>2.4</v>
+      </c>
+      <c r="AQ198">
+        <v>1</v>
+      </c>
+      <c r="AR198">
+        <v>1.99</v>
+      </c>
+      <c r="AS198">
+        <v>1.86</v>
+      </c>
+      <c r="AT198">
+        <v>3.85</v>
+      </c>
+      <c r="AU198">
+        <v>5</v>
+      </c>
+      <c r="AV198">
+        <v>2</v>
+      </c>
+      <c r="AW198">
+        <v>7</v>
+      </c>
+      <c r="AX198">
+        <v>6</v>
+      </c>
+      <c r="AY198">
+        <v>13</v>
+      </c>
+      <c r="AZ198">
+        <v>9</v>
+      </c>
+      <c r="BA198">
+        <v>7</v>
+      </c>
+      <c r="BB198">
+        <v>3</v>
+      </c>
+      <c r="BC198">
+        <v>10</v>
+      </c>
+      <c r="BD198">
+        <v>1.79</v>
+      </c>
+      <c r="BE198">
+        <v>6.5</v>
+      </c>
+      <c r="BF198">
+        <v>2.23</v>
+      </c>
+      <c r="BG198">
+        <v>1.25</v>
+      </c>
+      <c r="BH198">
+        <v>3.45</v>
+      </c>
+      <c r="BI198">
+        <v>1.44</v>
+      </c>
+      <c r="BJ198">
+        <v>2.55</v>
+      </c>
+      <c r="BK198">
+        <v>1.73</v>
+      </c>
+      <c r="BL198">
+        <v>1.98</v>
+      </c>
+      <c r="BM198">
+        <v>2.12</v>
+      </c>
+      <c r="BN198">
+        <v>1.64</v>
+      </c>
+      <c r="BO198">
+        <v>2.65</v>
+      </c>
+      <c r="BP198">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7465605</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45648.4375</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>73</v>
+      </c>
+      <c r="H199" t="s">
+        <v>81</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>3</v>
+      </c>
+      <c r="L199">
+        <v>5</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>6</v>
+      </c>
+      <c r="O199" t="s">
+        <v>225</v>
+      </c>
+      <c r="P199" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q199">
+        <v>3.5</v>
+      </c>
+      <c r="R199">
+        <v>2.38</v>
+      </c>
+      <c r="S199">
+        <v>2.63</v>
+      </c>
+      <c r="T199">
+        <v>1.29</v>
+      </c>
+      <c r="U199">
+        <v>3.5</v>
+      </c>
+      <c r="V199">
+        <v>2.38</v>
+      </c>
+      <c r="W199">
+        <v>1.53</v>
+      </c>
+      <c r="X199">
+        <v>5.5</v>
+      </c>
+      <c r="Y199">
+        <v>1.14</v>
+      </c>
+      <c r="Z199">
+        <v>3.13</v>
+      </c>
+      <c r="AA199">
+        <v>3.72</v>
+      </c>
+      <c r="AB199">
+        <v>2.14</v>
+      </c>
+      <c r="AC199">
+        <v>1.04</v>
+      </c>
+      <c r="AD199">
+        <v>10</v>
+      </c>
+      <c r="AE199">
+        <v>1.17</v>
+      </c>
+      <c r="AF199">
+        <v>5</v>
+      </c>
+      <c r="AG199">
+        <v>1.57</v>
+      </c>
+      <c r="AH199">
+        <v>2.35</v>
+      </c>
+      <c r="AI199">
+        <v>1.5</v>
+      </c>
+      <c r="AJ199">
+        <v>2.5</v>
+      </c>
+      <c r="AK199">
+        <v>1.72</v>
+      </c>
+      <c r="AL199">
+        <v>1.22</v>
+      </c>
+      <c r="AM199">
+        <v>1.38</v>
+      </c>
+      <c r="AN199">
+        <v>1.44</v>
+      </c>
+      <c r="AO199">
+        <v>1.2</v>
+      </c>
+      <c r="AP199">
+        <v>1.6</v>
+      </c>
+      <c r="AQ199">
+        <v>1.09</v>
+      </c>
+      <c r="AR199">
+        <v>1.72</v>
+      </c>
+      <c r="AS199">
+        <v>1.64</v>
+      </c>
+      <c r="AT199">
+        <v>3.36</v>
+      </c>
+      <c r="AU199">
+        <v>10</v>
+      </c>
+      <c r="AV199">
+        <v>4</v>
+      </c>
+      <c r="AW199">
+        <v>5</v>
+      </c>
+      <c r="AX199">
+        <v>4</v>
+      </c>
+      <c r="AY199">
+        <v>17</v>
+      </c>
+      <c r="AZ199">
+        <v>11</v>
+      </c>
+      <c r="BA199">
+        <v>4</v>
+      </c>
+      <c r="BB199">
+        <v>1</v>
+      </c>
+      <c r="BC199">
+        <v>5</v>
+      </c>
+      <c r="BD199">
+        <v>2.23</v>
+      </c>
+      <c r="BE199">
+        <v>6.4</v>
+      </c>
+      <c r="BF199">
+        <v>1.8</v>
+      </c>
+      <c r="BG199">
+        <v>1.3</v>
+      </c>
+      <c r="BH199">
+        <v>3.05</v>
+      </c>
+      <c r="BI199">
+        <v>1.53</v>
+      </c>
+      <c r="BJ199">
+        <v>2.32</v>
+      </c>
+      <c r="BK199">
+        <v>1.86</v>
+      </c>
+      <c r="BL199">
+        <v>1.82</v>
+      </c>
+      <c r="BM199">
+        <v>2.33</v>
+      </c>
+      <c r="BN199">
+        <v>1.5</v>
+      </c>
+      <c r="BO199">
+        <v>3.05</v>
+      </c>
+      <c r="BP199">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7465608</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45648.53125</v>
+      </c>
+      <c r="F200">
+        <v>20</v>
+      </c>
+      <c r="G200" t="s">
+        <v>76</v>
+      </c>
+      <c r="H200" t="s">
+        <v>74</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="O200" t="s">
+        <v>226</v>
+      </c>
+      <c r="P200" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q200">
+        <v>1.83</v>
+      </c>
+      <c r="R200">
+        <v>2.6</v>
+      </c>
+      <c r="S200">
+        <v>7</v>
+      </c>
+      <c r="T200">
+        <v>1.29</v>
+      </c>
+      <c r="U200">
+        <v>3.5</v>
+      </c>
+      <c r="V200">
+        <v>2.25</v>
+      </c>
+      <c r="W200">
+        <v>1.57</v>
+      </c>
+      <c r="X200">
+        <v>5.5</v>
+      </c>
+      <c r="Y200">
+        <v>1.14</v>
+      </c>
+      <c r="Z200">
+        <v>1.36</v>
+      </c>
+      <c r="AA200">
+        <v>5.21</v>
+      </c>
+      <c r="AB200">
+        <v>7.25</v>
+      </c>
+      <c r="AC200">
+        <v>1.01</v>
+      </c>
+      <c r="AD200">
+        <v>13</v>
+      </c>
+      <c r="AE200">
+        <v>1.16</v>
+      </c>
+      <c r="AF200">
+        <v>5</v>
+      </c>
+      <c r="AG200">
+        <v>1.53</v>
+      </c>
+      <c r="AH200">
+        <v>2.4</v>
+      </c>
+      <c r="AI200">
+        <v>1.8</v>
+      </c>
+      <c r="AJ200">
+        <v>1.91</v>
+      </c>
+      <c r="AK200">
+        <v>1.08</v>
+      </c>
+      <c r="AL200">
+        <v>1.12</v>
+      </c>
+      <c r="AM200">
+        <v>3.1</v>
+      </c>
+      <c r="AN200">
+        <v>1.8</v>
+      </c>
+      <c r="AO200">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP200">
+        <v>1.91</v>
+      </c>
+      <c r="AQ200">
+        <v>0.5</v>
+      </c>
+      <c r="AR200">
+        <v>1.75</v>
+      </c>
+      <c r="AS200">
+        <v>1.12</v>
+      </c>
+      <c r="AT200">
+        <v>2.87</v>
+      </c>
+      <c r="AU200">
+        <v>9</v>
+      </c>
+      <c r="AV200">
+        <v>5</v>
+      </c>
+      <c r="AW200">
+        <v>14</v>
+      </c>
+      <c r="AX200">
+        <v>5</v>
+      </c>
+      <c r="AY200">
+        <v>27</v>
+      </c>
+      <c r="AZ200">
+        <v>12</v>
+      </c>
+      <c r="BA200">
+        <v>7</v>
+      </c>
+      <c r="BB200">
+        <v>4</v>
+      </c>
+      <c r="BC200">
+        <v>11</v>
+      </c>
+      <c r="BD200">
+        <v>1.34</v>
+      </c>
+      <c r="BE200">
+        <v>7</v>
+      </c>
+      <c r="BF200">
+        <v>3.55</v>
+      </c>
+      <c r="BG200">
+        <v>1.33</v>
+      </c>
+      <c r="BH200">
+        <v>3</v>
+      </c>
+      <c r="BI200">
+        <v>1.54</v>
+      </c>
+      <c r="BJ200">
+        <v>2.3</v>
+      </c>
+      <c r="BK200">
+        <v>1.89</v>
+      </c>
+      <c r="BL200">
+        <v>1.8</v>
+      </c>
+      <c r="BM200">
+        <v>2.35</v>
+      </c>
+      <c r="BN200">
+        <v>1.5</v>
+      </c>
+      <c r="BO200">
+        <v>3.05</v>
+      </c>
+      <c r="BP200">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['5', '28', '90+1']</t>
   </si>
   <si>
     <t>['5', '18']</t>
@@ -1383,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1848,7 +1851,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2054,7 +2057,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2260,7 +2263,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2466,7 +2469,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2672,7 +2675,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2878,7 +2881,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3084,7 +3087,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3371,7 +3374,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ10">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3496,7 +3499,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3908,7 +3911,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4526,7 +4529,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5350,7 +5353,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5634,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
         <v>0.7</v>
@@ -6380,7 +6383,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6586,7 +6589,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6792,7 +6795,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -7204,7 +7207,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7285,7 +7288,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ29">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7616,7 +7619,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8234,7 +8237,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8440,7 +8443,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -9058,7 +9061,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9264,7 +9267,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9342,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ39">
         <v>1.7</v>
@@ -9676,7 +9679,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10294,7 +10297,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10500,7 +10503,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10706,7 +10709,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10912,7 +10915,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11118,7 +11121,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11530,7 +11533,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11736,7 +11739,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11942,7 +11945,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12023,7 +12026,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ52">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12435,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR54">
         <v>1.99</v>
@@ -12766,7 +12769,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13178,7 +13181,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13384,7 +13387,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13796,7 +13799,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -13874,7 +13877,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
         <v>1.3</v>
@@ -14002,7 +14005,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14208,7 +14211,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14826,7 +14829,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15238,7 +15241,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15444,7 +15447,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15650,7 +15653,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15856,7 +15859,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -16062,7 +16065,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16268,7 +16271,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16474,7 +16477,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16680,7 +16683,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16967,7 +16970,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -17298,7 +17301,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17504,7 +17507,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17788,7 +17791,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ80">
         <v>1.6</v>
@@ -17916,7 +17919,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18328,7 +18331,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18534,7 +18537,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -19152,7 +19155,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19358,7 +19361,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19770,7 +19773,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -20182,7 +20185,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20594,7 +20597,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20800,7 +20803,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21006,7 +21009,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21212,7 +21215,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21496,7 +21499,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ98">
         <v>0.5600000000000001</v>
@@ -21624,7 +21627,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22036,7 +22039,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22242,7 +22245,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22529,7 +22532,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ103">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22654,7 +22657,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -22938,7 +22941,7 @@
         <v>1.25</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ105">
         <v>1.11</v>
@@ -23066,7 +23069,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23147,7 +23150,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23684,7 +23687,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23890,7 +23893,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24096,7 +24099,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24302,7 +24305,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24714,7 +24717,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24920,7 +24923,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25126,7 +25129,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>3.2</v>
@@ -25332,7 +25335,7 @@
         <v>130</v>
       </c>
       <c r="P117" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q117">
         <v>2.3</v>
@@ -25538,7 +25541,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25744,7 +25747,7 @@
         <v>93</v>
       </c>
       <c r="P119" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>2.3</v>
@@ -25950,7 +25953,7 @@
         <v>93</v>
       </c>
       <c r="P120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q120">
         <v>2.63</v>
@@ -26156,7 +26159,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26362,7 +26365,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26568,7 +26571,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q123">
         <v>2.69</v>
@@ -26646,7 +26649,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ123">
         <v>1.11</v>
@@ -26774,7 +26777,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26980,7 +26983,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q125">
         <v>4.37</v>
@@ -27392,7 +27395,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27473,7 +27476,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ127">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR127">
         <v>1.8</v>
@@ -27598,7 +27601,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -28010,7 +28013,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28216,7 +28219,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28628,7 +28631,7 @@
         <v>93</v>
       </c>
       <c r="P133" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29246,7 +29249,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -30688,7 +30691,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30894,7 +30897,7 @@
         <v>188</v>
       </c>
       <c r="P144" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31100,7 +31103,7 @@
         <v>143</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31306,7 +31309,7 @@
         <v>93</v>
       </c>
       <c r="P146" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -31512,7 +31515,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31718,7 +31721,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31799,7 +31802,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ148">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR148">
         <v>1.46</v>
@@ -32002,7 +32005,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ149">
         <v>1.09</v>
@@ -32130,7 +32133,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q150">
         <v>1.91</v>
@@ -32336,7 +32339,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -32748,7 +32751,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32954,7 +32957,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33160,7 +33163,7 @@
         <v>195</v>
       </c>
       <c r="P155" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q155">
         <v>1.91</v>
@@ -34190,7 +34193,7 @@
         <v>144</v>
       </c>
       <c r="P160" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q160">
         <v>2.25</v>
@@ -34602,7 +34605,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -35220,7 +35223,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q165">
         <v>2.8</v>
@@ -35426,7 +35429,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -35632,7 +35635,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35838,7 +35841,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -36044,7 +36047,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q169">
         <v>1.78</v>
@@ -36250,7 +36253,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q170">
         <v>2.95</v>
@@ -36456,7 +36459,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36868,7 +36871,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37074,7 +37077,7 @@
         <v>209</v>
       </c>
       <c r="P174" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37692,7 +37695,7 @@
         <v>211</v>
       </c>
       <c r="P177" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -37898,7 +37901,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38182,7 +38185,7 @@
         <v>1.25</v>
       </c>
       <c r="AP179">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ179">
         <v>1</v>
@@ -38310,7 +38313,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38516,7 +38519,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q181">
         <v>3.75</v>
@@ -38597,7 +38600,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ181">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR181">
         <v>1.56</v>
@@ -39134,7 +39137,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q184">
         <v>3.65</v>
@@ -39340,7 +39343,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q185">
         <v>2.4</v>
@@ -39546,7 +39549,7 @@
         <v>93</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -40164,7 +40167,7 @@
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40576,7 +40579,7 @@
         <v>220</v>
       </c>
       <c r="P191" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q191">
         <v>2.3</v>
@@ -40782,7 +40785,7 @@
         <v>221</v>
       </c>
       <c r="P192" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -40988,7 +40991,7 @@
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41194,7 +41197,7 @@
         <v>93</v>
       </c>
       <c r="P194" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q194">
         <v>1.91</v>
@@ -41400,7 +41403,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41606,7 +41609,7 @@
         <v>93</v>
       </c>
       <c r="P196" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -42018,7 +42021,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42224,7 +42227,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42587,6 +42590,212 @@
       </c>
       <c r="BP200">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7465609</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45649.66666666666</v>
+      </c>
+      <c r="F201">
+        <v>20</v>
+      </c>
+      <c r="G201" t="s">
+        <v>89</v>
+      </c>
+      <c r="H201" t="s">
+        <v>82</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>3</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>4</v>
+      </c>
+      <c r="O201" t="s">
+        <v>227</v>
+      </c>
+      <c r="P201" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q201">
+        <v>3.5</v>
+      </c>
+      <c r="R201">
+        <v>2.4</v>
+      </c>
+      <c r="S201">
+        <v>2.63</v>
+      </c>
+      <c r="T201">
+        <v>1.29</v>
+      </c>
+      <c r="U201">
+        <v>3.5</v>
+      </c>
+      <c r="V201">
+        <v>2.25</v>
+      </c>
+      <c r="W201">
+        <v>1.57</v>
+      </c>
+      <c r="X201">
+        <v>5.5</v>
+      </c>
+      <c r="Y201">
+        <v>1.14</v>
+      </c>
+      <c r="Z201">
+        <v>3.27</v>
+      </c>
+      <c r="AA201">
+        <v>3.7</v>
+      </c>
+      <c r="AB201">
+        <v>2.08</v>
+      </c>
+      <c r="AC201">
+        <v>1.02</v>
+      </c>
+      <c r="AD201">
+        <v>17</v>
+      </c>
+      <c r="AE201">
+        <v>1.16</v>
+      </c>
+      <c r="AF201">
+        <v>5</v>
+      </c>
+      <c r="AG201">
+        <v>1.53</v>
+      </c>
+      <c r="AH201">
+        <v>2.4</v>
+      </c>
+      <c r="AI201">
+        <v>1.5</v>
+      </c>
+      <c r="AJ201">
+        <v>2.5</v>
+      </c>
+      <c r="AK201">
+        <v>1.72</v>
+      </c>
+      <c r="AL201">
+        <v>1.22</v>
+      </c>
+      <c r="AM201">
+        <v>1.36</v>
+      </c>
+      <c r="AN201">
+        <v>1</v>
+      </c>
+      <c r="AO201">
+        <v>1.3</v>
+      </c>
+      <c r="AP201">
+        <v>1.2</v>
+      </c>
+      <c r="AQ201">
+        <v>1.18</v>
+      </c>
+      <c r="AR201">
+        <v>1.61</v>
+      </c>
+      <c r="AS201">
+        <v>1.66</v>
+      </c>
+      <c r="AT201">
+        <v>3.27</v>
+      </c>
+      <c r="AU201">
+        <v>9</v>
+      </c>
+      <c r="AV201">
+        <v>8</v>
+      </c>
+      <c r="AW201">
+        <v>3</v>
+      </c>
+      <c r="AX201">
+        <v>6</v>
+      </c>
+      <c r="AY201">
+        <v>14</v>
+      </c>
+      <c r="AZ201">
+        <v>18</v>
+      </c>
+      <c r="BA201">
+        <v>3</v>
+      </c>
+      <c r="BB201">
+        <v>8</v>
+      </c>
+      <c r="BC201">
+        <v>11</v>
+      </c>
+      <c r="BD201">
+        <v>2.38</v>
+      </c>
+      <c r="BE201">
+        <v>7.2</v>
+      </c>
+      <c r="BF201">
+        <v>1.75</v>
+      </c>
+      <c r="BG201">
+        <v>1.2</v>
+      </c>
+      <c r="BH201">
+        <v>3.95</v>
+      </c>
+      <c r="BI201">
+        <v>1.29</v>
+      </c>
+      <c r="BJ201">
+        <v>3.25</v>
+      </c>
+      <c r="BK201">
+        <v>1.52</v>
+      </c>
+      <c r="BL201">
+        <v>2.32</v>
+      </c>
+      <c r="BM201">
+        <v>1.9</v>
+      </c>
+      <c r="BN201">
+        <v>1.78</v>
+      </c>
+      <c r="BO201">
+        <v>2.52</v>
+      </c>
+      <c r="BP201">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['5', '28', '90+1']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['5', '18']</t>
   </si>
   <si>
@@ -886,9 +889,6 @@
     <t>['54']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['48', '88']</t>
   </si>
   <si>
@@ -1025,6 +1025,9 @@
   </si>
   <si>
     <t>['16', '21', '56']</t>
+  </si>
+  <si>
+    <t>['22', '41', '82']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ2">
         <v>1.7</v>
@@ -1851,7 +1854,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1932,7 +1935,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ3">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2057,7 +2060,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2263,7 +2266,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2469,7 +2472,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2547,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ6">
         <v>1.55</v>
@@ -2675,7 +2678,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2881,7 +2884,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3087,7 +3090,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3168,7 +3171,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ9">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3499,7 +3502,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3911,7 +3914,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q13">
         <v>2.45</v>
@@ -4401,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4529,7 +4532,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -5353,7 +5356,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5640,7 +5643,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5843,7 +5846,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ22">
         <v>2.2</v>
@@ -6258,7 +6261,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR24">
         <v>2.49</v>
@@ -6383,7 +6386,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q25">
         <v>1.78</v>
@@ -6589,7 +6592,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6670,7 +6673,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ26">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR26">
         <v>1.18</v>
@@ -6795,7 +6798,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q27">
         <v>2.39</v>
@@ -6873,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ27">
         <v>0.9</v>
@@ -7207,7 +7210,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7494,7 +7497,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ30">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR30">
         <v>2.2</v>
@@ -7619,7 +7622,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -8237,7 +8240,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q34">
         <v>2.5</v>
@@ -8443,7 +8446,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q35">
         <v>3.6</v>
@@ -9061,7 +9064,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9267,7 +9270,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9679,7 +9682,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q41">
         <v>2.41</v>
@@ -10172,7 +10175,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR43">
         <v>1.9</v>
@@ -10297,7 +10300,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10503,7 +10506,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10709,7 +10712,7 @@
         <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>2.6</v>
@@ -10787,7 +10790,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ46">
         <v>1.3</v>
@@ -10915,7 +10918,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -11121,7 +11124,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11202,7 +11205,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR48">
         <v>1.9</v>
@@ -11405,10 +11408,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ49">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11533,7 +11536,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>2.1</v>
@@ -11739,7 +11742,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11817,7 +11820,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>1.09</v>
@@ -11945,7 +11948,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>2.77</v>
@@ -12641,7 +12644,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55">
         <v>1.11</v>
@@ -12769,7 +12772,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>2.3</v>
@@ -13181,7 +13184,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13387,7 +13390,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q59">
         <v>3.63</v>
@@ -13674,7 +13677,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ60">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR60">
         <v>1.64</v>
@@ -13799,7 +13802,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q61">
         <v>2.54</v>
@@ -14005,7 +14008,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14211,7 +14214,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>2.1</v>
@@ -14292,7 +14295,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14829,7 +14832,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -15116,7 +15119,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ67">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR67">
         <v>1.6</v>
@@ -15241,7 +15244,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15447,7 +15450,7 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15525,7 +15528,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ69">
         <v>1.55</v>
@@ -15653,7 +15656,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15859,7 +15862,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>3.75</v>
@@ -16065,7 +16068,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16271,7 +16274,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16477,7 +16480,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>1.83</v>
@@ -16555,7 +16558,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ74">
         <v>1.3</v>
@@ -16683,7 +16686,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q75">
         <v>1.82</v>
@@ -16967,7 +16970,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ76">
         <v>1.18</v>
@@ -17301,7 +17304,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17507,7 +17510,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17794,7 +17797,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ80">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR80">
         <v>1.68</v>
@@ -17919,7 +17922,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18331,7 +18334,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>2.7</v>
@@ -18412,7 +18415,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18537,7 +18540,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q84">
         <v>4.1</v>
@@ -18615,7 +18618,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ84">
         <v>1.11</v>
@@ -19155,7 +19158,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19361,7 +19364,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q88">
         <v>2.1</v>
@@ -19442,7 +19445,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ88">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR88">
         <v>1.89</v>
@@ -19773,7 +19776,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q90">
         <v>3.04</v>
@@ -20185,7 +20188,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20597,7 +20600,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20803,7 +20806,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20884,7 +20887,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ95">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR95">
         <v>1.66</v>
@@ -21009,7 +21012,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -21087,7 +21090,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ96">
         <v>1.09</v>
@@ -21215,7 +21218,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21296,7 +21299,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR97">
         <v>1.77</v>
@@ -21627,7 +21630,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21705,7 +21708,7 @@
         <v>2.25</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ99">
         <v>2.11</v>
@@ -22039,7 +22042,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22117,10 +22120,10 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ101">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR101">
         <v>1.83</v>
@@ -22245,7 +22248,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>2.05</v>
@@ -22657,7 +22660,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q104">
         <v>3.75</v>
@@ -23069,7 +23072,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23687,7 +23690,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -24923,7 +24926,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -25207,7 +25210,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ116">
         <v>1.3</v>
@@ -25825,7 +25828,7 @@
         <v>1.8</v>
       </c>
       <c r="AP119">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ119">
         <v>2.2</v>
@@ -26777,7 +26780,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>2.26</v>
@@ -26858,7 +26861,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ124">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR124">
         <v>1.75</v>
@@ -27061,7 +27064,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ125">
         <v>1.11</v>
@@ -27395,7 +27398,7 @@
         <v>145</v>
       </c>
       <c r="P127" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q127">
         <v>2.85</v>
@@ -27682,7 +27685,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ128">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -28094,7 +28097,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ130">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR130">
         <v>1.33</v>
@@ -28915,7 +28918,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ134">
         <v>1.7</v>
@@ -29533,7 +29536,7 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ137">
         <v>1.55</v>
@@ -30691,7 +30694,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30769,10 +30772,10 @@
         <v>0.43</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ143">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR143">
         <v>1.29</v>
@@ -30978,7 +30981,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ144">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR144">
         <v>1.68</v>
@@ -31184,7 +31187,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ145">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR145">
         <v>1.6</v>
@@ -34605,7 +34608,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q162">
         <v>2.55</v>
@@ -34889,7 +34892,7 @@
         <v>1.13</v>
       </c>
       <c r="AP163">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ163">
         <v>0.9</v>
@@ -35095,7 +35098,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ164">
         <v>1.3</v>
@@ -35304,7 +35307,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ165">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR165">
         <v>1.91</v>
@@ -35635,7 +35638,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35919,7 +35922,7 @@
         <v>0.57</v>
       </c>
       <c r="AP168">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ168">
         <v>0.5600000000000001</v>
@@ -36334,7 +36337,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ170">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR170">
         <v>1.8</v>
@@ -36540,7 +36543,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ171">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR171">
         <v>1.87</v>
@@ -37901,7 +37904,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -39012,7 +39015,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ183">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR183">
         <v>1.89</v>
@@ -39421,7 +39424,7 @@
         <v>0.88</v>
       </c>
       <c r="AP185">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ185">
         <v>1.11</v>
@@ -39833,10 +39836,10 @@
         <v>1.67</v>
       </c>
       <c r="AP187">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ187">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR187">
         <v>1.79</v>
@@ -40042,7 +40045,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ188">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR188">
         <v>1.68</v>
@@ -40167,7 +40170,7 @@
         <v>219</v>
       </c>
       <c r="P189" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40245,7 +40248,7 @@
         <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ189">
         <v>0.9</v>
@@ -42639,7 +42642,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42796,6 +42799,624 @@
       </c>
       <c r="BP201">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7465620</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45667.66666666666</v>
+      </c>
+      <c r="F202">
+        <v>21</v>
+      </c>
+      <c r="G202" t="s">
+        <v>70</v>
+      </c>
+      <c r="H202" t="s">
+        <v>88</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="K202">
+        <v>3</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>3</v>
+      </c>
+      <c r="N202">
+        <v>4</v>
+      </c>
+      <c r="O202" t="s">
+        <v>140</v>
+      </c>
+      <c r="P202" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q202">
+        <v>3.75</v>
+      </c>
+      <c r="R202">
+        <v>2.4</v>
+      </c>
+      <c r="S202">
+        <v>2.5</v>
+      </c>
+      <c r="T202">
+        <v>1.29</v>
+      </c>
+      <c r="U202">
+        <v>3.5</v>
+      </c>
+      <c r="V202">
+        <v>2.38</v>
+      </c>
+      <c r="W202">
+        <v>1.53</v>
+      </c>
+      <c r="X202">
+        <v>5.5</v>
+      </c>
+      <c r="Y202">
+        <v>1.14</v>
+      </c>
+      <c r="Z202">
+        <v>3.4</v>
+      </c>
+      <c r="AA202">
+        <v>3.8</v>
+      </c>
+      <c r="AB202">
+        <v>1.95</v>
+      </c>
+      <c r="AC202">
+        <v>1.02</v>
+      </c>
+      <c r="AD202">
+        <v>17</v>
+      </c>
+      <c r="AE202">
+        <v>1.17</v>
+      </c>
+      <c r="AF202">
+        <v>5</v>
+      </c>
+      <c r="AG202">
+        <v>1.57</v>
+      </c>
+      <c r="AH202">
+        <v>2.35</v>
+      </c>
+      <c r="AI202">
+        <v>1.5</v>
+      </c>
+      <c r="AJ202">
+        <v>2.5</v>
+      </c>
+      <c r="AK202">
+        <v>1.83</v>
+      </c>
+      <c r="AL202">
+        <v>1.2</v>
+      </c>
+      <c r="AM202">
+        <v>1.33</v>
+      </c>
+      <c r="AN202">
+        <v>1</v>
+      </c>
+      <c r="AO202">
+        <v>1.6</v>
+      </c>
+      <c r="AP202">
+        <v>0.9</v>
+      </c>
+      <c r="AQ202">
+        <v>1.73</v>
+      </c>
+      <c r="AR202">
+        <v>1.4</v>
+      </c>
+      <c r="AS202">
+        <v>1.5</v>
+      </c>
+      <c r="AT202">
+        <v>2.9</v>
+      </c>
+      <c r="AU202">
+        <v>3</v>
+      </c>
+      <c r="AV202">
+        <v>7</v>
+      </c>
+      <c r="AW202">
+        <v>6</v>
+      </c>
+      <c r="AX202">
+        <v>8</v>
+      </c>
+      <c r="AY202">
+        <v>9</v>
+      </c>
+      <c r="AZ202">
+        <v>15</v>
+      </c>
+      <c r="BA202">
+        <v>2</v>
+      </c>
+      <c r="BB202">
+        <v>4</v>
+      </c>
+      <c r="BC202">
+        <v>6</v>
+      </c>
+      <c r="BD202">
+        <v>2.4</v>
+      </c>
+      <c r="BE202">
+        <v>6.4</v>
+      </c>
+      <c r="BF202">
+        <v>1.7</v>
+      </c>
+      <c r="BG202">
+        <v>1.3</v>
+      </c>
+      <c r="BH202">
+        <v>3.05</v>
+      </c>
+      <c r="BI202">
+        <v>1.54</v>
+      </c>
+      <c r="BJ202">
+        <v>2.3</v>
+      </c>
+      <c r="BK202">
+        <v>1.88</v>
+      </c>
+      <c r="BL202">
+        <v>1.81</v>
+      </c>
+      <c r="BM202">
+        <v>2.35</v>
+      </c>
+      <c r="BN202">
+        <v>1.5</v>
+      </c>
+      <c r="BO202">
+        <v>3.05</v>
+      </c>
+      <c r="BP202">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7465619</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45667.66666666666</v>
+      </c>
+      <c r="F203">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>74</v>
+      </c>
+      <c r="H203" t="s">
+        <v>73</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>228</v>
+      </c>
+      <c r="P203" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q203">
+        <v>3</v>
+      </c>
+      <c r="R203">
+        <v>2.38</v>
+      </c>
+      <c r="S203">
+        <v>3.1</v>
+      </c>
+      <c r="T203">
+        <v>1.3</v>
+      </c>
+      <c r="U203">
+        <v>3.4</v>
+      </c>
+      <c r="V203">
+        <v>2.38</v>
+      </c>
+      <c r="W203">
+        <v>1.53</v>
+      </c>
+      <c r="X203">
+        <v>6</v>
+      </c>
+      <c r="Y203">
+        <v>1.13</v>
+      </c>
+      <c r="Z203">
+        <v>2.55</v>
+      </c>
+      <c r="AA203">
+        <v>3.5</v>
+      </c>
+      <c r="AB203">
+        <v>2.6</v>
+      </c>
+      <c r="AC203">
+        <v>1.02</v>
+      </c>
+      <c r="AD203">
+        <v>17</v>
+      </c>
+      <c r="AE203">
+        <v>1.18</v>
+      </c>
+      <c r="AF203">
+        <v>4.75</v>
+      </c>
+      <c r="AG203">
+        <v>1.6</v>
+      </c>
+      <c r="AH203">
+        <v>2.3</v>
+      </c>
+      <c r="AI203">
+        <v>1.5</v>
+      </c>
+      <c r="AJ203">
+        <v>2.5</v>
+      </c>
+      <c r="AK203">
+        <v>1.5</v>
+      </c>
+      <c r="AL203">
+        <v>1.25</v>
+      </c>
+      <c r="AM203">
+        <v>1.53</v>
+      </c>
+      <c r="AN203">
+        <v>1.7</v>
+      </c>
+      <c r="AO203">
+        <v>0.7</v>
+      </c>
+      <c r="AP203">
+        <v>1.82</v>
+      </c>
+      <c r="AQ203">
+        <v>0.64</v>
+      </c>
+      <c r="AR203">
+        <v>1.33</v>
+      </c>
+      <c r="AS203">
+        <v>1.17</v>
+      </c>
+      <c r="AT203">
+        <v>2.5</v>
+      </c>
+      <c r="AU203">
+        <v>7</v>
+      </c>
+      <c r="AV203">
+        <v>3</v>
+      </c>
+      <c r="AW203">
+        <v>9</v>
+      </c>
+      <c r="AX203">
+        <v>16</v>
+      </c>
+      <c r="AY203">
+        <v>16</v>
+      </c>
+      <c r="AZ203">
+        <v>19</v>
+      </c>
+      <c r="BA203">
+        <v>6</v>
+      </c>
+      <c r="BB203">
+        <v>9</v>
+      </c>
+      <c r="BC203">
+        <v>15</v>
+      </c>
+      <c r="BD203">
+        <v>1.95</v>
+      </c>
+      <c r="BE203">
+        <v>6.4</v>
+      </c>
+      <c r="BF203">
+        <v>2.05</v>
+      </c>
+      <c r="BG203">
+        <v>1.32</v>
+      </c>
+      <c r="BH203">
+        <v>3.05</v>
+      </c>
+      <c r="BI203">
+        <v>1.56</v>
+      </c>
+      <c r="BJ203">
+        <v>2.23</v>
+      </c>
+      <c r="BK203">
+        <v>1.92</v>
+      </c>
+      <c r="BL203">
+        <v>1.77</v>
+      </c>
+      <c r="BM203">
+        <v>2.43</v>
+      </c>
+      <c r="BN203">
+        <v>1.49</v>
+      </c>
+      <c r="BO203">
+        <v>3.15</v>
+      </c>
+      <c r="BP203">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7465613</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45667.66666666666</v>
+      </c>
+      <c r="F204">
+        <v>21</v>
+      </c>
+      <c r="G204" t="s">
+        <v>83</v>
+      </c>
+      <c r="H204" t="s">
+        <v>86</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204" t="s">
+        <v>144</v>
+      </c>
+      <c r="P204" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q204">
+        <v>2</v>
+      </c>
+      <c r="R204">
+        <v>2.6</v>
+      </c>
+      <c r="S204">
+        <v>5</v>
+      </c>
+      <c r="T204">
+        <v>1.25</v>
+      </c>
+      <c r="U204">
+        <v>3.75</v>
+      </c>
+      <c r="V204">
+        <v>2.1</v>
+      </c>
+      <c r="W204">
+        <v>1.67</v>
+      </c>
+      <c r="X204">
+        <v>4.5</v>
+      </c>
+      <c r="Y204">
+        <v>1.18</v>
+      </c>
+      <c r="Z204">
+        <v>1.5</v>
+      </c>
+      <c r="AA204">
+        <v>4.2</v>
+      </c>
+      <c r="AB204">
+        <v>5.75</v>
+      </c>
+      <c r="AC204">
+        <v>1.01</v>
+      </c>
+      <c r="AD204">
+        <v>19</v>
+      </c>
+      <c r="AE204">
+        <v>1.12</v>
+      </c>
+      <c r="AF204">
+        <v>6</v>
+      </c>
+      <c r="AG204">
+        <v>1.44</v>
+      </c>
+      <c r="AH204">
+        <v>2.7</v>
+      </c>
+      <c r="AI204">
+        <v>1.53</v>
+      </c>
+      <c r="AJ204">
+        <v>2.38</v>
+      </c>
+      <c r="AK204">
+        <v>1.15</v>
+      </c>
+      <c r="AL204">
+        <v>1.15</v>
+      </c>
+      <c r="AM204">
+        <v>2.6</v>
+      </c>
+      <c r="AN204">
+        <v>2.44</v>
+      </c>
+      <c r="AO204">
+        <v>1.6</v>
+      </c>
+      <c r="AP204">
+        <v>2.5</v>
+      </c>
+      <c r="AQ204">
+        <v>1.45</v>
+      </c>
+      <c r="AR204">
+        <v>1.76</v>
+      </c>
+      <c r="AS204">
+        <v>1.35</v>
+      </c>
+      <c r="AT204">
+        <v>3.11</v>
+      </c>
+      <c r="AU204">
+        <v>3</v>
+      </c>
+      <c r="AV204">
+        <v>2</v>
+      </c>
+      <c r="AW204">
+        <v>6</v>
+      </c>
+      <c r="AX204">
+        <v>7</v>
+      </c>
+      <c r="AY204">
+        <v>9</v>
+      </c>
+      <c r="AZ204">
+        <v>9</v>
+      </c>
+      <c r="BA204">
+        <v>6</v>
+      </c>
+      <c r="BB204">
+        <v>4</v>
+      </c>
+      <c r="BC204">
+        <v>10</v>
+      </c>
+      <c r="BD204">
+        <v>1.46</v>
+      </c>
+      <c r="BE204">
+        <v>6.75</v>
+      </c>
+      <c r="BF204">
+        <v>3.05</v>
+      </c>
+      <c r="BG204">
+        <v>1.28</v>
+      </c>
+      <c r="BH204">
+        <v>3.3</v>
+      </c>
+      <c r="BI204">
+        <v>1.49</v>
+      </c>
+      <c r="BJ204">
+        <v>2.4</v>
+      </c>
+      <c r="BK204">
+        <v>1.79</v>
+      </c>
+      <c r="BL204">
+        <v>1.9</v>
+      </c>
+      <c r="BM204">
+        <v>2.23</v>
+      </c>
+      <c r="BN204">
+        <v>1.57</v>
+      </c>
+      <c r="BO204">
+        <v>2.8</v>
+      </c>
+      <c r="BP204">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
